--- a/data/source/pedpancan_mapping.xlsx
+++ b/data/source/pedpancan_mapping.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11008"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11210"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rkenkre/Desktop/pedpancancer/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ochapman/projects/pedpancan_ecdna/data/source/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0C5A365-7866-7F40-96A9-058785B087EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F657600F-D32C-604C-93A3-B9737DA41E9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="840" yWindow="1560" windowWidth="20080" windowHeight="16440" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="mapping" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1620" uniqueCount="341">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1673" uniqueCount="369">
   <si>
     <t>Column</t>
   </si>
@@ -1045,13 +1045,97 @@
   </si>
   <si>
     <t>TALLNOS</t>
+  </si>
+  <si>
+    <t>Note</t>
+  </si>
+  <si>
+    <t>I have no idea where to put a CNS_BCOR_ITD (CNS tumor, BCOR internal tandem dup) but I don't see justification for calling it a DNET</t>
+  </si>
+  <si>
+    <t>*1 Combine GM and TT into a GCT class?</t>
+  </si>
+  <si>
+    <t>*1</t>
+  </si>
+  <si>
+    <t>Should be SEGA?</t>
+  </si>
+  <si>
+    <t>Should be GNT?</t>
+  </si>
+  <si>
+    <t>No idea what to do with a PLNTY (polymorphous low grade brain tumor of the young) but I don't see any connection with meningioma</t>
+  </si>
+  <si>
+    <t>BTNOS?</t>
+  </si>
+  <si>
+    <t>Should be CPG?</t>
+  </si>
+  <si>
+    <t>We already have a MG class for meningioma. Although, I think MNG would be better than MG because nature disapproves of 2-letter abbreviations.</t>
+  </si>
+  <si>
+    <t>Should be GCT?</t>
+  </si>
+  <si>
+    <t>Glioma, not otherwise specified. Not specific enough to call it a ganglioglioma.</t>
+  </si>
+  <si>
+    <t>Should be DNET? Also, this is a duplicate entry of DNT -&gt; DNET above.</t>
+  </si>
+  <si>
+    <t>Should be GNT? Also duplicate of LGGNT &gt; GG above.</t>
+  </si>
+  <si>
+    <t>Should be NBL?</t>
+  </si>
+  <si>
+    <t>Shouldn be CRD?</t>
+  </si>
+  <si>
+    <t>Should be RHB?</t>
+  </si>
+  <si>
+    <t>Should Be NFP?</t>
+  </si>
+  <si>
+    <t>Duplicate of WTB &gt; WLM below</t>
+  </si>
+  <si>
+    <t>*2 Since we don't discuss hematopoetic malignancies, I think we should lump all blood cancers into a HM group</t>
+  </si>
+  <si>
+    <t>Duplicate of ACC &gt; ACT above</t>
+  </si>
+  <si>
+    <t>Why rename it?</t>
+  </si>
+  <si>
+    <t>Duplicate of EWS &gt; EWS above</t>
+  </si>
+  <si>
+    <t>*2</t>
+  </si>
+  <si>
+    <t>*3 We discussed moving on to the next priority order if we encounter a control sample</t>
+  </si>
+  <si>
+    <t>All other astrocytomas are being classed as HGG or LGG, but no idea which one this should go to.</t>
+  </si>
+  <si>
+    <t>*3</t>
+  </si>
+  <si>
+    <t>We already have an EP class for ependymoma. But I like EPN better, see the MG/MNG comment.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="19" x14ac:knownFonts="1">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1193,8 +1277,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="36">
+  <fills count="37">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1392,6 +1482,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="10">
     <border>
@@ -1553,14 +1649,16 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="18" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="18" fillId="36" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1919,7 +2017,7 @@
   <dimension ref="A1:C172"/>
   <sheetViews>
     <sheetView topLeftCell="A90" workbookViewId="0">
-      <selection activeCell="A98" sqref="A98:XFD98"/>
+      <selection activeCell="B108" sqref="B108"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3827,20 +3925,21 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:C305"/>
+  <dimension ref="A1:D305"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A135" workbookViewId="0">
-      <selection activeCell="B147" sqref="B147"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="28.6640625" customWidth="1"/>
     <col min="2" max="2" width="72.83203125" customWidth="1"/>
-    <col min="3" max="3" width="78.83203125" customWidth="1"/>
+    <col min="3" max="3" width="18.5" customWidth="1"/>
+    <col min="4" max="16384" width="10.83203125" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -3850,8 +3949,11 @@
       <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D1" s="4" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
         <v>3</v>
       </c>
@@ -3862,7 +3964,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
         <v>3</v>
       </c>
@@ -3873,7 +3975,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
         <v>3</v>
       </c>
@@ -3884,7 +3986,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
         <v>3</v>
       </c>
@@ -3895,7 +3997,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
         <v>9</v>
       </c>
@@ -3906,7 +4008,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
         <v>12</v>
       </c>
@@ -3917,7 +4019,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
         <v>9</v>
       </c>
@@ -3928,7 +4030,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
         <v>9</v>
       </c>
@@ -3939,7 +4041,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
         <v>12</v>
       </c>
@@ -3950,7 +4052,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A11" s="4" t="s">
         <v>12</v>
       </c>
@@ -3961,7 +4063,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A12" s="4" t="s">
         <v>12</v>
       </c>
@@ -3972,7 +4074,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A13" s="4" t="s">
         <v>12</v>
       </c>
@@ -3983,7 +4085,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A14" s="4" t="s">
         <v>12</v>
       </c>
@@ -3994,7 +4096,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A15" s="4" t="s">
         <v>12</v>
       </c>
@@ -4005,7 +4107,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A16" s="4" t="s">
         <v>12</v>
       </c>
@@ -4016,7 +4118,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A17" s="4" t="s">
         <v>12</v>
       </c>
@@ -4027,7 +4129,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A18" s="4" t="s">
         <v>9</v>
       </c>
@@ -4038,7 +4140,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A19" s="4" t="s">
         <v>3</v>
       </c>
@@ -4049,7 +4151,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A20" s="4" t="s">
         <v>3</v>
       </c>
@@ -4060,7 +4162,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A21" s="4" t="s">
         <v>29</v>
       </c>
@@ -4071,7 +4173,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A22" s="4" t="s">
         <v>9</v>
       </c>
@@ -4082,7 +4184,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A23" s="4" t="s">
         <v>9</v>
       </c>
@@ -4093,7 +4195,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A24" s="4" t="s">
         <v>12</v>
       </c>
@@ -4104,7 +4206,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A25" s="4" t="s">
         <v>12</v>
       </c>
@@ -4115,7 +4217,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A26" s="4" t="s">
         <v>3</v>
       </c>
@@ -4126,7 +4228,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A27" s="4" t="s">
         <v>3</v>
       </c>
@@ -4137,7 +4239,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A28" s="4" t="s">
         <v>12</v>
       </c>
@@ -4148,7 +4250,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A29" s="4" t="s">
         <v>12</v>
       </c>
@@ -4159,7 +4261,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A30" s="4" t="s">
         <v>12</v>
       </c>
@@ -4170,7 +4272,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A31" s="4" t="s">
         <v>12</v>
       </c>
@@ -4181,7 +4283,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A32" s="4" t="s">
         <v>9</v>
       </c>
@@ -4192,7 +4294,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A33" s="4" t="s">
         <v>12</v>
       </c>
@@ -4203,18 +4305,21 @@
         <v>51</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A34" s="4" t="s">
+    <row r="34" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B34" s="4" t="s">
+      <c r="B34" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="C34" s="4" t="s">
+      <c r="C34" s="5" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D34" s="1" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A35" s="4" t="s">
         <v>3</v>
       </c>
@@ -4225,7 +4330,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A36" s="4" t="s">
         <v>3</v>
       </c>
@@ -4236,7 +4341,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A37" s="4" t="s">
         <v>3</v>
       </c>
@@ -4247,7 +4352,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A38" s="4" t="s">
         <v>3</v>
       </c>
@@ -4258,7 +4363,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A39" s="4" t="s">
         <v>3</v>
       </c>
@@ -4269,7 +4374,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A40" s="4" t="s">
         <v>3</v>
       </c>
@@ -4280,7 +4385,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A41" s="4" t="s">
         <v>3</v>
       </c>
@@ -4291,7 +4396,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A42" s="4" t="s">
         <v>3</v>
       </c>
@@ -4302,7 +4407,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A43" s="4" t="s">
         <v>3</v>
       </c>
@@ -4313,7 +4418,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A44" s="4" t="s">
         <v>9</v>
       </c>
@@ -4324,7 +4429,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A45" s="4" t="s">
         <v>3</v>
       </c>
@@ -4335,7 +4440,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A46" s="4" t="s">
         <v>3</v>
       </c>
@@ -4346,7 +4451,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A47" s="4" t="s">
         <v>3</v>
       </c>
@@ -4357,7 +4462,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A48" s="4" t="s">
         <v>3</v>
       </c>
@@ -4368,7 +4473,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A49" s="4" t="s">
         <v>3</v>
       </c>
@@ -4379,7 +4484,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A50" s="4" t="s">
         <v>3</v>
       </c>
@@ -4390,7 +4495,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A51" s="4" t="s">
         <v>3</v>
       </c>
@@ -4401,7 +4506,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A52" s="4" t="s">
         <v>3</v>
       </c>
@@ -4412,7 +4517,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A53" s="4" t="s">
         <v>3</v>
       </c>
@@ -4423,7 +4528,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A54" s="4" t="s">
         <v>3</v>
       </c>
@@ -4434,7 +4539,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A55" s="4" t="s">
         <v>3</v>
       </c>
@@ -4445,7 +4550,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A56" s="4" t="s">
         <v>3</v>
       </c>
@@ -4456,7 +4561,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A57" s="4" t="s">
         <v>3</v>
       </c>
@@ -4467,7 +4572,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A58" s="4" t="s">
         <v>3</v>
       </c>
@@ -4478,7 +4583,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A59" s="4" t="s">
         <v>3</v>
       </c>
@@ -4489,7 +4594,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A60" s="4" t="s">
         <v>3</v>
       </c>
@@ -4500,29 +4605,35 @@
         <v>74</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A61" s="4" t="s">
+    <row r="61" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A61" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B61" s="4" t="s">
+      <c r="B61" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="C61" s="4" t="s">
+      <c r="C61" s="5" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A62" s="4" t="s">
+      <c r="D61" s="1" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A62" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B62" s="4" t="s">
+      <c r="B62" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="C62" s="4" t="s">
+      <c r="C62" s="5" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D62" s="1" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A63" s="4" t="s">
         <v>9</v>
       </c>
@@ -4533,7 +4644,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A64" s="4" t="s">
         <v>12</v>
       </c>
@@ -4544,7 +4655,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A65" s="4" t="s">
         <v>3</v>
       </c>
@@ -4555,7 +4666,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A66" s="4" t="s">
         <v>3</v>
       </c>
@@ -4566,7 +4677,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A67" s="4" t="s">
         <v>3</v>
       </c>
@@ -4577,7 +4688,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A68" s="4" t="s">
         <v>3</v>
       </c>
@@ -4588,7 +4699,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A69" s="4" t="s">
         <v>3</v>
       </c>
@@ -4599,7 +4710,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A70" s="4" t="s">
         <v>3</v>
       </c>
@@ -4610,7 +4721,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A71" s="4" t="s">
         <v>3</v>
       </c>
@@ -4621,7 +4732,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A72" s="4" t="s">
         <v>3</v>
       </c>
@@ -4632,7 +4743,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A73" s="4" t="s">
         <v>3</v>
       </c>
@@ -4643,7 +4754,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A74" s="4" t="s">
         <v>3</v>
       </c>
@@ -4654,7 +4765,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A75" s="4" t="s">
         <v>3</v>
       </c>
@@ -4665,7 +4776,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A76" s="4" t="s">
         <v>3</v>
       </c>
@@ -4676,7 +4787,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A77" s="4" t="s">
         <v>3</v>
       </c>
@@ -4687,7 +4798,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A78" s="4" t="s">
         <v>3</v>
       </c>
@@ -4698,7 +4809,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A79" s="4" t="s">
         <v>3</v>
       </c>
@@ -4709,7 +4820,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A80" s="4" t="s">
         <v>3</v>
       </c>
@@ -4720,7 +4831,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A81" s="4" t="s">
         <v>3</v>
       </c>
@@ -4731,7 +4842,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A82" s="4" t="s">
         <v>3</v>
       </c>
@@ -4742,7 +4853,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A83" s="4" t="s">
         <v>3</v>
       </c>
@@ -4753,7 +4864,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A84" s="4" t="s">
         <v>3</v>
       </c>
@@ -4764,7 +4875,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A85" s="4" t="s">
         <v>29</v>
       </c>
@@ -4775,7 +4886,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="86" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:3" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A86" s="4" t="s">
         <v>29</v>
       </c>
@@ -4786,7 +4897,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A87" s="4" t="s">
         <v>9</v>
       </c>
@@ -4797,7 +4908,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A88" s="4" t="s">
         <v>12</v>
       </c>
@@ -4808,7 +4919,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A89" s="4" t="s">
         <v>3</v>
       </c>
@@ -4819,7 +4930,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A90" s="4" t="s">
         <v>3</v>
       </c>
@@ -4830,7 +4941,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A91" s="4" t="s">
         <v>3</v>
       </c>
@@ -4841,7 +4952,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A92" s="4" t="s">
         <v>3</v>
       </c>
@@ -4852,7 +4963,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A93" s="4" t="s">
         <v>3</v>
       </c>
@@ -4863,7 +4974,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A94" s="4" t="s">
         <v>3</v>
       </c>
@@ -4874,7 +4985,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A95" s="4" t="s">
         <v>3</v>
       </c>
@@ -4885,7 +4996,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A96" s="4" t="s">
         <v>3</v>
       </c>
@@ -4896,7 +5007,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A97" s="4" t="s">
         <v>3</v>
       </c>
@@ -4907,7 +5018,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A98" s="4" t="s">
         <v>3</v>
       </c>
@@ -4918,7 +5029,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A99" s="4" t="s">
         <v>3</v>
       </c>
@@ -4929,7 +5040,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A100" s="4" t="s">
         <v>3</v>
       </c>
@@ -4940,7 +5051,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A101" s="4" t="s">
         <v>3</v>
       </c>
@@ -4951,7 +5062,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A102" s="4" t="s">
         <v>3</v>
       </c>
@@ -4962,7 +5073,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A103" s="4" t="s">
         <v>3</v>
       </c>
@@ -4973,7 +5084,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A104" s="4" t="s">
         <v>3</v>
       </c>
@@ -4984,7 +5095,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A105" s="4" t="s">
         <v>3</v>
       </c>
@@ -4995,7 +5106,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A106" s="4" t="s">
         <v>3</v>
       </c>
@@ -5006,7 +5117,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A107" s="4" t="s">
         <v>3</v>
       </c>
@@ -5017,7 +5128,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A108" s="4" t="s">
         <v>3</v>
       </c>
@@ -5028,7 +5139,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A109" s="4" t="s">
         <v>3</v>
       </c>
@@ -5039,18 +5150,21 @@
         <v>119</v>
       </c>
     </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A110" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B110" s="4" t="s">
+    <row r="110" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A110" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B110" s="5" t="s">
         <v>150</v>
       </c>
-      <c r="C110" s="4" t="s">
+      <c r="C110" s="5" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D110" s="1" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A111" s="4" t="s">
         <v>3</v>
       </c>
@@ -5061,7 +5175,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A112" s="4" t="s">
         <v>3</v>
       </c>
@@ -5072,18 +5186,21 @@
         <v>119</v>
       </c>
     </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A113" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B113" s="4" t="s">
+    <row r="113" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A113" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B113" s="5" t="s">
         <v>153</v>
       </c>
-      <c r="C113" s="4" t="s">
+      <c r="C113" s="5" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D113" s="1" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A114" s="4" t="s">
         <v>3</v>
       </c>
@@ -5094,7 +5211,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A115" s="4" t="s">
         <v>3</v>
       </c>
@@ -5105,18 +5222,21 @@
         <v>119</v>
       </c>
     </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A116" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B116" s="4" t="s">
+    <row r="116" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A116" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B116" s="5" t="s">
         <v>156</v>
       </c>
-      <c r="C116" s="4" t="s">
+      <c r="C116" s="5" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D116" s="1" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A117" s="4" t="s">
         <v>3</v>
       </c>
@@ -5127,7 +5247,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A118" s="4" t="s">
         <v>3</v>
       </c>
@@ -5138,7 +5258,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A119" s="4" t="s">
         <v>3</v>
       </c>
@@ -5149,7 +5269,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A120" s="4" t="s">
         <v>3</v>
       </c>
@@ -5160,7 +5280,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A121" s="4" t="s">
         <v>3</v>
       </c>
@@ -5171,7 +5291,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A122" s="4" t="s">
         <v>9</v>
       </c>
@@ -5182,7 +5302,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A123" s="4" t="s">
         <v>35</v>
       </c>
@@ -5193,7 +5313,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A124" s="4" t="s">
         <v>9</v>
       </c>
@@ -5204,7 +5324,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A125" s="4" t="s">
         <v>9</v>
       </c>
@@ -5215,7 +5335,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A126" s="4" t="s">
         <v>12</v>
       </c>
@@ -5226,7 +5346,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A127" s="4" t="s">
         <v>12</v>
       </c>
@@ -5237,7 +5357,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A128" s="4" t="s">
         <v>9</v>
       </c>
@@ -5248,7 +5368,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A129" s="4" t="s">
         <v>9</v>
       </c>
@@ -5259,7 +5379,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A130" s="4" t="s">
         <v>9</v>
       </c>
@@ -5270,18 +5390,21 @@
         <v>165</v>
       </c>
     </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A131" s="4" t="s">
+    <row r="131" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A131" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B131" s="4" t="s">
+      <c r="B131" s="5" t="s">
         <v>174</v>
       </c>
-      <c r="C131" s="4" t="s">
+      <c r="C131" s="5" t="s">
         <v>165</v>
       </c>
-    </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D131" s="1" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A132" s="4" t="s">
         <v>12</v>
       </c>
@@ -5292,7 +5415,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A133" s="4" t="s">
         <v>12</v>
       </c>
@@ -5303,7 +5426,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A134" s="4" t="s">
         <v>9</v>
       </c>
@@ -5314,7 +5437,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A135" s="4" t="s">
         <v>12</v>
       </c>
@@ -5325,7 +5448,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A136" s="4" t="s">
         <v>9</v>
       </c>
@@ -5336,7 +5459,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A137" s="4" t="s">
         <v>9</v>
       </c>
@@ -5347,7 +5470,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A138" s="4" t="s">
         <v>12</v>
       </c>
@@ -5358,7 +5481,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A139" s="4" t="s">
         <v>3</v>
       </c>
@@ -5369,7 +5492,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A140" s="4" t="s">
         <v>3</v>
       </c>
@@ -5380,7 +5503,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A141" s="4" t="s">
         <v>3</v>
       </c>
@@ -5391,7 +5514,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A142" s="4" t="s">
         <v>12</v>
       </c>
@@ -5402,7 +5525,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A143" s="4" t="s">
         <v>9</v>
       </c>
@@ -5413,7 +5536,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A144" s="4" t="s">
         <v>12</v>
       </c>
@@ -5424,7 +5547,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A145" s="4" t="s">
         <v>9</v>
       </c>
@@ -5435,7 +5558,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="146" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A146" s="4" t="s">
         <v>12</v>
       </c>
@@ -5446,7 +5569,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="147" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A147" s="4" t="s">
         <v>9</v>
       </c>
@@ -5457,7 +5580,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="148" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A148" s="4" t="s">
         <v>12</v>
       </c>
@@ -5468,7 +5591,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="149" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A149" s="4" t="s">
         <v>9</v>
       </c>
@@ -5479,7 +5602,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="150" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A150" s="4" t="s">
         <v>12</v>
       </c>
@@ -5490,7 +5613,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="151" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A151" s="4" t="s">
         <v>12</v>
       </c>
@@ -5501,7 +5624,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="152" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A152" s="4" t="s">
         <v>3</v>
       </c>
@@ -5512,228 +5635,258 @@
         <v>207</v>
       </c>
     </row>
-    <row r="153" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A153" s="4" t="s">
+    <row r="153" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A153" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B153" s="4" t="s">
+      <c r="B153" s="5" t="s">
         <v>208</v>
       </c>
-      <c r="C153" s="4" t="s">
+      <c r="C153" s="5" t="s">
         <v>209</v>
       </c>
-    </row>
-    <row r="154" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A154" s="4" t="s">
+      <c r="D153" s="1" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="154" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A154" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B154" s="4" t="s">
+      <c r="B154" s="5" t="s">
         <v>210</v>
       </c>
-      <c r="C154" s="4" t="s">
+      <c r="C154" s="5" t="s">
         <v>209</v>
       </c>
-    </row>
-    <row r="155" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A155" s="4" t="s">
+      <c r="D154" s="1" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="155" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A155" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B155" s="4" t="s">
+      <c r="B155" s="5" t="s">
         <v>211</v>
       </c>
-      <c r="C155" s="4" t="s">
+      <c r="C155" s="5" t="s">
         <v>209</v>
       </c>
-    </row>
-    <row r="156" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="D155" s="1" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="156" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A156" s="5" t="s">
         <v>312</v>
       </c>
-      <c r="B156" s="6" t="s">
+      <c r="B156" s="1" t="s">
         <v>228</v>
       </c>
-      <c r="C156" s="6" t="s">
+      <c r="C156" s="1" t="s">
         <v>218</v>
       </c>
-    </row>
-    <row r="157" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A157" s="5" t="s">
-        <v>312</v>
-      </c>
-      <c r="B157" s="6" t="s">
+      <c r="D156" s="1" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="157" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A157" s="4" t="s">
+        <v>312</v>
+      </c>
+      <c r="B157" t="s">
         <v>219</v>
       </c>
-      <c r="C157" s="6" t="s">
+      <c r="C157" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="158" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A158" s="5" t="s">
-        <v>312</v>
-      </c>
-      <c r="B158" s="6" t="s">
+    <row r="158" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A158" s="4" t="s">
+        <v>312</v>
+      </c>
+      <c r="B158" t="s">
         <v>230</v>
       </c>
-      <c r="C158" s="6" t="s">
+      <c r="C158" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="159" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A159" s="5" t="s">
         <v>312</v>
       </c>
-      <c r="B159" s="6" t="s">
+      <c r="B159" s="1" t="s">
         <v>231</v>
       </c>
-      <c r="C159" s="6" t="s">
+      <c r="C159" s="1" t="s">
         <v>231</v>
       </c>
-    </row>
-    <row r="160" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="D159" s="1" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="160" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A160" s="5" t="s">
         <v>312</v>
       </c>
-      <c r="B160" s="6" t="s">
+      <c r="B160" s="1" t="s">
         <v>232</v>
       </c>
-      <c r="C160" s="6" t="s">
+      <c r="C160" s="1" t="s">
         <v>232</v>
       </c>
-    </row>
-    <row r="161" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="D160" s="1" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="161" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A161" s="5" t="s">
         <v>312</v>
       </c>
-      <c r="B161" s="6" t="s">
+      <c r="B161" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="C161" s="6" t="s">
+      <c r="C161" s="1" t="s">
         <v>164</v>
       </c>
-    </row>
-    <row r="162" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A162" s="5" t="s">
-        <v>312</v>
-      </c>
-      <c r="B162" s="6" t="s">
+      <c r="D161" s="1" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="162" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A162" s="4" t="s">
+        <v>312</v>
+      </c>
+      <c r="B162" t="s">
         <v>233</v>
       </c>
-      <c r="C162" s="6" t="s">
+      <c r="C162" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="163" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A163" s="5" t="s">
-        <v>312</v>
-      </c>
-      <c r="B163" s="6" t="s">
+    <row r="163" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A163" s="4" t="s">
+        <v>312</v>
+      </c>
+      <c r="B163" t="s">
         <v>234</v>
       </c>
-      <c r="C163" s="6" t="s">
+      <c r="C163" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="164" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A164" s="5" t="s">
-        <v>312</v>
-      </c>
-      <c r="B164" s="6" t="s">
+    <row r="164" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A164" s="4" t="s">
+        <v>312</v>
+      </c>
+      <c r="B164" t="s">
         <v>235</v>
       </c>
-      <c r="C164" s="6" t="s">
+      <c r="C164" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="165" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A165" s="5" t="s">
         <v>312</v>
       </c>
-      <c r="B165" s="6" t="s">
+      <c r="B165" s="1" t="s">
         <v>236</v>
       </c>
-      <c r="C165" s="6" t="s">
+      <c r="C165" s="1" t="s">
         <v>227</v>
       </c>
-    </row>
-    <row r="166" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A166" s="5" t="s">
-        <v>312</v>
-      </c>
-      <c r="B166" s="6" t="s">
+      <c r="D165" s="1" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="166" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A166" s="4" t="s">
+        <v>312</v>
+      </c>
+      <c r="B166" t="s">
         <v>5</v>
       </c>
-      <c r="C166" s="6" t="s">
+      <c r="C166" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="167" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A167" s="5" t="s">
-        <v>312</v>
-      </c>
-      <c r="B167" s="6" t="s">
+    <row r="167" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A167" s="4" t="s">
+        <v>312</v>
+      </c>
+      <c r="B167" t="s">
         <v>237</v>
       </c>
-      <c r="C167" s="6" t="s">
+      <c r="C167" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="168" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A168" s="5" t="s">
         <v>312</v>
       </c>
-      <c r="B168" s="6" t="s">
+      <c r="B168" s="1" t="s">
         <v>238</v>
       </c>
-      <c r="C168" s="6" t="s">
+      <c r="C168" s="1" t="s">
         <v>227</v>
       </c>
-    </row>
-    <row r="169" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="D168" s="1" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="169" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A169" s="5" t="s">
         <v>312</v>
       </c>
-      <c r="B169" s="6" t="s">
+      <c r="B169" s="1" t="s">
         <v>239</v>
       </c>
-      <c r="C169" s="6" t="s">
+      <c r="C169" s="1" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="170" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A170" s="5" t="s">
-        <v>312</v>
-      </c>
-      <c r="B170" s="6" t="s">
+      <c r="D169" s="1" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="170" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A170" s="4" t="s">
+        <v>312</v>
+      </c>
+      <c r="B170" t="s">
         <v>240</v>
       </c>
-      <c r="C170" s="6" t="s">
+      <c r="C170" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="171" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A171" s="5" t="s">
-        <v>312</v>
-      </c>
-      <c r="B171" s="6" t="s">
+    <row r="171" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A171" s="4" t="s">
+        <v>312</v>
+      </c>
+      <c r="B171" t="s">
         <v>241</v>
       </c>
-      <c r="C171" s="6" t="s">
+      <c r="C171" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="172" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A172" s="5" t="s">
-        <v>312</v>
-      </c>
-      <c r="B172" s="6" t="s">
+    <row r="172" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A172" s="4" t="s">
+        <v>312</v>
+      </c>
+      <c r="B172" t="s">
         <v>242</v>
       </c>
-      <c r="C172" s="6" t="s">
+      <c r="C172" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="173" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A173" s="5" t="s">
+    <row r="173" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A173" s="7" t="s">
         <v>312</v>
       </c>
       <c r="B173" s="6" t="s">
@@ -5743,1385 +5896,1454 @@
         <v>311</v>
       </c>
     </row>
-    <row r="174" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A174" s="5" t="s">
-        <v>312</v>
-      </c>
-      <c r="B174" s="6" t="s">
+    <row r="174" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A174" s="4" t="s">
+        <v>312</v>
+      </c>
+      <c r="B174" t="s">
         <v>70</v>
       </c>
-      <c r="C174" s="6" t="s">
+      <c r="C174" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="175" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A175" s="5" t="s">
         <v>312</v>
       </c>
-      <c r="B175" s="6" t="s">
+      <c r="B175" s="1" t="s">
         <v>244</v>
       </c>
-      <c r="C175" s="6" t="s">
+      <c r="C175" s="1" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="176" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A176" s="5" t="s">
-        <v>312</v>
-      </c>
-      <c r="B176" s="6" t="s">
+      <c r="D175" s="1" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="176" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A176" s="4" t="s">
+        <v>312</v>
+      </c>
+      <c r="B176" t="s">
         <v>245</v>
       </c>
-      <c r="C176" s="6" t="s">
+      <c r="C176" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="177" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A177" s="5" t="s">
-        <v>312</v>
-      </c>
-      <c r="B177" s="6" t="s">
+    <row r="177" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A177" s="4" t="s">
+        <v>312</v>
+      </c>
+      <c r="B177" t="s">
         <v>25</v>
       </c>
-      <c r="C177" s="6" t="s">
+      <c r="C177" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="178" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A178" s="5" t="s">
-        <v>312</v>
-      </c>
-      <c r="B178" s="6" t="s">
+    <row r="178" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A178" s="4" t="s">
+        <v>312</v>
+      </c>
+      <c r="B178" t="s">
         <v>220</v>
       </c>
-      <c r="C178" s="6" t="s">
+      <c r="C178" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="179" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A179" s="5" t="s">
-        <v>312</v>
-      </c>
-      <c r="B179" s="6" t="s">
+    <row r="179" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A179" s="4" t="s">
+        <v>312</v>
+      </c>
+      <c r="B179" t="s">
         <v>246</v>
       </c>
-      <c r="C179" s="6" t="s">
+      <c r="C179" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="180" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A180" s="5" t="s">
-        <v>312</v>
-      </c>
-      <c r="B180" s="6" t="s">
+    <row r="180" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A180" s="4" t="s">
+        <v>312</v>
+      </c>
+      <c r="B180" t="s">
         <v>72</v>
       </c>
-      <c r="C180" s="6" t="s">
+      <c r="C180" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="181" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A181" s="5" t="s">
-        <v>312</v>
-      </c>
-      <c r="B181" s="6" t="s">
+    <row r="181" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A181" s="4" t="s">
+        <v>312</v>
+      </c>
+      <c r="B181" t="s">
         <v>222</v>
       </c>
-      <c r="C181" s="6" t="s">
+      <c r="C181" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="182" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A182" s="5" t="s">
-        <v>312</v>
-      </c>
-      <c r="B182" s="6" t="s">
+    <row r="182" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A182" s="4" t="s">
+        <v>312</v>
+      </c>
+      <c r="B182" t="s">
         <v>230</v>
       </c>
-      <c r="C182" s="6" t="s">
+      <c r="C182" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="183" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A183" s="5" t="s">
-        <v>312</v>
-      </c>
-      <c r="B183" s="6" t="s">
+    <row r="183" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A183" s="4" t="s">
+        <v>312</v>
+      </c>
+      <c r="B183" t="s">
         <v>70</v>
       </c>
-      <c r="C183" s="6" t="s">
+      <c r="C183" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="184" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A184" s="5" t="s">
-        <v>312</v>
-      </c>
-      <c r="B184" s="6" t="s">
+    <row r="184" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A184" s="4" t="s">
+        <v>312</v>
+      </c>
+      <c r="B184" t="s">
         <v>233</v>
       </c>
-      <c r="C184" s="6" t="s">
+      <c r="C184" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="185" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A185" s="5" t="s">
-        <v>312</v>
-      </c>
-      <c r="B185" s="6" t="s">
+    <row r="185" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A185" s="4" t="s">
+        <v>312</v>
+      </c>
+      <c r="B185" t="s">
         <v>247</v>
       </c>
-      <c r="C185" s="6" t="s">
+      <c r="C185" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="186" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A186" s="5" t="s">
-        <v>312</v>
-      </c>
-      <c r="B186" s="6" t="s">
+    <row r="186" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A186" s="4" t="s">
+        <v>312</v>
+      </c>
+      <c r="B186" t="s">
         <v>248</v>
       </c>
-      <c r="C186" s="6" t="s">
+      <c r="C186" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="187" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A187" s="5" t="s">
-        <v>312</v>
-      </c>
-      <c r="B187" s="6" t="s">
+    <row r="187" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A187" s="4" t="s">
+        <v>312</v>
+      </c>
+      <c r="B187" t="s">
         <v>249</v>
       </c>
-      <c r="C187" s="6" t="s">
+      <c r="C187" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="188" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A188" s="5" t="s">
-        <v>312</v>
-      </c>
-      <c r="B188" s="6" t="s">
+    <row r="188" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A188" s="4" t="s">
+        <v>312</v>
+      </c>
+      <c r="B188" t="s">
         <v>250</v>
       </c>
-      <c r="C188" s="6" t="s">
+      <c r="C188" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="189" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A189" s="5" t="s">
-        <v>312</v>
-      </c>
-      <c r="B189" s="6" t="s">
+    <row r="189" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A189" s="4" t="s">
+        <v>312</v>
+      </c>
+      <c r="B189" t="s">
         <v>251</v>
       </c>
-      <c r="C189" s="6" t="s">
+      <c r="C189" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="190" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A190" s="5" t="s">
-        <v>312</v>
-      </c>
-      <c r="B190" s="6" t="s">
+    <row r="190" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A190" s="4" t="s">
+        <v>312</v>
+      </c>
+      <c r="B190" t="s">
         <v>252</v>
       </c>
-      <c r="C190" s="6" t="s">
+      <c r="C190" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="191" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A191" s="5" t="s">
-        <v>312</v>
-      </c>
-      <c r="B191" s="6" t="s">
+    <row r="191" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A191" s="4" t="s">
+        <v>312</v>
+      </c>
+      <c r="B191" t="s">
         <v>253</v>
       </c>
-      <c r="C191" s="6" t="s">
+      <c r="C191" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="192" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A192" s="5" t="s">
-        <v>312</v>
-      </c>
-      <c r="B192" s="6" t="s">
+    <row r="192" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A192" s="4" t="s">
+        <v>312</v>
+      </c>
+      <c r="B192" t="s">
         <v>254</v>
       </c>
-      <c r="C192" s="6" t="s">
+      <c r="C192" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="193" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A193" s="5" t="s">
-        <v>312</v>
-      </c>
-      <c r="B193" s="6" t="s">
+    <row r="193" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A193" s="4" t="s">
+        <v>312</v>
+      </c>
+      <c r="B193" t="s">
         <v>255</v>
       </c>
-      <c r="C193" s="6" t="s">
+      <c r="C193" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="194" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A194" s="5" t="s">
-        <v>312</v>
-      </c>
-      <c r="B194" s="6" t="s">
+    <row r="194" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A194" s="4" t="s">
+        <v>312</v>
+      </c>
+      <c r="B194" t="s">
         <v>256</v>
       </c>
-      <c r="C194" s="6" t="s">
+      <c r="C194" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="195" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A195" s="5" t="s">
-        <v>312</v>
-      </c>
-      <c r="B195" s="6" t="s">
+    <row r="195" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A195" s="4" t="s">
+        <v>312</v>
+      </c>
+      <c r="B195" t="s">
         <v>257</v>
       </c>
-      <c r="C195" s="6" t="s">
+      <c r="C195" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="196" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A196" s="5" t="s">
-        <v>312</v>
-      </c>
-      <c r="B196" s="6" t="s">
+    <row r="196" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A196" s="4" t="s">
+        <v>312</v>
+      </c>
+      <c r="B196" t="s">
         <v>258</v>
       </c>
-      <c r="C196" s="6" t="s">
+      <c r="C196" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="197" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A197" s="5" t="s">
-        <v>312</v>
-      </c>
-      <c r="B197" s="6" t="s">
+    <row r="197" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A197" s="4" t="s">
+        <v>312</v>
+      </c>
+      <c r="B197" t="s">
         <v>223</v>
       </c>
-      <c r="C197" s="6" t="s">
+      <c r="C197" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="198" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A198" s="5" t="s">
-        <v>312</v>
-      </c>
-      <c r="B198" s="6" t="s">
+    <row r="198" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A198" s="4" t="s">
+        <v>312</v>
+      </c>
+      <c r="B198" t="s">
         <v>259</v>
       </c>
-      <c r="C198" s="6" t="s">
+      <c r="C198" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="199" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A199" s="5" t="s">
         <v>312</v>
       </c>
-      <c r="B199" s="6" t="s">
+      <c r="B199" s="1" t="s">
         <v>241</v>
       </c>
-      <c r="C199" s="6" t="s">
+      <c r="C199" s="1" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="200" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="D199" s="1" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="200" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A200" s="5" t="s">
         <v>312</v>
       </c>
-      <c r="B200" s="6" t="s">
+      <c r="B200" s="1" t="s">
         <v>244</v>
       </c>
-      <c r="C200" s="6" t="s">
+      <c r="C200" s="1" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="201" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A201" s="5" t="s">
-        <v>312</v>
-      </c>
-      <c r="B201" s="6" t="s">
+      <c r="D200" s="1" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="201" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A201" s="4" t="s">
+        <v>312</v>
+      </c>
+      <c r="B201" t="s">
         <v>213</v>
       </c>
-      <c r="C201" s="6" t="s">
+      <c r="C201" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="202" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A202" s="5" t="s">
-        <v>312</v>
-      </c>
-      <c r="B202" s="6" t="s">
+    <row r="202" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A202" s="4" t="s">
+        <v>312</v>
+      </c>
+      <c r="B202" t="s">
         <v>260</v>
       </c>
-      <c r="C202" s="6" t="s">
+      <c r="C202" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="203" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A203" s="5" t="s">
-        <v>312</v>
-      </c>
-      <c r="B203" s="6" t="s">
+    <row r="203" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A203" s="4" t="s">
+        <v>312</v>
+      </c>
+      <c r="B203" t="s">
         <v>176</v>
       </c>
-      <c r="C203" s="6" t="s">
+      <c r="C203" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="204" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A204" s="5" t="s">
-        <v>312</v>
-      </c>
-      <c r="B204" s="6" t="s">
+    <row r="204" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A204" s="4" t="s">
+        <v>312</v>
+      </c>
+      <c r="B204" t="s">
         <v>182</v>
       </c>
-      <c r="C204" s="6" t="s">
+      <c r="C204" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="205" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A205" s="5" t="s">
-        <v>312</v>
-      </c>
-      <c r="B205" s="6" t="s">
+    <row r="205" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A205" s="4" t="s">
+        <v>312</v>
+      </c>
+      <c r="B205" t="s">
         <v>95</v>
       </c>
-      <c r="C205" s="6" t="s">
+      <c r="C205" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="206" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A206" s="5" t="s">
-        <v>312</v>
-      </c>
-      <c r="B206" s="6" t="s">
+    <row r="206" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A206" s="4" t="s">
+        <v>312</v>
+      </c>
+      <c r="B206" t="s">
         <v>214</v>
       </c>
-      <c r="C206" s="6" t="s">
+      <c r="C206" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="207" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A207" s="5" t="s">
-        <v>312</v>
-      </c>
-      <c r="B207" s="6" t="s">
+    <row r="207" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A207" s="4" t="s">
+        <v>312</v>
+      </c>
+      <c r="B207" t="s">
         <v>261</v>
       </c>
-      <c r="C207" s="6" t="s">
+      <c r="C207" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="208" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A208" s="5" t="s">
-        <v>312</v>
-      </c>
-      <c r="B208" s="6" t="s">
+    <row r="208" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A208" s="4" t="s">
+        <v>312</v>
+      </c>
+      <c r="B208" t="s">
         <v>262</v>
       </c>
-      <c r="C208" s="6" t="s">
+      <c r="C208" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="209" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A209" s="5" t="s">
-        <v>312</v>
-      </c>
-      <c r="B209" s="6" t="s">
+    <row r="209" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A209" s="4" t="s">
+        <v>312</v>
+      </c>
+      <c r="B209" t="s">
         <v>263</v>
       </c>
-      <c r="C209" s="6" t="s">
+      <c r="C209" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="210" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A210" s="5" t="s">
-        <v>312</v>
-      </c>
-      <c r="B210" s="6" t="s">
+    <row r="210" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A210" s="4" t="s">
+        <v>312</v>
+      </c>
+      <c r="B210" t="s">
         <v>264</v>
       </c>
-      <c r="C210" s="6" t="s">
+      <c r="C210" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="211" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A211" s="5" t="s">
-        <v>312</v>
-      </c>
-      <c r="B211" s="6" t="s">
+    <row r="211" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A211" s="4" t="s">
+        <v>312</v>
+      </c>
+      <c r="B211" t="s">
         <v>201</v>
       </c>
-      <c r="C211" s="6" t="s">
+      <c r="C211" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="212" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A212" s="5" t="s">
-        <v>312</v>
-      </c>
-      <c r="B212" s="6" t="s">
+    <row r="212" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A212" s="4" t="s">
+        <v>312</v>
+      </c>
+      <c r="B212" t="s">
         <v>202</v>
       </c>
-      <c r="C212" s="6" t="s">
+      <c r="C212" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="213" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A213" s="5" t="s">
-        <v>312</v>
-      </c>
-      <c r="B213" s="6" t="s">
+    <row r="213" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A213" s="4" t="s">
+        <v>312</v>
+      </c>
+      <c r="B213" t="s">
         <v>265</v>
       </c>
-      <c r="C213" s="6" t="s">
+      <c r="C213" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="214" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A214" s="5" t="s">
-        <v>312</v>
-      </c>
-      <c r="B214" s="6" t="s">
+    <row r="214" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A214" s="4" t="s">
+        <v>312</v>
+      </c>
+      <c r="B214" t="s">
         <v>266</v>
       </c>
-      <c r="C214" s="6" t="s">
+      <c r="C214" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="215" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A215" s="5" t="s">
-        <v>312</v>
-      </c>
-      <c r="B215" s="6" t="s">
+    <row r="215" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A215" s="4" t="s">
+        <v>312</v>
+      </c>
+      <c r="B215" t="s">
         <v>267</v>
       </c>
-      <c r="C215" s="6" t="s">
+      <c r="C215" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="216" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A216" s="5" t="s">
         <v>312</v>
       </c>
-      <c r="B216" s="6" t="s">
+      <c r="B216" s="1" t="s">
         <v>182</v>
       </c>
-      <c r="C216" s="6" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="217" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A217" s="5" t="s">
-        <v>312</v>
-      </c>
-      <c r="B217" s="6" t="s">
+      <c r="C216" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="D216" s="1" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="217" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A217" s="4" t="s">
+        <v>312</v>
+      </c>
+      <c r="B217" t="s">
         <v>268</v>
       </c>
-      <c r="C217" s="6" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="218" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A218" s="5" t="s">
-        <v>312</v>
-      </c>
-      <c r="B218" s="6" t="s">
+      <c r="C217" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="218" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A218" s="4" t="s">
+        <v>312</v>
+      </c>
+      <c r="B218" t="s">
         <v>269</v>
       </c>
-      <c r="C218" s="6" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="219" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A219" s="5" t="s">
-        <v>312</v>
-      </c>
-      <c r="B219" s="6" t="s">
+      <c r="C218" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="219" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A219" s="4" t="s">
+        <v>312</v>
+      </c>
+      <c r="B219" t="s">
         <v>270</v>
       </c>
-      <c r="C219" s="6" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="220" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A220" s="5" t="s">
-        <v>312</v>
-      </c>
-      <c r="B220" s="6" t="s">
+      <c r="C219" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="220" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A220" s="4" t="s">
+        <v>312</v>
+      </c>
+      <c r="B220" t="s">
         <v>271</v>
       </c>
-      <c r="C220" s="6" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="221" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A221" s="5" t="s">
-        <v>312</v>
-      </c>
-      <c r="B221" s="6" t="s">
+      <c r="C220" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="221" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A221" s="4" t="s">
+        <v>312</v>
+      </c>
+      <c r="B221" t="s">
         <v>272</v>
       </c>
-      <c r="C221" s="6" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="222" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A222" s="5" t="s">
-        <v>312</v>
-      </c>
-      <c r="B222" s="6" t="s">
+      <c r="C221" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="222" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A222" s="4" t="s">
+        <v>312</v>
+      </c>
+      <c r="B222" t="s">
         <v>273</v>
       </c>
-      <c r="C222" s="6" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="223" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A223" s="5" t="s">
-        <v>312</v>
-      </c>
-      <c r="B223" s="6" t="s">
+      <c r="C222" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="223" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A223" s="4" t="s">
+        <v>312</v>
+      </c>
+      <c r="B223" t="s">
         <v>274</v>
       </c>
-      <c r="C223" s="6" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="224" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A224" s="5" t="s">
-        <v>312</v>
-      </c>
-      <c r="B224" s="6" t="s">
+      <c r="C223" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="224" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A224" s="4" t="s">
+        <v>312</v>
+      </c>
+      <c r="B224" t="s">
         <v>275</v>
       </c>
-      <c r="C224" s="6" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="225" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A225" s="5" t="s">
-        <v>312</v>
-      </c>
-      <c r="B225" s="6" t="s">
+      <c r="C224" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="225" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A225" s="4" t="s">
+        <v>312</v>
+      </c>
+      <c r="B225" t="s">
         <v>276</v>
       </c>
-      <c r="C225" s="6" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="226" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="C225" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="226" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A226" s="5" t="s">
         <v>312</v>
       </c>
-      <c r="B226" s="6" t="s">
+      <c r="B226" s="1" t="s">
         <v>277</v>
       </c>
-      <c r="C226" s="6" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="227" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A227" s="5" t="s">
-        <v>312</v>
-      </c>
-      <c r="B227" s="6" t="s">
+      <c r="C226" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="D226" s="1" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="227" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A227" s="4" t="s">
+        <v>312</v>
+      </c>
+      <c r="B227" t="s">
         <v>278</v>
       </c>
-      <c r="C227" s="6" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="228" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="C227" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="228" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A228" s="5" t="s">
         <v>312</v>
       </c>
-      <c r="B228" s="6" t="s">
+      <c r="B228" s="1" t="s">
         <v>265</v>
       </c>
-      <c r="C228" s="6" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="229" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="C228" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="D228" s="1" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="229" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A229" s="5" t="s">
         <v>312</v>
       </c>
-      <c r="B229" s="6" t="s">
+      <c r="B229" s="1" t="s">
         <v>279</v>
       </c>
-      <c r="C229" s="6" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="230" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A230" s="5" t="s">
-        <v>312</v>
-      </c>
-      <c r="B230" s="6" t="s">
+      <c r="C229" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="D229" s="1" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="230" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A230" s="4" t="s">
+        <v>312</v>
+      </c>
+      <c r="B230" t="s">
         <v>280</v>
       </c>
-      <c r="C230" s="6" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="231" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A231" s="5" t="s">
-        <v>312</v>
-      </c>
-      <c r="B231" s="6" t="s">
+      <c r="C230" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="231" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A231" s="4" t="s">
+        <v>312</v>
+      </c>
+      <c r="B231" t="s">
         <v>281</v>
       </c>
-      <c r="C231" s="6" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="232" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A232" s="5" t="s">
-        <v>312</v>
-      </c>
-      <c r="B232" s="6" t="s">
+      <c r="C231" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="232" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A232" s="4" t="s">
+        <v>312</v>
+      </c>
+      <c r="B232" t="s">
         <v>282</v>
       </c>
-      <c r="C232" s="6" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="233" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A233" s="5" t="s">
-        <v>312</v>
-      </c>
-      <c r="B233" s="6" t="s">
+      <c r="C232" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="233" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A233" s="4" t="s">
+        <v>312</v>
+      </c>
+      <c r="B233" t="s">
         <v>229</v>
       </c>
-      <c r="C233" s="6" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="234" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A234" s="5" t="s">
-        <v>312</v>
-      </c>
-      <c r="B234" s="6" t="s">
+      <c r="C233" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="234" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A234" s="4" t="s">
+        <v>312</v>
+      </c>
+      <c r="B234" t="s">
         <v>283</v>
       </c>
-      <c r="C234" s="6" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="235" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A235" s="5" t="s">
-        <v>312</v>
-      </c>
-      <c r="B235" s="6" t="s">
+      <c r="C234" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="235" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A235" s="4" t="s">
+        <v>312</v>
+      </c>
+      <c r="B235" t="s">
         <v>284</v>
       </c>
-      <c r="C235" s="6" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="236" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A236" s="5" t="s">
-        <v>312</v>
-      </c>
-      <c r="B236" s="6" t="s">
+      <c r="C235" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="236" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A236" s="4" t="s">
+        <v>312</v>
+      </c>
+      <c r="B236" t="s">
         <v>285</v>
       </c>
-      <c r="C236" s="6" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="237" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="C236" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="237" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A237" s="5" t="s">
         <v>312</v>
       </c>
-      <c r="B237" s="6" t="s">
+      <c r="B237" s="1" t="s">
         <v>286</v>
       </c>
-      <c r="C237" s="6" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="238" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="C237" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="D237" s="1" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="238" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A238" s="5" t="s">
         <v>312</v>
       </c>
-      <c r="B238" s="6" t="s">
+      <c r="B238" s="1" t="s">
         <v>287</v>
       </c>
-      <c r="C238" s="6" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="239" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A239" s="5" t="s">
-        <v>312</v>
-      </c>
-      <c r="B239" s="6" t="s">
+      <c r="C238" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="D238" s="1" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="239" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A239" s="4" t="s">
+        <v>312</v>
+      </c>
+      <c r="B239" t="s">
         <v>288</v>
       </c>
-      <c r="C239" s="6" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="240" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="C239" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="240" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A240" s="5" t="s">
         <v>312</v>
       </c>
-      <c r="B240" s="6" t="s">
+      <c r="B240" s="1" t="s">
         <v>289</v>
       </c>
-      <c r="C240" s="6" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="241" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A241" s="5" t="s">
-        <v>312</v>
-      </c>
-      <c r="B241" s="6" t="s">
+      <c r="C240" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="D240" s="1" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="241" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A241" s="4" t="s">
+        <v>312</v>
+      </c>
+      <c r="B241" t="s">
         <v>290</v>
       </c>
-      <c r="C241" s="6" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="242" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A242" s="5" t="s">
-        <v>312</v>
-      </c>
-      <c r="B242" s="6" t="s">
+      <c r="C241" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="242" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A242" s="4" t="s">
+        <v>312</v>
+      </c>
+      <c r="B242" t="s">
         <v>291</v>
       </c>
-      <c r="C242" s="6" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="243" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="C242" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="243" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A243" s="5" t="s">
         <v>312</v>
       </c>
-      <c r="B243" s="6" t="s">
+      <c r="B243" s="1" t="s">
         <v>292</v>
       </c>
-      <c r="C243" s="6" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="244" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="C243" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="D243" s="1" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="244" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A244" s="5" t="s">
         <v>312</v>
       </c>
-      <c r="B244" s="6" t="s">
+      <c r="B244" s="1" t="s">
         <v>253</v>
       </c>
-      <c r="C244" s="6" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="245" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A245" s="5" t="s">
-        <v>312</v>
-      </c>
-      <c r="B245" s="6" t="s">
+      <c r="C244" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="D244" s="1" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="245" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A245" s="4" t="s">
+        <v>312</v>
+      </c>
+      <c r="B245" t="s">
         <v>293</v>
       </c>
-      <c r="C245" s="6" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="246" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="C245" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="246" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A246" s="5" t="s">
         <v>312</v>
       </c>
-      <c r="B246" s="6" t="s">
+      <c r="B246" s="1" t="s">
         <v>201</v>
       </c>
-      <c r="C246" s="6" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="247" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="C246" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="D246" s="1" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="247" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A247" s="5" t="s">
         <v>312</v>
       </c>
-      <c r="B247" s="6" t="s">
+      <c r="B247" s="1" t="s">
         <v>263</v>
       </c>
-      <c r="C247" s="6" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="248" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A248" s="5" t="s">
-        <v>312</v>
-      </c>
-      <c r="B248" s="6" t="s">
+      <c r="C247" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="D247" s="1" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="248" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A248" s="4" t="s">
+        <v>312</v>
+      </c>
+      <c r="B248" t="s">
         <v>294</v>
       </c>
-      <c r="C248" s="6" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="249" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="C248" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="249" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A249" s="5" t="s">
         <v>312</v>
       </c>
-      <c r="B249" s="6" t="s">
+      <c r="B249" s="1" t="s">
         <v>228</v>
       </c>
-      <c r="C249" s="6" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="250" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="C249" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="D249" s="1" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="250" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A250" s="5" t="s">
         <v>312</v>
       </c>
-      <c r="B250" s="6" t="s">
+      <c r="B250" s="1" t="s">
         <v>295</v>
       </c>
-      <c r="C250" s="6" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="251" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A251" s="5" t="s">
-        <v>312</v>
-      </c>
-      <c r="B251" s="6" t="s">
+      <c r="C250" s="1" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="251" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A251" s="4" t="s">
+        <v>312</v>
+      </c>
+      <c r="B251" t="s">
         <v>296</v>
       </c>
-      <c r="C251" s="6" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="252" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A252" s="5" t="s">
-        <v>312</v>
-      </c>
-      <c r="B252" s="6" t="s">
+      <c r="C251" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="252" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A252" s="4" t="s">
+        <v>312</v>
+      </c>
+      <c r="B252" t="s">
         <v>297</v>
       </c>
-      <c r="C252" s="6" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="253" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A253" s="5" t="s">
-        <v>312</v>
-      </c>
-      <c r="B253" s="6" t="s">
+      <c r="C252" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="253" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A253" s="4" t="s">
+        <v>312</v>
+      </c>
+      <c r="B253" t="s">
         <v>298</v>
       </c>
-      <c r="C253" s="6" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="254" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A254" s="5" t="s">
-        <v>312</v>
-      </c>
-      <c r="B254" s="6" t="s">
+      <c r="C253" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="254" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A254" s="4" t="s">
+        <v>312</v>
+      </c>
+      <c r="B254" t="s">
         <v>299</v>
       </c>
-      <c r="C254" s="6" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="255" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A255" s="5" t="s">
-        <v>312</v>
-      </c>
-      <c r="B255" s="6" t="s">
+      <c r="C254" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="255" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A255" s="4" t="s">
+        <v>312</v>
+      </c>
+      <c r="B255" t="s">
         <v>300</v>
       </c>
-      <c r="C255" s="6" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="256" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A256" s="5" t="s">
-        <v>312</v>
-      </c>
-      <c r="B256" s="6" t="s">
+      <c r="C255" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="256" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A256" s="4" t="s">
+        <v>312</v>
+      </c>
+      <c r="B256" t="s">
         <v>301</v>
       </c>
-      <c r="C256" s="6" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="257" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="C256" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="257" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A257" s="5" t="s">
         <v>312</v>
       </c>
-      <c r="B257" s="6" t="s">
+      <c r="B257" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="C257" s="6" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="258" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A258" s="5" t="s">
-        <v>312</v>
-      </c>
-      <c r="B258" s="6" t="s">
+      <c r="C257" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="D257" s="1" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="258" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A258" s="4" t="s">
+        <v>312</v>
+      </c>
+      <c r="B258" t="s">
         <v>267</v>
       </c>
-      <c r="C258" s="6" t="s">
+      <c r="C258" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="259" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A259" s="5" t="s">
-        <v>312</v>
-      </c>
-      <c r="B259" s="6" t="s">
+    <row r="259" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A259" s="4" t="s">
+        <v>312</v>
+      </c>
+      <c r="B259" t="s">
         <v>292</v>
       </c>
-      <c r="C259" s="6" t="s">
+      <c r="C259" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="260" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A260" s="5" t="s">
-        <v>312</v>
-      </c>
-      <c r="B260" s="6" t="s">
+    <row r="260" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A260" s="4" t="s">
+        <v>312</v>
+      </c>
+      <c r="B260" t="s">
         <v>302</v>
       </c>
-      <c r="C260" s="6" t="s">
+      <c r="C260" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="261" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A261" s="5" t="s">
         <v>312</v>
       </c>
-      <c r="B261" s="6" t="s">
+      <c r="B261" s="1" t="s">
         <v>303</v>
       </c>
-      <c r="C261" s="6" t="s">
+      <c r="C261" s="1" t="s">
         <v>216</v>
       </c>
-    </row>
-    <row r="262" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A262" s="5" t="s">
-        <v>312</v>
-      </c>
-      <c r="B262" s="6" t="s">
+      <c r="D261" s="1" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="262" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A262" s="4" t="s">
+        <v>312</v>
+      </c>
+      <c r="B262" t="s">
         <v>304</v>
       </c>
-      <c r="C262" s="6" t="s">
+      <c r="C262" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="263" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A263" s="5" t="s">
-        <v>312</v>
-      </c>
-      <c r="B263" s="6" t="s">
+    <row r="263" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A263" s="4" t="s">
+        <v>312</v>
+      </c>
+      <c r="B263" t="s">
         <v>305</v>
       </c>
-      <c r="C263" s="6" t="s">
+      <c r="C263" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="264" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A264" s="5" t="s">
-        <v>312</v>
-      </c>
-      <c r="B264" s="6" t="s">
+    <row r="264" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A264" s="4" t="s">
+        <v>312</v>
+      </c>
+      <c r="B264" t="s">
         <v>306</v>
       </c>
-      <c r="C264" s="6" t="s">
+      <c r="C264" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="265" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A265" s="5" t="s">
-        <v>312</v>
-      </c>
-      <c r="B265" s="6" t="s">
+    <row r="265" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A265" s="4" t="s">
+        <v>312</v>
+      </c>
+      <c r="B265" t="s">
         <v>307</v>
       </c>
-      <c r="C265" s="6" t="s">
+      <c r="C265" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="266" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A266" s="5" t="s">
-        <v>312</v>
-      </c>
-      <c r="B266" s="6" t="s">
+    <row r="266" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A266" s="4" t="s">
+        <v>312</v>
+      </c>
+      <c r="B266" t="s">
         <v>308</v>
       </c>
-      <c r="C266" s="6" t="s">
+      <c r="C266" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="267" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A267" s="5" t="s">
-        <v>312</v>
-      </c>
-      <c r="B267" s="6" t="s">
+    <row r="267" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A267" s="4" t="s">
+        <v>312</v>
+      </c>
+      <c r="B267" t="s">
         <v>309</v>
       </c>
-      <c r="C267" s="6" t="s">
+      <c r="C267" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="268" spans="1:3" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A268" s="6" t="s">
+    <row r="268" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A268" t="s">
         <v>9</v>
       </c>
-      <c r="B268" s="6" t="s">
+      <c r="B268" t="s">
         <v>123</v>
       </c>
-      <c r="C268" s="6" t="s">
+      <c r="C268" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="269" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A269" s="6"/>
-      <c r="B269" s="6" t="s">
+    <row r="269" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B269" t="s">
         <v>313</v>
       </c>
-      <c r="C269" s="6" t="s">
+      <c r="C269" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="270" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A270" s="6"/>
-      <c r="B270" s="6" t="s">
+    <row r="270" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B270" t="s">
         <v>314</v>
       </c>
-      <c r="C270" s="6" t="s">
+      <c r="C270" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="271" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A271" s="6"/>
-      <c r="B271" s="6" t="s">
+    <row r="271" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B271" t="s">
         <v>315</v>
       </c>
-      <c r="C271" s="6" t="s">
+      <c r="C271" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="272" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A272" s="6"/>
-      <c r="B272" s="6" t="s">
+    <row r="272" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B272" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="C272" s="6" t="s">
+      <c r="C272" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="273" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A273" s="6"/>
-      <c r="B273" s="6" t="s">
+      <c r="D272" s="1" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="273" spans="2:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B273" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="C273" s="6" t="s">
+      <c r="C273" s="1" t="s">
         <v>316</v>
       </c>
-    </row>
-    <row r="274" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A274" s="6"/>
-      <c r="B274" s="6" t="s">
+      <c r="D273" s="1" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="274" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B274" t="s">
         <v>317</v>
       </c>
-      <c r="C274" s="6" t="s">
+      <c r="C274" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="275" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A275" s="6"/>
-      <c r="B275" s="6" t="s">
+    <row r="275" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B275" t="s">
         <v>318</v>
       </c>
-      <c r="C275" s="6" t="s">
+      <c r="C275" t="s">
         <v>319</v>
       </c>
     </row>
-    <row r="276" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A276" s="6"/>
-      <c r="B276" s="6" t="s">
+    <row r="276" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B276" t="s">
         <v>143</v>
       </c>
-      <c r="C276" s="6" t="s">
+      <c r="C276" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="277" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A277" s="6"/>
-      <c r="B277" s="6" t="s">
+    <row r="277" spans="2:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B277" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="C277" s="6" t="s">
+      <c r="C277" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="278" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A278" s="6"/>
-      <c r="B278" s="6" t="s">
+      <c r="D277" s="1" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="278" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B278" t="s">
         <v>58</v>
       </c>
-      <c r="C278" s="6" t="s">
+      <c r="C278" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="279" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A279" s="6"/>
-      <c r="B279" s="6" t="s">
+    <row r="279" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B279" t="s">
         <v>53</v>
       </c>
-      <c r="C279" s="6" t="s">
+      <c r="C279" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="280" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A280" s="6"/>
-      <c r="B280" s="6" t="s">
+    <row r="280" spans="2:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B280" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="C280" s="6" t="s">
+      <c r="C280" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="281" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A281" s="6"/>
-      <c r="B281" s="6" t="s">
+      <c r="D280" s="1" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="281" spans="2:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B281" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="C281" s="6" t="s">
+      <c r="C281" s="1" t="s">
         <v>320</v>
       </c>
-    </row>
-    <row r="282" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A282" s="6"/>
-      <c r="B282" s="6" t="s">
+      <c r="D281" s="1" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="282" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B282" t="s">
         <v>56</v>
       </c>
-      <c r="C282" s="6" t="s">
+      <c r="C282" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="283" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A283" s="6"/>
-      <c r="B283" s="6" t="s">
+    <row r="283" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B283" t="s">
         <v>196</v>
       </c>
-      <c r="C283" s="6" t="s">
+      <c r="C283" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="284" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A284" s="6"/>
-      <c r="B284" s="6" t="s">
+    <row r="284" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B284" t="s">
         <v>59</v>
       </c>
-      <c r="C284" s="6" t="s">
+      <c r="C284" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="285" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A285" s="6"/>
-      <c r="B285" s="6" t="s">
+    <row r="285" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B285" t="s">
         <v>103</v>
       </c>
-      <c r="C285" s="6" t="s">
+      <c r="C285" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="286" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A286" s="6"/>
-      <c r="B286" s="6" t="s">
+    <row r="286" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B286" t="s">
         <v>321</v>
       </c>
-      <c r="C286" s="6" t="s">
+      <c r="C286" t="s">
         <v>322</v>
       </c>
     </row>
-    <row r="287" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A287" s="6"/>
-      <c r="B287" s="6" t="s">
+    <row r="287" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B287" t="s">
         <v>323</v>
       </c>
-      <c r="C287" s="6" t="s">
+      <c r="C287" t="s">
         <v>324</v>
       </c>
     </row>
-    <row r="288" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A288" s="6"/>
-      <c r="B288" s="6" t="s">
+    <row r="288" spans="2:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B288" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="C288" s="6" t="s">
+      <c r="C288" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="289" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A289" s="6"/>
-      <c r="B289" s="6" t="s">
+      <c r="D288" s="1" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="289" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B289" t="s">
         <v>55</v>
       </c>
-      <c r="C289" s="6" t="s">
+      <c r="C289" t="s">
         <v>316</v>
       </c>
     </row>
-    <row r="290" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A290" s="6"/>
-      <c r="B290" s="6" t="s">
+    <row r="290" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B290" t="s">
         <v>36</v>
       </c>
-      <c r="C290" s="6" t="s">
+      <c r="C290" t="s">
         <v>325</v>
       </c>
     </row>
-    <row r="291" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A291" s="6"/>
-      <c r="B291" s="6" t="s">
+    <row r="291" spans="2:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B291" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="C291" s="6" t="s">
+      <c r="C291" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="292" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A292" s="6"/>
-      <c r="B292" s="6" t="s">
+      <c r="D291" s="1" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="292" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B292" t="s">
         <v>326</v>
       </c>
-      <c r="C292" s="6" t="s">
+      <c r="C292" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="293" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A293" s="6"/>
-      <c r="B293" s="6" t="s">
+    <row r="293" spans="2:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B293" s="1" t="s">
         <v>327</v>
       </c>
-      <c r="C293" s="6" t="s">
+      <c r="C293" s="1" t="s">
         <v>328</v>
       </c>
-    </row>
-    <row r="294" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A294" s="6"/>
-      <c r="B294" s="6" t="s">
+      <c r="D293" s="1" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="294" spans="2:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B294" s="1" t="s">
         <v>328</v>
       </c>
-      <c r="C294" s="6" t="s">
+      <c r="C294" s="1" t="s">
         <v>328</v>
       </c>
-    </row>
-    <row r="295" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A295" s="6"/>
-      <c r="B295" s="6" t="s">
+      <c r="D294" s="1" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="295" spans="2:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B295" s="1" t="s">
         <v>329</v>
       </c>
-      <c r="C295" s="6" t="s">
+      <c r="C295" s="1" t="s">
         <v>328</v>
       </c>
-    </row>
-    <row r="296" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A296" s="6"/>
-      <c r="B296" s="6" t="s">
+      <c r="D295" s="1" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="296" spans="2:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B296" s="1" t="s">
         <v>330</v>
       </c>
-      <c r="C296" s="6" t="s">
+      <c r="C296" s="1" t="s">
         <v>333</v>
       </c>
-    </row>
-    <row r="297" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A297" s="6"/>
-      <c r="B297" s="6" t="s">
+      <c r="D296" s="1" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="297" spans="2:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B297" s="1" t="s">
         <v>331</v>
       </c>
-      <c r="C297" s="6" t="s">
+      <c r="C297" s="1" t="s">
         <v>333</v>
       </c>
-    </row>
-    <row r="298" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A298" s="6"/>
-      <c r="B298" s="6" t="s">
+      <c r="D297" s="1" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="298" spans="2:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B298" s="1" t="s">
         <v>332</v>
       </c>
-      <c r="C298" s="6" t="s">
+      <c r="C298" s="1" t="s">
         <v>333</v>
       </c>
-    </row>
-    <row r="299" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A299" s="6"/>
-      <c r="B299" s="6" t="s">
+      <c r="D298" s="1" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="299" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B299" t="s">
         <v>334</v>
       </c>
-      <c r="C299" s="6" t="s">
+      <c r="C299" t="s">
         <v>334</v>
       </c>
     </row>
-    <row r="300" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A300" s="6"/>
-      <c r="B300" s="6" t="s">
+    <row r="300" spans="2:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B300" s="1" t="s">
         <v>335</v>
       </c>
-      <c r="C300" s="6" t="s">
+      <c r="C300" s="1" t="s">
         <v>333</v>
       </c>
-    </row>
-    <row r="301" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A301" s="6"/>
-      <c r="B301" s="6" t="s">
+      <c r="D300" s="1" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="301" spans="2:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B301" s="1" t="s">
         <v>336</v>
       </c>
-      <c r="C301" s="6" t="s">
+      <c r="C301" s="1" t="s">
         <v>333</v>
       </c>
-    </row>
-    <row r="302" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A302" s="6"/>
-      <c r="B302" s="6" t="s">
+      <c r="D301" s="1" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="302" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B302" t="s">
         <v>337</v>
       </c>
-      <c r="C302" s="6" t="s">
+      <c r="C302" t="s">
         <v>337</v>
       </c>
     </row>
-    <row r="303" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A303" s="6"/>
-      <c r="B303" s="6" t="s">
+    <row r="303" spans="2:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B303" s="1" t="s">
         <v>338</v>
       </c>
-      <c r="C303" s="6" t="s">
+      <c r="C303" s="1" t="s">
         <v>333</v>
       </c>
-    </row>
-    <row r="304" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A304" s="6"/>
-      <c r="B304" s="6" t="s">
+      <c r="D303" s="8" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="304" spans="2:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B304" s="1" t="s">
         <v>339</v>
       </c>
-      <c r="C304" s="6" t="s">
+      <c r="C304" s="1" t="s">
         <v>333</v>
       </c>
-    </row>
-    <row r="305" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A305" s="6"/>
-      <c r="B305" s="6" t="s">
+      <c r="D304" s="8" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="305" spans="2:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B305" s="1" t="s">
         <v>340</v>
       </c>
-      <c r="C305" s="6" t="s">
+      <c r="C305" s="1" t="s">
         <v>333</v>
       </c>
+      <c r="D305" s="8" t="s">
+        <v>364</v>
+      </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="19" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -7130,7 +7352,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:B113"/>
   <sheetViews>
-    <sheetView topLeftCell="A14" workbookViewId="0">
+    <sheetView topLeftCell="A12" workbookViewId="0">
       <selection activeCell="B32" sqref="B32:B42"/>
     </sheetView>
   </sheetViews>

--- a/data/source/pedpancan_mapping.xlsx
+++ b/data/source/pedpancan_mapping.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11008"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11210"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rkenkre/Desktop/pedpancancer/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ochapman/projects/pedpancan_ecdna/data/source/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F0C69A5-CBB9-DD4E-BC54-D8CAD8B52A87}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FC028D9-257F-B04C-BF4E-C6CD91AA4155}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16380" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="28800" windowHeight="16380" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="mapping" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1679" uniqueCount="365">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1617" uniqueCount="347">
   <si>
     <t>Column</t>
   </si>
@@ -996,9 +996,6 @@
     <t>PN</t>
   </si>
   <si>
-    <t>PLEX</t>
-  </si>
-  <si>
     <t>Myofibroblastic tumor</t>
   </si>
   <si>
@@ -1047,69 +1044,6 @@
     <t>I have no idea where to put a CNS_BCOR_ITD (CNS tumor, BCOR internal tandem dup) but I don't see justification for calling it a DNET</t>
   </si>
   <si>
-    <t>*1 Combine GM and TT into a GCT class?</t>
-  </si>
-  <si>
-    <t>*1</t>
-  </si>
-  <si>
-    <t>Should be SEGA?</t>
-  </si>
-  <si>
-    <t>Should be GNT?</t>
-  </si>
-  <si>
-    <t>No idea what to do with a PLNTY (polymorphous low grade brain tumor of the young) but I don't see any connection with meningioma</t>
-  </si>
-  <si>
-    <t>BTNOS?</t>
-  </si>
-  <si>
-    <t>Should be CPG?</t>
-  </si>
-  <si>
-    <t>We already have a MG class for meningioma. Although, I think MNG would be better than MG because nature disapproves of 2-letter abbreviations.</t>
-  </si>
-  <si>
-    <t>Should be GCT?</t>
-  </si>
-  <si>
-    <t>Glioma, not otherwise specified. Not specific enough to call it a ganglioglioma.</t>
-  </si>
-  <si>
-    <t>Should be GNT? Also duplicate of LGGNT &gt; GG above.</t>
-  </si>
-  <si>
-    <t>Should be NBL?</t>
-  </si>
-  <si>
-    <t>Shouldn be CRD?</t>
-  </si>
-  <si>
-    <t>Should be RHB?</t>
-  </si>
-  <si>
-    <t>Should Be NFP?</t>
-  </si>
-  <si>
-    <t>*2 Since we don't discuss hematopoetic malignancies, I think we should lump all blood cancers into a HM group</t>
-  </si>
-  <si>
-    <t>Why rename it?</t>
-  </si>
-  <si>
-    <t>Duplicate of EWS &gt; EWS above</t>
-  </si>
-  <si>
-    <t>*2</t>
-  </si>
-  <si>
-    <t>All other astrocytomas are being classed as HGG or LGG, but no idea which one this should go to.</t>
-  </si>
-  <si>
-    <t>We already have an EP class for ependymoma. But I like EPN better, see the MG/MNG comment.</t>
-  </si>
-  <si>
     <t>GCT</t>
   </si>
   <si>
@@ -1117,6 +1051,18 @@
   </si>
   <si>
     <t>Hemangioblastoma</t>
+  </si>
+  <si>
+    <t>FIBS</t>
+  </si>
+  <si>
+    <t>source_class</t>
+  </si>
+  <si>
+    <t>source_ontology</t>
+  </si>
+  <si>
+    <t>target_class</t>
   </si>
 </sst>
 </file>
@@ -1279,7 +1225,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="37">
+  <fills count="36">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1477,12 +1423,6 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor rgb="FF000000"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="10">
     <border>
@@ -1644,16 +1584,12 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="18" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="18" fillId="36" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="42">
@@ -3921,150 +3857,149 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:D298"/>
+  <dimension ref="A1:D291"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="B279" sqref="B279"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="D36" sqref="D36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="28.6640625" style="7" customWidth="1"/>
-    <col min="2" max="2" width="72.83203125" style="7" customWidth="1"/>
-    <col min="3" max="3" width="18.5" style="7" customWidth="1"/>
-    <col min="4" max="16384" width="10.83203125" style="7"/>
+    <col min="1" max="1" width="28.6640625" customWidth="1"/>
+    <col min="2" max="2" width="72.83203125" customWidth="1"/>
+    <col min="3" max="3" width="18.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
-        <v>0</v>
+        <v>345</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>1</v>
+        <v>344</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>2</v>
+        <v>346</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>5</v>
+      <c r="A2" s="5" t="s">
+        <v>310</v>
+      </c>
+      <c r="B2" t="s">
+        <v>228</v>
+      </c>
+      <c r="C2" t="s">
+        <v>228</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>5</v>
+      <c r="A3" s="5" t="s">
+        <v>310</v>
+      </c>
+      <c r="B3" t="s">
+        <v>240</v>
+      </c>
+      <c r="C3" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>5</v>
+      <c r="A4" s="5" t="s">
+        <v>310</v>
+      </c>
+      <c r="B4" t="s">
+        <v>219</v>
+      </c>
+      <c r="C4" t="s">
+        <v>219</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A5" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>5</v>
+      <c r="A5" t="s">
+        <v>29</v>
+      </c>
+      <c r="B5" t="s">
+        <v>121</v>
+      </c>
+      <c r="C5" t="s">
+        <v>315</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>11</v>
+      <c r="B6" t="s">
+        <v>55</v>
+      </c>
+      <c r="C6" t="s">
+        <v>315</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A11" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>11</v>
+      <c r="A11" s="5" t="s">
+        <v>310</v>
+      </c>
+      <c r="B11" t="s">
+        <v>5</v>
+      </c>
+      <c r="C11" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" s="4" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="C12" s="4" t="s">
         <v>11</v>
@@ -4075,7 +4010,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="C13" s="4" t="s">
         <v>11</v>
@@ -4083,10 +4018,10 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" s="4" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="C14" s="4" t="s">
         <v>11</v>
@@ -4094,10 +4029,10 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" s="4" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="C15" s="4" t="s">
         <v>11</v>
@@ -4108,7 +4043,7 @@
         <v>12</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="C16" s="4" t="s">
         <v>11</v>
@@ -4119,7 +4054,7 @@
         <v>12</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="C17" s="4" t="s">
         <v>11</v>
@@ -4127,434 +4062,434 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" s="4" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" s="4" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>27</v>
+        <v>11</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" s="4" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>27</v>
+        <v>11</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" s="4" t="s">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>27</v>
+        <v>11</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" s="4" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>32</v>
+        <v>11</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23" s="4" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>32</v>
+        <v>11</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B24" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="C24" s="4" t="s">
-        <v>32</v>
+      <c r="B24" t="s">
+        <v>312</v>
+      </c>
+      <c r="C24" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B25" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="C25" s="4" t="s">
-        <v>32</v>
+      <c r="B25" t="s">
+        <v>313</v>
+      </c>
+      <c r="C25" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B26" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="C26" s="4" t="s">
-        <v>40</v>
+        <v>12</v>
+      </c>
+      <c r="B26" t="s">
+        <v>58</v>
+      </c>
+      <c r="C26" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B27" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="C27" s="4" t="s">
-        <v>40</v>
+        <v>12</v>
+      </c>
+      <c r="B27" t="s">
+        <v>59</v>
+      </c>
+      <c r="C27" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A28" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B28" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="C28" s="4" t="s">
-        <v>43</v>
+      <c r="B28" t="s">
+        <v>324</v>
+      </c>
+      <c r="C28" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A29" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B29" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="C29" s="4" t="s">
-        <v>47</v>
+      <c r="A29" s="5" t="s">
+        <v>310</v>
+      </c>
+      <c r="B29" t="s">
+        <v>231</v>
+      </c>
+      <c r="C29" t="s">
+        <v>341</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A30" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B30" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="C30" s="4" t="s">
-        <v>51</v>
+      <c r="A30" t="s">
+        <v>310</v>
+      </c>
+      <c r="B30" t="s">
+        <v>334</v>
+      </c>
+      <c r="C30" t="s">
+        <v>334</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A31" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C31" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A32" s="5" t="s">
+        <v>310</v>
+      </c>
+      <c r="B32" t="s">
+        <v>25</v>
+      </c>
+      <c r="C32" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A33" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B33" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C33" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A34" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B34" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C34" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A35" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B35" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C35" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A36" s="5" t="s">
+        <v>310</v>
+      </c>
+      <c r="B36" t="s">
+        <v>232</v>
+      </c>
+      <c r="C36" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A37" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B37" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C37" s="4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A38" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B38" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C38" s="4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A39" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B31" s="4" t="s">
+      <c r="B39" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C39" s="4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A40" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B40" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C40" s="4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A41" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B41" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C41" s="4" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A42" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B42" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C42" s="4" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A43" s="5" t="s">
+        <v>310</v>
+      </c>
+      <c r="B43" t="s">
+        <v>277</v>
+      </c>
+      <c r="C43" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A44" s="5" t="s">
+        <v>310</v>
+      </c>
+      <c r="B44" t="s">
+        <v>243</v>
+      </c>
+      <c r="C44" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A45" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B45" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C45" s="4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A46" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B46" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="C46" s="4" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A47" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B47" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="C47" s="4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A48" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B48" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="C31" s="4" t="s">
+      <c r="C48" s="4" t="s">
         <v>51</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A32" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B32" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="C32" s="4" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A33" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B33" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="C33" s="4" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="B34" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="C34" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="D34" s="8" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A35" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B35" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="C35" s="4" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A36" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B36" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="C36" s="4" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A37" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B37" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="C37" s="4" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A38" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B38" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="C38" s="4" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A39" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B39" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="C39" s="4" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A40" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B40" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="C40" s="4" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A41" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B41" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="C41" s="4" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A42" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B42" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="C42" s="4" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A43" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B43" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="C43" s="4" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A44" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B44" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="C44" s="4" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A45" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B45" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="C45" s="4" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A46" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B46" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="C46" s="4" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A47" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B47" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="C47" s="4" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A48" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B48" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="C48" s="4" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A49" s="4" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>77</v>
+        <v>51</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>74</v>
+        <v>51</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A50" s="4" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>78</v>
+        <v>54</v>
       </c>
       <c r="C50" s="4" t="s">
-        <v>74</v>
+        <v>51</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A51" s="4" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>79</v>
+        <v>57</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>74</v>
+        <v>57</v>
+      </c>
+      <c r="D51" t="s">
+        <v>339</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A52" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B52" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="C52" s="4" t="s">
-        <v>74</v>
+      <c r="A52" s="5" t="s">
+        <v>310</v>
+      </c>
+      <c r="B52" t="s">
+        <v>241</v>
+      </c>
+      <c r="C52" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A53" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B53" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="C53" s="4" t="s">
-        <v>74</v>
+      <c r="A53" s="5" t="s">
+        <v>310</v>
+      </c>
+      <c r="B53" t="s">
+        <v>220</v>
+      </c>
+      <c r="C53" t="s">
+        <v>220</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A54" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B54" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="C54" s="4" t="s">
-        <v>74</v>
+      <c r="A54" s="5" t="s">
+        <v>310</v>
+      </c>
+      <c r="B54" t="s">
+        <v>234</v>
+      </c>
+      <c r="C54" t="s">
+        <v>234</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A55" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B55" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="C55" s="4" t="s">
-        <v>74</v>
+      <c r="B55" t="s">
+        <v>316</v>
+      </c>
+      <c r="C55" t="s">
+        <v>234</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A56" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B56" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="C56" s="4" t="s">
-        <v>74</v>
+      <c r="A56" s="5" t="s">
+        <v>310</v>
+      </c>
+      <c r="B56" t="s">
+        <v>246</v>
+      </c>
+      <c r="C56" t="s">
+        <v>319</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.2">
@@ -4562,10 +4497,10 @@
         <v>3</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>85</v>
+        <v>60</v>
       </c>
       <c r="C57" s="4" t="s">
-        <v>74</v>
+        <v>319</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.2">
@@ -4573,10 +4508,10 @@
         <v>3</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>86</v>
+        <v>62</v>
       </c>
       <c r="C58" s="4" t="s">
-        <v>74</v>
+        <v>319</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.2">
@@ -4584,10 +4519,10 @@
         <v>3</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>87</v>
+        <v>63</v>
       </c>
       <c r="C59" s="4" t="s">
-        <v>74</v>
+        <v>319</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.2">
@@ -4595,71 +4530,65 @@
         <v>3</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>88</v>
+        <v>64</v>
       </c>
       <c r="C60" s="4" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A61" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="B61" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="C61" s="5" t="s">
-        <v>362</v>
-      </c>
-      <c r="D61" s="8" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A62" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="B62" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="C62" s="5" t="s">
-        <v>362</v>
-      </c>
-      <c r="D62" s="8" t="s">
-        <v>342</v>
+        <v>319</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A61" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B61" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="C61" s="4" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A62" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B62" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="C62" s="4" t="s">
+        <v>319</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A63" s="4" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>92</v>
+        <v>67</v>
       </c>
       <c r="C63" s="4" t="s">
-        <v>93</v>
+        <v>319</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A64" s="4" t="s">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="B64" s="4" t="s">
-        <v>94</v>
+        <v>68</v>
       </c>
       <c r="C64" s="4" t="s">
-        <v>95</v>
+        <v>319</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A65" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B65" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="C65" s="4" t="s">
-        <v>97</v>
+      <c r="A65" t="s">
+        <v>9</v>
+      </c>
+      <c r="B65" t="s">
+        <v>31</v>
+      </c>
+      <c r="C65" t="s">
+        <v>319</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.2">
@@ -4667,32 +4596,32 @@
         <v>3</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>98</v>
+        <v>69</v>
       </c>
       <c r="C66" s="4" t="s">
-        <v>97</v>
+        <v>70</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A67" s="4" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>99</v>
+        <v>71</v>
       </c>
       <c r="C67" s="4" t="s">
-        <v>97</v>
+        <v>70</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A68" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B68" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="C68" s="4" t="s">
-        <v>97</v>
+      <c r="A68" s="5" t="s">
+        <v>310</v>
+      </c>
+      <c r="B68" t="s">
+        <v>70</v>
+      </c>
+      <c r="C68" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.2">
@@ -4700,142 +4629,142 @@
         <v>3</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>101</v>
+        <v>72</v>
       </c>
       <c r="C69" s="4" t="s">
-        <v>97</v>
+        <v>72</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A70" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B70" s="4" t="s">
-        <v>102</v>
-      </c>
-      <c r="C70" s="4" t="s">
-        <v>97</v>
+      <c r="A70" s="5" t="s">
+        <v>310</v>
+      </c>
+      <c r="B70" t="s">
+        <v>72</v>
+      </c>
+      <c r="C70" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A71" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B71" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="C71" s="4" t="s">
-        <v>104</v>
+        <v>12</v>
+      </c>
+      <c r="B71" t="s">
+        <v>320</v>
+      </c>
+      <c r="C71" t="s">
+        <v>321</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A72" s="4" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="B72" s="4" t="s">
-        <v>106</v>
+        <v>89</v>
       </c>
       <c r="C72" s="4" t="s">
-        <v>104</v>
+        <v>340</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A73" s="4" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="B73" s="4" t="s">
-        <v>107</v>
+        <v>91</v>
       </c>
       <c r="C73" s="4" t="s">
-        <v>104</v>
+        <v>340</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A74" s="4" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="B74" s="4" t="s">
-        <v>108</v>
+        <v>208</v>
       </c>
       <c r="C74" s="4" t="s">
-        <v>104</v>
+        <v>340</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A75" s="4" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="B75" s="4" t="s">
-        <v>109</v>
+        <v>210</v>
       </c>
       <c r="C75" s="4" t="s">
-        <v>104</v>
+        <v>340</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A76" s="4" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="B76" s="4" t="s">
-        <v>110</v>
+        <v>211</v>
       </c>
       <c r="C76" s="4" t="s">
-        <v>104</v>
+        <v>340</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A77" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B77" s="4" t="s">
-        <v>111</v>
-      </c>
-      <c r="C77" s="4" t="s">
-        <v>104</v>
+      <c r="A77" s="5" t="s">
+        <v>310</v>
+      </c>
+      <c r="B77" t="s">
+        <v>236</v>
+      </c>
+      <c r="C77" t="s">
+        <v>340</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A78" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B78" s="4" t="s">
-        <v>112</v>
-      </c>
-      <c r="C78" s="4" t="s">
-        <v>104</v>
+      <c r="A78" s="5" t="s">
+        <v>310</v>
+      </c>
+      <c r="B78" t="s">
+        <v>238</v>
+      </c>
+      <c r="C78" t="s">
+        <v>340</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A79" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B79" s="4" t="s">
-        <v>113</v>
-      </c>
-      <c r="C79" s="4" t="s">
-        <v>104</v>
+      <c r="A79" s="5" t="s">
+        <v>310</v>
+      </c>
+      <c r="B79" t="s">
+        <v>279</v>
+      </c>
+      <c r="C79" t="s">
+        <v>340</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A80" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B80" s="4" t="s">
-        <v>114</v>
-      </c>
-      <c r="C80" s="4" t="s">
-        <v>104</v>
+      <c r="A80" s="5" t="s">
+        <v>310</v>
+      </c>
+      <c r="B80" t="s">
+        <v>286</v>
+      </c>
+      <c r="C80" t="s">
+        <v>340</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A81" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B81" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="C81" s="4" t="s">
-        <v>104</v>
+      <c r="A81" s="5" t="s">
+        <v>310</v>
+      </c>
+      <c r="B81" t="s">
+        <v>287</v>
+      </c>
+      <c r="C81" t="s">
+        <v>340</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.2">
@@ -4843,10 +4772,10 @@
         <v>3</v>
       </c>
       <c r="B82" s="4" t="s">
-        <v>116</v>
+        <v>73</v>
       </c>
       <c r="C82" s="4" t="s">
-        <v>104</v>
+        <v>74</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.2">
@@ -4854,65 +4783,65 @@
         <v>3</v>
       </c>
       <c r="B83" s="4" t="s">
-        <v>117</v>
+        <v>75</v>
       </c>
       <c r="C83" s="4" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.2">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A84" s="4" t="s">
         <v>3</v>
       </c>
       <c r="B84" s="4" t="s">
-        <v>118</v>
+        <v>76</v>
       </c>
       <c r="C84" s="4" t="s">
-        <v>119</v>
+        <v>74</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A85" s="4" t="s">
-        <v>29</v>
+        <v>3</v>
       </c>
       <c r="B85" s="4" t="s">
-        <v>120</v>
+        <v>77</v>
       </c>
       <c r="C85" s="4" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="86" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A86" s="4" t="s">
-        <v>29</v>
+        <v>3</v>
       </c>
       <c r="B86" s="4" t="s">
-        <v>122</v>
+        <v>78</v>
       </c>
       <c r="C86" s="4" t="s">
-        <v>104</v>
+        <v>74</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A87" s="4" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="B87" s="4" t="s">
-        <v>125</v>
+        <v>79</v>
       </c>
       <c r="C87" s="4" t="s">
-        <v>125</v>
+        <v>74</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A88" s="4" t="s">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="B88" s="4" t="s">
-        <v>127</v>
+        <v>80</v>
       </c>
       <c r="C88" s="4" t="s">
-        <v>125</v>
+        <v>74</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.2">
@@ -4920,10 +4849,10 @@
         <v>3</v>
       </c>
       <c r="B89" s="4" t="s">
-        <v>128</v>
+        <v>81</v>
       </c>
       <c r="C89" s="4" t="s">
-        <v>119</v>
+        <v>74</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.2">
@@ -4931,10 +4860,10 @@
         <v>3</v>
       </c>
       <c r="B90" s="4" t="s">
-        <v>129</v>
+        <v>82</v>
       </c>
       <c r="C90" s="4" t="s">
-        <v>119</v>
+        <v>74</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.2">
@@ -4942,10 +4871,10 @@
         <v>3</v>
       </c>
       <c r="B91" s="4" t="s">
-        <v>130</v>
+        <v>83</v>
       </c>
       <c r="C91" s="4" t="s">
-        <v>119</v>
+        <v>74</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.2">
@@ -4953,10 +4882,10 @@
         <v>3</v>
       </c>
       <c r="B92" s="4" t="s">
-        <v>131</v>
+        <v>84</v>
       </c>
       <c r="C92" s="4" t="s">
-        <v>119</v>
+        <v>74</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.2">
@@ -4964,10 +4893,10 @@
         <v>3</v>
       </c>
       <c r="B93" s="4" t="s">
-        <v>132</v>
+        <v>85</v>
       </c>
       <c r="C93" s="4" t="s">
-        <v>119</v>
+        <v>74</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.2">
@@ -4975,10 +4904,10 @@
         <v>3</v>
       </c>
       <c r="B94" s="4" t="s">
-        <v>133</v>
+        <v>86</v>
       </c>
       <c r="C94" s="4" t="s">
-        <v>119</v>
+        <v>74</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.2">
@@ -4986,10 +4915,10 @@
         <v>3</v>
       </c>
       <c r="B95" s="4" t="s">
-        <v>134</v>
+        <v>87</v>
       </c>
       <c r="C95" s="4" t="s">
-        <v>119</v>
+        <v>74</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.2">
@@ -4997,2352 +4926,2164 @@
         <v>3</v>
       </c>
       <c r="B96" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="C96" s="4" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A97" s="5" t="s">
+        <v>310</v>
+      </c>
+      <c r="B97" t="s">
+        <v>235</v>
+      </c>
+      <c r="C97" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A98" s="5" t="s">
+        <v>310</v>
+      </c>
+      <c r="B98" t="s">
+        <v>222</v>
+      </c>
+      <c r="C98" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A99" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B99" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="C99" s="4" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A100" s="5" t="s">
+        <v>310</v>
+      </c>
+      <c r="B100" t="s">
+        <v>239</v>
+      </c>
+      <c r="C100" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A101" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B101" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="C101" s="4" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A102" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B102" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="C102" s="4" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A103" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B103" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="C103" s="4" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A104" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B104" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="C104" s="4" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A105" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B105" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="C105" s="4" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A106" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B106" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="C106" s="4" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A107" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B107" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="C107" s="4" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A108" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B108" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="C108" s="4" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A109" s="5" t="s">
+        <v>310</v>
+      </c>
+      <c r="B109" t="s">
+        <v>244</v>
+      </c>
+      <c r="C109" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A110" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B110" t="s">
+        <v>103</v>
+      </c>
+      <c r="C110" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A111" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B111" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="C111" s="4" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A112" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B112" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="C112" s="4" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A113" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B113" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="C113" s="4" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A114" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B114" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="C114" s="4" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A115" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B115" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="C115" s="4" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A116" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B116" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="C116" s="4" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A117" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B117" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="C117" s="4" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A118" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B118" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="C118" s="4" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A119" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B119" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="C119" s="4" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A120" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B120" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="C120" s="4" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A121" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B121" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="C121" s="4" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A122" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B122" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="C122" s="4" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A123" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B123" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="C123" s="4" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A124" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B124" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="C124" s="4" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A125" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B125" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="C125" s="4" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A126" s="5" t="s">
+        <v>310</v>
+      </c>
+      <c r="B126" t="s">
+        <v>230</v>
+      </c>
+      <c r="C126" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A127" s="5" t="s">
+        <v>310</v>
+      </c>
+      <c r="B127" t="s">
+        <v>233</v>
+      </c>
+      <c r="C127" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A128" s="5" t="s">
+        <v>310</v>
+      </c>
+      <c r="B128" t="s">
+        <v>230</v>
+      </c>
+      <c r="C128" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A129" s="5" t="s">
+        <v>310</v>
+      </c>
+      <c r="B129" t="s">
+        <v>233</v>
+      </c>
+      <c r="C129" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A130" s="5" t="s">
+        <v>310</v>
+      </c>
+      <c r="B130" t="s">
+        <v>248</v>
+      </c>
+      <c r="C130" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A131" s="5" t="s">
+        <v>310</v>
+      </c>
+      <c r="B131" t="s">
+        <v>249</v>
+      </c>
+      <c r="C131" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A132" s="5" t="s">
+        <v>310</v>
+      </c>
+      <c r="B132" t="s">
+        <v>250</v>
+      </c>
+      <c r="C132" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A133" s="5" t="s">
+        <v>310</v>
+      </c>
+      <c r="B133" t="s">
+        <v>251</v>
+      </c>
+      <c r="C133" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A134" s="5" t="s">
+        <v>310</v>
+      </c>
+      <c r="B134" t="s">
+        <v>252</v>
+      </c>
+      <c r="C134" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A135" s="5" t="s">
+        <v>310</v>
+      </c>
+      <c r="B135" t="s">
+        <v>253</v>
+      </c>
+      <c r="C135" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A136" s="5" t="s">
+        <v>310</v>
+      </c>
+      <c r="B136" t="s">
+        <v>254</v>
+      </c>
+      <c r="C136" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A137" s="5" t="s">
+        <v>310</v>
+      </c>
+      <c r="B137" t="s">
+        <v>255</v>
+      </c>
+      <c r="C137" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A138" s="5" t="s">
+        <v>310</v>
+      </c>
+      <c r="B138" t="s">
+        <v>256</v>
+      </c>
+      <c r="C138" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A139" s="5" t="s">
+        <v>310</v>
+      </c>
+      <c r="B139" t="s">
+        <v>257</v>
+      </c>
+      <c r="C139" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A140" s="5" t="s">
+        <v>310</v>
+      </c>
+      <c r="B140" t="s">
+        <v>258</v>
+      </c>
+      <c r="C140" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A141" s="5" t="s">
+        <v>310</v>
+      </c>
+      <c r="B141" t="s">
+        <v>253</v>
+      </c>
+      <c r="C141" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A142" s="5" t="s">
+        <v>310</v>
+      </c>
+      <c r="B142" t="s">
+        <v>303</v>
+      </c>
+      <c r="C142" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A143" t="s">
+        <v>310</v>
+      </c>
+      <c r="B143" t="s">
+        <v>325</v>
+      </c>
+      <c r="C143" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A144" t="s">
+        <v>310</v>
+      </c>
+      <c r="B144" t="s">
+        <v>326</v>
+      </c>
+      <c r="C144" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A145" t="s">
+        <v>310</v>
+      </c>
+      <c r="B145" t="s">
+        <v>327</v>
+      </c>
+      <c r="C145" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A146" t="s">
+        <v>310</v>
+      </c>
+      <c r="B146" t="s">
+        <v>328</v>
+      </c>
+      <c r="C146" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="147" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A147" t="s">
+        <v>310</v>
+      </c>
+      <c r="B147" t="s">
+        <v>329</v>
+      </c>
+      <c r="C147" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A148" t="s">
+        <v>310</v>
+      </c>
+      <c r="B148" t="s">
+        <v>330</v>
+      </c>
+      <c r="C148" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A149" t="s">
+        <v>310</v>
+      </c>
+      <c r="B149" t="s">
+        <v>332</v>
+      </c>
+      <c r="C149" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A150" t="s">
+        <v>310</v>
+      </c>
+      <c r="B150" t="s">
+        <v>333</v>
+      </c>
+      <c r="C150" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="151" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A151" t="s">
+        <v>310</v>
+      </c>
+      <c r="B151" t="s">
+        <v>335</v>
+      </c>
+      <c r="C151" t="s">
+        <v>225</v>
+      </c>
+      <c r="D151" s="4"/>
+    </row>
+    <row r="152" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A152" t="s">
+        <v>310</v>
+      </c>
+      <c r="B152" t="s">
+        <v>336</v>
+      </c>
+      <c r="C152" t="s">
+        <v>225</v>
+      </c>
+      <c r="D152" s="4"/>
+    </row>
+    <row r="153" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A153" t="s">
+        <v>310</v>
+      </c>
+      <c r="B153" t="s">
+        <v>337</v>
+      </c>
+      <c r="C153" t="s">
+        <v>225</v>
+      </c>
+      <c r="D153" s="4"/>
+    </row>
+    <row r="154" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A154" t="s">
+        <v>9</v>
+      </c>
+      <c r="B154" t="s">
+        <v>123</v>
+      </c>
+      <c r="C154" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="155" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A155" t="s">
+        <v>12</v>
+      </c>
+      <c r="B155" s="5" t="s">
+        <v>342</v>
+      </c>
+      <c r="C155" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="156" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A156" s="5" t="s">
+        <v>310</v>
+      </c>
+      <c r="B156" t="s">
+        <v>223</v>
+      </c>
+      <c r="C156" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="157" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A157" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B157" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="C157" s="4" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="158" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A158" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B158" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="C158" s="4" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="159" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A159" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B159" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="C159" s="4" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="160" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A160" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B160" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="C160" s="4" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="161" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A161" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B161" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="C161" s="4" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="162" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A162" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B162" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="C162" s="4" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="163" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A163" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B163" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="C163" s="4" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="164" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A164" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B164" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="C164" s="4" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="165" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A165" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B165" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="C165" s="4" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="166" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A166" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B166" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="C166" s="4" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="167" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A167" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B167" s="4" t="s">
         <v>135</v>
       </c>
-      <c r="C96" s="4" t="s">
+      <c r="C167" s="4" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A97" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B97" s="4" t="s">
+    <row r="168" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A168" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B168" s="4" t="s">
         <v>136</v>
       </c>
-      <c r="C97" s="4" t="s">
+      <c r="C168" s="4" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A98" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B98" s="4" t="s">
+    <row r="169" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A169" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B169" s="4" t="s">
         <v>137</v>
       </c>
-      <c r="C98" s="4" t="s">
+      <c r="C169" s="4" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A99" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B99" s="4" t="s">
+    <row r="170" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A170" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B170" s="4" t="s">
         <v>138</v>
       </c>
-      <c r="C99" s="4" t="s">
+      <c r="C170" s="4" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A100" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B100" s="4" t="s">
+    <row r="171" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A171" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B171" s="4" t="s">
         <v>139</v>
       </c>
-      <c r="C100" s="4" t="s">
+      <c r="C171" s="4" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A101" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B101" s="4" t="s">
+    <row r="172" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A172" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B172" s="4" t="s">
         <v>140</v>
       </c>
-      <c r="C101" s="4" t="s">
+      <c r="C172" s="4" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A102" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B102" s="4" t="s">
+    <row r="173" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A173" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B173" s="4" t="s">
         <v>141</v>
       </c>
-      <c r="C102" s="4" t="s">
+      <c r="C173" s="4" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A103" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B103" s="4" t="s">
+    <row r="174" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A174" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B174" s="4" t="s">
         <v>142</v>
       </c>
-      <c r="C103" s="4" t="s">
+      <c r="C174" s="4" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A104" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B104" s="4" t="s">
+    <row r="175" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A175" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B175" s="4" t="s">
         <v>144</v>
       </c>
-      <c r="C104" s="4" t="s">
+      <c r="C175" s="4" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A105" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B105" s="4" t="s">
+    <row r="176" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A176" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B176" s="4" t="s">
         <v>145</v>
       </c>
-      <c r="C105" s="4" t="s">
+      <c r="C176" s="4" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A106" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B106" s="4" t="s">
+    <row r="177" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A177" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B177" s="4" t="s">
         <v>146</v>
       </c>
-      <c r="C106" s="4" t="s">
+      <c r="C177" s="4" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A107" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B107" s="4" t="s">
+    <row r="178" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A178" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B178" s="4" t="s">
         <v>147</v>
       </c>
-      <c r="C107" s="4" t="s">
+      <c r="C178" s="4" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A108" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B108" s="4" t="s">
+    <row r="179" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A179" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B179" s="4" t="s">
         <v>148</v>
       </c>
-      <c r="C108" s="4" t="s">
+      <c r="C179" s="4" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A109" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B109" s="4" t="s">
+    <row r="180" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A180" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B180" s="4" t="s">
         <v>149</v>
       </c>
-      <c r="C109" s="4" t="s">
+      <c r="C180" s="4" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="110" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A110" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="B110" s="5" t="s">
+    <row r="181" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A181" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B181" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="C181" s="4" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="182" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A182" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B182" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="C182" s="4" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="183" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A183" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B183" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="C183" s="4" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="184" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A184" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B184" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="C184" s="4" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="185" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A185" s="5" t="s">
+        <v>310</v>
+      </c>
+      <c r="B185" t="s">
+        <v>259</v>
+      </c>
+      <c r="C185" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="186" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A186" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B186" t="s">
+        <v>314</v>
+      </c>
+      <c r="C186" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="187" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A187" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="B187" t="s">
+        <v>53</v>
+      </c>
+      <c r="C187" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="188" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A188" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="B188" t="s">
+        <v>56</v>
+      </c>
+      <c r="C188" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="189" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A189" s="5" t="s">
+        <v>310</v>
+      </c>
+      <c r="B189" t="s">
+        <v>304</v>
+      </c>
+      <c r="C189" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="190" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A190" s="5" t="s">
+        <v>310</v>
+      </c>
+      <c r="B190" t="s">
+        <v>305</v>
+      </c>
+      <c r="C190" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="191" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A191" s="5" t="s">
+        <v>310</v>
+      </c>
+      <c r="B191" t="s">
+        <v>306</v>
+      </c>
+      <c r="C191" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="192" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A192" s="5" t="s">
+        <v>310</v>
+      </c>
+      <c r="B192" t="s">
+        <v>307</v>
+      </c>
+      <c r="C192" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="193" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A193" s="5" t="s">
+        <v>310</v>
+      </c>
+      <c r="B193" t="s">
+        <v>308</v>
+      </c>
+      <c r="C193" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="194" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A194" s="5" t="s">
+        <v>310</v>
+      </c>
+      <c r="B194" t="s">
+        <v>309</v>
+      </c>
+      <c r="C194" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="195" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A195" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B195" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="C195" s="4" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="196" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A196" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B196" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="C196" s="4" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="197" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A197" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B197" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="C197" s="4" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="198" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A198" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B198" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="C198" s="4" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="199" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A199" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B199" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="C199" s="4" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="200" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A200" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B200" t="s">
+        <v>196</v>
+      </c>
+      <c r="C200" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="201" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A201" s="5" t="s">
+        <v>310</v>
+      </c>
+      <c r="B201" t="s">
+        <v>213</v>
+      </c>
+      <c r="C201" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="202" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A202" s="5" t="s">
+        <v>310</v>
+      </c>
+      <c r="B202" t="s">
+        <v>260</v>
+      </c>
+      <c r="C202" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="203" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A203" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B203" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="C203" s="4" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="204" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A204" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="B204" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="C204" s="4" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="205" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A205" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B205" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="C205" s="4" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="206" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A206" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B206" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="C206" s="4" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="207" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A207" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B207" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="C207" s="4" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="208" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A208" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B208" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="C208" s="4" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="209" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A209" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B209" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="C209" s="4" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="210" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A210" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B210" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="C210" s="4" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="211" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A211" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B211" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="C211" s="4" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="212" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A212" s="5" t="s">
+        <v>310</v>
+      </c>
+      <c r="B212" t="s">
+        <v>164</v>
+      </c>
+      <c r="C212" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="213" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A213" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B213" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="C213" s="4" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="214" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A214" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B214" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="C214" s="4" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="215" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A215" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B215" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="C215" s="4" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="216" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A216" s="5" t="s">
+        <v>310</v>
+      </c>
+      <c r="B216" t="s">
+        <v>176</v>
+      </c>
+      <c r="C216" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="217" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A217" t="s">
+        <v>310</v>
+      </c>
+      <c r="B217" t="s">
+        <v>331</v>
+      </c>
+      <c r="C217" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="218" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A218" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B218" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="C218" s="4" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="219" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A219" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B219" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="C219" s="4" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="220" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A220" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B220" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="C220" s="4" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="221" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A221" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B221" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="C221" s="4" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="222" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A222" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B222" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="C222" s="4" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="223" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A223" s="5" t="s">
+        <v>310</v>
+      </c>
+      <c r="B223" t="s">
+        <v>182</v>
+      </c>
+      <c r="C223" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="224" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A224" s="5" t="s">
+        <v>310</v>
+      </c>
+      <c r="B224" t="s">
+        <v>95</v>
+      </c>
+      <c r="C224" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="225" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A225" s="5" t="s">
+        <v>310</v>
+      </c>
+      <c r="B225" t="s">
+        <v>182</v>
+      </c>
+      <c r="C225" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="226" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A226" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B226" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="C226" s="4" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="227" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A227" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B227" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="C227" s="4" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="228" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A228" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B228" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="C228" s="4" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="229" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A229" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B229" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="C229" s="4" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="230" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A230" s="5" t="s">
+        <v>310</v>
+      </c>
+      <c r="B230" t="s">
+        <v>289</v>
+      </c>
+      <c r="C230" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="231" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A231" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B231" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="C231" s="4" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="232" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A232" s="5" t="s">
+        <v>310</v>
+      </c>
+      <c r="B232" t="s">
+        <v>214</v>
+      </c>
+      <c r="C232" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="233" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A233" s="5" t="s">
+        <v>310</v>
+      </c>
+      <c r="B233" t="s">
+        <v>261</v>
+      </c>
+      <c r="C233" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="234" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A234" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B234" s="4" t="s">
+        <v>194</v>
+      </c>
+      <c r="C234" s="4" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="235" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A235" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B235" s="4" t="s">
+        <v>197</v>
+      </c>
+      <c r="C235" s="4" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="236" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A236" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B236" s="4" t="s">
+        <v>198</v>
+      </c>
+      <c r="C236" s="4" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="237" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A237" s="5" t="s">
+        <v>310</v>
+      </c>
+      <c r="B237" t="s">
+        <v>237</v>
+      </c>
+      <c r="C237" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="238" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A238" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B238" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="C238" s="4" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="239" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A239" s="5" t="s">
+        <v>310</v>
+      </c>
+      <c r="B239" t="s">
+        <v>245</v>
+      </c>
+      <c r="C239" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="240" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A240" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="B240" t="s">
+        <v>36</v>
+      </c>
+      <c r="C240" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="241" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A241" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B241" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="C241" s="4" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="242" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A242" s="5" t="s">
+        <v>310</v>
+      </c>
+      <c r="B242" t="s">
+        <v>242</v>
+      </c>
+      <c r="C242" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="243" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A243" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B243" t="s">
+        <v>322</v>
+      </c>
+      <c r="C243" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="244" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A244" s="5" t="s">
+        <v>310</v>
+      </c>
+      <c r="B244" t="s">
+        <v>247</v>
+      </c>
+      <c r="C244" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="245" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A245" s="5" t="s">
+        <v>310</v>
+      </c>
+      <c r="B245" t="s">
+        <v>262</v>
+      </c>
+      <c r="C245" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="246" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A246" s="5" t="s">
+        <v>310</v>
+      </c>
+      <c r="B246" t="s">
+        <v>302</v>
+      </c>
+      <c r="C246" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="247" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A247" s="5" t="s">
+        <v>310</v>
+      </c>
+      <c r="B247" t="s">
+        <v>263</v>
+      </c>
+      <c r="C247" s="4" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="248" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A248" s="5" t="s">
+        <v>310</v>
+      </c>
+      <c r="B248" t="s">
+        <v>264</v>
+      </c>
+      <c r="C248" s="4" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="249" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A249" s="5" t="s">
+        <v>310</v>
+      </c>
+      <c r="B249" t="s">
+        <v>201</v>
+      </c>
+      <c r="C249" s="4" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="250" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A250" s="5" t="s">
+        <v>310</v>
+      </c>
+      <c r="B250" t="s">
+        <v>202</v>
+      </c>
+      <c r="C250" s="4" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="251" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A251" s="5" t="s">
+        <v>310</v>
+      </c>
+      <c r="B251" t="s">
+        <v>265</v>
+      </c>
+      <c r="C251" s="4" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="252" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A252" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B252" s="4" t="s">
+        <v>201</v>
+      </c>
+      <c r="C252" s="4" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="253" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A253" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B253" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="C253" s="4" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="254" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A254" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B254" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="C254" s="4" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="255" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A255" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B255" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="C255" s="4" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="256" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A256" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B256" t="s">
+        <v>317</v>
+      </c>
+      <c r="C256" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="257" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A257" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B257" s="4" t="s">
         <v>150</v>
       </c>
-      <c r="C110" s="5" t="s">
+      <c r="C257" s="4" t="s">
         <v>207</v>
       </c>
-      <c r="D110" s="8" t="s">
+    </row>
+    <row r="258" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A258" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B258" s="4" t="s">
+        <v>206</v>
+      </c>
+      <c r="C258" s="4" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="259" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A259" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B259" t="s">
+        <v>143</v>
+      </c>
+      <c r="C259" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="260" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A260" s="5" t="s">
+        <v>310</v>
+      </c>
+      <c r="B260" t="s">
+        <v>266</v>
+      </c>
+      <c r="C260" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="261" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A261" s="5" t="s">
+        <v>310</v>
+      </c>
+      <c r="B261" t="s">
+        <v>268</v>
+      </c>
+      <c r="C261" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="262" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A262" s="5" t="s">
+        <v>310</v>
+      </c>
+      <c r="B262" t="s">
+        <v>269</v>
+      </c>
+      <c r="C262" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="263" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A263" s="5" t="s">
+        <v>310</v>
+      </c>
+      <c r="B263" t="s">
+        <v>270</v>
+      </c>
+      <c r="C263" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="264" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A264" s="5" t="s">
+        <v>310</v>
+      </c>
+      <c r="B264" t="s">
+        <v>271</v>
+      </c>
+      <c r="C264" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="265" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A265" s="5" t="s">
+        <v>310</v>
+      </c>
+      <c r="B265" t="s">
+        <v>272</v>
+      </c>
+      <c r="C265" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="266" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A266" s="5" t="s">
+        <v>310</v>
+      </c>
+      <c r="B266" t="s">
+        <v>273</v>
+      </c>
+      <c r="C266" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="267" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A267" s="5" t="s">
+        <v>310</v>
+      </c>
+      <c r="B267" t="s">
+        <v>274</v>
+      </c>
+      <c r="C267" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="268" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A268" s="5" t="s">
+        <v>310</v>
+      </c>
+      <c r="B268" t="s">
+        <v>275</v>
+      </c>
+      <c r="C268" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="269" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A269" s="5" t="s">
+        <v>310</v>
+      </c>
+      <c r="B269" t="s">
+        <v>276</v>
+      </c>
+      <c r="C269" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="270" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A270" s="5" t="s">
+        <v>310</v>
+      </c>
+      <c r="B270" t="s">
+        <v>278</v>
+      </c>
+      <c r="C270" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="271" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A271" s="5" t="s">
+        <v>310</v>
+      </c>
+      <c r="B271" t="s">
+        <v>280</v>
+      </c>
+      <c r="C271" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="272" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A272" s="5" t="s">
+        <v>310</v>
+      </c>
+      <c r="B272" t="s">
+        <v>281</v>
+      </c>
+      <c r="C272" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="273" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A273" s="5" t="s">
+        <v>310</v>
+      </c>
+      <c r="B273" t="s">
+        <v>282</v>
+      </c>
+      <c r="C273" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="274" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A274" s="5" t="s">
+        <v>310</v>
+      </c>
+      <c r="B274" t="s">
+        <v>229</v>
+      </c>
+      <c r="C274" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="275" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A275" s="5" t="s">
+        <v>310</v>
+      </c>
+      <c r="B275" t="s">
+        <v>283</v>
+      </c>
+      <c r="C275" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="276" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A276" s="5" t="s">
+        <v>310</v>
+      </c>
+      <c r="B276" t="s">
+        <v>284</v>
+      </c>
+      <c r="C276" t="s">
         <v>343</v>
       </c>
     </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A111" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B111" s="4" t="s">
-        <v>151</v>
-      </c>
-      <c r="C111" s="4" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A112" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B112" s="4" t="s">
-        <v>152</v>
-      </c>
-      <c r="C112" s="4" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="113" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A113" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="B113" s="5" t="s">
-        <v>153</v>
-      </c>
-      <c r="C113" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="D113" s="8" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A114" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B114" s="4" t="s">
-        <v>154</v>
-      </c>
-      <c r="C114" s="4" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A115" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B115" s="4" t="s">
-        <v>155</v>
-      </c>
-      <c r="C115" s="4" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="116" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A116" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="B116" s="5" t="s">
-        <v>156</v>
-      </c>
-      <c r="C116" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="D116" s="8" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A117" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B117" s="4" t="s">
-        <v>157</v>
-      </c>
-      <c r="C117" s="4" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A118" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B118" s="4" t="s">
-        <v>159</v>
-      </c>
-      <c r="C118" s="4" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A119" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B119" s="4" t="s">
-        <v>160</v>
-      </c>
-      <c r="C119" s="4" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A120" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B120" s="4" t="s">
-        <v>161</v>
-      </c>
-      <c r="C120" s="4" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A121" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B121" s="4" t="s">
-        <v>162</v>
-      </c>
-      <c r="C121" s="4" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A122" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B122" s="4" t="s">
-        <v>163</v>
-      </c>
-      <c r="C122" s="4" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A123" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="B123" s="4" t="s">
-        <v>164</v>
-      </c>
-      <c r="C123" s="4" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A124" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B124" s="4" t="s">
-        <v>166</v>
-      </c>
-      <c r="C124" s="4" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A125" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B125" s="4" t="s">
-        <v>167</v>
-      </c>
-      <c r="C125" s="4" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A126" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B126" s="4" t="s">
-        <v>168</v>
-      </c>
-      <c r="C126" s="4" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A127" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B127" s="4" t="s">
-        <v>170</v>
-      </c>
-      <c r="C127" s="4" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A128" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B128" s="4" t="s">
-        <v>171</v>
-      </c>
-      <c r="C128" s="4" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A129" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B129" s="4" t="s">
-        <v>172</v>
-      </c>
-      <c r="C129" s="4" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A130" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B130" s="4" t="s">
-        <v>173</v>
-      </c>
-      <c r="C130" s="4" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="131" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A131" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="B131" s="5" t="s">
-        <v>174</v>
-      </c>
-      <c r="C131" s="5" t="s">
-        <v>165</v>
-      </c>
-      <c r="D131" s="8" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A132" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B132" s="4" t="s">
-        <v>175</v>
-      </c>
-      <c r="C132" s="4" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A133" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B133" s="4" t="s">
-        <v>177</v>
-      </c>
-      <c r="C133" s="4" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A134" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B134" s="4" t="s">
-        <v>178</v>
-      </c>
-      <c r="C134" s="4" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A135" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B135" s="4" t="s">
-        <v>179</v>
-      </c>
-      <c r="C135" s="4" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A136" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B136" s="4" t="s">
-        <v>181</v>
-      </c>
-      <c r="C136" s="4" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A137" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B137" s="4" t="s">
-        <v>183</v>
-      </c>
-      <c r="C137" s="4" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A138" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B138" s="4" t="s">
-        <v>184</v>
-      </c>
-      <c r="C138" s="4" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A139" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B139" s="4" t="s">
-        <v>185</v>
-      </c>
-      <c r="C139" s="4" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A140" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B140" s="4" t="s">
-        <v>186</v>
-      </c>
-      <c r="C140" s="4" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A141" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B141" s="4" t="s">
-        <v>188</v>
-      </c>
-      <c r="C141" s="4" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="142" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A142" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B142" s="4" t="s">
-        <v>189</v>
-      </c>
-      <c r="C142" s="4" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="143" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A143" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B143" s="4" t="s">
-        <v>191</v>
-      </c>
-      <c r="C143" s="4" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="144" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A144" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B144" s="4" t="s">
-        <v>192</v>
-      </c>
-      <c r="C144" s="4" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="145" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A145" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B145" s="4" t="s">
-        <v>194</v>
-      </c>
-      <c r="C145" s="4" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="146" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A146" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B146" s="4" t="s">
-        <v>197</v>
-      </c>
-      <c r="C146" s="4" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="147" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A147" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B147" s="4" t="s">
-        <v>198</v>
-      </c>
-      <c r="C147" s="4" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="148" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A148" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B148" s="4" t="s">
-        <v>199</v>
-      </c>
-      <c r="C148" s="4" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="149" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A149" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B149" s="4" t="s">
-        <v>201</v>
-      </c>
-      <c r="C149" s="4" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="150" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A150" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B150" s="4" t="s">
-        <v>203</v>
-      </c>
-      <c r="C150" s="4" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="151" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A151" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B151" s="4" t="s">
-        <v>205</v>
-      </c>
-      <c r="C151" s="4" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="152" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A152" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B152" s="4" t="s">
-        <v>206</v>
-      </c>
-      <c r="C152" s="4" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="153" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A153" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="B153" s="5" t="s">
-        <v>208</v>
-      </c>
-      <c r="C153" s="5" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="154" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A154" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="B154" s="5" t="s">
-        <v>210</v>
-      </c>
-      <c r="C154" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="D154" s="8" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="155" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A155" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="B155" s="5" t="s">
-        <v>211</v>
-      </c>
-      <c r="C155" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="D155" s="8" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="156" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A156" s="9" t="s">
-        <v>310</v>
-      </c>
-      <c r="B156" s="8" t="s">
-        <v>228</v>
-      </c>
-      <c r="C156" s="8" t="s">
-        <v>228</v>
-      </c>
-      <c r="D156" s="8" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="157" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A157" s="9" t="s">
-        <v>310</v>
-      </c>
-      <c r="B157" s="7" t="s">
-        <v>219</v>
-      </c>
-      <c r="C157" s="7" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="158" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A158" s="9" t="s">
-        <v>310</v>
-      </c>
-      <c r="B158" s="7" t="s">
-        <v>230</v>
-      </c>
-      <c r="C158" s="7" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="159" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A159" s="9" t="s">
-        <v>310</v>
-      </c>
-      <c r="B159" s="8" t="s">
-        <v>231</v>
-      </c>
-      <c r="C159" s="8" t="s">
-        <v>363</v>
-      </c>
-      <c r="D159" s="8" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="160" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A160" s="9" t="s">
-        <v>310</v>
-      </c>
-      <c r="B160" s="8" t="s">
-        <v>232</v>
-      </c>
-      <c r="C160" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="D160" s="8" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="161" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A161" s="9" t="s">
-        <v>310</v>
-      </c>
-      <c r="B161" s="8" t="s">
-        <v>164</v>
-      </c>
-      <c r="C161" s="8" t="s">
-        <v>164</v>
-      </c>
-      <c r="D161" s="8" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="162" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A162" s="9" t="s">
-        <v>310</v>
-      </c>
-      <c r="B162" s="7" t="s">
-        <v>233</v>
-      </c>
-      <c r="C162" s="7" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="163" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A163" s="9" t="s">
-        <v>310</v>
-      </c>
-      <c r="B163" s="7" t="s">
-        <v>234</v>
-      </c>
-      <c r="C163" s="7" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="164" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A164" s="9" t="s">
-        <v>310</v>
-      </c>
-      <c r="B164" s="7" t="s">
-        <v>235</v>
-      </c>
-      <c r="C164" s="7" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="165" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A165" s="9" t="s">
-        <v>310</v>
-      </c>
-      <c r="B165" s="8" t="s">
-        <v>236</v>
-      </c>
-      <c r="C165" s="8" t="s">
-        <v>362</v>
-      </c>
-      <c r="D165" s="8" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="166" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A166" s="9" t="s">
-        <v>310</v>
-      </c>
-      <c r="B166" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="C166" s="7" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="167" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A167" s="9" t="s">
-        <v>310</v>
-      </c>
-      <c r="B167" s="7" t="s">
-        <v>237</v>
-      </c>
-      <c r="C167" s="7" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="168" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A168" s="9" t="s">
-        <v>310</v>
-      </c>
-      <c r="B168" s="8" t="s">
-        <v>238</v>
-      </c>
-      <c r="C168" s="8" t="s">
-        <v>362</v>
-      </c>
-      <c r="D168" s="8" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="169" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A169" s="9" t="s">
-        <v>310</v>
-      </c>
-      <c r="B169" s="8" t="s">
-        <v>239</v>
-      </c>
-      <c r="C169" s="8" t="s">
-        <v>239</v>
-      </c>
-      <c r="D169" s="8" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="170" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A170" s="9" t="s">
-        <v>310</v>
-      </c>
-      <c r="B170" s="7" t="s">
-        <v>240</v>
-      </c>
-      <c r="C170" s="7" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="171" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A171" s="9" t="s">
-        <v>310</v>
-      </c>
-      <c r="B171" s="7" t="s">
-        <v>241</v>
-      </c>
-      <c r="C171" s="7" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="172" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A172" s="9" t="s">
-        <v>310</v>
-      </c>
-      <c r="B172" s="7" t="s">
-        <v>242</v>
-      </c>
-      <c r="C172" s="7" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="173" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A173" s="9" t="s">
-        <v>310</v>
-      </c>
-      <c r="B173" s="7" t="s">
-        <v>243</v>
-      </c>
-      <c r="C173" s="7" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="174" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A174" s="9" t="s">
-        <v>310</v>
-      </c>
-      <c r="B174" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="C174" s="7" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="175" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A175" s="9" t="s">
-        <v>310</v>
-      </c>
-      <c r="B175" s="8" t="s">
-        <v>244</v>
-      </c>
-      <c r="C175" s="8" t="s">
-        <v>97</v>
-      </c>
-      <c r="D175" s="8" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="176" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A176" s="9" t="s">
-        <v>310</v>
-      </c>
-      <c r="B176" s="7" t="s">
-        <v>245</v>
-      </c>
-      <c r="C176" s="7" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="177" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A177" s="9" t="s">
-        <v>310</v>
-      </c>
-      <c r="B177" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="C177" s="7" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="178" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A178" s="9" t="s">
-        <v>310</v>
-      </c>
-      <c r="B178" s="7" t="s">
-        <v>220</v>
-      </c>
-      <c r="C178" s="7" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="179" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A179" s="9" t="s">
-        <v>310</v>
-      </c>
-      <c r="B179" s="7" t="s">
-        <v>246</v>
-      </c>
-      <c r="C179" s="7" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="180" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A180" s="9" t="s">
-        <v>310</v>
-      </c>
-      <c r="B180" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="C180" s="7" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="181" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A181" s="9" t="s">
-        <v>310</v>
-      </c>
-      <c r="B181" s="7" t="s">
-        <v>222</v>
-      </c>
-      <c r="C181" s="7" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="182" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A182" s="9" t="s">
-        <v>310</v>
-      </c>
-      <c r="B182" s="7" t="s">
-        <v>230</v>
-      </c>
-      <c r="C182" s="7" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="183" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A183" s="9" t="s">
-        <v>310</v>
-      </c>
-      <c r="B183" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="C183" s="7" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="184" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A184" s="9" t="s">
-        <v>310</v>
-      </c>
-      <c r="B184" s="7" t="s">
-        <v>233</v>
-      </c>
-      <c r="C184" s="7" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="185" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A185" s="9" t="s">
-        <v>310</v>
-      </c>
-      <c r="B185" s="7" t="s">
-        <v>247</v>
-      </c>
-      <c r="C185" s="7" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="186" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A186" s="9" t="s">
-        <v>310</v>
-      </c>
-      <c r="B186" s="7" t="s">
-        <v>248</v>
-      </c>
-      <c r="C186" s="7" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="187" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A187" s="9" t="s">
-        <v>310</v>
-      </c>
-      <c r="B187" s="7" t="s">
-        <v>249</v>
-      </c>
-      <c r="C187" s="7" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="188" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A188" s="9" t="s">
-        <v>310</v>
-      </c>
-      <c r="B188" s="7" t="s">
-        <v>250</v>
-      </c>
-      <c r="C188" s="7" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="189" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A189" s="9" t="s">
-        <v>310</v>
-      </c>
-      <c r="B189" s="7" t="s">
-        <v>251</v>
-      </c>
-      <c r="C189" s="7" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="190" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A190" s="9" t="s">
-        <v>310</v>
-      </c>
-      <c r="B190" s="7" t="s">
-        <v>252</v>
-      </c>
-      <c r="C190" s="7" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="191" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A191" s="9" t="s">
-        <v>310</v>
-      </c>
-      <c r="B191" s="7" t="s">
-        <v>253</v>
-      </c>
-      <c r="C191" s="7" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="192" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A192" s="9" t="s">
-        <v>310</v>
-      </c>
-      <c r="B192" s="7" t="s">
-        <v>254</v>
-      </c>
-      <c r="C192" s="7" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="193" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A193" s="9" t="s">
-        <v>310</v>
-      </c>
-      <c r="B193" s="7" t="s">
-        <v>255</v>
-      </c>
-      <c r="C193" s="7" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="194" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A194" s="9" t="s">
-        <v>310</v>
-      </c>
-      <c r="B194" s="7" t="s">
-        <v>256</v>
-      </c>
-      <c r="C194" s="7" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="195" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A195" s="9" t="s">
-        <v>310</v>
-      </c>
-      <c r="B195" s="7" t="s">
-        <v>257</v>
-      </c>
-      <c r="C195" s="7" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="196" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A196" s="9" t="s">
-        <v>310</v>
-      </c>
-      <c r="B196" s="7" t="s">
-        <v>258</v>
-      </c>
-      <c r="C196" s="7" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="197" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A197" s="9" t="s">
-        <v>310</v>
-      </c>
-      <c r="B197" s="7" t="s">
-        <v>223</v>
-      </c>
-      <c r="C197" s="7" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="198" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A198" s="9" t="s">
-        <v>310</v>
-      </c>
-      <c r="B198" s="7" t="s">
-        <v>259</v>
-      </c>
-      <c r="C198" s="7" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="199" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A199" s="9" t="s">
-        <v>310</v>
-      </c>
-      <c r="B199" s="8" t="s">
-        <v>244</v>
-      </c>
-      <c r="C199" s="8" t="s">
-        <v>97</v>
-      </c>
-      <c r="D199" s="8" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="200" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A200" s="9" t="s">
-        <v>310</v>
-      </c>
-      <c r="B200" s="7" t="s">
-        <v>213</v>
-      </c>
-      <c r="C200" s="7" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="201" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A201" s="9" t="s">
-        <v>310</v>
-      </c>
-      <c r="B201" s="7" t="s">
-        <v>260</v>
-      </c>
-      <c r="C201" s="7" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="202" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A202" s="9" t="s">
-        <v>310</v>
-      </c>
-      <c r="B202" s="7" t="s">
-        <v>176</v>
-      </c>
-      <c r="C202" s="7" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="203" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A203" s="9" t="s">
-        <v>310</v>
-      </c>
-      <c r="B203" s="7" t="s">
-        <v>182</v>
-      </c>
-      <c r="C203" s="7" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="204" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A204" s="9" t="s">
-        <v>310</v>
-      </c>
-      <c r="B204" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="C204" s="7" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="205" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A205" s="9" t="s">
-        <v>310</v>
-      </c>
-      <c r="B205" s="7" t="s">
-        <v>214</v>
-      </c>
-      <c r="C205" s="7" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="206" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A206" s="9" t="s">
-        <v>310</v>
-      </c>
-      <c r="B206" s="7" t="s">
-        <v>261</v>
-      </c>
-      <c r="C206" s="7" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="207" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A207" s="9" t="s">
-        <v>310</v>
-      </c>
-      <c r="B207" s="7" t="s">
-        <v>262</v>
-      </c>
-      <c r="C207" s="7" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="208" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A208" s="9" t="s">
-        <v>310</v>
-      </c>
-      <c r="B208" s="7" t="s">
-        <v>263</v>
-      </c>
-      <c r="C208" s="7" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="209" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A209" s="9" t="s">
-        <v>310</v>
-      </c>
-      <c r="B209" s="7" t="s">
-        <v>264</v>
-      </c>
-      <c r="C209" s="7" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="210" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A210" s="9" t="s">
-        <v>310</v>
-      </c>
-      <c r="B210" s="7" t="s">
-        <v>201</v>
-      </c>
-      <c r="C210" s="7" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="211" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A211" s="9" t="s">
-        <v>310</v>
-      </c>
-      <c r="B211" s="7" t="s">
-        <v>202</v>
-      </c>
-      <c r="C211" s="7" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="212" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A212" s="9" t="s">
-        <v>310</v>
-      </c>
-      <c r="B212" s="7" t="s">
-        <v>265</v>
-      </c>
-      <c r="C212" s="7" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="213" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A213" s="9" t="s">
-        <v>310</v>
-      </c>
-      <c r="B213" s="7" t="s">
-        <v>266</v>
-      </c>
-      <c r="C213" s="7" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="214" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A214" s="9" t="s">
-        <v>310</v>
-      </c>
-      <c r="B214" s="7" t="s">
+    <row r="277" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A277" s="5" t="s">
+        <v>310</v>
+      </c>
+      <c r="B277" t="s">
+        <v>285</v>
+      </c>
+      <c r="C277" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="278" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A278" s="5" t="s">
+        <v>310</v>
+      </c>
+      <c r="B278" t="s">
+        <v>288</v>
+      </c>
+      <c r="C278" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="279" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A279" s="5" t="s">
+        <v>310</v>
+      </c>
+      <c r="B279" t="s">
+        <v>290</v>
+      </c>
+      <c r="C279" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="280" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A280" s="5" t="s">
+        <v>310</v>
+      </c>
+      <c r="B280" t="s">
+        <v>291</v>
+      </c>
+      <c r="C280" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="281" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A281" s="5" t="s">
+        <v>310</v>
+      </c>
+      <c r="B281" t="s">
+        <v>293</v>
+      </c>
+      <c r="C281" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="282" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A282" s="5" t="s">
+        <v>310</v>
+      </c>
+      <c r="B282" t="s">
+        <v>294</v>
+      </c>
+      <c r="C282" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="283" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A283" s="5" t="s">
+        <v>310</v>
+      </c>
+      <c r="B283" t="s">
+        <v>295</v>
+      </c>
+      <c r="C283" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="284" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A284" s="5" t="s">
+        <v>310</v>
+      </c>
+      <c r="B284" t="s">
+        <v>296</v>
+      </c>
+      <c r="C284" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="285" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A285" s="5" t="s">
+        <v>310</v>
+      </c>
+      <c r="B285" t="s">
+        <v>297</v>
+      </c>
+      <c r="C285" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="286" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A286" s="5" t="s">
+        <v>310</v>
+      </c>
+      <c r="B286" t="s">
+        <v>298</v>
+      </c>
+      <c r="C286" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="287" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A287" s="5" t="s">
+        <v>310</v>
+      </c>
+      <c r="B287" t="s">
+        <v>299</v>
+      </c>
+      <c r="C287" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="288" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A288" s="5" t="s">
+        <v>310</v>
+      </c>
+      <c r="B288" t="s">
+        <v>300</v>
+      </c>
+      <c r="C288" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="289" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A289" s="5" t="s">
+        <v>310</v>
+      </c>
+      <c r="B289" t="s">
+        <v>301</v>
+      </c>
+      <c r="C289" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="290" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A290" s="5" t="s">
+        <v>310</v>
+      </c>
+      <c r="B290" t="s">
         <v>267</v>
       </c>
-      <c r="C214" s="7" t="s">
+      <c r="C290" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="215" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A215" s="9" t="s">
-        <v>310</v>
-      </c>
-      <c r="B215" s="8" t="s">
-        <v>182</v>
-      </c>
-      <c r="C215" s="8" t="s">
-        <v>182</v>
-      </c>
-      <c r="D215" s="8" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="216" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A216" s="9" t="s">
-        <v>310</v>
-      </c>
-      <c r="B216" s="7" t="s">
-        <v>268</v>
-      </c>
-      <c r="C216" s="7" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="217" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A217" s="9" t="s">
-        <v>310</v>
-      </c>
-      <c r="B217" s="7" t="s">
-        <v>269</v>
-      </c>
-      <c r="C217" s="7" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="218" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A218" s="9" t="s">
-        <v>310</v>
-      </c>
-      <c r="B218" s="7" t="s">
-        <v>270</v>
-      </c>
-      <c r="C218" s="7" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="219" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A219" s="9" t="s">
-        <v>310</v>
-      </c>
-      <c r="B219" s="7" t="s">
-        <v>271</v>
-      </c>
-      <c r="C219" s="7" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="220" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A220" s="9" t="s">
-        <v>310</v>
-      </c>
-      <c r="B220" s="7" t="s">
-        <v>272</v>
-      </c>
-      <c r="C220" s="7" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="221" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A221" s="9" t="s">
-        <v>310</v>
-      </c>
-      <c r="B221" s="7" t="s">
-        <v>273</v>
-      </c>
-      <c r="C221" s="7" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="222" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A222" s="9" t="s">
-        <v>310</v>
-      </c>
-      <c r="B222" s="7" t="s">
-        <v>274</v>
-      </c>
-      <c r="C222" s="7" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="223" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A223" s="9" t="s">
-        <v>310</v>
-      </c>
-      <c r="B223" s="7" t="s">
-        <v>275</v>
-      </c>
-      <c r="C223" s="7" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="224" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A224" s="9" t="s">
-        <v>310</v>
-      </c>
-      <c r="B224" s="7" t="s">
-        <v>276</v>
-      </c>
-      <c r="C224" s="7" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="225" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A225" s="9" t="s">
-        <v>310</v>
-      </c>
-      <c r="B225" s="8" t="s">
-        <v>277</v>
-      </c>
-      <c r="C225" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="D225" s="8" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="226" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A226" s="9" t="s">
-        <v>310</v>
-      </c>
-      <c r="B226" s="7" t="s">
-        <v>278</v>
-      </c>
-      <c r="C226" s="7" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="227" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A227" s="9" t="s">
-        <v>310</v>
-      </c>
-      <c r="B227" s="8" t="s">
-        <v>265</v>
-      </c>
-      <c r="C227" s="8" t="s">
-        <v>217</v>
-      </c>
-      <c r="D227" s="8" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="228" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A228" s="9" t="s">
-        <v>310</v>
-      </c>
-      <c r="B228" s="8" t="s">
-        <v>279</v>
-      </c>
-      <c r="C228" s="8" t="s">
-        <v>362</v>
-      </c>
-      <c r="D228" s="8" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="229" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A229" s="9" t="s">
-        <v>310</v>
-      </c>
-      <c r="B229" s="7" t="s">
-        <v>280</v>
-      </c>
-      <c r="C229" s="7" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="230" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A230" s="9" t="s">
-        <v>310</v>
-      </c>
-      <c r="B230" s="7" t="s">
-        <v>281</v>
-      </c>
-      <c r="C230" s="7" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="231" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A231" s="9" t="s">
-        <v>310</v>
-      </c>
-      <c r="B231" s="7" t="s">
-        <v>282</v>
-      </c>
-      <c r="C231" s="7" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="232" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A232" s="9" t="s">
-        <v>310</v>
-      </c>
-      <c r="B232" s="7" t="s">
-        <v>229</v>
-      </c>
-      <c r="C232" s="7" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="233" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A233" s="9" t="s">
-        <v>310</v>
-      </c>
-      <c r="B233" s="7" t="s">
-        <v>283</v>
-      </c>
-      <c r="C233" s="7" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="234" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A234" s="9" t="s">
-        <v>310</v>
-      </c>
-      <c r="B234" s="7" t="s">
-        <v>284</v>
-      </c>
-      <c r="C234" s="7" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="235" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A235" s="9" t="s">
-        <v>310</v>
-      </c>
-      <c r="B235" s="7" t="s">
-        <v>285</v>
-      </c>
-      <c r="C235" s="7" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="236" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A236" s="9" t="s">
-        <v>310</v>
-      </c>
-      <c r="B236" s="8" t="s">
-        <v>286</v>
-      </c>
-      <c r="C236" s="8" t="s">
-        <v>362</v>
-      </c>
-      <c r="D236" s="8" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="237" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A237" s="9" t="s">
-        <v>310</v>
-      </c>
-      <c r="B237" s="8" t="s">
-        <v>287</v>
-      </c>
-      <c r="C237" s="8" t="s">
-        <v>362</v>
-      </c>
-      <c r="D237" s="8" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="238" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A238" s="9" t="s">
-        <v>310</v>
-      </c>
-      <c r="B238" s="7" t="s">
-        <v>288</v>
-      </c>
-      <c r="C238" s="7" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="239" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A239" s="9" t="s">
-        <v>310</v>
-      </c>
-      <c r="B239" s="8" t="s">
-        <v>289</v>
-      </c>
-      <c r="C239" s="8" t="s">
-        <v>190</v>
-      </c>
-      <c r="D239" s="8" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="240" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A240" s="9" t="s">
-        <v>310</v>
-      </c>
-      <c r="B240" s="7" t="s">
-        <v>290</v>
-      </c>
-      <c r="C240" s="7" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="241" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A241" s="9" t="s">
-        <v>310</v>
-      </c>
-      <c r="B241" s="7" t="s">
-        <v>291</v>
-      </c>
-      <c r="C241" s="7" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="242" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A242" s="9" t="s">
-        <v>310</v>
-      </c>
-      <c r="B242" s="8" t="s">
-        <v>253</v>
-      </c>
-      <c r="C242" s="8" t="s">
-        <v>225</v>
-      </c>
-      <c r="D242" s="8" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="243" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A243" s="9" t="s">
-        <v>310</v>
-      </c>
-      <c r="B243" s="7" t="s">
-        <v>293</v>
-      </c>
-      <c r="C243" s="7" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="244" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A244" s="9" t="s">
-        <v>310</v>
-      </c>
-      <c r="B244" s="8" t="s">
-        <v>201</v>
-      </c>
-      <c r="C244" s="8" t="s">
-        <v>217</v>
-      </c>
-      <c r="D244" s="8" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="245" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A245" s="9" t="s">
-        <v>310</v>
-      </c>
-      <c r="B245" s="8" t="s">
-        <v>263</v>
-      </c>
-      <c r="C245" s="8" t="s">
-        <v>217</v>
-      </c>
-      <c r="D245" s="8" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="246" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A246" s="9" t="s">
-        <v>310</v>
-      </c>
-      <c r="B246" s="7" t="s">
-        <v>294</v>
-      </c>
-      <c r="C246" s="7" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="247" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A247" s="9" t="s">
-        <v>310</v>
-      </c>
-      <c r="B247" s="8" t="s">
-        <v>295</v>
-      </c>
-      <c r="C247" s="8" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="248" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A248" s="9" t="s">
-        <v>310</v>
-      </c>
-      <c r="B248" s="7" t="s">
-        <v>296</v>
-      </c>
-      <c r="C248" s="7" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="249" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A249" s="9" t="s">
-        <v>310</v>
-      </c>
-      <c r="B249" s="7" t="s">
-        <v>297</v>
-      </c>
-      <c r="C249" s="7" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="250" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A250" s="9" t="s">
-        <v>310</v>
-      </c>
-      <c r="B250" s="7" t="s">
-        <v>298</v>
-      </c>
-      <c r="C250" s="7" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="251" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A251" s="9" t="s">
-        <v>310</v>
-      </c>
-      <c r="B251" s="7" t="s">
-        <v>299</v>
-      </c>
-      <c r="C251" s="7" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="252" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A252" s="9" t="s">
-        <v>310</v>
-      </c>
-      <c r="B252" s="7" t="s">
-        <v>300</v>
-      </c>
-      <c r="C252" s="7" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="253" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A253" s="9" t="s">
-        <v>310</v>
-      </c>
-      <c r="B253" s="7" t="s">
-        <v>301</v>
-      </c>
-      <c r="C253" s="7" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="254" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A254" s="9" t="s">
-        <v>310</v>
-      </c>
-      <c r="B254" s="8" t="s">
-        <v>72</v>
-      </c>
-      <c r="C254" s="8" t="s">
-        <v>72</v>
-      </c>
-      <c r="D254" s="8" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="255" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A255" s="9" t="s">
-        <v>310</v>
-      </c>
-      <c r="B255" s="7" t="s">
-        <v>267</v>
-      </c>
-      <c r="C255" s="7" t="s">
+    <row r="291" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A291" s="5" t="s">
+        <v>310</v>
+      </c>
+      <c r="B291" t="s">
+        <v>292</v>
+      </c>
+      <c r="C291" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="256" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A256" s="9" t="s">
-        <v>310</v>
-      </c>
-      <c r="B256" s="7" t="s">
-        <v>292</v>
-      </c>
-      <c r="C256" s="7" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="257" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A257" s="9" t="s">
-        <v>310</v>
-      </c>
-      <c r="B257" s="7" t="s">
-        <v>302</v>
-      </c>
-      <c r="C257" s="7" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="258" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A258" s="9" t="s">
-        <v>310</v>
-      </c>
-      <c r="B258" s="8" t="s">
-        <v>303</v>
-      </c>
-      <c r="C258" s="8" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="259" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A259" s="9" t="s">
-        <v>310</v>
-      </c>
-      <c r="B259" s="7" t="s">
-        <v>304</v>
-      </c>
-      <c r="C259" s="7" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="260" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A260" s="9" t="s">
-        <v>310</v>
-      </c>
-      <c r="B260" s="7" t="s">
-        <v>305</v>
-      </c>
-      <c r="C260" s="7" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="261" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A261" s="9" t="s">
-        <v>310</v>
-      </c>
-      <c r="B261" s="7" t="s">
-        <v>306</v>
-      </c>
-      <c r="C261" s="7" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="262" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A262" s="9" t="s">
-        <v>310</v>
-      </c>
-      <c r="B262" s="7" t="s">
-        <v>307</v>
-      </c>
-      <c r="C262" s="7" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="263" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A263" s="9" t="s">
-        <v>310</v>
-      </c>
-      <c r="B263" s="7" t="s">
-        <v>308</v>
-      </c>
-      <c r="C263" s="7" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="264" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A264" s="9" t="s">
-        <v>310</v>
-      </c>
-      <c r="B264" s="7" t="s">
-        <v>309</v>
-      </c>
-      <c r="C264" s="7" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="265" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A265" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="B265" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="C265" s="7" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="266" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A266" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B266" s="7" t="s">
-        <v>312</v>
-      </c>
-      <c r="C266" s="7" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="267" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A267" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B267" s="7" t="s">
-        <v>313</v>
-      </c>
-      <c r="C267" s="7" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="268" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A268" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B268" s="7" t="s">
-        <v>314</v>
-      </c>
-      <c r="C268" s="7" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="269" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A269" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="B269" s="8" t="s">
-        <v>121</v>
-      </c>
-      <c r="C269" s="8" t="s">
-        <v>315</v>
-      </c>
-      <c r="D269" s="8" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="270" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A270" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B270" s="7" t="s">
-        <v>316</v>
-      </c>
-      <c r="C270" s="7" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="271" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A271" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B271" s="7" t="s">
-        <v>317</v>
-      </c>
-      <c r="C271" s="7" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="272" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A272" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B272" s="7" t="s">
-        <v>143</v>
-      </c>
-      <c r="C272" s="7" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="273" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A273" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B273" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="C273" s="7" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="274" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A274" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="B274" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="C274" s="7" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="275" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A275" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="B275" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="C275" s="8" t="s">
-        <v>319</v>
-      </c>
-      <c r="D275" s="8" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="276" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A276" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="B276" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="C276" s="7" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="277" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A277" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B277" s="7" t="s">
-        <v>196</v>
-      </c>
-      <c r="C277" s="7" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="278" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A278" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B278" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="C278" s="7" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="279" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A279" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B279" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="C279" s="7" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="280" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A280" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B280" s="7" t="s">
-        <v>320</v>
-      </c>
-      <c r="C280" s="7" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="281" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A281" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B281" s="7" t="s">
-        <v>322</v>
-      </c>
-      <c r="C281" s="7" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="282" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A282" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B282" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="C282" s="7" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="283" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A283" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="B283" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="C283" s="7" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="284" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A284" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B284" s="7" t="s">
-        <v>325</v>
-      </c>
-      <c r="C284" s="7" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="285" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A285" s="8" t="s">
-        <v>310</v>
-      </c>
-      <c r="B285" s="8" t="s">
-        <v>326</v>
-      </c>
-      <c r="C285" s="8" t="s">
-        <v>225</v>
-      </c>
-      <c r="D285" s="8" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="286" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A286" s="8" t="s">
-        <v>310</v>
-      </c>
-      <c r="B286" s="8" t="s">
-        <v>327</v>
-      </c>
-      <c r="C286" s="8" t="s">
-        <v>225</v>
-      </c>
-      <c r="D286" s="8" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="287" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A287" s="8" t="s">
-        <v>310</v>
-      </c>
-      <c r="B287" s="8" t="s">
-        <v>328</v>
-      </c>
-      <c r="C287" s="8" t="s">
-        <v>225</v>
-      </c>
-      <c r="D287" s="8" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="288" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A288" s="8" t="s">
-        <v>310</v>
-      </c>
-      <c r="B288" s="8" t="s">
-        <v>329</v>
-      </c>
-      <c r="C288" s="8" t="s">
-        <v>225</v>
-      </c>
-      <c r="D288" s="8" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="289" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A289" s="8" t="s">
-        <v>310</v>
-      </c>
-      <c r="B289" s="8" t="s">
-        <v>330</v>
-      </c>
-      <c r="C289" s="8" t="s">
-        <v>225</v>
-      </c>
-      <c r="D289" s="8" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="290" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A290" s="8" t="s">
-        <v>310</v>
-      </c>
-      <c r="B290" s="8" t="s">
-        <v>331</v>
-      </c>
-      <c r="C290" s="8" t="s">
-        <v>225</v>
-      </c>
-      <c r="D290" s="8" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="291" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A291" s="8" t="s">
-        <v>310</v>
-      </c>
-      <c r="B291" s="7" t="s">
-        <v>332</v>
-      </c>
-      <c r="C291" s="7" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="292" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A292" s="8" t="s">
-        <v>310</v>
-      </c>
-      <c r="B292" s="8" t="s">
-        <v>333</v>
-      </c>
-      <c r="C292" s="8" t="s">
-        <v>225</v>
-      </c>
-      <c r="D292" s="8" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="293" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A293" s="8" t="s">
-        <v>310</v>
-      </c>
-      <c r="B293" s="8" t="s">
-        <v>334</v>
-      </c>
-      <c r="C293" s="8" t="s">
-        <v>225</v>
-      </c>
-      <c r="D293" s="8" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="294" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A294" s="8" t="s">
-        <v>310</v>
-      </c>
-      <c r="B294" s="7" t="s">
-        <v>335</v>
-      </c>
-      <c r="C294" s="7" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="295" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A295" s="8" t="s">
-        <v>310</v>
-      </c>
-      <c r="B295" s="8" t="s">
-        <v>336</v>
-      </c>
-      <c r="C295" s="8" t="s">
-        <v>225</v>
-      </c>
-      <c r="D295" s="6" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="296" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A296" s="8" t="s">
-        <v>310</v>
-      </c>
-      <c r="B296" s="8" t="s">
-        <v>337</v>
-      </c>
-      <c r="C296" s="8" t="s">
-        <v>225</v>
-      </c>
-      <c r="D296" s="6" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="297" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A297" s="8" t="s">
-        <v>310</v>
-      </c>
-      <c r="B297" s="8" t="s">
-        <v>338</v>
-      </c>
-      <c r="C297" s="8" t="s">
-        <v>225</v>
-      </c>
-      <c r="D297" s="6" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="298" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A298" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="B298" s="9" t="s">
-        <v>364</v>
-      </c>
-      <c r="C298" s="7" t="s">
-        <v>49</v>
-      </c>
-    </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D294">
+    <sortCondition ref="C2:C294"/>
+  </sortState>
   <phoneticPr fontId="19" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -7353,7 +7094,7 @@
   <dimension ref="A1:B113"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B32" sqref="B32:B42"/>
+      <selection activeCell="F47" sqref="F47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/data/source/pedpancan_mapping.xlsx
+++ b/data/source/pedpancan_mapping.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11210"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10114"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ochapman/projects/pedpancan_ecdna/data/source/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56E9E500-2344-C94D-A35E-496E15D02AEB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{032A2113-7C3E-824B-AC0D-63C4619E5C64}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1057" uniqueCount="418">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1031" uniqueCount="386">
   <si>
     <t>molecular_subtype</t>
   </si>
@@ -987,63 +987,18 @@
     <t>key</t>
   </si>
   <si>
-    <t>Pediatric Type Diffuse Low grade Glioma</t>
-  </si>
-  <si>
     <t>Diffuse astrocytoma (do we know if MYB- or MYBL1-altered)</t>
   </si>
   <si>
-    <t>mesenchymal soft tissue tumors</t>
-  </si>
-  <si>
-    <t>could classify under histocytic disorders or just eliminate since technically not tumor</t>
-  </si>
-  <si>
     <t>CPT</t>
   </si>
   <si>
-    <t>MB is the more typical abbreviation (Nature hates 2-letter abbreviations. Happy to change it back, but that's the reasoning)</t>
-  </si>
-  <si>
-    <t>Other CNS embryonal tumor</t>
-  </si>
-  <si>
     <t>CNS Lymphoma</t>
   </si>
   <si>
     <t>CNSL</t>
   </si>
   <si>
-    <t>Pancreatitic neuroendocrine tumor</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cranial and paraspinal nerve tumors - technically could lump MPNST and NFP in this category as well </t>
-  </si>
-  <si>
-    <t>Circumscribed astrocytoma?</t>
-  </si>
-  <si>
-    <t>Circumscribed astrocytic gliomas</t>
-  </si>
-  <si>
-    <t>Could include within SARC and make spindle cell subtype</t>
-  </si>
-  <si>
-    <t>Could include within SARC and make synovial sarcoma as subtype</t>
-  </si>
-  <si>
-    <t>could classify under sarcoma</t>
-  </si>
-  <si>
-    <t>could classify under sarcoma (anggiomatoid fibrous histiocytoma)</t>
-  </si>
-  <si>
-    <t>MRT is apparently "Rhabdoid Cancer, Kidney" according to SJ</t>
-  </si>
-  <si>
-    <t>Gastric neuroendocrine tumor - could be classified under neuroendocrine tumor</t>
-  </si>
-  <si>
     <t>NET</t>
   </si>
   <si>
@@ -1065,57 +1020,18 @@
     <t>Clear Cell Sarcoma</t>
   </si>
   <si>
-    <t>Clarify what this stands for (Clear Cell Sarcoma)</t>
-  </si>
-  <si>
-    <t>Clarify what this stands for (Carcinoma, NOS)</t>
-  </si>
-  <si>
     <t>MSTT</t>
   </si>
   <si>
-    <t>Carcinoma, NOS</t>
-  </si>
-  <si>
     <t>Choroid Plexus Tumors</t>
   </si>
   <si>
     <t>Chordoma</t>
   </si>
   <si>
-    <t>What does DES stand for? (Desmoid/Aggressive Fibromatosis)</t>
-  </si>
-  <si>
-    <t>Clarify what this stands for (Fibromyxoid Sarcoma)</t>
-  </si>
-  <si>
-    <t>What does BYST stand for? (Yolk Sac Tumor, Brain)</t>
-  </si>
-  <si>
-    <t>Pleomorphic dermal sarcoma? (Dysgerminoma, Pelvis)</t>
-  </si>
-  <si>
-    <t>Clarify what this stands for (Dysgerminoma, Ovarian)</t>
-  </si>
-  <si>
-    <t>What does GNOS stand for (Glioma, NOS)</t>
-  </si>
-  <si>
-    <t>What does HB stand for (Hepatoblastoma)</t>
-  </si>
-  <si>
     <t>Clarify what this stands for (High-Grade Calvarium Sarcoma)</t>
   </si>
   <si>
-    <t>Clarify what this stand for (Inflammatory Myofibroblastic Stomach Tumor)</t>
-  </si>
-  <si>
-    <t>Is this type of malignant rhabdoid tumor (Malignant Rhabdoid Tumor of the Liver)</t>
-  </si>
-  <si>
-    <t>What does MS stand for? (Myeloid Sarcoma)</t>
-  </si>
-  <si>
     <t>Desmoid/Aggressive Fibromatosis</t>
   </si>
   <si>
@@ -1182,12 +1098,6 @@
     <t>Malignant Peripheral Nerve Sheath Tumor</t>
   </si>
   <si>
-    <t>Malignant Rhabdoid Tumor of the Liver</t>
-  </si>
-  <si>
-    <t>Rhabdoid Cancer, Kidney</t>
-  </si>
-  <si>
     <t>Myeloid Sarcoma</t>
   </si>
   <si>
@@ -1212,9 +1122,6 @@
     <t>Pheochromocytoma</t>
   </si>
   <si>
-    <t>perihillar cholangiosarcoma or primary hepatocellular carcinoma - if later, can be under HCC (neither, Pheochromocytoma)</t>
-  </si>
-  <si>
     <t>Pineocytoma</t>
   </si>
   <si>
@@ -1230,9 +1137,6 @@
     <t>Rhabdomyosarcoma</t>
   </si>
   <si>
-    <t>Sarcomas</t>
-  </si>
-  <si>
     <t>Squamous Cell Carcinoma, NOS</t>
   </si>
   <si>
@@ -1263,31 +1167,31 @@
     <t>Wilms Tumor</t>
   </si>
   <si>
-    <t>Clarify what this stands for (Undifferentiated Embryonal Sarcoma of the Liver)</t>
-  </si>
-  <si>
-    <t>What is THPA? (Papillary Thyroid Cancer)</t>
-  </si>
-  <si>
-    <t>Thyroid cancer? (Follicular Thyroid Cancer)</t>
-  </si>
-  <si>
-    <t>Clarify what this stands for (Solid Cancer Unknown Primary)</t>
-  </si>
-  <si>
-    <t>Clarify what this stands for (Spindle Epithelial Tumor with Thymus-Like Differentiation)</t>
-  </si>
-  <si>
-    <t>Clarify what this stands for (Squamous Cell Carcinoma, NOS)</t>
-  </si>
-  <si>
-    <t>Clarify what this stands for (Spindle Cell Sarcoma, NOS)</t>
-  </si>
-  <si>
-    <t>Clarify what this stands for (Round Cell Sarcoma, NOS)</t>
-  </si>
-  <si>
-    <t>What does PINC stand for? (Pineocytoma)</t>
+    <t>Other Sarcomas</t>
+  </si>
+  <si>
+    <t>CARC</t>
+  </si>
+  <si>
+    <t>Other Carcinomas</t>
+  </si>
+  <si>
+    <t>HBL</t>
+  </si>
+  <si>
+    <t>DAST</t>
+  </si>
+  <si>
+    <t>Extracranial Rhabdoid Tumors</t>
+  </si>
+  <si>
+    <t>OST</t>
+  </si>
+  <si>
+    <t>THCA</t>
+  </si>
+  <si>
+    <t>Epilepsy, chronic rasmussen encephalitis</t>
   </si>
 </sst>
 </file>
@@ -1803,18 +1707,13 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -2201,10 +2100,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:H289"/>
+  <dimension ref="A1:F290"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView tabSelected="1" topLeftCell="A254" workbookViewId="0">
+      <selection activeCell="B283" sqref="B283"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2215,7 +2114,7 @@
     <col min="4" max="4" width="51.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>312</v>
       </c>
@@ -2235,7 +2134,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>282</v>
       </c>
@@ -2246,7 +2145,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -2257,7 +2156,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
@@ -2268,7 +2167,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
@@ -2278,13 +2177,8 @@
       <c r="C5" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D5"/>
-      <c r="E5"/>
-      <c r="F5"/>
-      <c r="G5"/>
-      <c r="H5"/>
-    </row>
-    <row r="6" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>0</v>
       </c>
@@ -2294,13 +2188,8 @@
       <c r="C6" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D6"/>
-      <c r="E6"/>
-      <c r="F6"/>
-      <c r="G6"/>
-      <c r="H6"/>
-    </row>
-    <row r="7" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>282</v>
       </c>
@@ -2310,13 +2199,8 @@
       <c r="C7" t="s">
         <v>2</v>
       </c>
-      <c r="D7"/>
-      <c r="E7"/>
-      <c r="F7"/>
-      <c r="G7"/>
-      <c r="H7"/>
-    </row>
-    <row r="8" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>282</v>
       </c>
@@ -2326,13 +2210,8 @@
       <c r="C8" t="s">
         <v>8</v>
       </c>
-      <c r="D8"/>
-      <c r="E8"/>
-      <c r="F8"/>
-      <c r="G8"/>
-      <c r="H8"/>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>6</v>
       </c>
@@ -2343,7 +2222,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>9</v>
       </c>
@@ -2354,7 +2233,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>6</v>
       </c>
@@ -2365,7 +2244,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>6</v>
       </c>
@@ -2376,7 +2255,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>9</v>
       </c>
@@ -2387,7 +2266,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>9</v>
       </c>
@@ -2398,7 +2277,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>9</v>
       </c>
@@ -2409,7 +2288,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>9</v>
       </c>
@@ -2420,7 +2299,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>9</v>
       </c>
@@ -2431,7 +2310,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
         <v>282</v>
       </c>
@@ -2442,7 +2321,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>9</v>
       </c>
@@ -2453,7 +2332,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>9</v>
       </c>
@@ -2464,7 +2343,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
         <v>282</v>
       </c>
@@ -2475,7 +2354,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
         <v>6</v>
       </c>
@@ -2486,7 +2365,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
         <v>9</v>
       </c>
@@ -2497,7 +2376,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
         <v>282</v>
       </c>
@@ -2508,7 +2387,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>282</v>
       </c>
@@ -2516,13 +2395,14 @@
         <v>303</v>
       </c>
       <c r="C25" t="s">
+        <v>183</v>
+      </c>
+      <c r="D25" s="3"/>
+      <c r="E25" s="3" t="s">
         <v>303</v>
       </c>
-      <c r="D25" s="3" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
         <v>282</v>
       </c>
@@ -2530,13 +2410,14 @@
         <v>246</v>
       </c>
       <c r="C26" t="s">
+        <v>183</v>
+      </c>
+      <c r="D26" s="3"/>
+      <c r="E26" s="3" t="s">
         <v>303</v>
       </c>
-      <c r="D26" s="3" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
         <v>0</v>
       </c>
@@ -2547,7 +2428,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
         <v>0</v>
       </c>
@@ -2558,7 +2439,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
         <v>282</v>
       </c>
@@ -2569,7 +2450,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A30" s="2" t="s">
         <v>282</v>
       </c>
@@ -2577,13 +2458,14 @@
         <v>242</v>
       </c>
       <c r="C30" t="s">
+        <v>378</v>
+      </c>
+      <c r="D30" s="1"/>
+      <c r="E30" t="s">
         <v>242</v>
       </c>
-      <c r="D30" s="1" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
         <v>9</v>
       </c>
@@ -2591,11 +2473,11 @@
         <v>179</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>325</v>
+        <v>320</v>
       </c>
       <c r="D31" s="1"/>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
         <v>0</v>
       </c>
@@ -2647,7 +2529,7 @@
         <v>21</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.2">
@@ -2658,7 +2540,7 @@
         <v>22</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.2">
@@ -2669,7 +2551,7 @@
         <v>32</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.2">
@@ -2680,7 +2562,7 @@
         <v>29</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.2">
@@ -2691,7 +2573,7 @@
         <v>30</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.2">
@@ -2702,7 +2584,7 @@
         <v>33</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.2">
@@ -2713,7 +2595,7 @@
         <v>34</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.2">
@@ -2724,11 +2606,9 @@
         <v>240</v>
       </c>
       <c r="C43" t="s">
-        <v>240</v>
-      </c>
-      <c r="D43" s="8" t="s">
-        <v>349</v>
-      </c>
+        <v>8</v>
+      </c>
+      <c r="D43" s="4"/>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A44" s="2" t="s">
@@ -2784,9 +2664,7 @@
       <c r="C48" s="1" t="s">
         <v>206</v>
       </c>
-      <c r="D48" s="9" t="s">
-        <v>323</v>
-      </c>
+      <c r="D48" s="5"/>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A49" s="2" t="s">
@@ -2964,7 +2842,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A65" s="1" t="s">
         <v>6</v>
       </c>
@@ -2975,7 +2853,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A66" s="1" t="s">
         <v>9</v>
       </c>
@@ -2986,7 +2864,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A67" s="1" t="s">
         <v>6</v>
       </c>
@@ -2997,7 +2875,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A68" s="1" t="s">
         <v>9</v>
       </c>
@@ -3008,7 +2886,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A69" s="2" t="s">
         <v>282</v>
       </c>
@@ -3019,7 +2897,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A70" s="2" t="s">
         <v>282</v>
       </c>
@@ -3030,7 +2908,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A71" s="2" t="s">
         <v>282</v>
       </c>
@@ -3041,7 +2919,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A72" s="2" t="s">
         <v>282</v>
       </c>
@@ -3052,7 +2930,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A73" s="2" t="s">
         <v>282</v>
       </c>
@@ -3062,11 +2940,9 @@
       <c r="C73" t="s">
         <v>308</v>
       </c>
-      <c r="D73" s="3" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D73" s="3"/>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A74" s="2" t="s">
         <v>282</v>
       </c>
@@ -3076,11 +2952,8 @@
       <c r="C74" t="s">
         <v>308</v>
       </c>
-      <c r="D74" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A75" s="2" t="s">
         <v>282</v>
       </c>
@@ -3090,11 +2963,9 @@
       <c r="C75" t="s">
         <v>308</v>
       </c>
-      <c r="D75" s="3" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D75" s="3"/>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A76" s="2" t="s">
         <v>282</v>
       </c>
@@ -3105,7 +2976,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A77" s="2" t="s">
         <v>282</v>
       </c>
@@ -3116,7 +2987,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A78" s="2" t="s">
         <v>282</v>
       </c>
@@ -3124,13 +2995,13 @@
         <v>211</v>
       </c>
       <c r="C78" t="s">
+        <v>309</v>
+      </c>
+      <c r="E78" t="s">
         <v>211</v>
       </c>
-      <c r="D78" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A79" s="1" t="s">
         <v>9</v>
       </c>
@@ -3141,7 +3012,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A80" s="1" t="s">
         <v>9</v>
       </c>
@@ -3328,7 +3199,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A97" s="1" t="s">
         <v>0</v>
       </c>
@@ -3339,7 +3210,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A98" s="1" t="s">
         <v>0</v>
       </c>
@@ -3350,7 +3221,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A99" s="2" t="s">
         <v>282</v>
       </c>
@@ -3361,7 +3232,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A100" s="1" t="s">
         <v>0</v>
       </c>
@@ -3372,7 +3243,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A101" s="1" t="s">
         <v>0</v>
       </c>
@@ -3383,7 +3254,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A102" s="1" t="s">
         <v>0</v>
       </c>
@@ -3394,7 +3265,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A103" s="1" t="s">
         <v>0</v>
       </c>
@@ -3405,7 +3276,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A104" s="1" t="s">
         <v>0</v>
       </c>
@@ -3416,7 +3287,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A105" s="1" t="s">
         <v>0</v>
       </c>
@@ -3427,7 +3298,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A106" s="1" t="s">
         <v>0</v>
       </c>
@@ -3438,7 +3309,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A107" s="1" t="s">
         <v>0</v>
       </c>
@@ -3449,7 +3320,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A108" s="2" t="s">
         <v>282</v>
       </c>
@@ -3460,7 +3331,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A109" s="1" t="s">
         <v>0</v>
       </c>
@@ -3471,7 +3342,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A110" s="1" t="s">
         <v>0</v>
       </c>
@@ -3482,7 +3353,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A111" s="1" t="s">
         <v>0</v>
       </c>
@@ -3493,7 +3364,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A112" s="2" t="s">
         <v>282</v>
       </c>
@@ -3501,13 +3372,10 @@
         <v>244</v>
       </c>
       <c r="C112" t="s">
-        <v>244</v>
-      </c>
-      <c r="D112" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.2">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A113" s="2" t="s">
         <v>282</v>
       </c>
@@ -3518,7 +3386,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A114" s="2" t="s">
         <v>282</v>
       </c>
@@ -3526,13 +3394,16 @@
         <v>215</v>
       </c>
       <c r="C114" t="s">
+        <v>183</v>
+      </c>
+      <c r="D114" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="E114" t="s">
         <v>215</v>
       </c>
-      <c r="D114" s="1" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="115" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A115" s="1" t="s">
         <v>0</v>
       </c>
@@ -3543,7 +3414,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A116" s="1" t="s">
         <v>0</v>
       </c>
@@ -3554,7 +3425,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A117" s="1" t="s">
         <v>0</v>
       </c>
@@ -3565,7 +3436,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A118" s="1" t="s">
         <v>0</v>
       </c>
@@ -3576,7 +3447,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A119" s="1" t="s">
         <v>0</v>
       </c>
@@ -3587,7 +3458,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A120" s="1" t="s">
         <v>0</v>
       </c>
@@ -3598,7 +3469,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A121" s="1" t="s">
         <v>0</v>
       </c>
@@ -3609,7 +3480,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A122" s="1" t="s">
         <v>0</v>
       </c>
@@ -3620,7 +3491,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A123" s="1" t="s">
         <v>0</v>
       </c>
@@ -3631,7 +3502,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A124" s="1" t="s">
         <v>0</v>
       </c>
@@ -3642,7 +3513,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A125" s="1" t="s">
         <v>0</v>
       </c>
@@ -3653,7 +3524,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A126" s="1" t="s">
         <v>0</v>
       </c>
@@ -3664,7 +3535,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A127" s="1" t="s">
         <v>0</v>
       </c>
@@ -3675,7 +3546,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A128" s="1" t="s">
         <v>26</v>
       </c>
@@ -3862,7 +3733,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="145" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
         <v>282</v>
       </c>
@@ -3873,7 +3744,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="146" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
         <v>282</v>
       </c>
@@ -3884,7 +3755,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="147" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
         <v>282</v>
       </c>
@@ -3895,7 +3766,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="148" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
         <v>282</v>
       </c>
@@ -3906,7 +3777,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="149" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
         <v>282</v>
       </c>
@@ -3917,7 +3788,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="150" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
         <v>282</v>
       </c>
@@ -3928,7 +3799,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="151" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
         <v>282</v>
       </c>
@@ -3939,7 +3810,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="152" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
         <v>282</v>
       </c>
@@ -3950,7 +3821,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="153" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
         <v>282</v>
       </c>
@@ -3961,7 +3832,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="154" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
         <v>282</v>
       </c>
@@ -3972,7 +3843,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="155" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
         <v>282</v>
       </c>
@@ -3983,7 +3854,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="156" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
         <v>6</v>
       </c>
@@ -3994,7 +3865,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="157" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
         <v>9</v>
       </c>
@@ -4005,7 +3876,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="158" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A158" s="2" t="s">
         <v>282</v>
       </c>
@@ -4015,85 +3886,70 @@
       <c r="C158" t="s">
         <v>265</v>
       </c>
-      <c r="D158" s="3" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="159" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A159" s="4" t="s">
+      <c r="D158" s="3"/>
+    </row>
+    <row r="159" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A159" t="s">
         <v>26</v>
       </c>
-      <c r="B159" s="4" t="s">
+      <c r="B159" t="s">
         <v>107</v>
       </c>
-      <c r="C159" s="4" t="s">
+      <c r="C159" t="s">
         <v>105</v>
       </c>
-      <c r="D159" s="5" t="s">
+      <c r="D159" s="3"/>
+      <c r="E159" s="3" t="s">
+        <v>381</v>
+      </c>
+      <c r="F159" s="3" t="s">
         <v>317</v>
       </c>
-      <c r="E159" s="4"/>
-      <c r="F159" s="5" t="s">
-        <v>318</v>
-      </c>
-      <c r="G159" s="4"/>
-      <c r="H159" s="4"/>
-    </row>
-    <row r="160" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A160" s="6" t="s">
+    </row>
+    <row r="160" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A160" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B160" s="4" t="s">
+      <c r="B160" t="s">
         <v>44</v>
       </c>
-      <c r="C160" s="4" t="s">
+      <c r="C160" t="s">
         <v>105</v>
       </c>
-      <c r="D160" s="5" t="s">
-        <v>317</v>
-      </c>
-      <c r="E160" s="4"/>
-      <c r="F160" s="4"/>
-      <c r="G160" s="4"/>
-      <c r="H160" s="4"/>
-    </row>
-    <row r="161" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A161" s="7" t="s">
-        <v>282</v>
-      </c>
-      <c r="B161" s="4" t="s">
+      <c r="D160" s="3"/>
+      <c r="E160" s="3"/>
+    </row>
+    <row r="161" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A161" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="B161" t="s">
         <v>214</v>
       </c>
-      <c r="C161" s="4" t="s">
+      <c r="C161" t="s">
         <v>105</v>
       </c>
-      <c r="D161" s="9" t="s">
-        <v>329</v>
-      </c>
-      <c r="E161" s="4"/>
-      <c r="F161" s="4"/>
-      <c r="G161" s="4"/>
-      <c r="H161" s="4"/>
-    </row>
-    <row r="162" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A162" s="7" t="s">
-        <v>282</v>
-      </c>
-      <c r="B162" s="4" t="s">
+      <c r="D161" s="5"/>
+      <c r="E161" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="162" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A162" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="B162" t="s">
         <v>219</v>
       </c>
-      <c r="C162" s="4" t="s">
+      <c r="C162" t="s">
         <v>105</v>
       </c>
-      <c r="D162" s="9" t="s">
-        <v>328</v>
-      </c>
-      <c r="E162" s="4"/>
-      <c r="F162" s="4"/>
-      <c r="G162" s="4"/>
-      <c r="H162" s="4"/>
-    </row>
-    <row r="163" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="D162" s="5"/>
+      <c r="E162" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="163" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A163" s="1" t="s">
         <v>0</v>
       </c>
@@ -4104,7 +3960,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="164" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A164" s="1" t="s">
         <v>0</v>
       </c>
@@ -4115,7 +3971,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="165" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A165" s="1" t="s">
         <v>0</v>
       </c>
@@ -4126,7 +3982,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="166" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A166" s="1" t="s">
         <v>0</v>
       </c>
@@ -4137,7 +3993,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="167" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A167" s="1" t="s">
         <v>0</v>
       </c>
@@ -4148,7 +4004,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="168" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A168" s="1" t="s">
         <v>0</v>
       </c>
@@ -4159,7 +4015,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="169" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A169" s="1" t="s">
         <v>0</v>
       </c>
@@ -4170,7 +4026,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="170" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A170" s="1" t="s">
         <v>0</v>
       </c>
@@ -4181,7 +4037,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="171" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A171" s="1" t="s">
         <v>0</v>
       </c>
@@ -4192,7 +4048,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="172" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A172" s="1" t="s">
         <v>0</v>
       </c>
@@ -4203,7 +4059,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="173" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A173" s="1" t="s">
         <v>0</v>
       </c>
@@ -4214,7 +4070,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="174" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A174" s="1" t="s">
         <v>0</v>
       </c>
@@ -4225,7 +4081,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="175" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A175" s="1" t="s">
         <v>0</v>
       </c>
@@ -4236,7 +4092,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="176" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A176" s="1" t="s">
         <v>0</v>
       </c>
@@ -4442,11 +4298,9 @@
         <v>276</v>
       </c>
       <c r="C194" t="s">
-        <v>142</v>
-      </c>
-      <c r="D194" s="9" t="s">
-        <v>322</v>
-      </c>
+        <v>280</v>
+      </c>
+      <c r="D194" s="5"/>
     </row>
     <row r="195" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A195" s="2" t="s">
@@ -4456,7 +4310,7 @@
         <v>277</v>
       </c>
       <c r="C195" t="s">
-        <v>142</v>
+        <v>280</v>
       </c>
     </row>
     <row r="196" spans="1:4" x14ac:dyDescent="0.2">
@@ -4467,7 +4321,7 @@
         <v>278</v>
       </c>
       <c r="C196" t="s">
-        <v>142</v>
+        <v>280</v>
       </c>
     </row>
     <row r="197" spans="1:4" x14ac:dyDescent="0.2">
@@ -4478,7 +4332,7 @@
         <v>279</v>
       </c>
       <c r="C197" t="s">
-        <v>142</v>
+        <v>280</v>
       </c>
     </row>
     <row r="198" spans="1:4" x14ac:dyDescent="0.2">
@@ -4489,7 +4343,7 @@
         <v>280</v>
       </c>
       <c r="C198" t="s">
-        <v>142</v>
+        <v>280</v>
       </c>
     </row>
     <row r="199" spans="1:4" x14ac:dyDescent="0.2">
@@ -4500,7 +4354,7 @@
         <v>281</v>
       </c>
       <c r="C199" t="s">
-        <v>142</v>
+        <v>280</v>
       </c>
     </row>
     <row r="200" spans="1:4" x14ac:dyDescent="0.2">
@@ -4511,7 +4365,7 @@
         <v>141</v>
       </c>
       <c r="C200" t="s">
-        <v>142</v>
+        <v>280</v>
       </c>
     </row>
     <row r="201" spans="1:4" x14ac:dyDescent="0.2">
@@ -4522,7 +4376,7 @@
         <v>143</v>
       </c>
       <c r="C201" t="s">
-        <v>142</v>
+        <v>280</v>
       </c>
     </row>
     <row r="202" spans="1:4" x14ac:dyDescent="0.2">
@@ -4533,7 +4387,7 @@
         <v>144</v>
       </c>
       <c r="C202" t="s">
-        <v>142</v>
+        <v>280</v>
       </c>
     </row>
     <row r="203" spans="1:4" x14ac:dyDescent="0.2">
@@ -4544,7 +4398,7 @@
         <v>145</v>
       </c>
       <c r="C203" t="s">
-        <v>142</v>
+        <v>280</v>
       </c>
     </row>
     <row r="204" spans="1:4" x14ac:dyDescent="0.2">
@@ -4555,7 +4409,7 @@
         <v>146</v>
       </c>
       <c r="C204" t="s">
-        <v>142</v>
+        <v>280</v>
       </c>
     </row>
     <row r="205" spans="1:4" x14ac:dyDescent="0.2">
@@ -4566,7 +4420,7 @@
         <v>176</v>
       </c>
       <c r="C205" t="s">
-        <v>142</v>
+        <v>280</v>
       </c>
     </row>
     <row r="206" spans="1:4" x14ac:dyDescent="0.2">
@@ -4755,9 +4609,6 @@
       <c r="C222" t="s">
         <v>266</v>
       </c>
-      <c r="D222" t="s">
-        <v>334</v>
-      </c>
     </row>
     <row r="223" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A223" s="2" t="s">
@@ -4767,11 +4618,9 @@
         <v>271</v>
       </c>
       <c r="C223" t="s">
-        <v>271</v>
-      </c>
-      <c r="D223" s="3" t="s">
-        <v>358</v>
-      </c>
+        <v>266</v>
+      </c>
+      <c r="D223" s="3"/>
     </row>
     <row r="224" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A224" t="s">
@@ -4781,11 +4630,9 @@
         <v>300</v>
       </c>
       <c r="C224" t="s">
-        <v>300</v>
-      </c>
-      <c r="D224" s="3" t="s">
-        <v>359</v>
-      </c>
+        <v>198</v>
+      </c>
+      <c r="D224" s="3"/>
     </row>
     <row r="225" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A225" s="1" t="s">
@@ -4806,11 +4653,9 @@
         <v>293</v>
       </c>
       <c r="C226" t="s">
-        <v>345</v>
-      </c>
-      <c r="D226" s="8" t="s">
-        <v>319</v>
-      </c>
+        <v>328</v>
+      </c>
+      <c r="D226" s="4"/>
     </row>
     <row r="227" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A227" s="2" t="s">
@@ -4820,10 +4665,7 @@
         <v>196</v>
       </c>
       <c r="C227" t="s">
-        <v>345</v>
-      </c>
-      <c r="D227" t="s">
-        <v>319</v>
+        <v>328</v>
       </c>
     </row>
     <row r="228" spans="1:4" x14ac:dyDescent="0.2">
@@ -4922,11 +4764,9 @@
         <v>272</v>
       </c>
       <c r="C236" t="s">
-        <v>336</v>
-      </c>
-      <c r="D236" s="3" t="s">
-        <v>335</v>
-      </c>
+        <v>321</v>
+      </c>
+      <c r="D236" s="3"/>
     </row>
     <row r="237" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A237" s="2" t="s">
@@ -4936,11 +4776,9 @@
         <v>270</v>
       </c>
       <c r="C237" t="s">
-        <v>336</v>
-      </c>
-      <c r="D237" s="3" t="s">
-        <v>326</v>
-      </c>
+        <v>321</v>
+      </c>
+      <c r="D237" s="3"/>
     </row>
     <row r="238" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A238" s="1" t="s">
@@ -4975,7 +4813,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="241" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A241" s="1" t="s">
         <v>9</v>
       </c>
@@ -4986,7 +4824,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="242" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A242" s="1" t="s">
         <v>9</v>
       </c>
@@ -4997,7 +4835,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="243" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A243" s="1" t="s">
         <v>9</v>
       </c>
@@ -5008,7 +4846,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="244" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A244" s="1" t="s">
         <v>9</v>
       </c>
@@ -5018,11 +4856,8 @@
       <c r="C244" t="s">
         <v>314</v>
       </c>
-      <c r="D244" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="245" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="245" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A245" s="1" t="s">
         <v>9</v>
       </c>
@@ -5033,7 +4868,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="246" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A246" s="1" t="s">
         <v>9</v>
       </c>
@@ -5043,11 +4878,8 @@
       <c r="C246" t="s">
         <v>314</v>
       </c>
-      <c r="D246" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="247" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="247" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A247" s="1" t="s">
         <v>9</v>
       </c>
@@ -5058,7 +4890,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="248" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A248" s="1" t="s">
         <v>9</v>
       </c>
@@ -5069,7 +4901,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="249" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A249" s="1" t="s">
         <v>9</v>
       </c>
@@ -5077,13 +4909,12 @@
         <v>173</v>
       </c>
       <c r="C249" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="D249" s="1" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="250" spans="1:4" x14ac:dyDescent="0.2">
+        <v>83</v>
+      </c>
+      <c r="D249" s="1"/>
+      <c r="E249" s="1"/>
+    </row>
+    <row r="250" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A250" s="2" t="s">
         <v>282</v>
       </c>
@@ -5091,10 +4922,10 @@
         <v>191</v>
       </c>
       <c r="C250" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="251" spans="1:4" x14ac:dyDescent="0.2">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="251" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A251" s="2" t="s">
         <v>282</v>
       </c>
@@ -5102,10 +4933,10 @@
         <v>233</v>
       </c>
       <c r="C251" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="252" spans="1:4" x14ac:dyDescent="0.2">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="252" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A252" s="1" t="s">
         <v>6</v>
       </c>
@@ -5116,7 +4947,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="253" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A253" s="1" t="s">
         <v>9</v>
       </c>
@@ -5127,7 +4958,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="254" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A254" s="1" t="s">
         <v>6</v>
       </c>
@@ -5138,7 +4969,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="255" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A255" s="2" t="s">
         <v>282</v>
       </c>
@@ -5149,7 +4980,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="256" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A256" s="2" t="s">
         <v>282</v>
       </c>
@@ -5157,11 +4988,9 @@
         <v>273</v>
       </c>
       <c r="C256" t="s">
-        <v>273</v>
-      </c>
-      <c r="D256" s="3" t="s">
-        <v>392</v>
-      </c>
+        <v>321</v>
+      </c>
+      <c r="D256" s="3"/>
     </row>
     <row r="257" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A257" s="2" t="s">
@@ -5171,10 +5000,7 @@
         <v>217</v>
       </c>
       <c r="C257" t="s">
-        <v>217</v>
-      </c>
-      <c r="D257" t="s">
-        <v>417</v>
+        <v>8</v>
       </c>
     </row>
     <row r="258" spans="1:5" x14ac:dyDescent="0.2">
@@ -5185,10 +5011,7 @@
         <v>291</v>
       </c>
       <c r="C258" t="s">
-        <v>292</v>
-      </c>
-      <c r="D258" t="s">
-        <v>327</v>
+        <v>8</v>
       </c>
     </row>
     <row r="259" spans="1:5" x14ac:dyDescent="0.2">
@@ -5199,7 +5022,7 @@
         <v>234</v>
       </c>
       <c r="C259" t="s">
-        <v>192</v>
+        <v>234</v>
       </c>
     </row>
     <row r="260" spans="1:5" x14ac:dyDescent="0.2">
@@ -5232,10 +5055,11 @@
         <v>254</v>
       </c>
       <c r="C262" t="s">
+        <v>183</v>
+      </c>
+      <c r="D262" s="3"/>
+      <c r="E262" t="s">
         <v>254</v>
-      </c>
-      <c r="D262" s="3" t="s">
-        <v>416</v>
       </c>
     </row>
     <row r="263" spans="1:5" x14ac:dyDescent="0.2">
@@ -5314,9 +5138,6 @@
       <c r="C269" t="s">
         <v>183</v>
       </c>
-      <c r="D269" t="s">
-        <v>333</v>
-      </c>
       <c r="E269" t="s">
         <v>262</v>
       </c>
@@ -5345,9 +5166,6 @@
       <c r="C271" t="s">
         <v>183</v>
       </c>
-      <c r="D271" t="s">
-        <v>332</v>
-      </c>
       <c r="E271" t="s">
         <v>257</v>
       </c>
@@ -5362,9 +5180,7 @@
       <c r="C272" t="s">
         <v>183</v>
       </c>
-      <c r="D272" s="1" t="s">
-        <v>350</v>
-      </c>
+      <c r="D272" s="1"/>
       <c r="E272" t="s">
         <v>248</v>
       </c>
@@ -5390,10 +5206,8 @@
       <c r="C274" t="s">
         <v>183</v>
       </c>
-      <c r="D274" s="8" t="s">
-        <v>330</v>
-      </c>
-      <c r="E274" s="10" t="s">
+      <c r="D274" s="4"/>
+      <c r="E274" t="s">
         <v>288</v>
       </c>
     </row>
@@ -5407,10 +5221,8 @@
       <c r="C275" t="s">
         <v>183</v>
       </c>
-      <c r="D275" s="8" t="s">
-        <v>331</v>
-      </c>
-      <c r="E275" s="10" t="s">
+      <c r="D275" s="4"/>
+      <c r="E275" t="s">
         <v>238</v>
       </c>
     </row>
@@ -5422,10 +5234,10 @@
         <v>247</v>
       </c>
       <c r="C276" t="s">
+        <v>378</v>
+      </c>
+      <c r="E276" t="s">
         <v>247</v>
-      </c>
-      <c r="D276" t="s">
-        <v>414</v>
       </c>
     </row>
     <row r="277" spans="1:5" x14ac:dyDescent="0.2">
@@ -5436,10 +5248,11 @@
         <v>78</v>
       </c>
       <c r="C277" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="D277" s="8" t="s">
-        <v>327</v>
+        <v>8</v>
+      </c>
+      <c r="D277" s="4"/>
+      <c r="E277" s="1" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="278" spans="1:5" x14ac:dyDescent="0.2">
@@ -5450,10 +5263,11 @@
         <v>184</v>
       </c>
       <c r="C278" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="D278" s="8" t="s">
-        <v>327</v>
+        <v>8</v>
+      </c>
+      <c r="D278" s="4"/>
+      <c r="E278" s="1" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="279" spans="1:5" x14ac:dyDescent="0.2">
@@ -5464,10 +5278,11 @@
         <v>243</v>
       </c>
       <c r="C279" t="s">
-        <v>243</v>
-      </c>
-      <c r="D279" s="3" t="s">
-        <v>415</v>
+        <v>183</v>
+      </c>
+      <c r="D279" s="3"/>
+      <c r="E279" s="1" t="s">
+        <v>288</v>
       </c>
     </row>
     <row r="280" spans="1:5" x14ac:dyDescent="0.2">
@@ -5510,11 +5325,12 @@
       <c r="B283" t="s">
         <v>255</v>
       </c>
-      <c r="C283" t="s">
+      <c r="C283" s="1" t="s">
+        <v>384</v>
+      </c>
+      <c r="D283" s="1"/>
+      <c r="E283" t="s">
         <v>255</v>
-      </c>
-      <c r="D283" s="1" t="s">
-        <v>413</v>
       </c>
     </row>
     <row r="284" spans="1:5" x14ac:dyDescent="0.2">
@@ -5527,9 +5343,7 @@
       <c r="C284" t="s">
         <v>197</v>
       </c>
-      <c r="D284" s="1" t="s">
-        <v>412</v>
-      </c>
+      <c r="D284" s="1"/>
     </row>
     <row r="285" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A285" s="2" t="s">
@@ -5538,11 +5352,12 @@
       <c r="B285" t="s">
         <v>269</v>
       </c>
-      <c r="C285" t="s">
+      <c r="C285" s="1" t="s">
+        <v>384</v>
+      </c>
+      <c r="D285" s="3"/>
+      <c r="E285" t="s">
         <v>269</v>
-      </c>
-      <c r="D285" s="3" t="s">
-        <v>411</v>
       </c>
     </row>
     <row r="286" spans="1:5" x14ac:dyDescent="0.2">
@@ -5553,10 +5368,10 @@
         <v>241</v>
       </c>
       <c r="C286" t="s">
+        <v>384</v>
+      </c>
+      <c r="E286" t="s">
         <v>241</v>
-      </c>
-      <c r="D286" t="s">
-        <v>410</v>
       </c>
     </row>
     <row r="287" spans="1:5" x14ac:dyDescent="0.2">
@@ -5567,10 +5382,10 @@
         <v>253</v>
       </c>
       <c r="C287" t="s">
+        <v>183</v>
+      </c>
+      <c r="E287" s="1" t="s">
         <v>253</v>
-      </c>
-      <c r="D287" t="s">
-        <v>409</v>
       </c>
     </row>
     <row r="288" spans="1:5" x14ac:dyDescent="0.2">
@@ -5593,6 +5408,17 @@
       </c>
       <c r="C289" t="s">
         <v>199</v>
+      </c>
+    </row>
+    <row r="290" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A290" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B290" t="s">
+        <v>385</v>
+      </c>
+      <c r="C290" t="s">
+        <v>314</v>
       </c>
     </row>
   </sheetData>
@@ -5600,7 +5426,7 @@
     <sortCondition ref="C2:C289"/>
   </sortState>
   <phoneticPr fontId="19" type="noConversion"/>
-  <conditionalFormatting sqref="A1:E32 A34:E77 A33:C33 E33 A125:E165 A124:C124 E124 A78:C78 E78 A79:E123 A232:C232 E232 A166:C166 E166 A167:E231 A233:E281 A284:E1048576 A282:C283 E282:E283">
+  <conditionalFormatting sqref="A1:E32 A33:C33 E33 A34:E77 A78:C78 E78 A79:E123 A124:C124 E124 A125:E165 A166:C166 E166 A232:C232 E232 A167:E231 A233:E278 A287:D287 A280:E281 A279:D279 E282:E283 A282:C283 A284:E286 A288:E1048576">
     <cfRule type="expression" dxfId="2" priority="1">
       <formula>"NOT(ISBLANK)"</formula>
     </cfRule>
@@ -5611,10 +5437,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92187E74-4F7E-DD4F-A405-6C0E523CB693}">
-  <dimension ref="A1:B68"/>
+  <dimension ref="A1:B67"/>
   <sheetViews>
-    <sheetView topLeftCell="A35" workbookViewId="0">
-      <selection activeCell="B65" sqref="B65"/>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="A38" sqref="A38:XFD38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5632,7 +5458,7 @@
         <v>200</v>
       </c>
       <c r="B2" t="s">
-        <v>337</v>
+        <v>322</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
@@ -5640,7 +5466,7 @@
         <v>193</v>
       </c>
       <c r="B3" t="s">
-        <v>338</v>
+        <v>323</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
@@ -5648,7 +5474,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>339</v>
+        <v>324</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
@@ -5656,7 +5482,7 @@
         <v>8</v>
       </c>
       <c r="B5" t="s">
-        <v>340</v>
+        <v>325</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
@@ -5664,7 +5490,7 @@
         <v>309</v>
       </c>
       <c r="B6" t="s">
-        <v>341</v>
+        <v>326</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
@@ -5672,23 +5498,23 @@
         <v>303</v>
       </c>
       <c r="B7" t="s">
-        <v>342</v>
+        <v>327</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>242</v>
+        <v>378</v>
       </c>
       <c r="B8" t="s">
-        <v>346</v>
+        <v>379</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>325</v>
+        <v>320</v>
       </c>
       <c r="B9" t="s">
-        <v>324</v>
+        <v>319</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
@@ -5701,10 +5527,10 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="B11" t="s">
-        <v>347</v>
+        <v>329</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
@@ -5712,7 +5538,7 @@
         <v>249</v>
       </c>
       <c r="B12" t="s">
-        <v>348</v>
+        <v>330</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
@@ -5720,7 +5546,7 @@
         <v>240</v>
       </c>
       <c r="B13" t="s">
-        <v>360</v>
+        <v>332</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
@@ -5728,7 +5554,7 @@
         <v>194</v>
       </c>
       <c r="B14" t="s">
-        <v>361</v>
+        <v>333</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
@@ -5736,7 +5562,7 @@
         <v>206</v>
       </c>
       <c r="B15" t="s">
-        <v>362</v>
+        <v>334</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
@@ -5744,7 +5570,7 @@
         <v>289</v>
       </c>
       <c r="B16" t="s">
-        <v>363</v>
+        <v>335</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
@@ -5752,7 +5578,7 @@
         <v>58</v>
       </c>
       <c r="B17" t="s">
-        <v>364</v>
+        <v>336</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
@@ -5760,15 +5586,15 @@
         <v>60</v>
       </c>
       <c r="B18" t="s">
-        <v>365</v>
+        <v>337</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
-        <v>345</v>
+        <v>328</v>
       </c>
       <c r="B19" t="s">
-        <v>366</v>
+        <v>338</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
@@ -5776,7 +5602,7 @@
         <v>248</v>
       </c>
       <c r="B20" t="s">
-        <v>367</v>
+        <v>339</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
@@ -5784,7 +5610,7 @@
         <v>308</v>
       </c>
       <c r="B21" t="s">
-        <v>368</v>
+        <v>340</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
@@ -5792,7 +5618,7 @@
         <v>195</v>
       </c>
       <c r="B22" t="s">
-        <v>369</v>
+        <v>341</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
@@ -5800,7 +5626,7 @@
         <v>211</v>
       </c>
       <c r="B23" t="s">
-        <v>370</v>
+        <v>342</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.2">
@@ -5808,7 +5634,7 @@
         <v>83</v>
       </c>
       <c r="B24" t="s">
-        <v>371</v>
+        <v>343</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.2">
@@ -5816,7 +5642,7 @@
         <v>244</v>
       </c>
       <c r="B25" t="s">
-        <v>372</v>
+        <v>344</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.2">
@@ -5824,7 +5650,7 @@
         <v>260</v>
       </c>
       <c r="B26" t="s">
-        <v>373</v>
+        <v>345</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.2">
@@ -5832,7 +5658,7 @@
         <v>215</v>
       </c>
       <c r="B27" t="s">
-        <v>374</v>
+        <v>346</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.2">
@@ -5840,7 +5666,7 @@
         <v>90</v>
       </c>
       <c r="B28" t="s">
-        <v>375</v>
+        <v>347</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.2">
@@ -5848,7 +5674,7 @@
         <v>198</v>
       </c>
       <c r="B29" t="s">
-        <v>376</v>
+        <v>348</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.2">
@@ -5864,15 +5690,15 @@
         <v>265</v>
       </c>
       <c r="B31" t="s">
-        <v>377</v>
+        <v>349</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A32" s="4" t="s">
+      <c r="A32" t="s">
         <v>105</v>
       </c>
       <c r="B32" t="s">
-        <v>378</v>
+        <v>350</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.2">
@@ -5880,7 +5706,7 @@
         <v>142</v>
       </c>
       <c r="B33" t="s">
-        <v>379</v>
+        <v>351</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.2">
@@ -5888,7 +5714,7 @@
         <v>190</v>
       </c>
       <c r="B34" t="s">
-        <v>380</v>
+        <v>352</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.2">
@@ -5904,7 +5730,7 @@
         <v>158</v>
       </c>
       <c r="B36" t="s">
-        <v>381</v>
+        <v>353</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.2">
@@ -5912,267 +5738,259 @@
         <v>266</v>
       </c>
       <c r="B37" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>271</v>
+        <v>300</v>
       </c>
       <c r="B38" t="s">
-        <v>382</v>
+        <v>354</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A39" t="s">
-        <v>300</v>
+      <c r="A39" s="1" t="s">
+        <v>162</v>
       </c>
       <c r="B39" t="s">
-        <v>384</v>
+        <v>355</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A40" s="1" t="s">
-        <v>162</v>
+      <c r="A40" t="s">
+        <v>268</v>
       </c>
       <c r="B40" t="s">
-        <v>385</v>
+        <v>356</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A41" t="s">
-        <v>268</v>
+      <c r="A41" s="1" t="s">
+        <v>164</v>
       </c>
       <c r="B41" t="s">
-        <v>386</v>
+        <v>166</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A42" s="1" t="s">
-        <v>164</v>
+      <c r="A42" t="s">
+        <v>321</v>
       </c>
       <c r="B42" t="s">
-        <v>166</v>
+        <v>357</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A43" t="s">
-        <v>336</v>
+      <c r="A43" s="1" t="s">
+        <v>171</v>
       </c>
       <c r="B43" t="s">
-        <v>387</v>
+        <v>170</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
-        <v>171</v>
+        <v>314</v>
       </c>
       <c r="B44" t="s">
-        <v>170</v>
+        <v>358</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
-        <v>314</v>
+        <v>174</v>
       </c>
       <c r="B45" t="s">
-        <v>388</v>
+        <v>173</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A46" s="1" t="s">
-        <v>174</v>
+      <c r="A46" t="s">
+        <v>191</v>
       </c>
       <c r="B46" t="s">
-        <v>173</v>
+        <v>359</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>191</v>
+        <v>270</v>
       </c>
       <c r="B47" t="s">
-        <v>389</v>
+        <v>360</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A48" t="s">
-        <v>270</v>
+      <c r="A48" s="1" t="s">
+        <v>209</v>
       </c>
       <c r="B48" t="s">
-        <v>390</v>
+        <v>177</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A49" s="1" t="s">
-        <v>209</v>
+      <c r="A49" t="s">
+        <v>273</v>
       </c>
       <c r="B49" t="s">
-        <v>177</v>
+        <v>361</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>273</v>
+        <v>217</v>
       </c>
       <c r="B50" t="s">
-        <v>391</v>
+        <v>362</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>217</v>
+        <v>292</v>
       </c>
       <c r="B51" t="s">
-        <v>393</v>
+        <v>291</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>292</v>
+        <v>192</v>
       </c>
       <c r="B52" t="s">
-        <v>291</v>
+        <v>363</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>192</v>
+        <v>201</v>
       </c>
       <c r="B53" t="s">
-        <v>394</v>
+        <v>364</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>201</v>
+        <v>254</v>
       </c>
       <c r="B54" t="s">
-        <v>395</v>
+        <v>365</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A55" t="s">
-        <v>254</v>
+      <c r="A55" s="1" t="s">
+        <v>181</v>
       </c>
       <c r="B55" t="s">
-        <v>396</v>
+        <v>366</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A56" s="1" t="s">
-        <v>181</v>
+      <c r="A56" t="s">
+        <v>183</v>
       </c>
       <c r="B56" t="s">
-        <v>397</v>
+        <v>377</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>183</v>
+        <v>247</v>
       </c>
       <c r="B57" t="s">
-        <v>398</v>
+        <v>367</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A58" t="s">
-        <v>247</v>
+      <c r="A58" s="1" t="s">
+        <v>79</v>
       </c>
       <c r="B58" t="s">
-        <v>399</v>
+        <v>184</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A59" s="1" t="s">
-        <v>79</v>
+      <c r="A59" t="s">
+        <v>243</v>
       </c>
       <c r="B59" t="s">
-        <v>184</v>
+        <v>368</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A60" t="s">
-        <v>243</v>
+      <c r="A60" s="1" t="s">
+        <v>186</v>
       </c>
       <c r="B60" t="s">
-        <v>400</v>
+        <v>369</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A61" s="1" t="s">
-        <v>186</v>
+      <c r="A61" t="s">
+        <v>255</v>
       </c>
       <c r="B61" t="s">
-        <v>401</v>
+        <v>370</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>255</v>
+        <v>197</v>
       </c>
       <c r="B62" t="s">
-        <v>402</v>
+        <v>371</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>197</v>
+        <v>238</v>
       </c>
       <c r="B63" t="s">
-        <v>403</v>
+        <v>372</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>238</v>
+        <v>269</v>
       </c>
       <c r="B64" t="s">
-        <v>404</v>
+        <v>373</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>269</v>
+        <v>241</v>
       </c>
       <c r="B65" t="s">
-        <v>405</v>
+        <v>374</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>241</v>
+        <v>253</v>
       </c>
       <c r="B66" t="s">
-        <v>406</v>
+        <v>375</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>253</v>
+        <v>199</v>
       </c>
       <c r="B67" t="s">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A68" t="s">
-        <v>199</v>
-      </c>
-      <c r="B68" t="s">
-        <v>408</v>
+        <v>376</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:A288">
-    <sortCondition ref="A2:A288"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:A287">
+    <sortCondition ref="A2:A287"/>
   </sortState>
-  <conditionalFormatting sqref="A290:A1048576 A1:A69">
+  <conditionalFormatting sqref="A289:A1048576 A1:A68">
     <cfRule type="expression" dxfId="1" priority="3">
       <formula>"NOT(ISBLANK)"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B52:B53">
+  <conditionalFormatting sqref="B51:B52">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>"NOT(ISBLANK)"</formula>
     </cfRule>

--- a/data/source/pedpancan_mapping.xlsx
+++ b/data/source/pedpancan_mapping.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ochapman/projects/pedpancan_ecdna/data/source/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{032A2113-7C3E-824B-AC0D-63C4619E5C64}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5588DBFB-4A9C-8646-9D35-1229FAEEEDFD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1031" uniqueCount="386">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1163" uniqueCount="441">
   <si>
     <t>molecular_subtype</t>
   </si>
@@ -981,9 +981,6 @@
     <t>NONTUMOR</t>
   </si>
   <si>
-    <t>tumor_subtype</t>
-  </si>
-  <si>
     <t>key</t>
   </si>
   <si>
@@ -1029,9 +1026,6 @@
     <t>Chordoma</t>
   </si>
   <si>
-    <t>Clarify what this stands for (High-Grade Calvarium Sarcoma)</t>
-  </si>
-  <si>
     <t>Desmoid/Aggressive Fibromatosis</t>
   </si>
   <si>
@@ -1192,6 +1186,177 @@
   </si>
   <si>
     <t>Epilepsy, chronic rasmussen encephalitis</t>
+  </si>
+  <si>
+    <t>CPP</t>
+  </si>
+  <si>
+    <t>NOS</t>
+  </si>
+  <si>
+    <t>PF</t>
+  </si>
+  <si>
+    <t>PFA</t>
+  </si>
+  <si>
+    <t>MPE</t>
+  </si>
+  <si>
+    <t>ZFTA</t>
+  </si>
+  <si>
+    <t>PFB</t>
+  </si>
+  <si>
+    <t>MYCN</t>
+  </si>
+  <si>
+    <t>YAP1</t>
+  </si>
+  <si>
+    <t>SP</t>
+  </si>
+  <si>
+    <t>TT</t>
+  </si>
+  <si>
+    <t>GCTKIT</t>
+  </si>
+  <si>
+    <t>FGFR</t>
+  </si>
+  <si>
+    <t>IDH</t>
+  </si>
+  <si>
+    <t>BRAF</t>
+  </si>
+  <si>
+    <t>H3</t>
+  </si>
+  <si>
+    <t>MAPK</t>
+  </si>
+  <si>
+    <t>RTK</t>
+  </si>
+  <si>
+    <t>MYB</t>
+  </si>
+  <si>
+    <t>NF1</t>
+  </si>
+  <si>
+    <t>HGG_H3WT</t>
+  </si>
+  <si>
+    <t>HGG_H3WT_TP53</t>
+  </si>
+  <si>
+    <t>IHG_NRTK_TP53</t>
+  </si>
+  <si>
+    <t>IHG_ROS1_TP53</t>
+  </si>
+  <si>
+    <t>IHG_ALK</t>
+  </si>
+  <si>
+    <t>IHG_ROS1</t>
+  </si>
+  <si>
+    <t>IHG_NRTK</t>
+  </si>
+  <si>
+    <t>HGG_IDH_TP53</t>
+  </si>
+  <si>
+    <t>DMG_H3K27</t>
+  </si>
+  <si>
+    <t>DMG_H3K27_TP53</t>
+  </si>
+  <si>
+    <t>DHG_H3G34</t>
+  </si>
+  <si>
+    <t>DHG_H3G34_TP53</t>
+  </si>
+  <si>
+    <t>AAST</t>
+  </si>
+  <si>
+    <t>PASTH</t>
+  </si>
+  <si>
+    <t>FGFR_NF1</t>
+  </si>
+  <si>
+    <t>KIAA1549-BRAF</t>
+  </si>
+  <si>
+    <t>BRAF_CDKN2</t>
+  </si>
+  <si>
+    <t>CDKN2_NF1</t>
+  </si>
+  <si>
+    <t>BRAF_MAPK</t>
+  </si>
+  <si>
+    <t>FGFR_KIAA1549-BRAF</t>
+  </si>
+  <si>
+    <t>CDKN2_MAPK</t>
+  </si>
+  <si>
+    <t>FGFR_MAPK</t>
+  </si>
+  <si>
+    <t>BRAF_NF1</t>
+  </si>
+  <si>
+    <t>IDH_MAPK</t>
+  </si>
+  <si>
+    <t>KIAA1549-BRAF_RTK</t>
+  </si>
+  <si>
+    <t>KIAA1549-BRAF_MAPK</t>
+  </si>
+  <si>
+    <t>BRAF_RTK</t>
+  </si>
+  <si>
+    <t>CDKN2_RTK</t>
+  </si>
+  <si>
+    <t>KIAA1549-BRAF_NF1</t>
+  </si>
+  <si>
+    <t>low grade glioma, subclass hemispheric pilocytic astrocytoma and ganglioglioma</t>
+  </si>
+  <si>
+    <t>PAST</t>
+  </si>
+  <si>
+    <t>WNT</t>
+  </si>
+  <si>
+    <t>SHH</t>
+  </si>
+  <si>
+    <t>G3</t>
+  </si>
+  <si>
+    <t>G4</t>
+  </si>
+  <si>
+    <t>G1A</t>
+  </si>
+  <si>
+    <t>target_subclass</t>
   </si>
 </sst>
 </file>
@@ -1360,10 +1525,12 @@
       <family val="2"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
+      <b/>
+      <sz val="13.5"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="33">
@@ -1707,13 +1874,14 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -2100,10 +2268,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:F290"/>
+  <dimension ref="A1:F289"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A254" workbookViewId="0">
-      <selection activeCell="B283" sqref="B283"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2111,10 +2279,9 @@
     <col min="1" max="1" width="28.6640625" customWidth="1"/>
     <col min="2" max="2" width="62.5" customWidth="1"/>
     <col min="3" max="3" width="18.5" customWidth="1"/>
-    <col min="4" max="4" width="51.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>312</v>
       </c>
@@ -2125,16 +2292,13 @@
         <v>313</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>440</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>307</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>315</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>282</v>
       </c>
@@ -2145,7 +2309,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -2156,7 +2320,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
@@ -2167,7 +2331,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
@@ -2178,7 +2342,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>0</v>
       </c>
@@ -2189,7 +2353,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>282</v>
       </c>
@@ -2200,292 +2364,294 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A8" s="2" t="s">
-        <v>282</v>
-      </c>
-      <c r="B8" t="s">
-        <v>212</v>
-      </c>
-      <c r="C8" t="s">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C8" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D8" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>7</v>
+        <v>184</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A10" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C10" s="1" t="s">
+      <c r="D9" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="B10" t="s">
+        <v>212</v>
+      </c>
+      <c r="C10" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B17" t="s">
-        <v>290</v>
-      </c>
-      <c r="C17" t="s">
+      <c r="B17" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C17" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A18" s="2" t="s">
-        <v>282</v>
-      </c>
-      <c r="B18" t="s">
-        <v>263</v>
-      </c>
-      <c r="C18" t="s">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A18" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C18" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B19" s="1" t="s">
+      <c r="B19" t="s">
+        <v>290</v>
+      </c>
+      <c r="C19" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A20" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="B20" t="s">
+        <v>263</v>
+      </c>
+      <c r="C20" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A21" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B21" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="C19" s="1" t="s">
+      <c r="C21" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A20" s="1" t="s">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A22" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B20" s="1" t="s">
+      <c r="B22" s="1" t="s">
         <v>38</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A21" s="2" t="s">
-        <v>282</v>
-      </c>
-      <c r="B21" t="s">
-        <v>256</v>
-      </c>
-      <c r="C21" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A22" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>110</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A23" s="1" t="s">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A23" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="B23" t="s">
+        <v>256</v>
+      </c>
+      <c r="C23" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A24" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A25" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B23" s="1" t="s">
+      <c r="B25" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="C23" s="1" t="s">
+      <c r="C25" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A24" s="2" t="s">
-        <v>282</v>
-      </c>
-      <c r="B24" t="s">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A26" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="B26" t="s">
+        <v>240</v>
+      </c>
+      <c r="C26" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A27" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="B27" t="s">
+        <v>217</v>
+      </c>
+      <c r="C27" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A28" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B28" t="s">
+        <v>291</v>
+      </c>
+      <c r="C28" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A29" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="B29" t="s">
+        <v>211</v>
+      </c>
+      <c r="C29" t="s">
+        <v>309</v>
+      </c>
+      <c r="D29" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A30" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="B30" t="s">
         <v>203</v>
       </c>
-      <c r="C24" t="s">
+      <c r="C30" t="s">
         <v>309</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A25" t="s">
-        <v>282</v>
-      </c>
-      <c r="B25" t="s">
-        <v>303</v>
-      </c>
-      <c r="C25" t="s">
-        <v>183</v>
-      </c>
-      <c r="D25" s="3"/>
-      <c r="E25" s="3" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A26" s="2" t="s">
-        <v>282</v>
-      </c>
-      <c r="B26" t="s">
-        <v>246</v>
-      </c>
-      <c r="C26" t="s">
-        <v>183</v>
-      </c>
-      <c r="D26" s="3"/>
-      <c r="E26" s="3" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A27" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A28" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A29" s="2" t="s">
-        <v>282</v>
-      </c>
-      <c r="B29" t="s">
-        <v>249</v>
-      </c>
-      <c r="C29" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A30" s="2" t="s">
-        <v>282</v>
-      </c>
-      <c r="B30" t="s">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A31" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="B31" t="s">
         <v>242</v>
       </c>
-      <c r="C30" t="s">
-        <v>378</v>
-      </c>
-      <c r="D30" s="1"/>
-      <c r="E30" t="s">
+      <c r="C31" t="s">
+        <v>376</v>
+      </c>
+      <c r="D31" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A31" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>320</v>
-      </c>
-      <c r="D31" s="1"/>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A32" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B32" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C32" s="1" t="s">
-        <v>24</v>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A32" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="B32" t="s">
+        <v>247</v>
+      </c>
+      <c r="C32" t="s">
+        <v>376</v>
+      </c>
+      <c r="D32" t="s">
+        <v>247</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.2">
@@ -2493,21 +2659,21 @@
         <v>0</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>24</v>
+        <v>249</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
-        <v>26</v>
+        <v>0</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>24</v>
+        <v>249</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.2">
@@ -2515,389 +2681,444 @@
         <v>282</v>
       </c>
       <c r="B35" t="s">
-        <v>204</v>
+        <v>249</v>
       </c>
       <c r="C35" t="s">
-        <v>24</v>
+        <v>249</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>21</v>
+        <v>179</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A37" s="2" t="s">
-        <v>282</v>
-      </c>
-      <c r="B37" t="s">
-        <v>22</v>
+      <c r="A37" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>23</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>318</v>
+        <v>24</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B38" t="s">
-        <v>32</v>
+        <v>0</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>25</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>318</v>
+        <v>24</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
-        <v>6</v>
+        <v>26</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>318</v>
+        <v>24</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A40" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B40" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="C40" s="1" t="s">
-        <v>318</v>
+      <c r="A40" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="B40" t="s">
+        <v>204</v>
+      </c>
+      <c r="C40" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>318</v>
+        <v>317</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A42" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B42" s="1" t="s">
-        <v>34</v>
+      <c r="A42" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="B42" t="s">
+        <v>22</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>318</v>
+        <v>317</v>
+      </c>
+      <c r="D42" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A43" s="2" t="s">
-        <v>282</v>
-      </c>
-      <c r="B43" t="s">
-        <v>240</v>
-      </c>
-      <c r="C43" t="s">
-        <v>8</v>
-      </c>
-      <c r="D43" s="4"/>
+      <c r="A43" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>384</v>
+      </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A44" s="2" t="s">
-        <v>282</v>
-      </c>
-      <c r="B44" t="s">
-        <v>194</v>
-      </c>
-      <c r="C44" t="s">
-        <v>194</v>
+      <c r="A44" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>384</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>46</v>
+        <v>33</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>206</v>
+        <v>317</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>384</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A46" s="2" t="s">
-        <v>282</v>
-      </c>
-      <c r="B46" t="s">
-        <v>206</v>
-      </c>
-      <c r="C46" t="s">
-        <v>206</v>
+      <c r="A46" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>384</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="B47" t="s">
+        <v>32</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="D47" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A48" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="B48" t="s">
+        <v>194</v>
+      </c>
+      <c r="C48" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A49" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A50" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="B50" t="s">
+        <v>206</v>
+      </c>
+      <c r="C50" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A51" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B51" t="s">
         <v>286</v>
       </c>
-      <c r="C47" t="s">
+      <c r="C51" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A48" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B48" s="1" t="s">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A52" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B52" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="C48" s="1" t="s">
+      <c r="C52" s="1" t="s">
         <v>206</v>
       </c>
-      <c r="D48" s="5"/>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A49" s="2" t="s">
-        <v>282</v>
-      </c>
-      <c r="B49" t="s">
-        <v>218</v>
-      </c>
-      <c r="C49" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A50" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B50" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="C50" s="1" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A51" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B51" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="C51" s="1" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A52" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B52" s="1" t="s">
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A53" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B53" s="1" t="s">
         <v>51</v>
-      </c>
-      <c r="C52" s="1" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A53" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B53" s="1" t="s">
-        <v>52</v>
       </c>
       <c r="C53" s="1" t="s">
         <v>289</v>
       </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D53" s="1" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A54" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C54" s="1" t="s">
         <v>289</v>
       </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D54" s="1" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A55" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="C55" s="1" t="s">
         <v>289</v>
       </c>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A56" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B56" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="C56" s="1" t="s">
+      <c r="D55" s="1" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A56" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="B56" t="s">
+        <v>218</v>
+      </c>
+      <c r="C56" t="s">
         <v>289</v>
       </c>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D56" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A57" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="C57" s="1" t="s">
         <v>289</v>
       </c>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A58" t="s">
+      <c r="D57" s="1" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A58" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="D58" s="1" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A59" t="s">
         <v>6</v>
       </c>
-      <c r="B58" t="s">
+      <c r="B59" t="s">
         <v>28</v>
       </c>
-      <c r="C58" t="s">
+      <c r="C59" t="s">
         <v>289</v>
       </c>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A59" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B59" s="1" t="s">
+      <c r="D59" s="1" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A60" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="D60" s="1" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A61" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="D61" s="1" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A62" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="D62" s="1" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A63" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B63" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="C59" s="1" t="s">
+      <c r="C63" s="1" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A60" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B60" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="C60" s="1" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A61" s="2" t="s">
-        <v>282</v>
-      </c>
-      <c r="B61" t="s">
-        <v>58</v>
-      </c>
-      <c r="C61" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A62" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B62" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="C62" s="1" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A63" s="2" t="s">
-        <v>282</v>
-      </c>
-      <c r="B63" t="s">
-        <v>60</v>
-      </c>
-      <c r="C63" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A64" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>76</v>
+        <v>59</v>
       </c>
       <c r="C64" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A65" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="B65" t="s">
+        <v>58</v>
+      </c>
+      <c r="C65" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A66" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C66" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A67" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="B67" t="s">
+        <v>60</v>
+      </c>
+      <c r="C67" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A68" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="B68" t="s">
+        <v>208</v>
+      </c>
+      <c r="C68" t="s">
         <v>308</v>
       </c>
-    </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A65" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B65" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="C65" s="1" t="s">
+      <c r="D68" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A69" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="C69" s="1" t="s">
         <v>308</v>
       </c>
-    </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A66" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B66" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="C66" s="1" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A67" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B67" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="C67" s="1" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A68" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B68" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="C68" s="1" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A69" s="2" t="s">
-        <v>282</v>
-      </c>
-      <c r="B69" t="s">
-        <v>208</v>
-      </c>
-      <c r="C69" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D69" s="1" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A70" s="2" t="s">
         <v>282</v>
       </c>
@@ -2907,53 +3128,67 @@
       <c r="C70" t="s">
         <v>308</v>
       </c>
-    </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A71" s="2" t="s">
-        <v>282</v>
-      </c>
-      <c r="B71" t="s">
-        <v>251</v>
-      </c>
-      <c r="C71" t="s">
+      <c r="D70" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A71" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B71" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C71" s="1" t="s">
         <v>308</v>
       </c>
-    </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D71" s="1" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A72" s="2" t="s">
         <v>282</v>
       </c>
       <c r="B72" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="C72" t="s">
         <v>308</v>
       </c>
-    </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A73" s="2" t="s">
-        <v>282</v>
-      </c>
-      <c r="B73" t="s">
+      <c r="D72" s="3" t="s">
         <v>259</v>
       </c>
-      <c r="C73" t="s">
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A73" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B73" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="C73" s="1" t="s">
         <v>308</v>
       </c>
-      <c r="D73" s="3"/>
-    </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D73" s="1" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A74" s="2" t="s">
         <v>282</v>
       </c>
       <c r="B74" t="s">
-        <v>245</v>
+        <v>251</v>
       </c>
       <c r="C74" t="s">
         <v>308</v>
       </c>
-    </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D74" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A75" s="2" t="s">
         <v>282</v>
       </c>
@@ -2963,353 +3198,444 @@
       <c r="C75" t="s">
         <v>308</v>
       </c>
-      <c r="D75" s="3"/>
-    </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D75" s="3" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A76" s="2" t="s">
         <v>282</v>
       </c>
       <c r="B76" t="s">
-        <v>267</v>
+        <v>258</v>
       </c>
       <c r="C76" t="s">
         <v>308</v>
       </c>
-    </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D76" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A77" s="2" t="s">
         <v>282</v>
       </c>
       <c r="B77" t="s">
-        <v>195</v>
+        <v>267</v>
       </c>
       <c r="C77" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.2">
+        <v>308</v>
+      </c>
+      <c r="D77" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A78" s="2" t="s">
         <v>282</v>
       </c>
       <c r="B78" t="s">
-        <v>211</v>
+        <v>245</v>
       </c>
       <c r="C78" t="s">
-        <v>309</v>
-      </c>
-      <c r="E78" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.2">
+        <v>308</v>
+      </c>
+      <c r="D78" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A79" s="1" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>39</v>
+        <v>188</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.2">
+        <v>308</v>
+      </c>
+      <c r="D79" s="1" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A80" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>41</v>
+        <v>189</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A81" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B81" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="C81" s="1" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.2">
+        <v>308</v>
+      </c>
+      <c r="D80" s="1" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A81" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="B81" t="s">
+        <v>195</v>
+      </c>
+      <c r="C81" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A82" s="1" t="s">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>43</v>
+        <v>63</v>
       </c>
       <c r="C82" s="1" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A83" s="2" t="s">
-        <v>282</v>
-      </c>
-      <c r="B83" t="s">
-        <v>213</v>
-      </c>
-      <c r="C83" t="s">
+      <c r="D82" s="1" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A83" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B83" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="C83" s="1" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="84" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D83" s="1" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A84" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="C84" s="1" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D84" s="1" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A85" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>62</v>
+        <v>72</v>
       </c>
       <c r="C85" s="1" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D85" s="1" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A86" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>63</v>
+        <v>71</v>
       </c>
       <c r="C86" s="1" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D86" s="1" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A87" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>64</v>
+        <v>84</v>
       </c>
       <c r="C87" s="1" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D87" s="1" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A88" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>65</v>
+        <v>168</v>
       </c>
       <c r="C88" s="1" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D88" s="1" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A89" s="1" t="s">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>66</v>
+        <v>39</v>
       </c>
       <c r="C89" s="1" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D89" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A90" s="1" t="s">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>67</v>
+        <v>41</v>
       </c>
       <c r="C90" s="1" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D90" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A91" s="1" t="s">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>68</v>
+        <v>40</v>
       </c>
       <c r="C91" s="1" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D91" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A92" s="1" t="s">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>69</v>
+        <v>43</v>
       </c>
       <c r="C92" s="1" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A93" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B93" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="C93" s="1" t="s">
+      <c r="D92" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A93" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="B93" t="s">
+        <v>213</v>
+      </c>
+      <c r="C93" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A94" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B94" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="C94" s="1" t="s">
+      <c r="D93" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A94" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="B94" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="C94" s="5" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D94" s="5" t="s">
+        <v>213</v>
+      </c>
+      <c r="E94" s="5"/>
+      <c r="F94" s="5"/>
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A95" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>72</v>
+        <v>169</v>
       </c>
       <c r="C95" s="1" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D95" s="1" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A96" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>73</v>
+        <v>61</v>
       </c>
       <c r="C96" s="1" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D96" s="1" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A97" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="C97" s="1" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D97" s="1" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A98" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>75</v>
+        <v>87</v>
       </c>
       <c r="C98" s="1" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A99" s="2" t="s">
-        <v>282</v>
-      </c>
-      <c r="B99" t="s">
-        <v>207</v>
+      <c r="D98" s="1" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A99" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B99" s="1" t="s">
+        <v>66</v>
       </c>
       <c r="C99" s="1" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D99" s="1" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A100" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>82</v>
+        <v>62</v>
       </c>
       <c r="C100" s="1" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D100" s="1" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A101" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>84</v>
+        <v>73</v>
       </c>
       <c r="C101" s="1" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D101" s="1" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A102" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>85</v>
+        <v>65</v>
       </c>
       <c r="C102" s="1" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D102" s="1" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A103" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C103" s="1" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D103" s="1" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A104" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>87</v>
+        <v>68</v>
       </c>
       <c r="C104" s="1" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D104" s="1" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A105" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>88</v>
+        <v>75</v>
       </c>
       <c r="C105" s="1" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D105" s="1" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A106" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>137</v>
+        <v>86</v>
       </c>
       <c r="C106" s="1" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D106" s="1" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A107" s="1" t="s">
         <v>0</v>
       </c>
@@ -3319,223 +3645,271 @@
       <c r="C107" s="1" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A108" s="2" t="s">
-        <v>282</v>
-      </c>
-      <c r="B108" t="s">
-        <v>216</v>
-      </c>
-      <c r="C108" t="s">
+      <c r="D107" s="1" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A108" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B108" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C108" s="1" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D108" s="1" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A109" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B109" t="s">
-        <v>89</v>
-      </c>
-      <c r="C109" t="s">
+      <c r="B109" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C109" s="1" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A110" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B110" s="1" t="s">
-        <v>168</v>
+      <c r="D109" s="1" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A110" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="B110" t="s">
+        <v>207</v>
       </c>
       <c r="C110" s="1" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D110" s="1" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A111" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>169</v>
+        <v>88</v>
       </c>
       <c r="C111" s="1" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D111" s="1" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A112" s="2" t="s">
         <v>282</v>
       </c>
       <c r="B112" t="s">
+        <v>216</v>
+      </c>
+      <c r="C112" t="s">
+        <v>83</v>
+      </c>
+      <c r="D112" s="1" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A113" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B113" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="C113" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="D113" s="1" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A114" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B114" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C114" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="D114" s="1" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A115" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B115" t="s">
+        <v>89</v>
+      </c>
+      <c r="C115" t="s">
+        <v>83</v>
+      </c>
+      <c r="D115" s="1" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A116" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B116" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C116" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="D116" s="1" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A117" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="B117" t="s">
         <v>244</v>
       </c>
-      <c r="C112" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A113" s="2" t="s">
-        <v>282</v>
-      </c>
-      <c r="B113" t="s">
+      <c r="C117" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A118" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="B118" t="s">
         <v>260</v>
       </c>
-      <c r="C113" t="s">
+      <c r="C118" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A114" s="2" t="s">
-        <v>282</v>
-      </c>
-      <c r="B114" t="s">
-        <v>215</v>
-      </c>
-      <c r="C114" t="s">
-        <v>183</v>
-      </c>
-      <c r="D114" s="1" t="s">
-        <v>331</v>
-      </c>
-      <c r="E114" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A115" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B115" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="C115" s="1" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A116" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B116" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="C116" s="1" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A117" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B117" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="C117" s="1" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A118" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B118" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="C118" s="1" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A119" s="1" t="s">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>95</v>
+        <v>106</v>
       </c>
       <c r="C119" s="1" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D119" s="1" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A120" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="C120" s="1" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D120" s="1" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A121" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="C121" s="1" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D121" s="1" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A122" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="C122" s="1" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D122" s="1" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A123" s="1" t="s">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>99</v>
+        <v>108</v>
       </c>
       <c r="C123" s="1" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D123" s="1" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A124" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B124" s="1" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
       <c r="C124" s="1" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D124" s="1" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A125" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="C125" s="1" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D125" s="1" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A126" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="C126" s="1" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D126" s="1" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A127" s="1" t="s">
         <v>0</v>
       </c>
@@ -3545,532 +3919,575 @@
       <c r="C127" s="1" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D127" s="1" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A128" s="1" t="s">
-        <v>26</v>
+        <v>0</v>
       </c>
       <c r="B128" s="1" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="C128" s="1" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A129" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B129" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="C129" s="1" t="s">
+      <c r="D128" s="1" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A129" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="B129" t="s">
+        <v>202</v>
+      </c>
+      <c r="C129" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D129" s="1" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A130" s="2" t="s">
         <v>282</v>
       </c>
       <c r="B130" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="C130" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A131" s="2" t="s">
-        <v>282</v>
-      </c>
-      <c r="B131" t="s">
+      <c r="D130" s="1" t="s">
         <v>205</v>
       </c>
-      <c r="C131" t="s">
+    </row>
+    <row r="131" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A131" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B131" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="C131" s="1" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A132" s="2" t="s">
-        <v>282</v>
-      </c>
-      <c r="B132" t="s">
+      <c r="D131" s="1" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A132" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B132" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="C132" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="D132" s="1" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A133" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B133" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="C133" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="D133" s="1" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A134" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B134" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="C134" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="D134" s="1" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A135" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B135" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C135" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="D135" s="1" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A136" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="B136" t="s">
         <v>220</v>
-      </c>
-      <c r="C132" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A133" s="2" t="s">
-        <v>282</v>
-      </c>
-      <c r="B133" t="s">
-        <v>221</v>
-      </c>
-      <c r="C133" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A134" s="2" t="s">
-        <v>282</v>
-      </c>
-      <c r="B134" t="s">
-        <v>222</v>
-      </c>
-      <c r="C134" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A135" s="2" t="s">
-        <v>282</v>
-      </c>
-      <c r="B135" t="s">
-        <v>223</v>
-      </c>
-      <c r="C135" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A136" s="2" t="s">
-        <v>282</v>
-      </c>
-      <c r="B136" t="s">
-        <v>224</v>
       </c>
       <c r="C136" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A137" s="2" t="s">
         <v>282</v>
       </c>
       <c r="B137" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="C137" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A138" s="2" t="s">
         <v>282</v>
       </c>
       <c r="B138" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="C138" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A139" s="2" t="s">
         <v>282</v>
       </c>
       <c r="B139" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="C139" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A140" s="2" t="s">
         <v>282</v>
       </c>
       <c r="B140" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="C140" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A141" s="2" t="s">
         <v>282</v>
       </c>
       <c r="B141" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="C141" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A142" s="2" t="s">
         <v>282</v>
       </c>
       <c r="B142" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="C142" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A143" s="2" t="s">
         <v>282</v>
       </c>
       <c r="B143" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="C143" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A144" s="2" t="s">
         <v>282</v>
       </c>
       <c r="B144" t="s">
-        <v>275</v>
+        <v>228</v>
       </c>
       <c r="C144" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="145" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A145" t="s">
+    <row r="145" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A145" s="2" t="s">
         <v>282</v>
       </c>
       <c r="B145" t="s">
-        <v>294</v>
+        <v>229</v>
       </c>
       <c r="C145" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="146" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A146" t="s">
+    <row r="146" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A146" s="2" t="s">
         <v>282</v>
       </c>
       <c r="B146" t="s">
-        <v>295</v>
+        <v>230</v>
       </c>
       <c r="C146" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="147" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A147" t="s">
+    <row r="147" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A147" s="2" t="s">
         <v>282</v>
       </c>
       <c r="B147" t="s">
-        <v>296</v>
+        <v>225</v>
       </c>
       <c r="C147" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="148" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A148" t="s">
+    <row r="148" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A148" s="2" t="s">
         <v>282</v>
       </c>
       <c r="B148" t="s">
-        <v>297</v>
+        <v>275</v>
       </c>
       <c r="C148" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="149" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
         <v>282</v>
       </c>
       <c r="B149" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="C149" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="150" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
         <v>282</v>
       </c>
       <c r="B150" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="C150" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="151" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
         <v>282</v>
       </c>
       <c r="B151" t="s">
-        <v>301</v>
+        <v>296</v>
       </c>
       <c r="C151" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="152" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
         <v>282</v>
       </c>
       <c r="B152" t="s">
-        <v>302</v>
+        <v>297</v>
       </c>
       <c r="C152" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="153" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
         <v>282</v>
       </c>
       <c r="B153" t="s">
-        <v>304</v>
+        <v>298</v>
       </c>
       <c r="C153" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="154" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
         <v>282</v>
       </c>
       <c r="B154" t="s">
-        <v>305</v>
+        <v>299</v>
       </c>
       <c r="C154" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="155" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
         <v>282</v>
       </c>
       <c r="B155" t="s">
-        <v>306</v>
+        <v>301</v>
       </c>
       <c r="C155" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="156" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
+        <v>282</v>
+      </c>
+      <c r="B156" t="s">
+        <v>302</v>
+      </c>
+      <c r="C156" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A157" t="s">
+        <v>282</v>
+      </c>
+      <c r="B157" t="s">
+        <v>304</v>
+      </c>
+      <c r="C157" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A158" t="s">
+        <v>282</v>
+      </c>
+      <c r="B158" t="s">
+        <v>305</v>
+      </c>
+      <c r="C158" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="159" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A159" t="s">
+        <v>282</v>
+      </c>
+      <c r="B159" t="s">
+        <v>306</v>
+      </c>
+      <c r="C159" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="160" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A160" t="s">
+        <v>282</v>
+      </c>
+      <c r="B160" t="s">
+        <v>300</v>
+      </c>
+      <c r="C160" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="161" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A161" t="s">
         <v>6</v>
       </c>
-      <c r="B156" t="s">
+      <c r="B161" t="s">
         <v>109</v>
       </c>
-      <c r="C156" t="s">
+      <c r="C161" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="157" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A157" t="s">
+    <row r="162" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A162" t="s">
         <v>9</v>
       </c>
-      <c r="B157" s="2" t="s">
+      <c r="B162" s="2" t="s">
         <v>310</v>
       </c>
-      <c r="C157" t="s">
+      <c r="C162" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="158" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A158" s="2" t="s">
-        <v>282</v>
-      </c>
-      <c r="B158" t="s">
+    <row r="163" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A163" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="B163" t="s">
         <v>265</v>
       </c>
-      <c r="C158" t="s">
+      <c r="C163" t="s">
         <v>265</v>
       </c>
-      <c r="D158" s="3"/>
-    </row>
-    <row r="159" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A159" t="s">
-        <v>26</v>
-      </c>
-      <c r="B159" t="s">
-        <v>107</v>
-      </c>
-      <c r="C159" t="s">
+    </row>
+    <row r="164" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A164" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B164" t="s">
+        <v>285</v>
+      </c>
+      <c r="C164" t="s">
         <v>105</v>
       </c>
-      <c r="D159" s="3"/>
-      <c r="E159" s="3" t="s">
-        <v>381</v>
-      </c>
-      <c r="F159" s="3" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="160" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A160" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B160" t="s">
-        <v>44</v>
-      </c>
-      <c r="C160" t="s">
-        <v>105</v>
-      </c>
-      <c r="D160" s="3"/>
-      <c r="E160" s="3"/>
-    </row>
-    <row r="161" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A161" s="2" t="s">
-        <v>282</v>
-      </c>
-      <c r="B161" t="s">
-        <v>214</v>
-      </c>
-      <c r="C161" t="s">
-        <v>105</v>
-      </c>
-      <c r="D161" s="5"/>
-      <c r="E161" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="162" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A162" s="2" t="s">
-        <v>282</v>
-      </c>
-      <c r="B162" t="s">
-        <v>219</v>
-      </c>
-      <c r="C162" t="s">
-        <v>105</v>
-      </c>
-      <c r="D162" s="5"/>
-      <c r="E162" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="163" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A163" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B163" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="C163" s="1" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="164" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A164" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B164" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="C164" s="1" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="165" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D164" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="165" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A165" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B165" s="1" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="C165" s="1" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="166" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D165" s="1" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="166" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A166" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B166" s="1" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="C166" s="1" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="167" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D166" s="1" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="167" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A167" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B167" s="1" t="s">
-        <v>115</v>
+        <v>135</v>
       </c>
       <c r="C167" s="1" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="168" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D167" s="1" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="168" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A168" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B168" s="1" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C168" s="1" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="169" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D168" s="1" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="169" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A169" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B169" s="1" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="C169" s="1" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="170" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D169" s="1" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="170" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A170" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B170" s="1" t="s">
-        <v>118</v>
+        <v>136</v>
       </c>
       <c r="C170" s="1" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="171" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A171" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B171" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="C171" s="1" t="s">
+      <c r="D170" s="1" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="171" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A171" t="s">
+        <v>26</v>
+      </c>
+      <c r="B171" t="s">
+        <v>107</v>
+      </c>
+      <c r="C171" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="172" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D171" s="3" t="s">
+        <v>379</v>
+      </c>
+      <c r="E171" s="3" t="s">
+        <v>316</v>
+      </c>
+      <c r="F171"/>
+    </row>
+    <row r="172" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A172" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B172" s="1" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="C172" s="1" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="173" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D172" s="1" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="173" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A173" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B173" s="1" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="C173" s="1" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="174" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D173" s="1" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="174" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A174" s="1" t="s">
         <v>0</v>
       </c>
@@ -4080,203 +4497,264 @@
       <c r="C174" s="1" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="175" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D174" s="1" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="175" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A175" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B175" s="1" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="C175" s="1" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="176" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D175" s="1" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="176" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A176" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B176" s="1" t="s">
-        <v>124</v>
+        <v>130</v>
       </c>
       <c r="C176" s="1" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="177" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D176" s="1" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="177" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A177" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B177" s="1" t="s">
-        <v>125</v>
+        <v>139</v>
       </c>
       <c r="C177" s="1" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="178" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D177" s="1" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="178" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A178" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B178" s="1" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="C178" s="1" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="179" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D178" s="1" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="179" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A179" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B179" s="1" t="s">
-        <v>128</v>
+        <v>104</v>
       </c>
       <c r="C179" s="1" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="180" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D179" s="1" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="180" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A180" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B180" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C180" s="1" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="181" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D180" s="1" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="181" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A181" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B181" s="1" t="s">
-        <v>130</v>
+        <v>138</v>
       </c>
       <c r="C181" s="1" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="182" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D181" s="1" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="182" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A182" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B182" s="1" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="C182" s="1" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="183" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D182" s="1" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="183" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A183" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B183" s="1" t="s">
-        <v>132</v>
+        <v>115</v>
       </c>
       <c r="C183" s="1" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="184" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D183" s="1" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="184" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A184" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B184" s="1" t="s">
-        <v>133</v>
+        <v>124</v>
       </c>
       <c r="C184" s="1" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="185" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D184" s="1" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="185" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A185" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B185" s="1" t="s">
-        <v>135</v>
+        <v>120</v>
       </c>
       <c r="C185" s="1" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="186" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D185" s="1" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="186" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A186" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B186" s="1" t="s">
-        <v>136</v>
+        <v>119</v>
       </c>
       <c r="C186" s="1" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="187" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D186" s="1" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="187" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A187" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B187" s="1" t="s">
-        <v>138</v>
+        <v>129</v>
       </c>
       <c r="C187" s="1" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="188" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D187" s="1" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="188" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A188" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B188" s="1" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="C188" s="1" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="189" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A189" s="2" t="s">
-        <v>282</v>
-      </c>
-      <c r="B189" t="s">
+      <c r="D188" s="1" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="189" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A189" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B189" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="C189" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="D189" s="1" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="190" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A190" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="B190" t="s">
         <v>231</v>
-      </c>
-      <c r="C189" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="190" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A190" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B190" t="s">
-        <v>285</v>
       </c>
       <c r="C190" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="191" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A191" s="2" t="s">
+      <c r="D190" s="1" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="191" spans="1:6" s="5" customFormat="1" ht="19" x14ac:dyDescent="0.25">
+      <c r="A191" s="1" t="s">
         <v>31</v>
       </c>
       <c r="B191" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="C191" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="192" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D191" s="1" t="s">
+        <v>434</v>
+      </c>
+      <c r="E191" s="4" t="s">
+        <v>433</v>
+      </c>
+      <c r="F191"/>
+    </row>
+    <row r="192" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A192" s="1" t="s">
-        <v>31</v>
+        <v>6</v>
       </c>
       <c r="B192" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C192" t="s">
         <v>105</v>
+      </c>
+      <c r="D192" s="3" t="s">
+        <v>417</v>
       </c>
     </row>
     <row r="193" spans="1:4" x14ac:dyDescent="0.2">
@@ -4289,50 +4767,64 @@
       <c r="C193" s="1" t="s">
         <v>105</v>
       </c>
+      <c r="D193" s="1" t="s">
+        <v>156</v>
+      </c>
     </row>
     <row r="194" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A194" s="2" t="s">
         <v>282</v>
       </c>
       <c r="B194" t="s">
-        <v>276</v>
+        <v>214</v>
       </c>
       <c r="C194" t="s">
-        <v>280</v>
-      </c>
-      <c r="D194" s="5"/>
+        <v>105</v>
+      </c>
+      <c r="D194" t="s">
+        <v>214</v>
+      </c>
     </row>
     <row r="195" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A195" s="2" t="s">
         <v>282</v>
       </c>
       <c r="B195" t="s">
-        <v>277</v>
+        <v>219</v>
       </c>
       <c r="C195" t="s">
-        <v>280</v>
+        <v>105</v>
+      </c>
+      <c r="D195" t="s">
+        <v>219</v>
       </c>
     </row>
     <row r="196" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A196" s="2" t="s">
-        <v>282</v>
-      </c>
-      <c r="B196" t="s">
-        <v>278</v>
-      </c>
-      <c r="C196" t="s">
-        <v>280</v>
+      <c r="A196" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B196" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="C196" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="D196" s="1" t="s">
+        <v>401</v>
       </c>
     </row>
     <row r="197" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A197" s="2" t="s">
-        <v>282</v>
-      </c>
-      <c r="B197" t="s">
-        <v>279</v>
-      </c>
-      <c r="C197" t="s">
-        <v>280</v>
+      <c r="A197" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B197" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="C197" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="D197" s="1" t="s">
+        <v>239</v>
       </c>
     </row>
     <row r="198" spans="1:4" x14ac:dyDescent="0.2">
@@ -4340,22 +4832,28 @@
         <v>282</v>
       </c>
       <c r="B198" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="C198" t="s">
         <v>280</v>
       </c>
+      <c r="D198" s="1" t="s">
+        <v>281</v>
+      </c>
     </row>
     <row r="199" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A199" s="2" t="s">
         <v>282</v>
       </c>
       <c r="B199" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="C199" t="s">
         <v>280</v>
       </c>
+      <c r="D199" s="1" t="s">
+        <v>437</v>
+      </c>
     </row>
     <row r="200" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A200" s="1" t="s">
@@ -4367,39 +4865,51 @@
       <c r="C200" t="s">
         <v>280</v>
       </c>
+      <c r="D200" s="1" t="s">
+        <v>437</v>
+      </c>
     </row>
     <row r="201" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A201" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B201" s="1" t="s">
-        <v>143</v>
+      <c r="A201" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="B201" t="s">
+        <v>279</v>
       </c>
       <c r="C201" t="s">
         <v>280</v>
       </c>
+      <c r="D201" s="1" t="s">
+        <v>438</v>
+      </c>
     </row>
     <row r="202" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A202" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B202" s="1" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C202" t="s">
         <v>280</v>
       </c>
+      <c r="D202" s="1" t="s">
+        <v>438</v>
+      </c>
     </row>
     <row r="203" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A203" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B203" s="1" t="s">
-        <v>145</v>
+      <c r="A203" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="B203" t="s">
+        <v>280</v>
       </c>
       <c r="C203" t="s">
         <v>280</v>
       </c>
+      <c r="D203" s="1" t="s">
+        <v>385</v>
+      </c>
     </row>
     <row r="204" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A204" s="1" t="s">
@@ -4411,27 +4921,36 @@
       <c r="C204" t="s">
         <v>280</v>
       </c>
+      <c r="D204" s="1" t="s">
+        <v>385</v>
+      </c>
     </row>
     <row r="205" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A205" s="1" t="s">
-        <v>6</v>
+      <c r="A205" s="2" t="s">
+        <v>282</v>
       </c>
       <c r="B205" t="s">
-        <v>176</v>
+        <v>277</v>
       </c>
       <c r="C205" t="s">
         <v>280</v>
       </c>
+      <c r="D205" s="1" t="s">
+        <v>436</v>
+      </c>
     </row>
     <row r="206" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A206" s="2" t="s">
-        <v>282</v>
-      </c>
-      <c r="B206" t="s">
-        <v>190</v>
+      <c r="A206" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B206" s="1" t="s">
+        <v>143</v>
       </c>
       <c r="C206" t="s">
-        <v>190</v>
+        <v>280</v>
+      </c>
+      <c r="D206" s="1" t="s">
+        <v>436</v>
       </c>
     </row>
     <row r="207" spans="1:4" x14ac:dyDescent="0.2">
@@ -4439,73 +4958,83 @@
         <v>282</v>
       </c>
       <c r="B207" t="s">
-        <v>232</v>
+        <v>276</v>
       </c>
       <c r="C207" t="s">
-        <v>190</v>
+        <v>280</v>
+      </c>
+      <c r="D207" s="1" t="s">
+        <v>435</v>
       </c>
     </row>
     <row r="208" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A208" s="1" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="B208" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="C208" s="1" t="s">
-        <v>190</v>
+        <v>144</v>
+      </c>
+      <c r="C208" t="s">
+        <v>280</v>
+      </c>
+      <c r="D208" s="1" t="s">
+        <v>435</v>
       </c>
     </row>
     <row r="209" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A209" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B209" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="C209" s="1" t="s">
-        <v>148</v>
+        <v>6</v>
+      </c>
+      <c r="B209" t="s">
+        <v>176</v>
+      </c>
+      <c r="C209" t="s">
+        <v>280</v>
+      </c>
+      <c r="D209" s="1" t="s">
+        <v>435</v>
       </c>
     </row>
     <row r="210" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A210" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B210" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="C210" s="1" t="s">
-        <v>148</v>
-      </c>
+      <c r="A210" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="B210" t="s">
+        <v>190</v>
+      </c>
+      <c r="C210" t="s">
+        <v>190</v>
+      </c>
+      <c r="D210" s="1"/>
     </row>
     <row r="211" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A211" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B211" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="C211" s="1" t="s">
-        <v>148</v>
+      <c r="A211" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="B211" t="s">
+        <v>232</v>
+      </c>
+      <c r="C211" t="s">
+        <v>190</v>
       </c>
     </row>
     <row r="212" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A212" s="1" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B212" s="1" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="C212" s="1" t="s">
-        <v>148</v>
+        <v>190</v>
       </c>
     </row>
     <row r="213" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A213" s="1" t="s">
-        <v>9</v>
+        <v>31</v>
       </c>
       <c r="B213" s="1" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="C213" s="1" t="s">
         <v>148</v>
@@ -4516,7 +5045,7 @@
         <v>6</v>
       </c>
       <c r="B214" s="1" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="C214" s="1" t="s">
         <v>148</v>
@@ -4527,7 +5056,7 @@
         <v>6</v>
       </c>
       <c r="B215" s="1" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="C215" s="1" t="s">
         <v>148</v>
@@ -4535,46 +5064,46 @@
     </row>
     <row r="216" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A216" s="1" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B216" s="1" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="C216" s="1" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="217" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A217" s="2" t="s">
-        <v>282</v>
-      </c>
-      <c r="B217" t="s">
-        <v>148</v>
-      </c>
-      <c r="C217" t="s">
+      <c r="A217" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B217" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="C217" s="1" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="218" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A218" s="1" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B218" s="1" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="C218" s="1" t="s">
-        <v>158</v>
+        <v>148</v>
       </c>
     </row>
     <row r="219" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A219" s="1" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B219" s="1" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="C219" s="1" t="s">
-        <v>158</v>
+        <v>148</v>
       </c>
     </row>
     <row r="220" spans="1:4" x14ac:dyDescent="0.2">
@@ -4582,10 +5111,10 @@
         <v>6</v>
       </c>
       <c r="B220" s="1" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="C220" s="1" t="s">
-        <v>158</v>
+        <v>148</v>
       </c>
     </row>
     <row r="221" spans="1:4" x14ac:dyDescent="0.2">
@@ -4593,428 +5122,432 @@
         <v>282</v>
       </c>
       <c r="B221" t="s">
+        <v>148</v>
+      </c>
+      <c r="C221" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="222" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A222" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B222" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="C222" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="C221" t="s">
+    </row>
+    <row r="223" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A223" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B223" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="C223" s="1" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="222" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A222" s="2" t="s">
-        <v>282</v>
-      </c>
-      <c r="B222" t="s">
+    <row r="224" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A224" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B224" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="C224" s="1" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="225" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A225" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="B225" t="s">
+        <v>158</v>
+      </c>
+      <c r="C225" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="226" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A226" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="B226" t="s">
         <v>266</v>
       </c>
-      <c r="C222" t="s">
+      <c r="C226" t="s">
         <v>266</v>
       </c>
     </row>
-    <row r="223" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A223" s="2" t="s">
-        <v>282</v>
-      </c>
-      <c r="B223" t="s">
+    <row r="227" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A227" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="B227" t="s">
         <v>271</v>
       </c>
-      <c r="C223" t="s">
+      <c r="C227" t="s">
         <v>266</v>
       </c>
-      <c r="D223" s="3"/>
-    </row>
-    <row r="224" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A224" t="s">
-        <v>282</v>
-      </c>
-      <c r="B224" t="s">
-        <v>300</v>
-      </c>
-      <c r="C224" t="s">
-        <v>198</v>
-      </c>
-      <c r="D224" s="3"/>
-    </row>
-    <row r="225" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A225" s="1" t="s">
+    </row>
+    <row r="228" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A228" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B225" s="1" t="s">
+      <c r="B228" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="C225" s="1" t="s">
+      <c r="C228" s="1" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="226" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A226" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B226" t="s">
-        <v>293</v>
-      </c>
-      <c r="C226" t="s">
-        <v>328</v>
-      </c>
-      <c r="D226" s="4"/>
-    </row>
-    <row r="227" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A227" s="2" t="s">
-        <v>282</v>
-      </c>
-      <c r="B227" t="s">
-        <v>196</v>
-      </c>
-      <c r="C227" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="228" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A228" s="2" t="s">
-        <v>282</v>
-      </c>
-      <c r="B228" t="s">
-        <v>268</v>
-      </c>
-      <c r="C228" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="229" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A229" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B229" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="C229" s="1" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="230" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A230" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B230" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="C230" s="1" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="231" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A231" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B231" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="C231" s="1" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="232" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B229" t="s">
+        <v>293</v>
+      </c>
+      <c r="C229" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="230" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A230" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="B230" t="s">
+        <v>196</v>
+      </c>
+      <c r="C230" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="231" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A231" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="B231" t="s">
+        <v>268</v>
+      </c>
+      <c r="C231" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="232" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A232" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B232" s="1" t="s">
-        <v>166</v>
+        <v>80</v>
       </c>
       <c r="C232" s="1" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="233" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A233" s="2" t="s">
-        <v>282</v>
-      </c>
-      <c r="B233" t="s">
+    <row r="233" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A233" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B233" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="C233" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="C233" t="s">
+    </row>
+    <row r="234" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A234" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B234" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="C234" s="1" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="234" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A234" s="2" t="s">
-        <v>282</v>
-      </c>
-      <c r="B234" t="s">
+    <row r="235" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A235" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B235" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="C235" s="1" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="236" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A236" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="B236" t="s">
+        <v>164</v>
+      </c>
+      <c r="C236" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="237" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A237" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="B237" t="s">
         <v>81</v>
       </c>
-      <c r="C234" t="s">
+      <c r="C237" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="235" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A235" s="2" t="s">
-        <v>282</v>
-      </c>
-      <c r="B235" t="s">
-        <v>164</v>
-      </c>
-      <c r="C235" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="236" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A236" s="2" t="s">
-        <v>282</v>
-      </c>
-      <c r="B236" t="s">
+    <row r="238" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A238" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="B238" t="s">
         <v>272</v>
       </c>
-      <c r="C236" t="s">
-        <v>321</v>
-      </c>
-      <c r="D236" s="3"/>
-    </row>
-    <row r="237" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A237" s="2" t="s">
-        <v>282</v>
-      </c>
-      <c r="B237" t="s">
+      <c r="C238" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="239" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A239" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="B239" t="s">
         <v>270</v>
       </c>
-      <c r="C237" t="s">
-        <v>321</v>
-      </c>
-      <c r="D237" s="3"/>
-    </row>
-    <row r="238" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A238" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B238" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="C238" s="1" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="239" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A239" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B239" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="C239" s="1" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="240" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C239" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="240" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A240" s="2" t="s">
         <v>282</v>
       </c>
       <c r="B240" t="s">
-        <v>261</v>
+        <v>273</v>
       </c>
       <c r="C240" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="241" spans="1:5" x14ac:dyDescent="0.2">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="241" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A241" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B241" s="1" t="s">
-        <v>17</v>
+        <v>170</v>
       </c>
       <c r="C241" s="1" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="242" spans="1:5" x14ac:dyDescent="0.2">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="242" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A242" s="1" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B242" s="1" t="s">
-        <v>18</v>
+        <v>172</v>
       </c>
       <c r="C242" s="1" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="243" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A243" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B243" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C243" s="1" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="244" spans="1:5" x14ac:dyDescent="0.2">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="243" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A243" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="B243" t="s">
+        <v>261</v>
+      </c>
+      <c r="C243" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="244" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A244" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B244" t="s">
-        <v>284</v>
-      </c>
-      <c r="C244" t="s">
+      <c r="B244" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C244" s="1" t="s">
         <v>314</v>
       </c>
     </row>
-    <row r="245" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A245" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B245" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C245" s="1" t="s">
         <v>314</v>
       </c>
     </row>
-    <row r="246" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A246" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B246" t="s">
-        <v>283</v>
-      </c>
-      <c r="C246" t="s">
+      <c r="B246" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C246" s="1" t="s">
         <v>314</v>
       </c>
     </row>
-    <row r="247" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A247" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B247" t="s">
-        <v>47</v>
+        <v>284</v>
       </c>
       <c r="C247" t="s">
         <v>314</v>
       </c>
     </row>
-    <row r="248" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A248" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B248" t="s">
-        <v>48</v>
-      </c>
-      <c r="C248" t="s">
+      <c r="B248" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C248" s="1" t="s">
         <v>314</v>
       </c>
     </row>
-    <row r="249" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A249" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B249" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="C249" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="D249" s="1"/>
-      <c r="E249" s="1"/>
-    </row>
-    <row r="250" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A250" s="2" t="s">
-        <v>282</v>
+      <c r="B249" t="s">
+        <v>283</v>
+      </c>
+      <c r="C249" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="250" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A250" s="1" t="s">
+        <v>9</v>
       </c>
       <c r="B250" t="s">
+        <v>47</v>
+      </c>
+      <c r="C250" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="251" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A251" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B251" t="s">
+        <v>48</v>
+      </c>
+      <c r="C251" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="252" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A252" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B252" t="s">
+        <v>383</v>
+      </c>
+      <c r="C252" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="253" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A253" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="B253" t="s">
         <v>191</v>
       </c>
-      <c r="C250" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="251" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A251" s="2" t="s">
-        <v>282</v>
-      </c>
-      <c r="B251" t="s">
+      <c r="C253" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="254" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A254" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="B254" t="s">
         <v>233</v>
       </c>
-      <c r="C251" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="252" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A252" s="1" t="s">
+      <c r="C254" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="255" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A255" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B252" s="1" t="s">
+      <c r="B255" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="C255" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="D255" s="1" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="256" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A256" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B256" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="C256" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="D256" s="1" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="257" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A257" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="B257" t="s">
+        <v>209</v>
+      </c>
+      <c r="C257" t="s">
+        <v>209</v>
+      </c>
+      <c r="D257" s="1" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="258" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A258" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B258" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="C252" s="1" t="s">
+      <c r="C258" s="1" t="s">
         <v>209</v>
       </c>
-    </row>
-    <row r="253" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A253" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B253" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="C253" s="1" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="254" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A254" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B254" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="C254" s="1" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="255" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A255" s="2" t="s">
-        <v>282</v>
-      </c>
-      <c r="B255" t="s">
-        <v>209</v>
-      </c>
-      <c r="C255" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="256" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A256" s="2" t="s">
-        <v>282</v>
-      </c>
-      <c r="B256" t="s">
-        <v>273</v>
-      </c>
-      <c r="C256" t="s">
-        <v>321</v>
-      </c>
-      <c r="D256" s="3"/>
-    </row>
-    <row r="257" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A257" s="2" t="s">
-        <v>282</v>
-      </c>
-      <c r="B257" t="s">
-        <v>217</v>
-      </c>
-      <c r="C257" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="258" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A258" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B258" t="s">
-        <v>291</v>
-      </c>
-      <c r="C258" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="259" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D258" s="1" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="259" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A259" s="2" t="s">
         <v>282</v>
       </c>
@@ -5025,7 +5558,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="260" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A260" s="2" t="s">
         <v>282</v>
       </c>
@@ -5036,7 +5569,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="261" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A261" s="2" t="s">
         <v>282</v>
       </c>
@@ -5047,33 +5580,35 @@
         <v>201</v>
       </c>
     </row>
-    <row r="262" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A262" s="2" t="s">
         <v>282</v>
       </c>
       <c r="B262" t="s">
-        <v>254</v>
-      </c>
-      <c r="C262" t="s">
-        <v>183</v>
-      </c>
-      <c r="D262" s="3"/>
-      <c r="E262" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="263" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A263" s="2" t="s">
-        <v>282</v>
-      </c>
-      <c r="B263" t="s">
-        <v>235</v>
+        <v>180</v>
+      </c>
+      <c r="C262" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="D262" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="263" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A263" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B263" s="1" t="s">
+        <v>180</v>
       </c>
       <c r="C263" s="1" t="s">
         <v>181</v>
       </c>
-    </row>
-    <row r="264" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D263" s="1" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="264" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A264" s="2" t="s">
         <v>282</v>
       </c>
@@ -5083,19 +5618,25 @@
       <c r="C264" s="1" t="s">
         <v>181</v>
       </c>
-    </row>
-    <row r="265" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D264" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="265" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A265" s="2" t="s">
         <v>282</v>
       </c>
       <c r="B265" t="s">
-        <v>180</v>
+        <v>235</v>
       </c>
       <c r="C265" s="1" t="s">
         <v>181</v>
       </c>
-    </row>
-    <row r="266" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D265" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="266" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A266" s="2" t="s">
         <v>282</v>
       </c>
@@ -5105,8 +5646,11 @@
       <c r="C266" s="1" t="s">
         <v>181</v>
       </c>
-    </row>
-    <row r="267" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D266" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="267" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A267" s="2" t="s">
         <v>282</v>
       </c>
@@ -5116,224 +5660,226 @@
       <c r="C267" s="1" t="s">
         <v>181</v>
       </c>
-    </row>
-    <row r="268" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A268" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B268" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="C268" s="1" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="269" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D267" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="268" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A268" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="B268" t="s">
+        <v>262</v>
+      </c>
+      <c r="C268" t="s">
+        <v>183</v>
+      </c>
+      <c r="D268" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="269" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A269" s="2" t="s">
         <v>282</v>
       </c>
       <c r="B269" t="s">
-        <v>262</v>
+        <v>193</v>
       </c>
       <c r="C269" t="s">
         <v>183</v>
       </c>
-      <c r="E269" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="270" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A270" s="2" t="s">
+      <c r="D269" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="270" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A270" t="s">
         <v>282</v>
       </c>
       <c r="B270" t="s">
-        <v>193</v>
+        <v>303</v>
       </c>
       <c r="C270" t="s">
         <v>183</v>
       </c>
-      <c r="E270" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="271" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D270" s="3" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="271" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A271" s="2" t="s">
         <v>282</v>
       </c>
       <c r="B271" t="s">
-        <v>257</v>
+        <v>246</v>
       </c>
       <c r="C271" t="s">
         <v>183</v>
       </c>
-      <c r="E271" t="s">
+      <c r="D271" s="3" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="272" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A272" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="B272" t="s">
         <v>257</v>
-      </c>
-    </row>
-    <row r="272" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A272" s="2" t="s">
-        <v>282</v>
-      </c>
-      <c r="B272" t="s">
-        <v>248</v>
       </c>
       <c r="C272" t="s">
         <v>183</v>
       </c>
-      <c r="D272" s="1"/>
-      <c r="E272" t="s">
+      <c r="D272" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="273" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A273" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="B273" t="s">
         <v>248</v>
       </c>
-    </row>
-    <row r="273" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A273" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B273" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="C273" s="1" t="s">
+      <c r="C273" t="s">
         <v>183</v>
       </c>
-    </row>
-    <row r="274" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A274" s="1" t="s">
-        <v>9</v>
+      <c r="D273" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="274" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A274" s="2" t="s">
+        <v>282</v>
       </c>
       <c r="B274" t="s">
-        <v>287</v>
+        <v>215</v>
       </c>
       <c r="C274" t="s">
         <v>183</v>
       </c>
-      <c r="D274" s="4"/>
-      <c r="E274" t="s">
+      <c r="D274" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="275" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A275" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B275" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="C275" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="D275" s="1" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="276" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A276" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="B276" t="s">
+        <v>254</v>
+      </c>
+      <c r="C276" t="s">
+        <v>183</v>
+      </c>
+      <c r="D276" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="277" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A277" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B277" t="s">
+        <v>287</v>
+      </c>
+      <c r="C277" t="s">
+        <v>183</v>
+      </c>
+      <c r="D277" t="s">
         <v>288</v>
       </c>
     </row>
-    <row r="275" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A275" s="2" t="s">
-        <v>282</v>
-      </c>
-      <c r="B275" t="s">
+    <row r="278" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A278" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="B278" t="s">
+        <v>243</v>
+      </c>
+      <c r="C278" t="s">
+        <v>183</v>
+      </c>
+      <c r="D278" s="1" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="279" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A279" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="B279" t="s">
         <v>238</v>
-      </c>
-      <c r="C275" t="s">
-        <v>183</v>
-      </c>
-      <c r="D275" s="4"/>
-      <c r="E275" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="276" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A276" s="2" t="s">
-        <v>282</v>
-      </c>
-      <c r="B276" t="s">
-        <v>247</v>
-      </c>
-      <c r="C276" t="s">
-        <v>378</v>
-      </c>
-      <c r="E276" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="277" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A277" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B277" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="C277" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D277" s="4"/>
-      <c r="E277" s="1" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="278" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A278" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B278" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="C278" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D278" s="4"/>
-      <c r="E278" s="1" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="279" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A279" s="2" t="s">
-        <v>282</v>
-      </c>
-      <c r="B279" t="s">
-        <v>243</v>
       </c>
       <c r="C279" t="s">
         <v>183</v>
       </c>
-      <c r="D279" s="3"/>
-      <c r="E279" s="1" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="280" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A280" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B280" s="1" t="s">
+      <c r="D279" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="280" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A280" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="B280" t="s">
+        <v>253</v>
+      </c>
+      <c r="C280" t="s">
+        <v>183</v>
+      </c>
+      <c r="D280" s="1" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="281" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A281" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B281" s="1" t="s">
         <v>134</v>
-      </c>
-      <c r="C280" s="1" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="281" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A281" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B281" s="1" t="s">
-        <v>185</v>
       </c>
       <c r="C281" s="1" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="282" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A282" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B282" t="s">
+      <c r="B282" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="C282" s="1" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="283" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A283" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B283" t="s">
         <v>127</v>
       </c>
-      <c r="C282" t="s">
+      <c r="C283" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="283" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A283" s="2" t="s">
-        <v>282</v>
-      </c>
-      <c r="B283" t="s">
-        <v>255</v>
-      </c>
-      <c r="C283" s="1" t="s">
-        <v>384</v>
-      </c>
-      <c r="D283" s="1"/>
-      <c r="E283" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="284" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A284" s="2" t="s">
         <v>282</v>
       </c>
@@ -5343,52 +5889,50 @@
       <c r="C284" t="s">
         <v>197</v>
       </c>
-      <c r="D284" s="1"/>
-    </row>
-    <row r="285" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="285" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A285" s="2" t="s">
         <v>282</v>
       </c>
       <c r="B285" t="s">
+        <v>255</v>
+      </c>
+      <c r="C285" s="1" t="s">
+        <v>382</v>
+      </c>
+      <c r="D285" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="286" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A286" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="B286" t="s">
         <v>269</v>
       </c>
-      <c r="C285" s="1" t="s">
-        <v>384</v>
-      </c>
-      <c r="D285" s="3"/>
-      <c r="E285" t="s">
+      <c r="C286" s="1" t="s">
+        <v>382</v>
+      </c>
+      <c r="D286" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="286" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A286" s="2" t="s">
-        <v>282</v>
-      </c>
-      <c r="B286" t="s">
+    <row r="287" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A287" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="B287" t="s">
         <v>241</v>
       </c>
-      <c r="C286" t="s">
-        <v>384</v>
-      </c>
-      <c r="E286" t="s">
+      <c r="C287" t="s">
+        <v>382</v>
+      </c>
+      <c r="D287" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="287" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A287" s="2" t="s">
-        <v>282</v>
-      </c>
-      <c r="B287" t="s">
-        <v>253</v>
-      </c>
-      <c r="C287" t="s">
-        <v>183</v>
-      </c>
-      <c r="E287" s="1" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="288" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="288" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A288" s="2" t="s">
         <v>282</v>
       </c>
@@ -5410,23 +5954,13 @@
         <v>199</v>
       </c>
     </row>
-    <row r="290" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A290" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B290" t="s">
-        <v>385</v>
-      </c>
-      <c r="C290" t="s">
-        <v>314</v>
-      </c>
-    </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H289">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F289">
     <sortCondition ref="C2:C289"/>
+    <sortCondition ref="D2:D289"/>
   </sortState>
   <phoneticPr fontId="19" type="noConversion"/>
-  <conditionalFormatting sqref="A1:E32 A33:C33 E33 A34:E77 A78:C78 E78 A79:E123 A124:C124 E124 A125:E165 A166:C166 E166 A232:C232 E232 A167:E231 A233:E278 A287:D287 A280:E281 A279:D279 E282:E283 A282:C283 A284:E286 A288:E1048576">
+  <conditionalFormatting sqref="A286:C286 A278:C278 A279:D285 A287:D1048576 A1:D277">
     <cfRule type="expression" dxfId="2" priority="1">
       <formula>"NOT(ISBLANK)"</formula>
     </cfRule>
@@ -5439,7 +5973,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92187E74-4F7E-DD4F-A405-6C0E523CB693}">
   <dimension ref="A1:B67"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A38" sqref="A38:XFD38"/>
     </sheetView>
   </sheetViews>
@@ -5450,7 +5984,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
@@ -5458,7 +5992,7 @@
         <v>200</v>
       </c>
       <c r="B2" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
@@ -5466,7 +6000,7 @@
         <v>193</v>
       </c>
       <c r="B3" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
@@ -5474,7 +6008,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
@@ -5482,7 +6016,7 @@
         <v>8</v>
       </c>
       <c r="B5" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
@@ -5490,7 +6024,7 @@
         <v>309</v>
       </c>
       <c r="B6" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
@@ -5498,23 +6032,23 @@
         <v>303</v>
       </c>
       <c r="B7" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="B8" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B9" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
@@ -5527,10 +6061,10 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B11" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
@@ -5538,7 +6072,7 @@
         <v>249</v>
       </c>
       <c r="B12" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
@@ -5546,7 +6080,7 @@
         <v>240</v>
       </c>
       <c r="B13" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
@@ -5554,7 +6088,7 @@
         <v>194</v>
       </c>
       <c r="B14" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
@@ -5562,7 +6096,7 @@
         <v>206</v>
       </c>
       <c r="B15" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
@@ -5570,7 +6104,7 @@
         <v>289</v>
       </c>
       <c r="B16" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
@@ -5578,7 +6112,7 @@
         <v>58</v>
       </c>
       <c r="B17" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
@@ -5586,15 +6120,15 @@
         <v>60</v>
       </c>
       <c r="B18" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B19" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
@@ -5602,7 +6136,7 @@
         <v>248</v>
       </c>
       <c r="B20" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
@@ -5610,7 +6144,7 @@
         <v>308</v>
       </c>
       <c r="B21" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
@@ -5618,7 +6152,7 @@
         <v>195</v>
       </c>
       <c r="B22" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
@@ -5626,7 +6160,7 @@
         <v>211</v>
       </c>
       <c r="B23" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.2">
@@ -5634,7 +6168,7 @@
         <v>83</v>
       </c>
       <c r="B24" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.2">
@@ -5642,7 +6176,7 @@
         <v>244</v>
       </c>
       <c r="B25" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.2">
@@ -5650,7 +6184,7 @@
         <v>260</v>
       </c>
       <c r="B26" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.2">
@@ -5658,7 +6192,7 @@
         <v>215</v>
       </c>
       <c r="B27" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.2">
@@ -5666,7 +6200,7 @@
         <v>90</v>
       </c>
       <c r="B28" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.2">
@@ -5674,7 +6208,7 @@
         <v>198</v>
       </c>
       <c r="B29" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.2">
@@ -5690,7 +6224,7 @@
         <v>265</v>
       </c>
       <c r="B31" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.2">
@@ -5698,7 +6232,7 @@
         <v>105</v>
       </c>
       <c r="B32" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.2">
@@ -5706,7 +6240,7 @@
         <v>142</v>
       </c>
       <c r="B33" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.2">
@@ -5714,7 +6248,7 @@
         <v>190</v>
       </c>
       <c r="B34" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.2">
@@ -5730,7 +6264,7 @@
         <v>158</v>
       </c>
       <c r="B36" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.2">
@@ -5738,7 +6272,7 @@
         <v>266</v>
       </c>
       <c r="B37" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.2">
@@ -5746,7 +6280,7 @@
         <v>300</v>
       </c>
       <c r="B38" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.2">
@@ -5754,7 +6288,7 @@
         <v>162</v>
       </c>
       <c r="B39" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.2">
@@ -5762,7 +6296,7 @@
         <v>268</v>
       </c>
       <c r="B40" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.2">
@@ -5775,10 +6309,10 @@
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B42" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.2">
@@ -5794,7 +6328,7 @@
         <v>314</v>
       </c>
       <c r="B44" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.2">
@@ -5810,7 +6344,7 @@
         <v>191</v>
       </c>
       <c r="B46" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.2">
@@ -5818,7 +6352,7 @@
         <v>270</v>
       </c>
       <c r="B47" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.2">
@@ -5834,7 +6368,7 @@
         <v>273</v>
       </c>
       <c r="B49" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.2">
@@ -5842,7 +6376,7 @@
         <v>217</v>
       </c>
       <c r="B50" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.2">
@@ -5858,7 +6392,7 @@
         <v>192</v>
       </c>
       <c r="B52" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.2">
@@ -5866,7 +6400,7 @@
         <v>201</v>
       </c>
       <c r="B53" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.2">
@@ -5874,7 +6408,7 @@
         <v>254</v>
       </c>
       <c r="B54" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.2">
@@ -5882,7 +6416,7 @@
         <v>181</v>
       </c>
       <c r="B55" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.2">
@@ -5890,7 +6424,7 @@
         <v>183</v>
       </c>
       <c r="B56" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.2">
@@ -5898,7 +6432,7 @@
         <v>247</v>
       </c>
       <c r="B57" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.2">
@@ -5914,7 +6448,7 @@
         <v>243</v>
       </c>
       <c r="B59" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.2">
@@ -5922,7 +6456,7 @@
         <v>186</v>
       </c>
       <c r="B60" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.2">
@@ -5930,7 +6464,7 @@
         <v>255</v>
       </c>
       <c r="B61" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.2">
@@ -5938,7 +6472,7 @@
         <v>197</v>
       </c>
       <c r="B62" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.2">
@@ -5946,7 +6480,7 @@
         <v>238</v>
       </c>
       <c r="B63" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.2">
@@ -5954,7 +6488,7 @@
         <v>269</v>
       </c>
       <c r="B64" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.2">
@@ -5962,7 +6496,7 @@
         <v>241</v>
       </c>
       <c r="B65" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.2">
@@ -5970,7 +6504,7 @@
         <v>253</v>
       </c>
       <c r="B66" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.2">
@@ -5978,7 +6512,7 @@
         <v>199</v>
       </c>
       <c r="B67" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
     </row>
   </sheetData>

--- a/data/source/pedpancan_mapping.xlsx
+++ b/data/source/pedpancan_mapping.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10114"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11008"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ochapman/projects/pedpancan_ecdna/data/source/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rkenkre/Desktop/pedpancancer/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5588DBFB-4A9C-8646-9D35-1229FAEEEDFD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2798822A-D3DE-494F-9C27-BB11AF9ED7C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2140" yWindow="2920" windowWidth="28800" windowHeight="16380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="filtered_mapping" sheetId="2" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1163" uniqueCount="441">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1372" uniqueCount="503">
   <si>
     <t>molecular_subtype</t>
   </si>
@@ -1357,13 +1357,199 @@
   </si>
   <si>
     <t>target_subclass</t>
+  </si>
+  <si>
+    <t>Low-grade glioma/astrocytoma (WHO grade I/II)</t>
+  </si>
+  <si>
+    <t>Non-germinomatous germ cell tumor</t>
+  </si>
+  <si>
+    <t>GNT, wildtype</t>
+  </si>
+  <si>
+    <t>Lipoma</t>
+  </si>
+  <si>
+    <t>Aneurysmal bone cyst (abc)</t>
+  </si>
+  <si>
+    <t>Gliosis</t>
+  </si>
+  <si>
+    <t>GNG, To be classified</t>
+  </si>
+  <si>
+    <t>LGG_PA_GG_ST</t>
+  </si>
+  <si>
+    <t>Epstein-Barr virus-related tumor</t>
+  </si>
+  <si>
+    <t>EBVT</t>
+  </si>
+  <si>
+    <t>is this solid or liquid?</t>
+  </si>
+  <si>
+    <t>Ganglioglioma</t>
+  </si>
+  <si>
+    <t>Intraneural perineuroma</t>
+  </si>
+  <si>
+    <t>Neurofibroma/Plexiform;Schwannoma</t>
+  </si>
+  <si>
+    <t>Brainstem glioma- Diffuse intrinsic pontine glioma</t>
+  </si>
+  <si>
+    <t>GNT, RTK, CDKN2A/B</t>
+  </si>
+  <si>
+    <t>Ganglioglioma;Dysembryoplastic neuroepithelial tumor (DNET);Dysplasia/Gliosis</t>
+  </si>
+  <si>
+    <t>Schwannoma;Meningioma</t>
+  </si>
+  <si>
+    <t>GG</t>
+  </si>
+  <si>
+    <t>PITAD_PRL</t>
+  </si>
+  <si>
+    <t>Myofibroma</t>
+  </si>
+  <si>
+    <t>High-grade glioma/astrocytoma (WHO grade III/IV)</t>
+  </si>
+  <si>
+    <t>LGG_DNT</t>
+  </si>
+  <si>
+    <t>Germinoma</t>
+  </si>
+  <si>
+    <t>PB_GRP1B</t>
+  </si>
+  <si>
+    <t>Ganglioneuroma</t>
+  </si>
+  <si>
+    <t>Meningioma;Schwannoma</t>
+  </si>
+  <si>
+    <t>PLEX_PED_B</t>
+  </si>
+  <si>
+    <t>INFLAM_ENV</t>
+  </si>
+  <si>
+    <t>Low-grade glioma/astrocytoma (WHO grade I/II);Cavernoma</t>
+  </si>
+  <si>
+    <t>LGG, KIAA1549-BRAF, BRAF V600E</t>
+  </si>
+  <si>
+    <t>Choroid plexus carcinoma</t>
+  </si>
+  <si>
+    <t>CNS HGNET-MN1</t>
+  </si>
+  <si>
+    <t>Other CNS embryonal tumors</t>
+  </si>
+  <si>
+    <t>Lipomyelomeningocele</t>
+  </si>
+  <si>
+    <t>Familial adenomatous polyposis</t>
+  </si>
+  <si>
+    <t>LGG, NF1-somatic, RTK</t>
+  </si>
+  <si>
+    <t>Other;Sarcoma</t>
+  </si>
+  <si>
+    <t>Other;Schwannoma</t>
+  </si>
+  <si>
+    <t>Mesenchymal tumor</t>
+  </si>
+  <si>
+    <t>LGG, KIAA1549-BRAF, CDKN2A/B</t>
+  </si>
+  <si>
+    <t>LGG, CDKN2A/B</t>
+  </si>
+  <si>
+    <t>Chondromyxoid fibroma</t>
+  </si>
+  <si>
+    <t>ETMR, NOS</t>
+  </si>
+  <si>
+    <t>LGG, FGFR, NF1-somatic</t>
+  </si>
+  <si>
+    <t>PB_GRP2</t>
+  </si>
+  <si>
+    <t>NET_PLAGL1_FUS</t>
+  </si>
+  <si>
+    <t>Osteoma</t>
+  </si>
+  <si>
+    <t>Lipoblastoma</t>
+  </si>
+  <si>
+    <t>Hemangioma</t>
+  </si>
+  <si>
+    <t>IHG, To be classified</t>
+  </si>
+  <si>
+    <t>Chondroma</t>
+  </si>
+  <si>
+    <t>LGG, other MAPK, CDKN2A/B</t>
+  </si>
+  <si>
+    <t>Vascular malformation</t>
+  </si>
+  <si>
+    <t>GNT, NF1-somatic, FGFR</t>
+  </si>
+  <si>
+    <t>Pilomatricoma</t>
+  </si>
+  <si>
+    <t>LGG, NF1-germline, BRAF V600E</t>
+  </si>
+  <si>
+    <t>CNS_SARC_CIC</t>
+  </si>
+  <si>
+    <t>LGG, NF1-germline, other MAPK</t>
+  </si>
+  <si>
+    <t>Giant cell tumor of bone</t>
+  </si>
+  <si>
+    <t>Cholesterol granuloma</t>
+  </si>
+  <si>
+    <t>LGG, NF1-germline, RTK, FGFR</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="23" x14ac:knownFonts="1">
+  <fonts count="25" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1531,6 +1717,19 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Cambria"/>
+      <family val="1"/>
     </font>
   </fonts>
   <fills count="33">
@@ -1880,8 +2079,8 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -2268,10 +2467,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:F289"/>
+  <dimension ref="A1:E358"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+    <sheetView tabSelected="1" topLeftCell="A270" workbookViewId="0">
+      <selection activeCell="A290" sqref="A290:D358"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3272,7 +3471,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A81" s="2" t="s">
         <v>282</v>
       </c>
@@ -3283,7 +3482,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A82" s="1" t="s">
         <v>0</v>
       </c>
@@ -3297,7 +3496,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A83" s="1" t="s">
         <v>0</v>
       </c>
@@ -3311,7 +3510,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="84" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A84" s="1" t="s">
         <v>0</v>
       </c>
@@ -3325,7 +3524,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A85" s="1" t="s">
         <v>0</v>
       </c>
@@ -3339,7 +3538,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A86" s="1" t="s">
         <v>0</v>
       </c>
@@ -3353,7 +3552,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A87" s="1" t="s">
         <v>0</v>
       </c>
@@ -3367,7 +3566,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A88" s="1" t="s">
         <v>0</v>
       </c>
@@ -3381,7 +3580,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A89" s="1" t="s">
         <v>9</v>
       </c>
@@ -3395,7 +3594,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A90" s="1" t="s">
         <v>9</v>
       </c>
@@ -3409,7 +3608,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A91" s="1" t="s">
         <v>6</v>
       </c>
@@ -3423,7 +3622,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A92" s="1" t="s">
         <v>9</v>
       </c>
@@ -3437,7 +3636,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A93" s="2" t="s">
         <v>282</v>
       </c>
@@ -3451,23 +3650,21 @@
         <v>40</v>
       </c>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A94" s="6" t="s">
+    <row r="94" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A94" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="B94" s="5" t="s">
+      <c r="B94" t="s">
         <v>42</v>
       </c>
-      <c r="C94" s="5" t="s">
+      <c r="C94" t="s">
         <v>83</v>
       </c>
-      <c r="D94" s="5" t="s">
+      <c r="D94" t="s">
         <v>213</v>
       </c>
-      <c r="E94" s="5"/>
-      <c r="F94" s="5"/>
-    </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A95" s="1" t="s">
         <v>0</v>
       </c>
@@ -3481,7 +3678,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A96" s="1" t="s">
         <v>0</v>
       </c>
@@ -4310,7 +4507,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="161" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
         <v>6</v>
       </c>
@@ -4321,7 +4518,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="162" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
         <v>9</v>
       </c>
@@ -4332,7 +4529,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="163" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A163" s="2" t="s">
         <v>282</v>
       </c>
@@ -4343,7 +4540,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="164" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A164" s="1" t="s">
         <v>0</v>
       </c>
@@ -4357,7 +4554,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="165" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A165" s="1" t="s">
         <v>0</v>
       </c>
@@ -4371,7 +4568,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="166" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A166" s="1" t="s">
         <v>0</v>
       </c>
@@ -4385,7 +4582,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="167" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A167" s="1" t="s">
         <v>0</v>
       </c>
@@ -4399,7 +4596,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="168" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A168" s="1" t="s">
         <v>0</v>
       </c>
@@ -4413,7 +4610,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="169" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A169" s="1" t="s">
         <v>0</v>
       </c>
@@ -4427,7 +4624,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="170" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A170" s="1" t="s">
         <v>0</v>
       </c>
@@ -4441,7 +4638,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="171" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
         <v>26</v>
       </c>
@@ -4457,9 +4654,8 @@
       <c r="E171" s="3" t="s">
         <v>316</v>
       </c>
-      <c r="F171"/>
-    </row>
-    <row r="172" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="172" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A172" s="1" t="s">
         <v>0</v>
       </c>
@@ -4473,7 +4669,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="173" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A173" s="1" t="s">
         <v>0</v>
       </c>
@@ -4487,7 +4683,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="174" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A174" s="1" t="s">
         <v>0</v>
       </c>
@@ -4501,7 +4697,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="175" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A175" s="1" t="s">
         <v>0</v>
       </c>
@@ -4515,7 +4711,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="176" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A176" s="1" t="s">
         <v>0</v>
       </c>
@@ -4529,7 +4725,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="177" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A177" s="1" t="s">
         <v>0</v>
       </c>
@@ -4543,7 +4739,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="178" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A178" s="1" t="s">
         <v>0</v>
       </c>
@@ -4557,7 +4753,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="179" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A179" s="1" t="s">
         <v>0</v>
       </c>
@@ -4571,7 +4767,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="180" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A180" s="1" t="s">
         <v>0</v>
       </c>
@@ -4585,7 +4781,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="181" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A181" s="1" t="s">
         <v>0</v>
       </c>
@@ -4599,7 +4795,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="182" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A182" s="1" t="s">
         <v>0</v>
       </c>
@@ -4613,7 +4809,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="183" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A183" s="1" t="s">
         <v>0</v>
       </c>
@@ -4627,7 +4823,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="184" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A184" s="1" t="s">
         <v>0</v>
       </c>
@@ -4641,7 +4837,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="185" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A185" s="1" t="s">
         <v>0</v>
       </c>
@@ -4655,7 +4851,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="186" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A186" s="1" t="s">
         <v>0</v>
       </c>
@@ -4669,7 +4865,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="187" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A187" s="1" t="s">
         <v>0</v>
       </c>
@@ -4683,7 +4879,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="188" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A188" s="1" t="s">
         <v>0</v>
       </c>
@@ -4697,7 +4893,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="189" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A189" s="1" t="s">
         <v>0</v>
       </c>
@@ -4711,7 +4907,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="190" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A190" s="2" t="s">
         <v>282</v>
       </c>
@@ -4725,7 +4921,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="191" spans="1:6" s="5" customFormat="1" ht="19" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:5" ht="19" x14ac:dyDescent="0.25">
       <c r="A191" s="1" t="s">
         <v>31</v>
       </c>
@@ -4741,9 +4937,8 @@
       <c r="E191" s="4" t="s">
         <v>433</v>
       </c>
-      <c r="F191"/>
-    </row>
-    <row r="192" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="192" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A192" s="1" t="s">
         <v>6</v>
       </c>
@@ -5943,7 +6138,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="289" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="289" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A289" s="2" t="s">
         <v>282</v>
       </c>
@@ -5953,6 +6148,838 @@
       <c r="C289" t="s">
         <v>199</v>
       </c>
+    </row>
+    <row r="290" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A290" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B290" s="5" t="s">
+        <v>159</v>
+      </c>
+      <c r="C290" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="D290" s="5"/>
+    </row>
+    <row r="291" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A291" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B291" s="5" t="s">
+        <v>441</v>
+      </c>
+      <c r="C291" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="D291" s="5"/>
+    </row>
+    <row r="292" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A292" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B292" s="5" t="s">
+        <v>310</v>
+      </c>
+      <c r="C292" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="D292" s="5"/>
+    </row>
+    <row r="293" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A293" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B293" s="5" t="s">
+        <v>442</v>
+      </c>
+      <c r="C293" s="5" t="s">
+        <v>308</v>
+      </c>
+      <c r="D293" s="5"/>
+    </row>
+    <row r="294" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A294" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B294" s="5" t="s">
+        <v>443</v>
+      </c>
+      <c r="C294" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="D294" s="5"/>
+    </row>
+    <row r="295" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A295" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B295" s="5" t="s">
+        <v>444</v>
+      </c>
+      <c r="C295" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D295" s="5"/>
+    </row>
+    <row r="296" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A296" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B296" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="C296" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D296" s="5"/>
+    </row>
+    <row r="297" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A297" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B297" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="C297" s="5" t="s">
+        <v>164</v>
+      </c>
+      <c r="D297" s="5"/>
+    </row>
+    <row r="298" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A298" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B298" s="5" t="s">
+        <v>445</v>
+      </c>
+      <c r="C298" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D298" s="5"/>
+    </row>
+    <row r="299" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A299" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B299" s="5" t="s">
+        <v>446</v>
+      </c>
+      <c r="C299" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D299" s="5"/>
+    </row>
+    <row r="300" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A300" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B300" s="5" t="s">
+        <v>329</v>
+      </c>
+      <c r="C300" s="5" t="s">
+        <v>249</v>
+      </c>
+      <c r="D300" s="5"/>
+    </row>
+    <row r="301" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A301" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B301" s="5" t="s">
+        <v>447</v>
+      </c>
+      <c r="C301" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="D301" s="5"/>
+    </row>
+    <row r="302" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A302" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="B302" s="5" t="s">
+        <v>448</v>
+      </c>
+      <c r="C302" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="D302" s="5"/>
+    </row>
+    <row r="303" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A303" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B303" s="5" t="s">
+        <v>449</v>
+      </c>
+      <c r="C303" s="5" t="s">
+        <v>450</v>
+      </c>
+      <c r="D303" s="5" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="304" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A304" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B304" s="5" t="s">
+        <v>452</v>
+      </c>
+      <c r="C304" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="D304" s="5"/>
+    </row>
+    <row r="305" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A305" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B305" s="5" t="s">
+        <v>453</v>
+      </c>
+      <c r="C305" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D305" s="6"/>
+    </row>
+    <row r="306" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A306" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B306" s="5" t="s">
+        <v>454</v>
+      </c>
+      <c r="C306" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D306" s="5"/>
+    </row>
+    <row r="307" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A307" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B307" s="5" t="s">
+        <v>455</v>
+      </c>
+      <c r="C307" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="D307" s="5"/>
+    </row>
+    <row r="308" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A308" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B308" s="5" t="s">
+        <v>456</v>
+      </c>
+      <c r="C308" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="D308" s="5"/>
+    </row>
+    <row r="309" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A309" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B309" s="5" t="s">
+        <v>457</v>
+      </c>
+      <c r="C309" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="D309" s="5"/>
+    </row>
+    <row r="310" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A310" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B310" s="5" t="s">
+        <v>458</v>
+      </c>
+      <c r="C310" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="D310" s="5"/>
+    </row>
+    <row r="311" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A311" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B311" s="5" t="s">
+        <v>459</v>
+      </c>
+      <c r="C311" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="D311" s="5"/>
+    </row>
+    <row r="312" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A312" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B312" s="5" t="s">
+        <v>460</v>
+      </c>
+      <c r="C312" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D312" s="5"/>
+    </row>
+    <row r="313" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A313" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B313" s="5" t="s">
+        <v>461</v>
+      </c>
+      <c r="C313" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D313" s="5"/>
+    </row>
+    <row r="314" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A314" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B314" s="5" t="s">
+        <v>462</v>
+      </c>
+      <c r="C314" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="D314" s="5"/>
+    </row>
+    <row r="315" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A315" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B315" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="C315" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D315" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="316" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A316" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="B316" s="5" t="s">
+        <v>463</v>
+      </c>
+      <c r="C316" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="D316" s="5"/>
+    </row>
+    <row r="317" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A317" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B317" s="5" t="s">
+        <v>333</v>
+      </c>
+      <c r="C317" s="5" t="s">
+        <v>289</v>
+      </c>
+      <c r="D317" s="5"/>
+    </row>
+    <row r="318" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A318" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B318" s="5" t="s">
+        <v>464</v>
+      </c>
+      <c r="C318" s="5" t="s">
+        <v>308</v>
+      </c>
+      <c r="D318" s="5"/>
+    </row>
+    <row r="319" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A319" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B319" s="5" t="s">
+        <v>465</v>
+      </c>
+      <c r="C319" s="5" t="s">
+        <v>209</v>
+      </c>
+      <c r="D319" s="5"/>
+    </row>
+    <row r="320" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A320" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B320" s="5" t="s">
+        <v>466</v>
+      </c>
+      <c r="C320" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D320" s="5"/>
+    </row>
+    <row r="321" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A321" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B321" s="5" t="s">
+        <v>467</v>
+      </c>
+      <c r="C321" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="D321" s="5"/>
+    </row>
+    <row r="322" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A322" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="B322" s="5" t="s">
+        <v>468</v>
+      </c>
+      <c r="C322" s="5" t="s">
+        <v>317</v>
+      </c>
+      <c r="D322" s="5"/>
+    </row>
+    <row r="323" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A323" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B323" s="5" t="s">
+        <v>469</v>
+      </c>
+      <c r="C323" s="5" t="s">
+        <v>314</v>
+      </c>
+      <c r="D323" s="5"/>
+    </row>
+    <row r="324" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A324" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B324" s="5" t="s">
+        <v>470</v>
+      </c>
+      <c r="C324" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="D324" s="5"/>
+    </row>
+    <row r="325" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A325" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B325" s="5" t="s">
+        <v>471</v>
+      </c>
+      <c r="C325" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="D325" s="5"/>
+    </row>
+    <row r="326" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A326" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B326" s="5" t="s">
+        <v>472</v>
+      </c>
+      <c r="C326" s="5" t="s">
+        <v>317</v>
+      </c>
+      <c r="D326" s="5"/>
+    </row>
+    <row r="327" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A327" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B327" s="5" t="s">
+        <v>473</v>
+      </c>
+      <c r="C327" s="5" t="s">
+        <v>474</v>
+      </c>
+      <c r="D327" s="5"/>
+    </row>
+    <row r="328" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A328" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B328" s="5" t="s">
+        <v>475</v>
+      </c>
+      <c r="C328" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D328" s="5"/>
+    </row>
+    <row r="329" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A329" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B329" s="5" t="s">
+        <v>476</v>
+      </c>
+      <c r="C329" s="5" t="s">
+        <v>314</v>
+      </c>
+      <c r="D329" s="5"/>
+    </row>
+    <row r="330" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A330" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B330" s="5" t="s">
+        <v>477</v>
+      </c>
+      <c r="C330" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="D330" s="5"/>
+    </row>
+    <row r="331" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A331" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B331" s="5" t="s">
+        <v>478</v>
+      </c>
+      <c r="C331" s="5" t="s">
+        <v>183</v>
+      </c>
+      <c r="D331" s="5"/>
+    </row>
+    <row r="332" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A332" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B332" s="5" t="s">
+        <v>479</v>
+      </c>
+      <c r="C332" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D332" s="5"/>
+    </row>
+    <row r="333" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A333" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B333" s="5" t="s">
+        <v>480</v>
+      </c>
+      <c r="C333" s="5" t="s">
+        <v>183</v>
+      </c>
+      <c r="D333" s="5"/>
+    </row>
+    <row r="334" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A334" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B334" s="5" t="s">
+        <v>481</v>
+      </c>
+      <c r="C334" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="D334" s="5"/>
+    </row>
+    <row r="335" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A335" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B335" s="5" t="s">
+        <v>482</v>
+      </c>
+      <c r="C335" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="D335" s="5"/>
+    </row>
+    <row r="336" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A336" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B336" s="5" t="s">
+        <v>483</v>
+      </c>
+      <c r="C336" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D336" s="5"/>
+    </row>
+    <row r="337" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A337" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B337" s="5" t="s">
+        <v>484</v>
+      </c>
+      <c r="C337" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="D337" s="5"/>
+    </row>
+    <row r="338" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A338" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B338" s="5" t="s">
+        <v>485</v>
+      </c>
+      <c r="C338" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="D338" s="5"/>
+    </row>
+    <row r="339" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A339" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B339" s="5" t="s">
+        <v>486</v>
+      </c>
+      <c r="C339" s="5" t="s">
+        <v>209</v>
+      </c>
+      <c r="D339" s="5"/>
+    </row>
+    <row r="340" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A340" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B340" s="5" t="s">
+        <v>487</v>
+      </c>
+      <c r="C340" s="5" t="s">
+        <v>474</v>
+      </c>
+      <c r="D340" s="5"/>
+    </row>
+    <row r="341" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A341" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B341" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C341" s="5" t="s">
+        <v>317</v>
+      </c>
+      <c r="D341" s="5"/>
+    </row>
+    <row r="342" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A342" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B342" s="5" t="s">
+        <v>488</v>
+      </c>
+      <c r="C342" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D342" s="5"/>
+    </row>
+    <row r="343" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A343" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B343" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="C343" s="5" t="s">
+        <v>164</v>
+      </c>
+      <c r="D343" s="5"/>
+    </row>
+    <row r="344" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A344" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B344" s="5" t="s">
+        <v>489</v>
+      </c>
+      <c r="C344" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D344" s="5"/>
+    </row>
+    <row r="345" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A345" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B345" s="5" t="s">
+        <v>490</v>
+      </c>
+      <c r="C345" s="5" t="s">
+        <v>314</v>
+      </c>
+      <c r="D345" s="5"/>
+    </row>
+    <row r="346" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A346" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B346" s="5" t="s">
+        <v>491</v>
+      </c>
+      <c r="C346" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="D346" s="5"/>
+    </row>
+    <row r="347" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A347" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B347" s="5" t="s">
+        <v>349</v>
+      </c>
+      <c r="C347" s="5" t="s">
+        <v>280</v>
+      </c>
+      <c r="D347" s="5"/>
+    </row>
+    <row r="348" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A348" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B348" s="5" t="s">
+        <v>492</v>
+      </c>
+      <c r="C348" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D348" s="5"/>
+    </row>
+    <row r="349" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A349" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B349" s="5" t="s">
+        <v>493</v>
+      </c>
+      <c r="C349" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="D349" s="5"/>
+    </row>
+    <row r="350" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A350" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B350" s="5" t="s">
+        <v>494</v>
+      </c>
+      <c r="C350" s="5" t="s">
+        <v>314</v>
+      </c>
+      <c r="D350" s="5"/>
+    </row>
+    <row r="351" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A351" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B351" s="5" t="s">
+        <v>495</v>
+      </c>
+      <c r="C351" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="D351" s="5"/>
+    </row>
+    <row r="352" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A352" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B352" s="5" t="s">
+        <v>496</v>
+      </c>
+      <c r="C352" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D352" s="5"/>
+    </row>
+    <row r="353" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A353" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B353" s="5" t="s">
+        <v>497</v>
+      </c>
+      <c r="C353" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="D353" s="5"/>
+    </row>
+    <row r="354" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A354" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B354" s="5" t="s">
+        <v>498</v>
+      </c>
+      <c r="C354" s="5" t="s">
+        <v>183</v>
+      </c>
+      <c r="D354" s="5"/>
+    </row>
+    <row r="355" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A355" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B355" s="5" t="s">
+        <v>499</v>
+      </c>
+      <c r="C355" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="D355" s="5"/>
+    </row>
+    <row r="356" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A356" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B356" s="5" t="s">
+        <v>500</v>
+      </c>
+      <c r="C356" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D356" s="5"/>
+    </row>
+    <row r="357" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A357" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B357" s="5" t="s">
+        <v>501</v>
+      </c>
+      <c r="C357" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D357" s="5"/>
+    </row>
+    <row r="358" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A358" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B358" s="5" t="s">
+        <v>502</v>
+      </c>
+      <c r="C358" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="D358" s="5"/>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F289">
@@ -5960,7 +6987,7 @@
     <sortCondition ref="D2:D289"/>
   </sortState>
   <phoneticPr fontId="19" type="noConversion"/>
-  <conditionalFormatting sqref="A286:C286 A278:C278 A279:D285 A287:D1048576 A1:D277">
+  <conditionalFormatting sqref="A1:D277 A278:C278 A279:D285 A286:C286 A287:D289 A359:D1048576">
     <cfRule type="expression" dxfId="2" priority="1">
       <formula>"NOT(ISBLANK)"</formula>
     </cfRule>
@@ -6519,7 +7546,7 @@
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:A287">
     <sortCondition ref="A2:A287"/>
   </sortState>
-  <conditionalFormatting sqref="A289:A1048576 A1:A68">
+  <conditionalFormatting sqref="A1:A68 A289:A1048576">
     <cfRule type="expression" dxfId="1" priority="3">
       <formula>"NOT(ISBLANK)"</formula>
     </cfRule>

--- a/data/source/pedpancan_mapping.xlsx
+++ b/data/source/pedpancan_mapping.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11008"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10211"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rkenkre/Desktop/pedpancancer/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ochapman/projects/pedpancan_ecdna/data/source/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2798822A-D3DE-494F-9C27-BB11AF9ED7C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F9F819A-2922-EA4F-807C-D262A5B68E53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2140" yWindow="2920" windowWidth="28800" windowHeight="16380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="320" yWindow="2040" windowWidth="28800" windowHeight="16380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="filtered_mapping" sheetId="2" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1372" uniqueCount="503">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1433" uniqueCount="525">
   <si>
     <t>molecular_subtype</t>
   </si>
@@ -1353,9 +1353,6 @@
     <t>G4</t>
   </si>
   <si>
-    <t>G1A</t>
-  </si>
-  <si>
     <t>target_subclass</t>
   </si>
   <si>
@@ -1389,9 +1386,6 @@
     <t>EBVT</t>
   </si>
   <si>
-    <t>is this solid or liquid?</t>
-  </si>
-  <si>
     <t>Ganglioglioma</t>
   </si>
   <si>
@@ -1458,9 +1452,6 @@
     <t>CNS HGNET-MN1</t>
   </si>
   <si>
-    <t>Other CNS embryonal tumors</t>
-  </si>
-  <si>
     <t>Lipomyelomeningocele</t>
   </si>
   <si>
@@ -1543,13 +1534,88 @@
   </si>
   <si>
     <t>LGG, NF1-germline, RTK, FGFR</t>
+  </si>
+  <si>
+    <t>Clear cell meningioma</t>
+  </si>
+  <si>
+    <t>Melanocytoma</t>
+  </si>
+  <si>
+    <t>Choroid plexus tumor</t>
+  </si>
+  <si>
+    <t>Anaplastic (malignant) meningioma</t>
+  </si>
+  <si>
+    <t>Other</t>
+  </si>
+  <si>
+    <t>UNLABELLED</t>
+  </si>
+  <si>
+    <t>Meningothelial meningioma</t>
+  </si>
+  <si>
+    <t>Non-germinomatous germ cell tumor;Teratoma</t>
+  </si>
+  <si>
+    <t>Neuroepithelial neoplasm with EWSR1--PLAG1 fusion</t>
+  </si>
+  <si>
+    <t>Not Reported;Embryonal Tumor with Multilayered Rosettes (ETMR)</t>
+  </si>
+  <si>
+    <t>MELC</t>
+  </si>
+  <si>
+    <t>MES</t>
+  </si>
+  <si>
+    <t>CNS_CIC</t>
+  </si>
+  <si>
+    <t>BRAF_KIAA1549-BRAF</t>
+  </si>
+  <si>
+    <t>NF1_RTK</t>
+  </si>
+  <si>
+    <t>CDKN2_KIAA1549-BRAF</t>
+  </si>
+  <si>
+    <t>CDKN2</t>
+  </si>
+  <si>
+    <t>BRAF-NF1</t>
+  </si>
+  <si>
+    <t>MAPK_NF1</t>
+  </si>
+  <si>
+    <t>FGFR_RTK</t>
+  </si>
+  <si>
+    <t>IHGNOS</t>
+  </si>
+  <si>
+    <t>DMGNOS</t>
+  </si>
+  <si>
+    <t>GGNOS</t>
+  </si>
+  <si>
+    <t>EWSR-PLAG1</t>
+  </si>
+  <si>
+    <t>GM</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="25" x14ac:knownFonts="1">
+  <fonts count="22" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1699,37 +1765,16 @@
     </font>
     <font>
       <sz val="12"/>
-      <color rgb="FF444444"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="12"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13.5"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Cambria"/>
-      <family val="1"/>
     </font>
   </fonts>
   <fills count="33">
@@ -2073,14 +2118,11 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -2171,9 +2213,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -2211,7 +2253,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -2317,7 +2359,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -2459,7 +2501,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2467,10 +2509,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:E358"/>
+  <dimension ref="A1:E368"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A270" workbookViewId="0">
-      <selection activeCell="A290" sqref="A290:D358"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2481,19 +2523,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>312</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>311</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>313</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>440</v>
-      </c>
-      <c r="E1" s="1" t="s">
+      <c r="D1" s="2" t="s">
+        <v>439</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>307</v>
       </c>
     </row>
@@ -2501,4493 +2543,5168 @@
       <c r="A2" s="2" t="s">
         <v>282</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="2" t="s">
         <v>200</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="2" t="s">
         <v>200</v>
       </c>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" s="1" t="s">
+      <c r="A3" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="2" t="s">
         <v>2</v>
       </c>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="1" t="s">
+      <c r="A4" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C4" s="2" t="s">
         <v>2</v>
       </c>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B5" s="1" t="s">
+      <c r="A5" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="C5" s="2" t="s">
         <v>2</v>
       </c>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B6" s="1" t="s">
+      <c r="A6" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B6" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="C6" s="2" t="s">
         <v>2</v>
       </c>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>282</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" s="2" t="s">
         <v>2</v>
       </c>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" s="1" t="s">
+      <c r="A8" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>501</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>510</v>
+      </c>
+      <c r="E8" s="2"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B9" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="C9" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="D9" s="2" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>78</v>
-      </c>
+      <c r="E9" s="2"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
-        <v>282</v>
-      </c>
-      <c r="B10" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="E10" s="2"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="B11" s="2" t="s">
         <v>212</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C11" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A11" s="1" t="s">
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="B12" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="C12" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A12" s="1" t="s">
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A13" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="B13" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C12" s="1" t="s">
+      <c r="C13" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A13" s="1" t="s">
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A14" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="B14" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C13" s="1" t="s">
+      <c r="C14" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A14" s="1" t="s">
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A15" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="B15" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C14" s="1" t="s">
+      <c r="C15" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A15" s="1" t="s">
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A16" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="B16" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C15" s="1" t="s">
+      <c r="C16" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A16" s="1" t="s">
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A17" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B16" s="1" t="s">
+      <c r="B17" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C16" s="1" t="s">
+      <c r="C17" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A17" s="1" t="s">
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A18" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B17" s="1" t="s">
+      <c r="B18" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C17" s="1" t="s">
+      <c r="C18" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A18" s="1" t="s">
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A19" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B18" s="1" t="s">
+      <c r="B19" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C18" s="1" t="s">
+      <c r="C19" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A19" s="1" t="s">
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A20" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B20" s="2" t="s">
         <v>290</v>
       </c>
-      <c r="C19" t="s">
+      <c r="C20" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A20" s="2" t="s">
-        <v>282</v>
-      </c>
-      <c r="B20" t="s">
+      <c r="D20" s="2"/>
+      <c r="E20" s="2"/>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A21" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="B21" s="2" t="s">
         <v>263</v>
       </c>
-      <c r="C20" t="s">
+      <c r="C21" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A21" s="1" t="s">
+      <c r="D21" s="2"/>
+      <c r="E21" s="2"/>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A22" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B21" s="1" t="s">
+      <c r="B22" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="C21" s="1" t="s">
+      <c r="C22" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A22" s="1" t="s">
+      <c r="D22" s="2"/>
+      <c r="E22" s="2"/>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A23" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B22" s="1" t="s">
+      <c r="B23" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="C22" s="1" t="s">
+      <c r="C23" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A23" s="2" t="s">
-        <v>282</v>
-      </c>
-      <c r="B23" t="s">
+      <c r="D23" s="2"/>
+      <c r="E23" s="2"/>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A24" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="B24" s="2" t="s">
         <v>256</v>
       </c>
-      <c r="C23" t="s">
+      <c r="C24" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A24" s="1" t="s">
+      <c r="D24" s="2"/>
+      <c r="E24" s="2"/>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A25" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B24" s="1" t="s">
+      <c r="B25" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="C24" s="1" t="s">
+      <c r="C25" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A25" s="1" t="s">
+      <c r="D25" s="2"/>
+      <c r="E25" s="2"/>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A26" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B25" s="1" t="s">
+      <c r="B26" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="C25" s="1" t="s">
+      <c r="C26" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A26" s="2" t="s">
-        <v>282</v>
-      </c>
-      <c r="B26" t="s">
+      <c r="D26" s="2"/>
+      <c r="E26" s="2"/>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A27" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="B27" s="2" t="s">
         <v>240</v>
       </c>
-      <c r="C26" t="s">
+      <c r="C27" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A27" s="2" t="s">
-        <v>282</v>
-      </c>
-      <c r="B27" t="s">
+      <c r="D27" s="2"/>
+      <c r="E27" s="2"/>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A28" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="B28" s="2" t="s">
         <v>217</v>
       </c>
-      <c r="C27" t="s">
+      <c r="C28" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A28" s="1" t="s">
+      <c r="D28" s="2"/>
+      <c r="E28" s="2"/>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A29" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B28" t="s">
+      <c r="B29" s="2" t="s">
         <v>291</v>
       </c>
-      <c r="C28" t="s">
+      <c r="C29" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A29" s="2" t="s">
-        <v>282</v>
-      </c>
-      <c r="B29" t="s">
+      <c r="D29" s="2"/>
+      <c r="E29" s="2"/>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A30" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D30" s="2"/>
+      <c r="E30" s="2"/>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A31" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D31" s="2"/>
+      <c r="E31" s="2"/>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A32" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>444</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D32" s="2"/>
+      <c r="E32" s="2"/>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A33" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>445</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D33" s="2"/>
+      <c r="E33" s="2"/>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A34" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>451</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D34" s="2"/>
+      <c r="E34" s="2"/>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A35" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>452</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D35" s="2"/>
+      <c r="E35" s="2"/>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A36" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>458</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D36" s="2"/>
+      <c r="E36" s="2"/>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A37" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>459</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D37" s="2"/>
+      <c r="E37" s="2"/>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A38" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D38" s="2"/>
+      <c r="E38" s="2"/>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A39" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>464</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D39" s="2"/>
+      <c r="E39" s="2"/>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A40" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>472</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D40" s="2"/>
+      <c r="E40" s="2"/>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A41" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>476</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D41" s="2"/>
+      <c r="E41" s="2"/>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A42" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>480</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D42" s="2"/>
+      <c r="E42" s="2"/>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A43" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>485</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D43" s="2"/>
+      <c r="E43" s="2"/>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A44" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>486</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D44" s="2"/>
+      <c r="E44" s="2"/>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A45" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>489</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D45" s="2"/>
+      <c r="E45" s="2"/>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A46" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>493</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D46" s="2"/>
+      <c r="E46" s="2"/>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A47" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>497</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D47" s="2"/>
+      <c r="E47" s="2"/>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A48" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>498</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D48" s="2"/>
+      <c r="E48" s="2"/>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A49" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="B49" s="2" t="s">
         <v>211</v>
       </c>
-      <c r="C29" t="s">
+      <c r="C49" s="2" t="s">
         <v>309</v>
       </c>
-      <c r="D29" t="s">
+      <c r="D49" s="2" t="s">
         <v>211</v>
       </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A30" s="2" t="s">
-        <v>282</v>
-      </c>
-      <c r="B30" t="s">
+      <c r="E49" s="2"/>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A50" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="B50" s="2" t="s">
         <v>203</v>
       </c>
-      <c r="C30" t="s">
+      <c r="C50" s="2" t="s">
         <v>309</v>
       </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A31" s="2" t="s">
-        <v>282</v>
-      </c>
-      <c r="B31" t="s">
+      <c r="D50" s="2"/>
+      <c r="E50" s="2"/>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A51" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="B51" s="2" t="s">
         <v>242</v>
       </c>
-      <c r="C31" t="s">
+      <c r="C51" s="2" t="s">
         <v>376</v>
       </c>
-      <c r="D31" t="s">
+      <c r="D51" s="2" t="s">
         <v>242</v>
       </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A32" s="2" t="s">
-        <v>282</v>
-      </c>
-      <c r="B32" t="s">
+      <c r="E51" s="2"/>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A52" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="B52" s="2" t="s">
         <v>247</v>
       </c>
-      <c r="C32" t="s">
+      <c r="C52" s="2" t="s">
         <v>376</v>
       </c>
-      <c r="D32" t="s">
+      <c r="D52" s="2" t="s">
         <v>247</v>
       </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A33" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B33" s="1" t="s">
+      <c r="E52" s="2"/>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A53" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B53" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="C33" s="1" t="s">
+      <c r="C53" s="2" t="s">
         <v>249</v>
       </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A34" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B34" s="1" t="s">
+      <c r="D53" s="2"/>
+      <c r="E53" s="2"/>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A54" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B54" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="C34" s="1" t="s">
+      <c r="C54" s="2" t="s">
         <v>249</v>
       </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A35" s="2" t="s">
-        <v>282</v>
-      </c>
-      <c r="B35" t="s">
+      <c r="D54" s="2"/>
+      <c r="E54" s="2"/>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A55" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="B55" s="2" t="s">
         <v>249</v>
       </c>
-      <c r="C35" t="s">
+      <c r="C55" s="2" t="s">
         <v>249</v>
       </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A36" s="1" t="s">
+      <c r="D55" s="2"/>
+      <c r="E55" s="2"/>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A56" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B36" s="1" t="s">
+      <c r="B56" s="2" t="s">
+        <v>329</v>
+      </c>
+      <c r="C56" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="D56" s="2"/>
+      <c r="E56" s="2"/>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A57" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B57" s="2" t="s">
         <v>179</v>
       </c>
-      <c r="C36" s="1" t="s">
+      <c r="C57" s="2" t="s">
         <v>319</v>
       </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A37" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B37" s="1" t="s">
+      <c r="D57" s="2"/>
+      <c r="E57" s="2"/>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A58" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B58" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C37" s="1" t="s">
+      <c r="C58" s="2" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A38" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B38" s="1" t="s">
+      <c r="D58" s="2"/>
+      <c r="E58" s="2"/>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A59" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B59" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C38" s="1" t="s">
+      <c r="C59" s="2" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A39" s="1" t="s">
+      <c r="D59" s="2"/>
+      <c r="E59" s="2"/>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A60" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B39" s="1" t="s">
+      <c r="B60" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C39" s="1" t="s">
+      <c r="C60" s="2" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A40" s="2" t="s">
-        <v>282</v>
-      </c>
-      <c r="B40" t="s">
+      <c r="D60" s="2"/>
+      <c r="E60" s="2"/>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A61" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="B61" s="2" t="s">
         <v>204</v>
       </c>
-      <c r="C40" t="s">
+      <c r="C61" s="2" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A41" s="1" t="s">
+      <c r="D61" s="2"/>
+      <c r="E61" s="2"/>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A62" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B41" s="1" t="s">
+      <c r="B62" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C41" s="1" t="s">
+      <c r="C62" s="2" t="s">
         <v>317</v>
       </c>
-      <c r="D41" s="1" t="s">
+      <c r="D62" s="2" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A42" s="2" t="s">
-        <v>282</v>
-      </c>
-      <c r="B42" t="s">
+      <c r="E62" s="2"/>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A63" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="B63" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C42" s="1" t="s">
+      <c r="C63" s="2" t="s">
         <v>317</v>
       </c>
-      <c r="D42" t="s">
+      <c r="D63" s="2" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A43" s="1" t="s">
+      <c r="E63" s="2"/>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A64" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B43" s="1" t="s">
+      <c r="B64" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="C43" s="1" t="s">
+      <c r="C64" s="2" t="s">
         <v>317</v>
       </c>
-      <c r="D43" s="1" t="s">
+      <c r="D64" s="2" t="s">
         <v>384</v>
       </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A44" s="1" t="s">
+      <c r="E64" s="2"/>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A65" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B44" s="1" t="s">
+      <c r="B65" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="C44" s="1" t="s">
+      <c r="C65" s="2" t="s">
         <v>317</v>
       </c>
-      <c r="D44" s="1" t="s">
+      <c r="D65" s="2" t="s">
         <v>384</v>
       </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A45" s="1" t="s">
+      <c r="E65" s="2"/>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A66" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B45" s="1" t="s">
+      <c r="B66" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="C45" s="1" t="s">
+      <c r="C66" s="2" t="s">
         <v>317</v>
       </c>
-      <c r="D45" s="1" t="s">
+      <c r="D66" s="2" t="s">
         <v>384</v>
       </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A46" s="1" t="s">
+      <c r="E66" s="2"/>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A67" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B46" s="1" t="s">
+      <c r="B67" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="C46" s="1" t="s">
+      <c r="C67" s="2" t="s">
         <v>317</v>
       </c>
-      <c r="D46" s="1" t="s">
+      <c r="D67" s="2" t="s">
         <v>384</v>
       </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A47" s="1" t="s">
+      <c r="E67" s="2"/>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A68" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="B47" t="s">
+      <c r="B68" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="C47" s="1" t="s">
+      <c r="C68" s="2" t="s">
         <v>317</v>
       </c>
-      <c r="D47" t="s">
+      <c r="D68" s="2" t="s">
         <v>385</v>
       </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A48" s="2" t="s">
-        <v>282</v>
-      </c>
-      <c r="B48" t="s">
+      <c r="E68" s="2"/>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A69" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B69" s="2" t="s">
+        <v>466</v>
+      </c>
+      <c r="C69" s="2" t="s">
+        <v>317</v>
+      </c>
+      <c r="D69" s="2"/>
+      <c r="E69" s="2"/>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A70" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B70" s="2" t="s">
+        <v>470</v>
+      </c>
+      <c r="C70" s="2" t="s">
+        <v>317</v>
+      </c>
+      <c r="D70" s="2"/>
+      <c r="E70" s="2"/>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A71" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B71" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C71" s="2" t="s">
+        <v>317</v>
+      </c>
+      <c r="D71" s="2"/>
+      <c r="E71" s="2"/>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A72" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B72" s="2" t="s">
+        <v>502</v>
+      </c>
+      <c r="C72" s="2" t="s">
+        <v>317</v>
+      </c>
+      <c r="D72" s="2"/>
+      <c r="E72" s="2"/>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A73" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="B73" s="2" t="s">
         <v>194</v>
       </c>
-      <c r="C48" t="s">
+      <c r="C73" s="2" t="s">
         <v>194</v>
       </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A49" s="1" t="s">
+      <c r="D73" s="2"/>
+      <c r="E73" s="2"/>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A74" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B74" s="2" t="s">
+        <v>448</v>
+      </c>
+      <c r="C74" s="2" t="s">
+        <v>449</v>
+      </c>
+      <c r="D74" s="2"/>
+      <c r="E74" s="2"/>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A75" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B49" s="1" t="s">
+      <c r="B75" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="C49" s="1" t="s">
+      <c r="C75" s="2" t="s">
         <v>206</v>
       </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A50" s="2" t="s">
-        <v>282</v>
-      </c>
-      <c r="B50" t="s">
+      <c r="D75" s="2"/>
+      <c r="E75" s="2"/>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A76" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="B76" s="2" t="s">
         <v>206</v>
       </c>
-      <c r="C50" t="s">
+      <c r="C76" s="2" t="s">
         <v>206</v>
       </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A51" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B51" t="s">
+      <c r="D76" s="2"/>
+      <c r="E76" s="2"/>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A77" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B77" s="2" t="s">
         <v>286</v>
       </c>
-      <c r="C51" t="s">
+      <c r="C77" s="2" t="s">
         <v>206</v>
       </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A52" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B52" s="1" t="s">
+      <c r="D77" s="2"/>
+      <c r="E77" s="2"/>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A78" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B78" s="2" t="s">
         <v>167</v>
       </c>
-      <c r="C52" s="1" t="s">
+      <c r="C78" s="2" t="s">
         <v>206</v>
       </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A53" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B53" s="1" t="s">
+      <c r="D78" s="2"/>
+      <c r="E78" s="2"/>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A79" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B79" s="2" t="s">
+        <v>471</v>
+      </c>
+      <c r="C79" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="D79" s="2"/>
+      <c r="E79" s="2"/>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A80" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B80" s="2" t="s">
+        <v>484</v>
+      </c>
+      <c r="C80" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="D80" s="2"/>
+      <c r="E80" s="2"/>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A81" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B81" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="C53" s="1" t="s">
+      <c r="C81" s="2" t="s">
         <v>289</v>
       </c>
-      <c r="D53" s="1" t="s">
+      <c r="D81" s="2" t="s">
         <v>388</v>
       </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A54" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B54" s="1" t="s">
+      <c r="E81" s="2"/>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A82" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B82" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="C54" s="1" t="s">
+      <c r="C82" s="2" t="s">
         <v>289</v>
       </c>
-      <c r="D54" s="1" t="s">
+      <c r="D82" s="2" t="s">
         <v>391</v>
       </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A55" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B55" s="1" t="s">
+      <c r="E82" s="2"/>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A83" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B83" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="C55" s="1" t="s">
+      <c r="C83" s="2" t="s">
         <v>289</v>
       </c>
-      <c r="D55" s="1" t="s">
+      <c r="D83" s="2" t="s">
         <v>385</v>
       </c>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A56" s="2" t="s">
-        <v>282</v>
-      </c>
-      <c r="B56" t="s">
+      <c r="E83" s="2"/>
+    </row>
+    <row r="84" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A84" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B84" s="2" t="s">
+        <v>333</v>
+      </c>
+      <c r="C84" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="D84" s="2" t="s">
+        <v>385</v>
+      </c>
+      <c r="E84" s="2"/>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A85" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="B85" s="2" t="s">
         <v>218</v>
       </c>
-      <c r="C56" t="s">
+      <c r="C85" s="2" t="s">
         <v>289</v>
       </c>
-      <c r="D56" t="s">
+      <c r="D85" s="2" t="s">
         <v>386</v>
       </c>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A57" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B57" s="1" t="s">
+      <c r="E85" s="2"/>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A86" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B86" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="C57" s="1" t="s">
+      <c r="C86" s="2" t="s">
         <v>289</v>
       </c>
-      <c r="D57" s="1" t="s">
+      <c r="D86" s="2" t="s">
         <v>387</v>
       </c>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A58" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B58" s="1" t="s">
+      <c r="E86" s="2"/>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A87" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B87" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="C58" s="1" t="s">
+      <c r="C87" s="2" t="s">
         <v>289</v>
       </c>
-      <c r="D58" s="1" t="s">
+      <c r="D87" s="2" t="s">
         <v>390</v>
       </c>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A59" t="s">
+      <c r="E87" s="2"/>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A88" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B59" t="s">
+      <c r="B88" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="C59" t="s">
+      <c r="C88" s="2" t="s">
         <v>289</v>
       </c>
-      <c r="D59" s="1" t="s">
+      <c r="D88" s="2" t="s">
         <v>390</v>
       </c>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A60" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B60" s="1" t="s">
+      <c r="E88" s="2"/>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A89" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B89" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="C60" s="1" t="s">
+      <c r="C89" s="2" t="s">
         <v>289</v>
       </c>
-      <c r="D60" s="1" t="s">
+      <c r="D89" s="2" t="s">
         <v>393</v>
       </c>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A61" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B61" s="1" t="s">
+      <c r="E89" s="2"/>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A90" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B90" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="C61" s="1" t="s">
+      <c r="C90" s="2" t="s">
         <v>289</v>
       </c>
-      <c r="D61" s="1" t="s">
+      <c r="D90" s="2" t="s">
         <v>392</v>
       </c>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A62" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B62" s="1" t="s">
+      <c r="E90" s="2"/>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A91" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B91" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="C62" s="1" t="s">
+      <c r="C91" s="2" t="s">
         <v>289</v>
       </c>
-      <c r="D62" s="1" t="s">
+      <c r="D91" s="2" t="s">
         <v>389</v>
       </c>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A63" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B63" s="1" t="s">
+      <c r="E91" s="2"/>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A92" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B92" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="C63" s="1" t="s">
+      <c r="C92" s="2" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A64" s="1" t="s">
+      <c r="D92" s="2"/>
+      <c r="E92" s="2"/>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A93" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B64" s="1" t="s">
+      <c r="B93" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="C64" s="1" t="s">
+      <c r="C93" s="2" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A65" s="2" t="s">
-        <v>282</v>
-      </c>
-      <c r="B65" t="s">
+      <c r="D93" s="2"/>
+      <c r="E93" s="2"/>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A94" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="B94" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="C65" t="s">
+      <c r="C94" s="2" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A66" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B66" s="1" t="s">
+      <c r="D94" s="2"/>
+      <c r="E94" s="2"/>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A95" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B95" s="2" t="s">
+        <v>481</v>
+      </c>
+      <c r="C95" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="D95" s="2"/>
+      <c r="E95" s="2"/>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A96" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B96" s="2" t="s">
+        <v>509</v>
+      </c>
+      <c r="C96" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="D96" s="2"/>
+      <c r="E96" s="2"/>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A97" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B97" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="C66" s="1" t="s">
+      <c r="C97" s="2" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A67" s="2" t="s">
-        <v>282</v>
-      </c>
-      <c r="B67" t="s">
+      <c r="D97" s="2"/>
+      <c r="E97" s="2"/>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A98" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="B98" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="C67" t="s">
+      <c r="C98" s="2" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A68" s="2" t="s">
-        <v>282</v>
-      </c>
-      <c r="B68" t="s">
+      <c r="D98" s="2"/>
+      <c r="E98" s="2"/>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A99" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="B99" s="2" t="s">
         <v>208</v>
       </c>
-      <c r="C68" t="s">
+      <c r="C99" s="2" t="s">
         <v>308</v>
       </c>
-      <c r="D68" t="s">
+      <c r="D99" s="2" t="s">
         <v>208</v>
       </c>
-    </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A69" s="1" t="s">
+      <c r="E99" s="2"/>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A100" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B69" s="1" t="s">
+      <c r="B100" s="2" t="s">
         <v>187</v>
       </c>
-      <c r="C69" s="1" t="s">
+      <c r="C100" s="2" t="s">
         <v>308</v>
       </c>
-      <c r="D69" s="1" t="s">
+      <c r="D100" s="2" t="s">
         <v>210</v>
       </c>
-    </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A70" s="2" t="s">
-        <v>282</v>
-      </c>
-      <c r="B70" t="s">
+      <c r="E100" s="2"/>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A101" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="B101" s="2" t="s">
         <v>210</v>
       </c>
-      <c r="C70" t="s">
+      <c r="C101" s="2" t="s">
         <v>308</v>
       </c>
-      <c r="D70" t="s">
+      <c r="D101" s="2" t="s">
         <v>210</v>
       </c>
-    </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A71" s="1" t="s">
+      <c r="E101" s="2"/>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A102" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B71" s="1" t="s">
+      <c r="B102" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="C71" s="1" t="s">
+      <c r="C102" s="2" t="s">
         <v>308</v>
       </c>
-      <c r="D71" s="1" t="s">
+      <c r="D102" s="2" t="s">
         <v>259</v>
       </c>
-    </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A72" s="2" t="s">
-        <v>282</v>
-      </c>
-      <c r="B72" t="s">
+      <c r="E102" s="2"/>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A103" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="B103" s="2" t="s">
         <v>259</v>
       </c>
-      <c r="C72" t="s">
+      <c r="C103" s="2" t="s">
         <v>308</v>
       </c>
-      <c r="D72" s="3" t="s">
+      <c r="D103" s="2" t="s">
         <v>259</v>
       </c>
-    </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A73" s="1" t="s">
+      <c r="E103" s="2"/>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A104" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B104" s="2" t="s">
+        <v>441</v>
+      </c>
+      <c r="C104" s="2" t="s">
+        <v>308</v>
+      </c>
+      <c r="D104" s="2" t="s">
+        <v>308</v>
+      </c>
+      <c r="E104" s="2"/>
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A105" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B73" s="1" t="s">
+      <c r="B105" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="C73" s="1" t="s">
+      <c r="C105" s="2" t="s">
         <v>308</v>
       </c>
-      <c r="D73" s="1" t="s">
+      <c r="D105" s="2" t="s">
         <v>395</v>
       </c>
-    </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A74" s="2" t="s">
-        <v>282</v>
-      </c>
-      <c r="B74" t="s">
+      <c r="E105" s="2"/>
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A106" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B106" s="2" t="s">
+        <v>462</v>
+      </c>
+      <c r="C106" s="2" t="s">
+        <v>308</v>
+      </c>
+      <c r="D106" s="2" t="s">
+        <v>524</v>
+      </c>
+      <c r="E106" s="2"/>
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A107" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="B107" s="2" t="s">
         <v>251</v>
       </c>
-      <c r="C74" t="s">
+      <c r="C107" s="2" t="s">
         <v>308</v>
       </c>
-      <c r="D74" t="s">
+      <c r="D107" s="2" t="s">
         <v>251</v>
       </c>
-    </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A75" s="2" t="s">
-        <v>282</v>
-      </c>
-      <c r="B75" t="s">
+      <c r="E107" s="2"/>
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A108" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B108" s="2" t="s">
+        <v>507</v>
+      </c>
+      <c r="C108" s="2" t="s">
+        <v>308</v>
+      </c>
+      <c r="D108" s="2" t="s">
+        <v>385</v>
+      </c>
+      <c r="E108" s="2"/>
+    </row>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A109" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="B109" s="2" t="s">
         <v>250</v>
       </c>
-      <c r="C75" t="s">
+      <c r="C109" s="2" t="s">
         <v>308</v>
       </c>
-      <c r="D75" s="3" t="s">
+      <c r="D109" s="2" t="s">
         <v>250</v>
       </c>
-    </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A76" s="2" t="s">
-        <v>282</v>
-      </c>
-      <c r="B76" t="s">
+      <c r="E109" s="2"/>
+    </row>
+    <row r="110" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A110" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="B110" s="2" t="s">
         <v>258</v>
       </c>
-      <c r="C76" t="s">
+      <c r="C110" s="2" t="s">
         <v>308</v>
       </c>
-      <c r="D76" t="s">
+      <c r="D110" s="2" t="s">
         <v>258</v>
       </c>
-    </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A77" s="2" t="s">
-        <v>282</v>
-      </c>
-      <c r="B77" t="s">
+      <c r="E110" s="2"/>
+    </row>
+    <row r="111" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A111" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="B111" s="2" t="s">
         <v>267</v>
       </c>
-      <c r="C77" t="s">
+      <c r="C111" s="2" t="s">
         <v>308</v>
       </c>
-      <c r="D77" t="s">
+      <c r="D111" s="2" t="s">
         <v>267</v>
       </c>
-    </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A78" s="2" t="s">
-        <v>282</v>
-      </c>
-      <c r="B78" t="s">
+      <c r="E111" s="2"/>
+    </row>
+    <row r="112" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A112" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="B112" s="2" t="s">
         <v>245</v>
       </c>
-      <c r="C78" t="s">
+      <c r="C112" s="2" t="s">
         <v>308</v>
       </c>
-      <c r="D78" t="s">
+      <c r="D112" s="2" t="s">
         <v>245</v>
       </c>
-    </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A79" s="1" t="s">
+      <c r="E112" s="2"/>
+    </row>
+    <row r="113" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A113" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B79" s="1" t="s">
+      <c r="B113" s="2" t="s">
         <v>188</v>
       </c>
-      <c r="C79" s="1" t="s">
+      <c r="C113" s="2" t="s">
         <v>308</v>
       </c>
-      <c r="D79" s="1" t="s">
+      <c r="D113" s="2" t="s">
         <v>394</v>
       </c>
-    </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A80" s="1" t="s">
+      <c r="E113" s="2"/>
+    </row>
+    <row r="114" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A114" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B80" s="1" t="s">
+      <c r="B114" s="2" t="s">
         <v>189</v>
       </c>
-      <c r="C80" s="1" t="s">
+      <c r="C114" s="2" t="s">
         <v>308</v>
       </c>
-      <c r="D80" s="1" t="s">
+      <c r="D114" s="2" t="s">
         <v>394</v>
       </c>
-    </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A81" s="2" t="s">
-        <v>282</v>
-      </c>
-      <c r="B81" t="s">
+      <c r="E114" s="2"/>
+    </row>
+    <row r="115" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A115" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="B115" s="2" t="s">
         <v>195</v>
       </c>
-      <c r="C81" t="s">
+      <c r="C115" s="2" t="s">
         <v>195</v>
       </c>
-    </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A82" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B82" s="1" t="s">
+      <c r="D115" s="2"/>
+      <c r="E115" s="2"/>
+    </row>
+    <row r="116" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A116" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B116" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="C82" s="1" t="s">
+      <c r="C116" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="D82" s="1" t="s">
+      <c r="D116" s="2" t="s">
         <v>398</v>
       </c>
-    </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A83" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B83" s="1" t="s">
+      <c r="E116" s="2"/>
+    </row>
+    <row r="117" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A117" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B117" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="C83" s="1" t="s">
+      <c r="C117" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="D83" s="1" t="s">
+      <c r="D117" s="2" t="s">
         <v>398</v>
       </c>
-    </row>
-    <row r="84" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A84" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B84" s="1" t="s">
+      <c r="E117" s="2"/>
+    </row>
+    <row r="118" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A118" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B118" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="C84" s="1" t="s">
+      <c r="C118" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="D84" s="1" t="s">
+      <c r="D118" s="2" t="s">
         <v>420</v>
       </c>
-    </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A85" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B85" s="1" t="s">
+      <c r="E118" s="2"/>
+    </row>
+    <row r="119" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A119" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B119" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="C85" s="1" t="s">
+      <c r="C119" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="D85" s="1" t="s">
+      <c r="D119" s="2" t="s">
         <v>422</v>
       </c>
-    </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A86" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B86" s="1" t="s">
+      <c r="E119" s="2"/>
+    </row>
+    <row r="120" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A120" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B120" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="C86" s="1" t="s">
+      <c r="C120" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="D86" s="1" t="s">
+      <c r="D120" s="2" t="s">
         <v>426</v>
       </c>
-    </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A87" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B87" s="1" t="s">
+      <c r="E120" s="2"/>
+    </row>
+    <row r="121" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A121" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B121" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="C87" s="1" t="s">
+      <c r="C121" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="D87" s="1" t="s">
+      <c r="D121" s="2" t="s">
         <v>424</v>
       </c>
-    </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A88" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B88" s="1" t="s">
+      <c r="E121" s="2"/>
+    </row>
+    <row r="122" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A122" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B122" s="2" t="s">
+        <v>454</v>
+      </c>
+      <c r="C122" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="D122" s="2" t="s">
+        <v>431</v>
+      </c>
+      <c r="E122" s="2"/>
+    </row>
+    <row r="123" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A123" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B123" s="2" t="s">
         <v>168</v>
       </c>
-      <c r="C88" s="1" t="s">
+      <c r="C123" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="D88" s="1" t="s">
+      <c r="D123" s="2" t="s">
         <v>168</v>
       </c>
-    </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A89" s="1" t="s">
+      <c r="E123" s="2"/>
+    </row>
+    <row r="124" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A124" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B89" s="1" t="s">
+      <c r="B124" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="C89" s="1" t="s">
+      <c r="C124" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="D89" s="1" t="s">
+      <c r="D124" s="2" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A90" s="1" t="s">
+      <c r="E124" s="2"/>
+    </row>
+    <row r="125" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A125" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B90" s="1" t="s">
+      <c r="B125" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="C90" s="1" t="s">
+      <c r="C125" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="D90" s="1" t="s">
+      <c r="D125" s="2" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A91" s="1" t="s">
+      <c r="E125" s="2"/>
+    </row>
+    <row r="126" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A126" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B91" s="1" t="s">
+      <c r="B126" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="C91" s="1" t="s">
+      <c r="C126" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="D91" s="1" t="s">
+      <c r="D126" s="2" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A92" s="1" t="s">
+      <c r="E126" s="2"/>
+    </row>
+    <row r="127" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A127" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B92" s="1" t="s">
+      <c r="B127" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="C92" s="1" t="s">
+      <c r="C127" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="D92" s="1" t="s">
+      <c r="D127" s="2" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A93" s="2" t="s">
-        <v>282</v>
-      </c>
-      <c r="B93" t="s">
+      <c r="E127" s="2"/>
+    </row>
+    <row r="128" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A128" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="B128" s="2" t="s">
         <v>213</v>
       </c>
-      <c r="C93" t="s">
+      <c r="C128" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="D93" s="1" t="s">
+      <c r="D128" s="2" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A94" s="2" t="s">
+      <c r="E128" s="2"/>
+    </row>
+    <row r="129" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A129" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="B94" t="s">
+      <c r="B129" s="2" t="s">
+        <v>461</v>
+      </c>
+      <c r="C129" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="D129" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E129" s="2"/>
+    </row>
+    <row r="130" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A130" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B130" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="C94" t="s">
+      <c r="C130" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="D94" t="s">
+      <c r="D130" s="2" t="s">
         <v>213</v>
       </c>
-    </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A95" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B95" s="1" t="s">
+      <c r="E130" s="2"/>
+    </row>
+    <row r="131" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A131" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B131" s="2" t="s">
         <v>169</v>
       </c>
-      <c r="C95" s="1" t="s">
+      <c r="C131" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="D95" s="1" t="s">
+      <c r="D131" s="2" t="s">
         <v>169</v>
       </c>
-    </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A96" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B96" s="1" t="s">
+      <c r="E131" s="2"/>
+    </row>
+    <row r="132" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A132" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B132" s="2" t="s">
+        <v>508</v>
+      </c>
+      <c r="C132" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="D132" s="2" t="s">
+        <v>523</v>
+      </c>
+      <c r="E132" s="2"/>
+    </row>
+    <row r="133" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A133" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B133" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="C96" s="1" t="s">
+      <c r="C133" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="D96" s="1" t="s">
+      <c r="D133" s="2" t="s">
         <v>396</v>
       </c>
-    </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A97" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B97" s="1" t="s">
+      <c r="E133" s="2"/>
+    </row>
+    <row r="134" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A134" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B134" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="C97" s="1" t="s">
+      <c r="C134" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="D97" s="1" t="s">
+      <c r="D134" s="2" t="s">
         <v>396</v>
       </c>
-    </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A98" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B98" s="1" t="s">
+      <c r="E134" s="2"/>
+    </row>
+    <row r="135" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A135" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B135" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="C98" s="1" t="s">
+      <c r="C135" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="D98" s="1" t="s">
+      <c r="D135" s="2" t="s">
         <v>425</v>
       </c>
-    </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A99" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B99" s="1" t="s">
+      <c r="E135" s="2"/>
+    </row>
+    <row r="136" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A136" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B136" s="2" t="s">
+        <v>492</v>
+      </c>
+      <c r="C136" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="D136" s="2" t="s">
+        <v>418</v>
+      </c>
+      <c r="E136" s="2"/>
+    </row>
+    <row r="137" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A137" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B137" s="2" t="s">
+        <v>450</v>
+      </c>
+      <c r="C137" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="D137" s="2" t="s">
+        <v>522</v>
+      </c>
+      <c r="E137" s="2"/>
+    </row>
+    <row r="138" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A138" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B138" s="2" t="s">
+        <v>457</v>
+      </c>
+      <c r="C138" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="D138" s="2" t="s">
+        <v>522</v>
+      </c>
+      <c r="E138" s="2"/>
+    </row>
+    <row r="139" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A139" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B139" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="C99" s="1" t="s">
+      <c r="C139" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="D99" s="1" t="s">
+      <c r="D139" s="2" t="s">
         <v>399</v>
       </c>
-    </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A100" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B100" s="1" t="s">
+      <c r="E139" s="2"/>
+    </row>
+    <row r="140" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A140" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B140" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="C100" s="1" t="s">
+      <c r="C140" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="D100" s="1" t="s">
+      <c r="D140" s="2" t="s">
         <v>397</v>
       </c>
-    </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A101" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B101" s="1" t="s">
+      <c r="E140" s="2"/>
+    </row>
+    <row r="141" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A141" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B141" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="C101" s="1" t="s">
+      <c r="C141" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="D101" s="1" t="s">
+      <c r="D141" s="2" t="s">
         <v>427</v>
       </c>
-    </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A102" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B102" s="1" t="s">
+      <c r="E141" s="2"/>
+    </row>
+    <row r="142" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A142" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B142" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="C102" s="1" t="s">
+      <c r="C142" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="D102" s="1" t="s">
+      <c r="D142" s="2" t="s">
         <v>419</v>
       </c>
-    </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A103" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B103" s="1" t="s">
+      <c r="E142" s="2"/>
+    </row>
+    <row r="143" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A143" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B143" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="C103" s="1" t="s">
+      <c r="C143" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="D103" s="1" t="s">
+      <c r="D143" s="2" t="s">
         <v>419</v>
       </c>
-    </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A104" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B104" s="1" t="s">
+      <c r="E143" s="2"/>
+    </row>
+    <row r="144" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A144" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B144" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="C104" s="1" t="s">
+      <c r="C144" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="D104" s="1" t="s">
+      <c r="D144" s="2" t="s">
         <v>400</v>
       </c>
-    </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A105" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B105" s="1" t="s">
+      <c r="E144" s="2"/>
+    </row>
+    <row r="145" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A145" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B145" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="C105" s="1" t="s">
+      <c r="C145" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="D105" s="1" t="s">
+      <c r="D145" s="2" t="s">
         <v>400</v>
       </c>
-    </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A106" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B106" s="1" t="s">
+      <c r="E145" s="2"/>
+    </row>
+    <row r="146" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A146" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B146" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="C106" s="1" t="s">
+      <c r="C146" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="D106" s="1" t="s">
+      <c r="D146" s="2" t="s">
         <v>400</v>
       </c>
-    </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A107" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B107" s="1" t="s">
+      <c r="E146" s="2"/>
+    </row>
+    <row r="147" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A147" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B147" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="C107" s="1" t="s">
+      <c r="C147" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="D107" s="1" t="s">
+      <c r="D147" s="2" t="s">
         <v>400</v>
       </c>
-    </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A108" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B108" s="1" t="s">
+      <c r="E147" s="2"/>
+    </row>
+    <row r="148" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A148" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B148" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="C108" s="1" t="s">
+      <c r="C148" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="D108" s="1" t="s">
+      <c r="D148" s="2" t="s">
         <v>402</v>
       </c>
-    </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A109" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B109" s="1" t="s">
+      <c r="E148" s="2"/>
+    </row>
+    <row r="149" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A149" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B149" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="C109" s="1" t="s">
+      <c r="C149" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="D109" s="1" t="s">
+      <c r="D149" s="2" t="s">
         <v>403</v>
       </c>
-    </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A110" s="2" t="s">
-        <v>282</v>
-      </c>
-      <c r="B110" t="s">
+      <c r="E149" s="2"/>
+    </row>
+    <row r="150" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A150" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="B150" s="2" t="s">
         <v>207</v>
       </c>
-      <c r="C110" s="1" t="s">
+      <c r="C150" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="D110" s="1" t="s">
+      <c r="D150" s="2" t="s">
         <v>385</v>
       </c>
-    </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A111" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B111" s="1" t="s">
+      <c r="E150" s="2"/>
+    </row>
+    <row r="151" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A151" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B151" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="C111" s="1" t="s">
+      <c r="C151" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="D111" s="1" t="s">
+      <c r="D151" s="2" t="s">
         <v>385</v>
       </c>
-    </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A112" s="2" t="s">
-        <v>282</v>
-      </c>
-      <c r="B112" t="s">
+      <c r="E151" s="2"/>
+    </row>
+    <row r="152" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A152" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="B152" s="2" t="s">
         <v>216</v>
       </c>
-      <c r="C112" t="s">
+      <c r="C152" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="D112" s="1" t="s">
+      <c r="D152" s="2" t="s">
         <v>385</v>
       </c>
-    </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A113" s="1" t="s">
+      <c r="E152" s="2"/>
+    </row>
+    <row r="153" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A153" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B153" s="2" t="s">
+        <v>446</v>
+      </c>
+      <c r="C153" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="D153" s="2" t="s">
+        <v>385</v>
+      </c>
+      <c r="E153" s="2"/>
+    </row>
+    <row r="154" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A154" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B154" s="2" t="s">
+        <v>455</v>
+      </c>
+      <c r="C154" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="D154" s="2" t="s">
+        <v>385</v>
+      </c>
+      <c r="E154" s="2"/>
+    </row>
+    <row r="155" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A155" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B113" s="1" t="s">
+      <c r="B155" s="2" t="s">
         <v>173</v>
       </c>
-      <c r="C113" s="1" t="s">
+      <c r="C155" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="D113" s="1" t="s">
+      <c r="D155" s="2" t="s">
         <v>174</v>
       </c>
-    </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A114" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B114" s="1" t="s">
+      <c r="E155" s="2"/>
+    </row>
+    <row r="156" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A156" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B156" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="C114" s="1" t="s">
+      <c r="C156" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="D114" s="1" t="s">
+      <c r="D156" s="2" t="s">
         <v>401</v>
       </c>
-    </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A115" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B115" t="s">
+      <c r="E156" s="2"/>
+    </row>
+    <row r="157" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A157" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B157" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="C115" t="s">
+      <c r="C157" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="D115" s="1" t="s">
+      <c r="D157" s="2" t="s">
         <v>401</v>
       </c>
-    </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A116" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B116" s="1" t="s">
+      <c r="E157" s="2"/>
+    </row>
+    <row r="158" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A158" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B158" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="C116" s="1" t="s">
+      <c r="C158" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="D116" s="1" t="s">
+      <c r="D158" s="2" t="s">
         <v>239</v>
       </c>
-    </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A117" s="2" t="s">
-        <v>282</v>
-      </c>
-      <c r="B117" t="s">
+      <c r="E158" s="2"/>
+    </row>
+    <row r="159" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A159" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B159" s="2" t="s">
+        <v>442</v>
+      </c>
+      <c r="C159" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="D159" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="E159" s="2"/>
+    </row>
+    <row r="160" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A160" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="B160" s="2" t="s">
         <v>244</v>
       </c>
-      <c r="C117" t="s">
+      <c r="C160" s="2" t="s">
         <v>378</v>
       </c>
-    </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A118" s="2" t="s">
-        <v>282</v>
-      </c>
-      <c r="B118" t="s">
+      <c r="D160" s="2"/>
+      <c r="E160" s="2"/>
+    </row>
+    <row r="161" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A161" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="B161" s="2" t="s">
         <v>260</v>
       </c>
-      <c r="C118" t="s">
+      <c r="C161" s="2" t="s">
         <v>260</v>
       </c>
-    </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A119" s="1" t="s">
+      <c r="D161" s="2"/>
+      <c r="E161" s="2"/>
+    </row>
+    <row r="162" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A162" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B119" s="1" t="s">
+      <c r="B162" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="C119" s="1" t="s">
+      <c r="C162" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="D119" s="1" t="s">
+      <c r="D162" s="2" t="s">
         <v>416</v>
       </c>
-    </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A120" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B120" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="C120" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="D120" s="1" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A121" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B121" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="C121" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="D121" s="1" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A122" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B122" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="C122" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="D122" s="1" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A123" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B123" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="C123" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="D123" s="1" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A124" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B124" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="C124" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="D124" s="1" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A125" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B125" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="C125" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="D125" s="1" t="s">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A126" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B126" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="C126" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="D126" s="1" t="s">
-        <v>405</v>
-      </c>
-    </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A127" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B127" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="C127" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="D127" s="1" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A128" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B128" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="C128" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="D128" s="1" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A129" s="2" t="s">
-        <v>282</v>
-      </c>
-      <c r="B129" t="s">
-        <v>202</v>
-      </c>
-      <c r="C129" t="s">
-        <v>90</v>
-      </c>
-      <c r="D129" s="1" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A130" s="2" t="s">
-        <v>282</v>
-      </c>
-      <c r="B130" t="s">
-        <v>205</v>
-      </c>
-      <c r="C130" t="s">
-        <v>90</v>
-      </c>
-      <c r="D130" s="1" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A131" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B131" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="C131" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="D131" s="1" t="s">
-        <v>408</v>
-      </c>
-    </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A132" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B132" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="C132" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="D132" s="1" t="s">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A133" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B133" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="C133" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="D133" s="1" t="s">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A134" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B134" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="C134" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="D134" s="1" t="s">
-        <v>409</v>
-      </c>
-    </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A135" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B135" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="C135" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="D135" s="1" t="s">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A136" s="2" t="s">
-        <v>282</v>
-      </c>
-      <c r="B136" t="s">
-        <v>220</v>
-      </c>
-      <c r="C136" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A137" s="2" t="s">
-        <v>282</v>
-      </c>
-      <c r="B137" t="s">
-        <v>221</v>
-      </c>
-      <c r="C137" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A138" s="2" t="s">
-        <v>282</v>
-      </c>
-      <c r="B138" t="s">
-        <v>222</v>
-      </c>
-      <c r="C138" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A139" s="2" t="s">
-        <v>282</v>
-      </c>
-      <c r="B139" t="s">
-        <v>223</v>
-      </c>
-      <c r="C139" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A140" s="2" t="s">
-        <v>282</v>
-      </c>
-      <c r="B140" t="s">
-        <v>224</v>
-      </c>
-      <c r="C140" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A141" s="2" t="s">
-        <v>282</v>
-      </c>
-      <c r="B141" t="s">
-        <v>225</v>
-      </c>
-      <c r="C141" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="142" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A142" s="2" t="s">
-        <v>282</v>
-      </c>
-      <c r="B142" t="s">
-        <v>226</v>
-      </c>
-      <c r="C142" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="143" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A143" s="2" t="s">
-        <v>282</v>
-      </c>
-      <c r="B143" t="s">
-        <v>227</v>
-      </c>
-      <c r="C143" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="144" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A144" s="2" t="s">
-        <v>282</v>
-      </c>
-      <c r="B144" t="s">
-        <v>228</v>
-      </c>
-      <c r="C144" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A145" s="2" t="s">
-        <v>282</v>
-      </c>
-      <c r="B145" t="s">
-        <v>229</v>
-      </c>
-      <c r="C145" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="146" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A146" s="2" t="s">
-        <v>282</v>
-      </c>
-      <c r="B146" t="s">
-        <v>230</v>
-      </c>
-      <c r="C146" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="147" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A147" s="2" t="s">
-        <v>282</v>
-      </c>
-      <c r="B147" t="s">
-        <v>225</v>
-      </c>
-      <c r="C147" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="148" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A148" s="2" t="s">
-        <v>282</v>
-      </c>
-      <c r="B148" t="s">
-        <v>275</v>
-      </c>
-      <c r="C148" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="149" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A149" t="s">
-        <v>282</v>
-      </c>
-      <c r="B149" t="s">
-        <v>294</v>
-      </c>
-      <c r="C149" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="150" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A150" t="s">
-        <v>282</v>
-      </c>
-      <c r="B150" t="s">
-        <v>295</v>
-      </c>
-      <c r="C150" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="151" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A151" t="s">
-        <v>282</v>
-      </c>
-      <c r="B151" t="s">
-        <v>296</v>
-      </c>
-      <c r="C151" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="152" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A152" t="s">
-        <v>282</v>
-      </c>
-      <c r="B152" t="s">
-        <v>297</v>
-      </c>
-      <c r="C152" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="153" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A153" t="s">
-        <v>282</v>
-      </c>
-      <c r="B153" t="s">
-        <v>298</v>
-      </c>
-      <c r="C153" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="154" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A154" t="s">
-        <v>282</v>
-      </c>
-      <c r="B154" t="s">
-        <v>299</v>
-      </c>
-      <c r="C154" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="155" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A155" t="s">
-        <v>282</v>
-      </c>
-      <c r="B155" t="s">
-        <v>301</v>
-      </c>
-      <c r="C155" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="156" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A156" t="s">
-        <v>282</v>
-      </c>
-      <c r="B156" t="s">
-        <v>302</v>
-      </c>
-      <c r="C156" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="157" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A157" t="s">
-        <v>282</v>
-      </c>
-      <c r="B157" t="s">
-        <v>304</v>
-      </c>
-      <c r="C157" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="158" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A158" t="s">
-        <v>282</v>
-      </c>
-      <c r="B158" t="s">
-        <v>305</v>
-      </c>
-      <c r="C158" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="159" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A159" t="s">
-        <v>282</v>
-      </c>
-      <c r="B159" t="s">
-        <v>306</v>
-      </c>
-      <c r="C159" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="160" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A160" t="s">
-        <v>282</v>
-      </c>
-      <c r="B160" t="s">
-        <v>300</v>
-      </c>
-      <c r="C160" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="161" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A161" t="s">
-        <v>6</v>
-      </c>
-      <c r="B161" t="s">
-        <v>109</v>
-      </c>
-      <c r="C161" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="162" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A162" t="s">
-        <v>9</v>
-      </c>
-      <c r="B162" s="2" t="s">
-        <v>310</v>
-      </c>
-      <c r="C162" t="s">
-        <v>109</v>
-      </c>
+      <c r="E162" s="2"/>
     </row>
     <row r="163" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A163" s="2" t="s">
-        <v>282</v>
-      </c>
-      <c r="B163" t="s">
-        <v>265</v>
-      </c>
-      <c r="C163" t="s">
-        <v>265</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="B163" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="C163" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="D163" s="2" t="s">
+        <v>414</v>
+      </c>
+      <c r="E163" s="2"/>
     </row>
     <row r="164" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A164" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B164" t="s">
-        <v>285</v>
-      </c>
-      <c r="C164" t="s">
-        <v>105</v>
-      </c>
-      <c r="D164" t="s">
-        <v>398</v>
-      </c>
+      <c r="A164" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B164" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="C164" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="D164" s="2" t="s">
+        <v>415</v>
+      </c>
+      <c r="E164" s="2"/>
     </row>
     <row r="165" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A165" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B165" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="C165" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="D165" s="1" t="s">
-        <v>420</v>
-      </c>
+      <c r="A165" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B165" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="C165" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="D165" s="2" t="s">
+        <v>412</v>
+      </c>
+      <c r="E165" s="2"/>
     </row>
     <row r="166" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A166" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B166" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="C166" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="D166" s="1" t="s">
-        <v>422</v>
-      </c>
+      <c r="A166" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B166" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="C166" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="D166" s="2" t="s">
+        <v>412</v>
+      </c>
+      <c r="E166" s="2"/>
     </row>
     <row r="167" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A167" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B167" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="C167" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="D167" s="1" t="s">
-        <v>430</v>
-      </c>
+      <c r="A167" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B167" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="C167" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="D167" s="2" t="s">
+        <v>413</v>
+      </c>
+      <c r="E167" s="2"/>
     </row>
     <row r="168" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A168" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B168" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="C168" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="D168" s="1" t="s">
-        <v>421</v>
-      </c>
+      <c r="A168" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B168" s="2" t="s">
+        <v>453</v>
+      </c>
+      <c r="C168" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="D168" s="2" t="s">
+        <v>521</v>
+      </c>
+      <c r="E168" s="2"/>
     </row>
     <row r="169" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A169" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B169" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="C169" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="D169" s="1" t="s">
-        <v>421</v>
-      </c>
+      <c r="A169" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B169" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="C169" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="D169" s="2" t="s">
+        <v>404</v>
+      </c>
+      <c r="E169" s="2"/>
     </row>
     <row r="170" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A170" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B170" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="C170" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="D170" s="1" t="s">
-        <v>431</v>
-      </c>
+      <c r="A170" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B170" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="C170" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="D170" s="2" t="s">
+        <v>405</v>
+      </c>
+      <c r="E170" s="2"/>
     </row>
     <row r="171" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A171" t="s">
+      <c r="A171" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B171" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="C171" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="D171" s="2" t="s">
+        <v>411</v>
+      </c>
+      <c r="E171" s="2"/>
+    </row>
+    <row r="172" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A172" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B172" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="C172" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="D172" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="E172" s="2"/>
+    </row>
+    <row r="173" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A173" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="B173" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="C173" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="D173" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="E173" s="2"/>
+    </row>
+    <row r="174" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A174" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B171" t="s">
-        <v>107</v>
-      </c>
-      <c r="C171" t="s">
-        <v>105</v>
-      </c>
-      <c r="D171" s="3" t="s">
-        <v>379</v>
-      </c>
-      <c r="E171" s="3" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="172" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A172" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B172" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="C172" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="D172" s="1" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="173" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A173" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B173" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="C173" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="D173" s="1" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="174" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A174" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B174" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="C174" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="D174" s="1" t="s">
-        <v>418</v>
-      </c>
+      <c r="B174" s="2" t="s">
+        <v>460</v>
+      </c>
+      <c r="C174" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="D174" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="E174" s="2"/>
     </row>
     <row r="175" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A175" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B175" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="C175" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="D175" s="1" t="s">
-        <v>418</v>
-      </c>
+      <c r="A175" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="B175" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="C175" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="D175" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="E175" s="2"/>
     </row>
     <row r="176" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A176" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B176" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="C176" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="D176" s="1" t="s">
-        <v>418</v>
-      </c>
+      <c r="A176" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B176" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="C176" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="D176" s="2" t="s">
+        <v>408</v>
+      </c>
+      <c r="E176" s="2"/>
     </row>
     <row r="177" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A177" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B177" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="C177" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="D177" s="1" t="s">
-        <v>418</v>
-      </c>
+      <c r="A177" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B177" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="C177" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="D177" s="2" t="s">
+        <v>410</v>
+      </c>
+      <c r="E177" s="2"/>
     </row>
     <row r="178" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A178" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B178" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="C178" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="D178" s="1" t="s">
-        <v>397</v>
-      </c>
+      <c r="A178" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B178" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="C178" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="D178" s="2" t="s">
+        <v>406</v>
+      </c>
+      <c r="E178" s="2"/>
     </row>
     <row r="179" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A179" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B179" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="C179" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="D179" s="1" t="s">
-        <v>419</v>
-      </c>
+      <c r="A179" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B179" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="C179" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="D179" s="2" t="s">
+        <v>409</v>
+      </c>
+      <c r="E179" s="2"/>
     </row>
     <row r="180" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A180" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B180" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="C180" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="D180" s="1" t="s">
-        <v>429</v>
-      </c>
+      <c r="A180" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B180" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="C180" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="D180" s="2" t="s">
+        <v>407</v>
+      </c>
+      <c r="E180" s="2"/>
     </row>
     <row r="181" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A181" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B181" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="C181" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="D181" s="1" t="s">
-        <v>432</v>
-      </c>
+      <c r="A181" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B181" s="2" t="s">
+        <v>488</v>
+      </c>
+      <c r="C181" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="D181" s="2" t="s">
+        <v>520</v>
+      </c>
+      <c r="E181" s="2"/>
     </row>
     <row r="182" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A182" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B182" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="C182" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="D182" s="1" t="s">
-        <v>428</v>
-      </c>
+      <c r="A182" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="B182" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="C182" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="D182" s="2"/>
+      <c r="E182" s="2"/>
     </row>
     <row r="183" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A183" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B183" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="C183" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="D183" s="1" t="s">
-        <v>400</v>
-      </c>
+      <c r="A183" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="B183" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="C183" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="D183" s="2"/>
+      <c r="E183" s="2"/>
     </row>
     <row r="184" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A184" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B184" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="C184" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="D184" s="1" t="s">
-        <v>400</v>
-      </c>
+      <c r="A184" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="B184" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="C184" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="D184" s="2"/>
+      <c r="E184" s="2"/>
     </row>
     <row r="185" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A185" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B185" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="C185" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="D185" s="1" t="s">
-        <v>402</v>
-      </c>
+      <c r="A185" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="B185" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="C185" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="D185" s="2"/>
+      <c r="E185" s="2"/>
     </row>
     <row r="186" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A186" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B186" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="C186" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="D186" s="1" t="s">
-        <v>403</v>
-      </c>
+      <c r="A186" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="B186" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="C186" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="D186" s="2"/>
+      <c r="E186" s="2"/>
     </row>
     <row r="187" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A187" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B187" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="C187" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="D187" s="1" t="s">
-        <v>403</v>
-      </c>
+      <c r="A187" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="B187" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="C187" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="D187" s="2"/>
+      <c r="E187" s="2"/>
     </row>
     <row r="188" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A188" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B188" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="C188" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="D188" s="1" t="s">
-        <v>403</v>
-      </c>
+      <c r="A188" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="B188" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="C188" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="D188" s="2"/>
+      <c r="E188" s="2"/>
     </row>
     <row r="189" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A189" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B189" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="C189" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="D189" s="1" t="s">
-        <v>385</v>
-      </c>
+      <c r="A189" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="B189" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="C189" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="D189" s="2"/>
+      <c r="E189" s="2"/>
     </row>
     <row r="190" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A190" s="2" t="s">
         <v>282</v>
       </c>
-      <c r="B190" t="s">
+      <c r="B190" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="C190" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="D190" s="2"/>
+      <c r="E190" s="2"/>
+    </row>
+    <row r="191" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A191" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="B191" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="C191" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="D191" s="2"/>
+      <c r="E191" s="2"/>
+    </row>
+    <row r="192" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A192" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="B192" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="C192" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="D192" s="2"/>
+      <c r="E192" s="2"/>
+    </row>
+    <row r="193" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A193" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="B193" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="C193" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="D193" s="2"/>
+      <c r="E193" s="2"/>
+    </row>
+    <row r="194" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A194" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="B194" s="2" t="s">
+        <v>275</v>
+      </c>
+      <c r="C194" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="D194" s="2"/>
+      <c r="E194" s="2"/>
+    </row>
+    <row r="195" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A195" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="B195" s="2" t="s">
+        <v>294</v>
+      </c>
+      <c r="C195" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="D195" s="2"/>
+      <c r="E195" s="2"/>
+    </row>
+    <row r="196" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A196" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="B196" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="C196" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="D196" s="2"/>
+      <c r="E196" s="2"/>
+    </row>
+    <row r="197" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A197" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="B197" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="C197" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="D197" s="2"/>
+      <c r="E197" s="2"/>
+    </row>
+    <row r="198" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A198" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="B198" s="2" t="s">
+        <v>297</v>
+      </c>
+      <c r="C198" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="D198" s="2"/>
+      <c r="E198" s="2"/>
+    </row>
+    <row r="199" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A199" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="B199" s="2" t="s">
+        <v>298</v>
+      </c>
+      <c r="C199" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="D199" s="2"/>
+      <c r="E199" s="2"/>
+    </row>
+    <row r="200" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A200" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="B200" s="2" t="s">
+        <v>299</v>
+      </c>
+      <c r="C200" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="D200" s="2"/>
+      <c r="E200" s="2"/>
+    </row>
+    <row r="201" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A201" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="B201" s="2" t="s">
+        <v>301</v>
+      </c>
+      <c r="C201" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="D201" s="2"/>
+      <c r="E201" s="2"/>
+    </row>
+    <row r="202" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A202" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="B202" s="2" t="s">
+        <v>302</v>
+      </c>
+      <c r="C202" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="D202" s="2"/>
+      <c r="E202" s="2"/>
+    </row>
+    <row r="203" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A203" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="B203" s="2" t="s">
+        <v>304</v>
+      </c>
+      <c r="C203" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="D203" s="2"/>
+      <c r="E203" s="2"/>
+    </row>
+    <row r="204" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A204" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="B204" s="2" t="s">
+        <v>305</v>
+      </c>
+      <c r="C204" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="D204" s="2"/>
+      <c r="E204" s="2"/>
+    </row>
+    <row r="205" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A205" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="B205" s="2" t="s">
+        <v>306</v>
+      </c>
+      <c r="C205" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="D205" s="2"/>
+      <c r="E205" s="2"/>
+    </row>
+    <row r="206" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A206" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="B206" s="2" t="s">
+        <v>300</v>
+      </c>
+      <c r="C206" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="D206" s="2"/>
+      <c r="E206" s="2"/>
+    </row>
+    <row r="207" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A207" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B207" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="C207" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="D207" s="2"/>
+      <c r="E207" s="2"/>
+    </row>
+    <row r="208" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A208" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B208" s="2" t="s">
+        <v>310</v>
+      </c>
+      <c r="C208" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="D208" s="2"/>
+      <c r="E208" s="2"/>
+    </row>
+    <row r="209" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A209" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B209" s="2" t="s">
+        <v>310</v>
+      </c>
+      <c r="C209" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="D209" s="2"/>
+      <c r="E209" s="2"/>
+    </row>
+    <row r="210" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A210" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="B210" s="2" t="s">
+        <v>265</v>
+      </c>
+      <c r="C210" s="2" t="s">
+        <v>265</v>
+      </c>
+      <c r="D210" s="2"/>
+      <c r="E210" s="2"/>
+    </row>
+    <row r="211" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A211" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B211" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="C211" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="D211" s="2" t="s">
+        <v>398</v>
+      </c>
+      <c r="E211" s="2"/>
+    </row>
+    <row r="212" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A212" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B212" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="C212" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="D212" s="2" t="s">
+        <v>420</v>
+      </c>
+      <c r="E212" s="2"/>
+    </row>
+    <row r="213" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A213" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B213" s="2" t="s">
+        <v>469</v>
+      </c>
+      <c r="C213" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="D213" s="2" t="s">
+        <v>513</v>
+      </c>
+      <c r="E213" s="2"/>
+    </row>
+    <row r="214" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A214" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B214" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="C214" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="D214" s="2" t="s">
+        <v>422</v>
+      </c>
+      <c r="E214" s="2"/>
+    </row>
+    <row r="215" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A215" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B215" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="C215" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="D215" s="2" t="s">
+        <v>430</v>
+      </c>
+      <c r="E215" s="2"/>
+    </row>
+    <row r="216" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A216" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B216" s="2" t="s">
+        <v>494</v>
+      </c>
+      <c r="C216" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="D216" s="2" t="s">
+        <v>517</v>
+      </c>
+      <c r="E216" s="2"/>
+    </row>
+    <row r="217" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A217" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B217" s="2" t="s">
+        <v>479</v>
+      </c>
+      <c r="C217" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="D217" s="2" t="s">
+        <v>516</v>
+      </c>
+      <c r="E217" s="2"/>
+    </row>
+    <row r="218" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A218" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B218" s="2" t="s">
+        <v>478</v>
+      </c>
+      <c r="C218" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="D218" s="2" t="s">
+        <v>515</v>
+      </c>
+      <c r="E218" s="2"/>
+    </row>
+    <row r="219" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A219" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B219" s="2" t="s">
+        <v>490</v>
+      </c>
+      <c r="C219" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="D219" s="2" t="s">
+        <v>424</v>
+      </c>
+      <c r="E219" s="2"/>
+    </row>
+    <row r="220" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A220" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B220" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="C220" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="D220" s="2" t="s">
+        <v>421</v>
+      </c>
+      <c r="E220" s="2"/>
+    </row>
+    <row r="221" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A221" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B221" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="C221" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="D221" s="2" t="s">
+        <v>421</v>
+      </c>
+      <c r="E221" s="2"/>
+    </row>
+    <row r="222" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A222" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B222" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="C222" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="D222" s="2" t="s">
+        <v>431</v>
+      </c>
+      <c r="E222" s="2"/>
+    </row>
+    <row r="223" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A223" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B223" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="C223" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="D223" s="2" t="s">
+        <v>379</v>
+      </c>
+      <c r="E223" s="2" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="224" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A224" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B224" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="C224" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="D224" s="2" t="s">
+        <v>396</v>
+      </c>
+      <c r="E224" s="2"/>
+    </row>
+    <row r="225" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A225" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B225" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="C225" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="D225" s="2" t="s">
+        <v>423</v>
+      </c>
+      <c r="E225" s="2"/>
+    </row>
+    <row r="226" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A226" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B226" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="C226" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="D226" s="2" t="s">
+        <v>418</v>
+      </c>
+      <c r="E226" s="2"/>
+    </row>
+    <row r="227" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A227" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B227" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="C227" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="D227" s="2" t="s">
+        <v>418</v>
+      </c>
+      <c r="E227" s="2"/>
+    </row>
+    <row r="228" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A228" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B228" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="C228" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="D228" s="2" t="s">
+        <v>418</v>
+      </c>
+      <c r="E228" s="2"/>
+    </row>
+    <row r="229" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A229" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B229" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="C229" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="D229" s="2" t="s">
+        <v>418</v>
+      </c>
+      <c r="E229" s="2"/>
+    </row>
+    <row r="230" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A230" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B230" s="2" t="s">
+        <v>482</v>
+      </c>
+      <c r="C230" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="D230" s="2" t="s">
+        <v>418</v>
+      </c>
+      <c r="E230" s="2"/>
+    </row>
+    <row r="231" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A231" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B231" s="2" t="s">
+        <v>499</v>
+      </c>
+      <c r="C231" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="D231" s="2" t="s">
+        <v>519</v>
+      </c>
+      <c r="E231" s="2"/>
+    </row>
+    <row r="232" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A232" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B232" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="C232" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="D232" s="2" t="s">
+        <v>397</v>
+      </c>
+      <c r="E232" s="2"/>
+    </row>
+    <row r="233" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A233" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B233" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="C233" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="D233" s="2" t="s">
+        <v>419</v>
+      </c>
+      <c r="E233" s="2"/>
+    </row>
+    <row r="234" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A234" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B234" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="C234" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="D234" s="2" t="s">
+        <v>429</v>
+      </c>
+      <c r="E234" s="2"/>
+    </row>
+    <row r="235" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A235" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B235" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="C235" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="D235" s="2" t="s">
+        <v>432</v>
+      </c>
+      <c r="E235" s="2"/>
+    </row>
+    <row r="236" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A236" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B236" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="C236" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="D236" s="2" t="s">
+        <v>428</v>
+      </c>
+      <c r="E236" s="2"/>
+    </row>
+    <row r="237" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A237" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B237" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="C237" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="D237" s="2" t="s">
+        <v>400</v>
+      </c>
+      <c r="E237" s="2"/>
+    </row>
+    <row r="238" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A238" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B238" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="C238" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="D238" s="2" t="s">
+        <v>400</v>
+      </c>
+      <c r="E238" s="2"/>
+    </row>
+    <row r="239" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A239" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B239" s="2" t="s">
+        <v>496</v>
+      </c>
+      <c r="C239" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="D239" s="2" t="s">
+        <v>518</v>
+      </c>
+      <c r="E239" s="2"/>
+    </row>
+    <row r="240" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A240" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B240" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="C240" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="D240" s="2" t="s">
+        <v>402</v>
+      </c>
+      <c r="E240" s="2"/>
+    </row>
+    <row r="241" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A241" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B241" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="C241" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="D241" s="2" t="s">
+        <v>403</v>
+      </c>
+      <c r="E241" s="2"/>
+    </row>
+    <row r="242" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A242" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B242" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="C242" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="D242" s="2" t="s">
+        <v>403</v>
+      </c>
+      <c r="E242" s="2"/>
+    </row>
+    <row r="243" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A243" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B243" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="C243" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="D243" s="2" t="s">
+        <v>403</v>
+      </c>
+      <c r="E243" s="2"/>
+    </row>
+    <row r="244" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A244" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B244" s="2" t="s">
+        <v>474</v>
+      </c>
+      <c r="C244" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="D244" s="2" t="s">
+        <v>514</v>
+      </c>
+      <c r="E244" s="2"/>
+    </row>
+    <row r="245" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A245" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B245" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="C245" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="D245" s="2" t="s">
+        <v>385</v>
+      </c>
+      <c r="E245" s="2"/>
+    </row>
+    <row r="246" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A246" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="B246" s="2" t="s">
         <v>231</v>
       </c>
-      <c r="C190" t="s">
+      <c r="C246" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="D190" s="1" t="s">
+      <c r="D246" s="2" t="s">
         <v>385</v>
       </c>
-    </row>
-    <row r="191" spans="1:5" ht="19" x14ac:dyDescent="0.25">
-      <c r="A191" s="1" t="s">
+      <c r="E246" s="2"/>
+    </row>
+    <row r="247" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A247" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="B191" t="s">
+      <c r="B247" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="C191" t="s">
+      <c r="C247" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="D191" s="1" t="s">
+      <c r="D247" s="2" t="s">
         <v>434</v>
       </c>
-      <c r="E191" s="4" t="s">
+      <c r="E247" s="3" t="s">
         <v>433</v>
       </c>
     </row>
-    <row r="192" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A192" s="1" t="s">
+    <row r="248" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A248" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B192" t="s">
+      <c r="B248" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="C192" t="s">
+      <c r="C248" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="D192" s="3" t="s">
+      <c r="D248" s="2" t="s">
         <v>417</v>
       </c>
-    </row>
-    <row r="193" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A193" s="1" t="s">
+      <c r="E248" s="2"/>
+    </row>
+    <row r="249" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A249" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B193" s="1" t="s">
+      <c r="B249" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="C193" s="1" t="s">
+      <c r="C249" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="D193" s="1" t="s">
+      <c r="D249" s="2" t="s">
         <v>156</v>
       </c>
-    </row>
-    <row r="194" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A194" s="2" t="s">
-        <v>282</v>
-      </c>
-      <c r="B194" t="s">
+      <c r="E249" s="2"/>
+    </row>
+    <row r="250" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A250" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="B250" s="2" t="s">
         <v>214</v>
       </c>
-      <c r="C194" t="s">
+      <c r="C250" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="D194" t="s">
+      <c r="D250" s="2" t="s">
         <v>214</v>
       </c>
-    </row>
-    <row r="195" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A195" s="2" t="s">
-        <v>282</v>
-      </c>
-      <c r="B195" t="s">
+      <c r="E250" s="2"/>
+    </row>
+    <row r="251" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A251" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="B251" s="2" t="s">
         <v>219</v>
       </c>
-      <c r="C195" t="s">
+      <c r="C251" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="D195" t="s">
+      <c r="D251" s="2" t="s">
         <v>219</v>
       </c>
-    </row>
-    <row r="196" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A196" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B196" s="1" t="s">
+      <c r="E251" s="2"/>
+    </row>
+    <row r="252" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A252" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B252" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="C196" s="1" t="s">
+      <c r="C252" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="D196" s="1" t="s">
+      <c r="D252" s="2" t="s">
         <v>401</v>
       </c>
-    </row>
-    <row r="197" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A197" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B197" s="1" t="s">
+      <c r="E252" s="2"/>
+    </row>
+    <row r="253" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A253" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B253" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="C197" s="1" t="s">
+      <c r="C253" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="D197" s="1" t="s">
+      <c r="D253" s="2" t="s">
         <v>239</v>
       </c>
-    </row>
-    <row r="198" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A198" s="2" t="s">
-        <v>282</v>
-      </c>
-      <c r="B198" t="s">
+      <c r="E253" s="2"/>
+    </row>
+    <row r="254" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A254" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B254" s="2" t="s">
+        <v>440</v>
+      </c>
+      <c r="C254" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="D254" s="2"/>
+      <c r="E254" s="2"/>
+    </row>
+    <row r="255" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A255" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B255" s="2" t="s">
+        <v>447</v>
+      </c>
+      <c r="C255" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="D255" s="2"/>
+      <c r="E255" s="2"/>
+    </row>
+    <row r="256" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A256" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B256" s="2" t="s">
+        <v>468</v>
+      </c>
+      <c r="C256" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="D256" s="2"/>
+      <c r="E256" s="2"/>
+    </row>
+    <row r="257" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A257" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="B257" s="2" t="s">
         <v>281</v>
       </c>
-      <c r="C198" t="s">
+      <c r="C257" s="2" t="s">
         <v>280</v>
       </c>
-      <c r="D198" s="1" t="s">
+      <c r="D257" s="2" t="s">
         <v>281</v>
       </c>
-    </row>
-    <row r="199" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A199" s="2" t="s">
-        <v>282</v>
-      </c>
-      <c r="B199" t="s">
+      <c r="E257" s="2"/>
+    </row>
+    <row r="258" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A258" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="B258" s="2" t="s">
         <v>278</v>
       </c>
-      <c r="C199" t="s">
+      <c r="C258" s="2" t="s">
         <v>280</v>
       </c>
-      <c r="D199" s="1" t="s">
+      <c r="D258" s="2" t="s">
         <v>437</v>
       </c>
-    </row>
-    <row r="200" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A200" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B200" s="1" t="s">
+      <c r="E258" s="2"/>
+    </row>
+    <row r="259" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A259" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B259" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="C200" t="s">
+      <c r="C259" s="2" t="s">
         <v>280</v>
       </c>
-      <c r="D200" s="1" t="s">
+      <c r="D259" s="2" t="s">
         <v>437</v>
       </c>
-    </row>
-    <row r="201" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A201" s="2" t="s">
-        <v>282</v>
-      </c>
-      <c r="B201" t="s">
+      <c r="E259" s="2"/>
+    </row>
+    <row r="260" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A260" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="B260" s="2" t="s">
         <v>279</v>
       </c>
-      <c r="C201" t="s">
+      <c r="C260" s="2" t="s">
         <v>280</v>
       </c>
-      <c r="D201" s="1" t="s">
+      <c r="D260" s="2" t="s">
         <v>438</v>
       </c>
-    </row>
-    <row r="202" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A202" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B202" s="1" t="s">
+      <c r="E260" s="2"/>
+    </row>
+    <row r="261" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A261" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B261" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="C202" t="s">
+      <c r="C261" s="2" t="s">
         <v>280</v>
       </c>
-      <c r="D202" s="1" t="s">
+      <c r="D261" s="2" t="s">
         <v>438</v>
       </c>
-    </row>
-    <row r="203" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A203" s="2" t="s">
-        <v>282</v>
-      </c>
-      <c r="B203" t="s">
+      <c r="E261" s="2"/>
+    </row>
+    <row r="262" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A262" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="B262" s="2" t="s">
         <v>280</v>
       </c>
-      <c r="C203" t="s">
+      <c r="C262" s="2" t="s">
         <v>280</v>
       </c>
-      <c r="D203" s="1" t="s">
+      <c r="D262" s="2" t="s">
         <v>385</v>
       </c>
-    </row>
-    <row r="204" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A204" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B204" s="1" t="s">
+      <c r="E262" s="2"/>
+    </row>
+    <row r="263" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A263" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B263" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="C204" t="s">
+      <c r="C263" s="2" t="s">
         <v>280</v>
       </c>
-      <c r="D204" s="1" t="s">
+      <c r="D263" s="2" t="s">
         <v>385</v>
       </c>
-    </row>
-    <row r="205" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A205" s="2" t="s">
-        <v>282</v>
-      </c>
-      <c r="B205" t="s">
+      <c r="E263" s="2"/>
+    </row>
+    <row r="264" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A264" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B264" s="2" t="s">
+        <v>349</v>
+      </c>
+      <c r="C264" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="D264" s="2" t="s">
+        <v>385</v>
+      </c>
+      <c r="E264" s="2"/>
+    </row>
+    <row r="265" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A265" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="B265" s="2" t="s">
         <v>277</v>
       </c>
-      <c r="C205" t="s">
+      <c r="C265" s="2" t="s">
         <v>280</v>
       </c>
-      <c r="D205" s="1" t="s">
+      <c r="D265" s="2" t="s">
         <v>436</v>
       </c>
-    </row>
-    <row r="206" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A206" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B206" s="1" t="s">
+      <c r="E265" s="2"/>
+    </row>
+    <row r="266" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A266" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B266" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="C206" t="s">
+      <c r="C266" s="2" t="s">
         <v>280</v>
       </c>
-      <c r="D206" s="1" t="s">
+      <c r="D266" s="2" t="s">
         <v>436</v>
       </c>
-    </row>
-    <row r="207" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A207" s="2" t="s">
-        <v>282</v>
-      </c>
-      <c r="B207" t="s">
+      <c r="E266" s="2"/>
+    </row>
+    <row r="267" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A267" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="B267" s="2" t="s">
         <v>276</v>
       </c>
-      <c r="C207" t="s">
+      <c r="C267" s="2" t="s">
         <v>280</v>
       </c>
-      <c r="D207" s="1" t="s">
+      <c r="D267" s="2" t="s">
         <v>435</v>
       </c>
-    </row>
-    <row r="208" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A208" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B208" s="1" t="s">
+      <c r="E267" s="2"/>
+    </row>
+    <row r="268" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A268" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B268" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="C208" t="s">
+      <c r="C268" s="2" t="s">
         <v>280</v>
       </c>
-      <c r="D208" s="1" t="s">
+      <c r="D268" s="2" t="s">
         <v>435</v>
       </c>
-    </row>
-    <row r="209" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A209" s="1" t="s">
+      <c r="E268" s="2"/>
+    </row>
+    <row r="269" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A269" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B209" t="s">
+      <c r="B269" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="C209" t="s">
+      <c r="C269" s="2" t="s">
         <v>280</v>
       </c>
-      <c r="D209" s="1" t="s">
+      <c r="D269" s="2" t="s">
         <v>435</v>
       </c>
-    </row>
-    <row r="210" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A210" s="2" t="s">
-        <v>282</v>
-      </c>
-      <c r="B210" t="s">
+      <c r="E269" s="2"/>
+    </row>
+    <row r="270" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A270" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="B270" s="2" t="s">
         <v>190</v>
       </c>
-      <c r="C210" t="s">
+      <c r="C270" s="2" t="s">
         <v>190</v>
       </c>
-      <c r="D210" s="1"/>
-    </row>
-    <row r="211" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A211" s="2" t="s">
-        <v>282</v>
-      </c>
-      <c r="B211" t="s">
+      <c r="D270" s="2"/>
+      <c r="E270" s="2"/>
+    </row>
+    <row r="271" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A271" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="B271" s="2" t="s">
         <v>232</v>
       </c>
-      <c r="C211" t="s">
+      <c r="C271" s="2" t="s">
         <v>190</v>
       </c>
-    </row>
-    <row r="212" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A212" s="1" t="s">
+      <c r="D271" s="2"/>
+      <c r="E271" s="2"/>
+    </row>
+    <row r="272" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A272" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B212" s="1" t="s">
+      <c r="B272" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="C212" s="1" t="s">
+      <c r="C272" s="2" t="s">
         <v>190</v>
       </c>
-    </row>
-    <row r="213" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A213" s="1" t="s">
+      <c r="D272" s="2"/>
+      <c r="E272" s="2"/>
+    </row>
+    <row r="273" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A273" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="B213" s="1" t="s">
+      <c r="B273" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="C213" s="1" t="s">
+      <c r="C273" s="2" t="s">
         <v>148</v>
       </c>
-    </row>
-    <row r="214" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A214" s="1" t="s">
+      <c r="D273" s="2"/>
+      <c r="E273" s="2"/>
+    </row>
+    <row r="274" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A274" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B214" s="1" t="s">
+      <c r="B274" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="C214" s="1" t="s">
+      <c r="C274" s="2" t="s">
         <v>148</v>
       </c>
-    </row>
-    <row r="215" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A215" s="1" t="s">
+      <c r="D274" s="2"/>
+      <c r="E274" s="2"/>
+    </row>
+    <row r="275" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A275" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B215" s="1" t="s">
+      <c r="B275" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="C215" s="1" t="s">
+      <c r="C275" s="2" t="s">
         <v>148</v>
       </c>
-    </row>
-    <row r="216" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A216" s="1" t="s">
+      <c r="D275" s="2"/>
+      <c r="E275" s="2"/>
+    </row>
+    <row r="276" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A276" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B216" s="1" t="s">
+      <c r="B276" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="C216" s="1" t="s">
+      <c r="C276" s="2" t="s">
         <v>148</v>
       </c>
-    </row>
-    <row r="217" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A217" s="1" t="s">
+      <c r="D276" s="2"/>
+      <c r="E276" s="2"/>
+    </row>
+    <row r="277" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A277" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B217" s="1" t="s">
+      <c r="B277" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="C217" s="1" t="s">
+      <c r="C277" s="2" t="s">
         <v>148</v>
       </c>
-    </row>
-    <row r="218" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A218" s="1" t="s">
+      <c r="D277" s="2"/>
+      <c r="E277" s="2"/>
+    </row>
+    <row r="278" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A278" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B218" s="1" t="s">
+      <c r="B278" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="C218" s="1" t="s">
+      <c r="C278" s="2" t="s">
         <v>148</v>
       </c>
-    </row>
-    <row r="219" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A219" s="1" t="s">
+      <c r="D278" s="2"/>
+      <c r="E278" s="2"/>
+    </row>
+    <row r="279" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A279" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B219" s="1" t="s">
+      <c r="B279" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="C219" s="1" t="s">
+      <c r="C279" s="2" t="s">
         <v>148</v>
       </c>
-    </row>
-    <row r="220" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A220" s="1" t="s">
+      <c r="D279" s="2"/>
+      <c r="E279" s="2"/>
+    </row>
+    <row r="280" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A280" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B220" s="1" t="s">
+      <c r="B280" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="C220" s="1" t="s">
+      <c r="C280" s="2" t="s">
         <v>148</v>
       </c>
-    </row>
-    <row r="221" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A221" s="2" t="s">
-        <v>282</v>
-      </c>
-      <c r="B221" t="s">
+      <c r="D280" s="2"/>
+      <c r="E280" s="2"/>
+    </row>
+    <row r="281" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A281" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="B281" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="C221" t="s">
+      <c r="C281" s="2" t="s">
         <v>148</v>
       </c>
-    </row>
-    <row r="222" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A222" s="1" t="s">
+      <c r="D281" s="2"/>
+      <c r="E281" s="2"/>
+    </row>
+    <row r="282" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A282" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B282" s="2" t="s">
+        <v>456</v>
+      </c>
+      <c r="C282" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="D282" s="2"/>
+      <c r="E282" s="2"/>
+    </row>
+    <row r="283" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A283" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B222" s="1" t="s">
+      <c r="B283" s="2" t="s">
+        <v>465</v>
+      </c>
+      <c r="C283" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="D283" s="2"/>
+      <c r="E283" s="2"/>
+    </row>
+    <row r="284" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A284" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B284" s="2" t="s">
+        <v>500</v>
+      </c>
+      <c r="C284" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="D284" s="2"/>
+      <c r="E284" s="2"/>
+    </row>
+    <row r="285" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A285" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B285" s="2" t="s">
+        <v>503</v>
+      </c>
+      <c r="C285" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="D285" s="2"/>
+      <c r="E285" s="2"/>
+    </row>
+    <row r="286" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A286" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B286" s="2" t="s">
+        <v>506</v>
+      </c>
+      <c r="C286" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="D286" s="2"/>
+      <c r="E286" s="2"/>
+    </row>
+    <row r="287" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A287" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B287" s="2" t="s">
         <v>157</v>
       </c>
-      <c r="C222" s="1" t="s">
+      <c r="C287" s="2" t="s">
         <v>158</v>
       </c>
-    </row>
-    <row r="223" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A223" s="1" t="s">
+      <c r="D287" s="2"/>
+      <c r="E287" s="2"/>
+    </row>
+    <row r="288" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A288" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B223" s="1" t="s">
+      <c r="B288" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="C223" s="1" t="s">
+      <c r="C288" s="2" t="s">
         <v>158</v>
       </c>
-    </row>
-    <row r="224" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A224" s="1" t="s">
+      <c r="D288" s="2"/>
+      <c r="E288" s="2"/>
+    </row>
+    <row r="289" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A289" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B224" s="1" t="s">
+      <c r="B289" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="C224" s="1" t="s">
+      <c r="C289" s="2" t="s">
         <v>158</v>
       </c>
-    </row>
-    <row r="225" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A225" s="2" t="s">
-        <v>282</v>
-      </c>
-      <c r="B225" t="s">
+      <c r="D289" s="2"/>
+      <c r="E289" s="2"/>
+    </row>
+    <row r="290" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A290" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="B290" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="C225" t="s">
+      <c r="C290" s="2" t="s">
         <v>158</v>
       </c>
-    </row>
-    <row r="226" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A226" s="2" t="s">
-        <v>282</v>
-      </c>
-      <c r="B226" t="s">
+      <c r="D290" s="2"/>
+      <c r="E290" s="2"/>
+    </row>
+    <row r="291" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A291" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B291" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="C291" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="D291" s="2"/>
+      <c r="E291" s="2"/>
+    </row>
+    <row r="292" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A292" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="B292" s="2" t="s">
         <v>266</v>
       </c>
-      <c r="C226" t="s">
+      <c r="C292" s="2" t="s">
         <v>266</v>
       </c>
-    </row>
-    <row r="227" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A227" s="2" t="s">
-        <v>282</v>
-      </c>
-      <c r="B227" t="s">
+      <c r="D292" s="2"/>
+      <c r="E292" s="2"/>
+    </row>
+    <row r="293" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A293" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="B293" s="2" t="s">
         <v>271</v>
       </c>
-      <c r="C227" t="s">
+      <c r="C293" s="2" t="s">
         <v>266</v>
       </c>
-    </row>
-    <row r="228" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A228" s="1" t="s">
+      <c r="D293" s="2"/>
+      <c r="E293" s="2"/>
+    </row>
+    <row r="294" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A294" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B228" s="1" t="s">
+      <c r="B294" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="C228" s="1" t="s">
+      <c r="C294" s="2" t="s">
         <v>162</v>
       </c>
-    </row>
-    <row r="229" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A229" s="1" t="s">
+      <c r="D294" s="2"/>
+      <c r="E294" s="2"/>
+    </row>
+    <row r="295" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A295" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B229" t="s">
+      <c r="B295" s="2" t="s">
         <v>293</v>
       </c>
-      <c r="C229" t="s">
+      <c r="C295" s="2" t="s">
         <v>327</v>
       </c>
-    </row>
-    <row r="230" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A230" s="2" t="s">
-        <v>282</v>
-      </c>
-      <c r="B230" t="s">
+      <c r="D295" s="2"/>
+      <c r="E295" s="2"/>
+    </row>
+    <row r="296" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A296" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="B296" s="2" t="s">
         <v>196</v>
       </c>
-      <c r="C230" t="s">
+      <c r="C296" s="2" t="s">
         <v>327</v>
       </c>
-    </row>
-    <row r="231" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A231" s="2" t="s">
-        <v>282</v>
-      </c>
-      <c r="B231" t="s">
+      <c r="D296" s="2"/>
+      <c r="E296" s="2"/>
+    </row>
+    <row r="297" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A297" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="B297" s="2" t="s">
         <v>268</v>
       </c>
-      <c r="C231" t="s">
+      <c r="C297" s="2" t="s">
         <v>268</v>
       </c>
-    </row>
-    <row r="232" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A232" s="1" t="s">
+      <c r="D297" s="2"/>
+      <c r="E297" s="2"/>
+    </row>
+    <row r="298" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A298" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B232" s="1" t="s">
+      <c r="B298" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="C232" s="1" t="s">
+      <c r="C298" s="2" t="s">
         <v>164</v>
       </c>
-    </row>
-    <row r="233" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A233" s="1" t="s">
+      <c r="D298" s="2"/>
+      <c r="E298" s="2"/>
+    </row>
+    <row r="299" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A299" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B233" s="1" t="s">
+      <c r="B299" s="2" t="s">
         <v>163</v>
       </c>
-      <c r="C233" s="1" t="s">
+      <c r="C299" s="2" t="s">
         <v>164</v>
       </c>
-    </row>
-    <row r="234" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A234" s="1" t="s">
+      <c r="D299" s="2"/>
+      <c r="E299" s="2"/>
+    </row>
+    <row r="300" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A300" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B234" s="1" t="s">
+      <c r="B300" s="2" t="s">
         <v>165</v>
       </c>
-      <c r="C234" s="1" t="s">
+      <c r="C300" s="2" t="s">
         <v>164</v>
       </c>
-    </row>
-    <row r="235" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A235" s="1" t="s">
+      <c r="D300" s="2"/>
+      <c r="E300" s="2"/>
+    </row>
+    <row r="301" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A301" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B235" s="1" t="s">
+      <c r="B301" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="C235" s="1" t="s">
+      <c r="C301" s="2" t="s">
         <v>164</v>
       </c>
-    </row>
-    <row r="236" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A236" s="2" t="s">
-        <v>282</v>
-      </c>
-      <c r="B236" t="s">
+      <c r="D301" s="2"/>
+      <c r="E301" s="2"/>
+    </row>
+    <row r="302" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A302" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="B302" s="2" t="s">
         <v>164</v>
       </c>
-      <c r="C236" t="s">
+      <c r="C302" s="2" t="s">
         <v>164</v>
       </c>
-    </row>
-    <row r="237" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A237" s="2" t="s">
-        <v>282</v>
-      </c>
-      <c r="B237" t="s">
+      <c r="D302" s="2"/>
+      <c r="E302" s="2"/>
+    </row>
+    <row r="303" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A303" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="B303" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="C237" t="s">
+      <c r="C303" s="2" t="s">
         <v>164</v>
       </c>
-    </row>
-    <row r="238" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A238" s="2" t="s">
-        <v>282</v>
-      </c>
-      <c r="B238" t="s">
+      <c r="D303" s="2"/>
+      <c r="E303" s="2"/>
+    </row>
+    <row r="304" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A304" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B304" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="C304" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="D304" s="2"/>
+      <c r="E304" s="2"/>
+    </row>
+    <row r="305" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A305" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B305" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C305" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="D305" s="2"/>
+      <c r="E305" s="2"/>
+    </row>
+    <row r="306" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A306" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="B306" s="2" t="s">
         <v>272</v>
       </c>
-      <c r="C238" t="s">
+      <c r="C306" s="2" t="s">
         <v>320</v>
       </c>
-    </row>
-    <row r="239" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A239" s="2" t="s">
-        <v>282</v>
-      </c>
-      <c r="B239" t="s">
+      <c r="D306" s="2"/>
+      <c r="E306" s="2"/>
+    </row>
+    <row r="307" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A307" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="B307" s="2" t="s">
         <v>270</v>
       </c>
-      <c r="C239" t="s">
+      <c r="C307" s="2" t="s">
         <v>320</v>
       </c>
-    </row>
-    <row r="240" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A240" s="2" t="s">
-        <v>282</v>
-      </c>
-      <c r="B240" t="s">
+      <c r="D307" s="2"/>
+      <c r="E307" s="2"/>
+    </row>
+    <row r="308" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A308" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="B308" s="2" t="s">
         <v>273</v>
       </c>
-      <c r="C240" t="s">
+      <c r="C308" s="2" t="s">
         <v>320</v>
       </c>
-    </row>
-    <row r="241" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A241" s="1" t="s">
+      <c r="D308" s="2"/>
+      <c r="E308" s="2"/>
+    </row>
+    <row r="309" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A309" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B241" s="1" t="s">
+      <c r="B309" s="2" t="s">
         <v>170</v>
       </c>
-      <c r="C241" s="1" t="s">
+      <c r="C309" s="2" t="s">
         <v>171</v>
       </c>
-    </row>
-    <row r="242" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A242" s="1" t="s">
+      <c r="D309" s="2"/>
+      <c r="E309" s="2"/>
+    </row>
+    <row r="310" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A310" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B242" s="1" t="s">
+      <c r="B310" s="2" t="s">
         <v>172</v>
       </c>
-      <c r="C242" s="1" t="s">
+      <c r="C310" s="2" t="s">
         <v>171</v>
       </c>
-    </row>
-    <row r="243" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A243" s="2" t="s">
-        <v>282</v>
-      </c>
-      <c r="B243" t="s">
+      <c r="D310" s="2"/>
+      <c r="E310" s="2"/>
+    </row>
+    <row r="311" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A311" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="B311" s="2" t="s">
         <v>261</v>
       </c>
-      <c r="C243" t="s">
+      <c r="C311" s="2" t="s">
         <v>171</v>
       </c>
-    </row>
-    <row r="244" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A244" s="1" t="s">
+      <c r="D311" s="2"/>
+      <c r="E311" s="2"/>
+    </row>
+    <row r="312" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A312" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B244" s="1" t="s">
+      <c r="B312" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C244" s="1" t="s">
+      <c r="C312" s="2" t="s">
         <v>314</v>
       </c>
-    </row>
-    <row r="245" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A245" s="1" t="s">
+      <c r="D312" s="2"/>
+      <c r="E312" s="2"/>
+    </row>
+    <row r="313" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A313" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B245" s="1" t="s">
+      <c r="B313" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C245" s="1" t="s">
+      <c r="C313" s="2" t="s">
         <v>314</v>
       </c>
-    </row>
-    <row r="246" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A246" s="1" t="s">
+      <c r="D313" s="2"/>
+      <c r="E313" s="2"/>
+    </row>
+    <row r="314" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A314" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B246" s="1" t="s">
+      <c r="B314" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C246" s="1" t="s">
+      <c r="C314" s="2" t="s">
         <v>314</v>
       </c>
-    </row>
-    <row r="247" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A247" s="1" t="s">
+      <c r="D314" s="2"/>
+      <c r="E314" s="2"/>
+    </row>
+    <row r="315" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A315" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B247" t="s">
+      <c r="B315" s="2" t="s">
         <v>284</v>
       </c>
-      <c r="C247" t="s">
+      <c r="C315" s="2" t="s">
         <v>314</v>
       </c>
-    </row>
-    <row r="248" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A248" s="1" t="s">
+      <c r="D315" s="2"/>
+      <c r="E315" s="2"/>
+    </row>
+    <row r="316" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A316" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B248" s="1" t="s">
+      <c r="B316" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C248" s="1" t="s">
+      <c r="C316" s="2" t="s">
         <v>314</v>
       </c>
-    </row>
-    <row r="249" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A249" s="1" t="s">
+      <c r="D316" s="2"/>
+      <c r="E316" s="2"/>
+    </row>
+    <row r="317" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A317" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B249" t="s">
+      <c r="B317" s="2" t="s">
         <v>283</v>
       </c>
-      <c r="C249" t="s">
+      <c r="C317" s="2" t="s">
         <v>314</v>
       </c>
-    </row>
-    <row r="250" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A250" s="1" t="s">
+      <c r="D317" s="2"/>
+      <c r="E317" s="2"/>
+    </row>
+    <row r="318" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A318" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B250" t="s">
+      <c r="B318" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="C250" t="s">
+      <c r="C318" s="2" t="s">
         <v>314</v>
       </c>
-    </row>
-    <row r="251" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A251" s="1" t="s">
+      <c r="D318" s="2"/>
+      <c r="E318" s="2"/>
+    </row>
+    <row r="319" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A319" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B251" t="s">
+      <c r="B319" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="C251" t="s">
+      <c r="C319" s="2" t="s">
         <v>314</v>
       </c>
-    </row>
-    <row r="252" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A252" s="1" t="s">
+      <c r="D319" s="2"/>
+      <c r="E319" s="2"/>
+    </row>
+    <row r="320" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A320" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B252" t="s">
+      <c r="B320" s="2" t="s">
         <v>383</v>
       </c>
-      <c r="C252" t="s">
+      <c r="C320" s="2" t="s">
         <v>314</v>
       </c>
-    </row>
-    <row r="253" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A253" s="2" t="s">
-        <v>282</v>
-      </c>
-      <c r="B253" t="s">
+      <c r="D320" s="2"/>
+      <c r="E320" s="2"/>
+    </row>
+    <row r="321" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A321" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B321" s="2" t="s">
+        <v>467</v>
+      </c>
+      <c r="C321" s="2" t="s">
+        <v>314</v>
+      </c>
+      <c r="D321" s="2"/>
+      <c r="E321" s="2"/>
+    </row>
+    <row r="322" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A322" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B322" s="2" t="s">
+        <v>473</v>
+      </c>
+      <c r="C322" s="2" t="s">
+        <v>314</v>
+      </c>
+      <c r="D322" s="2"/>
+      <c r="E322" s="2"/>
+    </row>
+    <row r="323" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A323" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B323" s="2" t="s">
+        <v>487</v>
+      </c>
+      <c r="C323" s="2" t="s">
+        <v>314</v>
+      </c>
+      <c r="D323" s="2"/>
+      <c r="E323" s="2"/>
+    </row>
+    <row r="324" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A324" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B324" s="2" t="s">
+        <v>491</v>
+      </c>
+      <c r="C324" s="2" t="s">
+        <v>314</v>
+      </c>
+      <c r="D324" s="2"/>
+      <c r="E324" s="2"/>
+    </row>
+    <row r="325" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A325" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="B325" s="2" t="s">
         <v>191</v>
       </c>
-      <c r="C253" t="s">
+      <c r="C325" s="2" t="s">
         <v>381</v>
       </c>
-    </row>
-    <row r="254" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A254" s="2" t="s">
-        <v>282</v>
-      </c>
-      <c r="B254" t="s">
+      <c r="D325" s="2"/>
+      <c r="E325" s="2"/>
+    </row>
+    <row r="326" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A326" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="B326" s="2" t="s">
         <v>233</v>
       </c>
-      <c r="C254" t="s">
+      <c r="C326" s="2" t="s">
         <v>381</v>
       </c>
-    </row>
-    <row r="255" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A255" s="1" t="s">
+      <c r="D326" s="2"/>
+      <c r="E326" s="2"/>
+    </row>
+    <row r="327" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A327" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B327" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="C327" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="D327" s="2" t="s">
+        <v>385</v>
+      </c>
+      <c r="E327" s="2"/>
+    </row>
+    <row r="328" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A328" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="B328" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="C328" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="D328" s="2" t="s">
+        <v>385</v>
+      </c>
+      <c r="E328" s="2"/>
+    </row>
+    <row r="329" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A329" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B255" s="1" t="s">
+      <c r="B329" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="C329" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="D329" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="E329" s="2"/>
+    </row>
+    <row r="330" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A330" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B330" s="2" t="s">
         <v>178</v>
       </c>
-      <c r="C255" s="1" t="s">
+      <c r="C330" s="2" t="s">
         <v>209</v>
       </c>
-      <c r="D255" s="1" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="256" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A256" s="1" t="s">
+      <c r="D330" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="E330" s="2"/>
+    </row>
+    <row r="331" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A331" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B331" s="2" t="s">
+        <v>463</v>
+      </c>
+      <c r="C331" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="D331" s="2" t="s">
+        <v>463</v>
+      </c>
+      <c r="E331" s="2"/>
+    </row>
+    <row r="332" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A332" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B332" s="2" t="s">
+        <v>483</v>
+      </c>
+      <c r="C332" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="D332" s="2" t="s">
+        <v>483</v>
+      </c>
+      <c r="E332" s="2"/>
+    </row>
+    <row r="333" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A333" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="B333" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="C333" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="D333" s="2"/>
+      <c r="E333" s="2"/>
+    </row>
+    <row r="334" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A334" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="B334" s="2" t="s">
+        <v>274</v>
+      </c>
+      <c r="C334" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="D334" s="2"/>
+      <c r="E334" s="2"/>
+    </row>
+    <row r="335" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A335" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="B335" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="C335" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="D335" s="2"/>
+      <c r="E335" s="2"/>
+    </row>
+    <row r="336" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A336" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="B336" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="C336" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="D336" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="E336" s="2"/>
+    </row>
+    <row r="337" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A337" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B337" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="C337" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="D337" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="E337" s="2"/>
+    </row>
+    <row r="338" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A338" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="B338" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="C338" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="D338" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="E338" s="2"/>
+    </row>
+    <row r="339" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A339" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="B339" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="C339" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="D339" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="E339" s="2"/>
+    </row>
+    <row r="340" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A340" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="B340" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="C340" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="D340" s="2" t="s">
+        <v>385</v>
+      </c>
+      <c r="E340" s="2"/>
+    </row>
+    <row r="341" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A341" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B256" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="C256" s="1" t="s">
-        <v>209</v>
-      </c>
-      <c r="D256" s="1" t="s">
+      <c r="B341" s="2" t="s">
+        <v>364</v>
+      </c>
+      <c r="C341" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="D341" s="2" t="s">
         <v>385</v>
       </c>
-    </row>
-    <row r="257" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A257" s="2" t="s">
-        <v>282</v>
-      </c>
-      <c r="B257" t="s">
-        <v>209</v>
-      </c>
-      <c r="C257" t="s">
-        <v>209</v>
-      </c>
-      <c r="D257" s="1" t="s">
+      <c r="E341" s="2"/>
+    </row>
+    <row r="342" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A342" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="B342" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="C342" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="D342" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="E342" s="2"/>
+    </row>
+    <row r="343" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A343" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="B343" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="C343" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="D343" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="E343" s="2"/>
+    </row>
+    <row r="344" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A344" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="B344" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="C344" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="D344" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="E344" s="2"/>
+    </row>
+    <row r="345" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A345" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="B345" s="2" t="s">
+        <v>303</v>
+      </c>
+      <c r="C345" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="D345" s="2" t="s">
+        <v>303</v>
+      </c>
+      <c r="E345" s="2"/>
+    </row>
+    <row r="346" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A346" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="B346" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="C346" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="D346" s="2" t="s">
+        <v>303</v>
+      </c>
+      <c r="E346" s="2"/>
+    </row>
+    <row r="347" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A347" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B347" s="2" t="s">
+        <v>495</v>
+      </c>
+      <c r="C347" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="D347" s="2" t="s">
+        <v>512</v>
+      </c>
+      <c r="E347" s="2"/>
+    </row>
+    <row r="348" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A348" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="B348" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="C348" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="D348" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="E348" s="2"/>
+    </row>
+    <row r="349" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A349" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="B349" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="C349" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="D349" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="E349" s="2"/>
+    </row>
+    <row r="350" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A350" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="B350" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="C350" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="D350" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="E350" s="2"/>
+    </row>
+    <row r="351" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A351" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B351" s="2" t="s">
+        <v>477</v>
+      </c>
+      <c r="C351" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="D351" s="2" t="s">
+        <v>511</v>
+      </c>
+      <c r="E351" s="2"/>
+    </row>
+    <row r="352" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A352" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B352" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="C352" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="D352" s="2" t="s">
         <v>385</v>
       </c>
-    </row>
-    <row r="258" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A258" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B258" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="C258" s="1" t="s">
-        <v>209</v>
-      </c>
-      <c r="D258" s="1" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="259" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A259" s="2" t="s">
-        <v>282</v>
-      </c>
-      <c r="B259" t="s">
-        <v>234</v>
-      </c>
-      <c r="C259" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="260" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A260" s="2" t="s">
-        <v>282</v>
-      </c>
-      <c r="B260" t="s">
-        <v>274</v>
-      </c>
-      <c r="C260" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="261" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A261" s="2" t="s">
-        <v>282</v>
-      </c>
-      <c r="B261" t="s">
-        <v>201</v>
-      </c>
-      <c r="C261" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="262" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A262" s="2" t="s">
-        <v>282</v>
-      </c>
-      <c r="B262" t="s">
-        <v>180</v>
-      </c>
-      <c r="C262" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="D262" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="263" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A263" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B263" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="C263" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="D263" s="1" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="264" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A264" s="2" t="s">
-        <v>282</v>
-      </c>
-      <c r="B264" t="s">
-        <v>236</v>
-      </c>
-      <c r="C264" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="D264" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="265" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A265" s="2" t="s">
-        <v>282</v>
-      </c>
-      <c r="B265" t="s">
-        <v>235</v>
-      </c>
-      <c r="C265" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="D265" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="266" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A266" s="2" t="s">
-        <v>282</v>
-      </c>
-      <c r="B266" t="s">
-        <v>181</v>
-      </c>
-      <c r="C266" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="D266" t="s">
+      <c r="E352" s="2"/>
+    </row>
+    <row r="353" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A353" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B353" s="2" t="s">
+        <v>475</v>
+      </c>
+      <c r="C353" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="D353" s="2" t="s">
         <v>385</v>
       </c>
-    </row>
-    <row r="267" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A267" s="2" t="s">
-        <v>282</v>
-      </c>
-      <c r="B267" t="s">
-        <v>237</v>
-      </c>
-      <c r="C267" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="D267" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="268" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A268" s="2" t="s">
-        <v>282</v>
-      </c>
-      <c r="B268" t="s">
-        <v>262</v>
-      </c>
-      <c r="C268" t="s">
+      <c r="E353" s="2"/>
+    </row>
+    <row r="354" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A354" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="B354" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="C354" s="2" t="s">
         <v>183</v>
       </c>
-      <c r="D268" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="269" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A269" s="2" t="s">
-        <v>282</v>
-      </c>
-      <c r="B269" t="s">
-        <v>193</v>
-      </c>
-      <c r="C269" t="s">
+      <c r="D354" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="E354" s="2"/>
+    </row>
+    <row r="355" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A355" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B355" s="2" t="s">
+        <v>287</v>
+      </c>
+      <c r="C355" s="2" t="s">
         <v>183</v>
       </c>
-      <c r="D269" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="270" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A270" t="s">
-        <v>282</v>
-      </c>
-      <c r="B270" t="s">
-        <v>303</v>
-      </c>
-      <c r="C270" t="s">
+      <c r="D355" s="2" t="s">
+        <v>288</v>
+      </c>
+      <c r="E355" s="2"/>
+    </row>
+    <row r="356" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A356" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="B356" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="C356" s="2" t="s">
         <v>183</v>
       </c>
-      <c r="D270" s="3" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="271" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A271" s="2" t="s">
-        <v>282</v>
-      </c>
-      <c r="B271" t="s">
-        <v>246</v>
-      </c>
-      <c r="C271" t="s">
+      <c r="D356" s="2" t="s">
+        <v>288</v>
+      </c>
+      <c r="E356" s="2"/>
+    </row>
+    <row r="357" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A357" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="B357" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="C357" s="2" t="s">
         <v>183</v>
       </c>
-      <c r="D271" s="3" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="272" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A272" s="2" t="s">
-        <v>282</v>
-      </c>
-      <c r="B272" t="s">
-        <v>257</v>
-      </c>
-      <c r="C272" t="s">
+      <c r="D357" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="E357" s="2"/>
+    </row>
+    <row r="358" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A358" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="B358" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="C358" s="2" t="s">
         <v>183</v>
       </c>
-      <c r="D272" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="273" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A273" s="2" t="s">
-        <v>282</v>
-      </c>
-      <c r="B273" t="s">
-        <v>248</v>
-      </c>
-      <c r="C273" t="s">
-        <v>183</v>
-      </c>
-      <c r="D273" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="274" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A274" s="2" t="s">
-        <v>282</v>
-      </c>
-      <c r="B274" t="s">
-        <v>215</v>
-      </c>
-      <c r="C274" t="s">
-        <v>183</v>
-      </c>
-      <c r="D274" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="275" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A275" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B275" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="C275" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="D275" s="1" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="276" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A276" s="2" t="s">
-        <v>282</v>
-      </c>
-      <c r="B276" t="s">
-        <v>254</v>
-      </c>
-      <c r="C276" t="s">
-        <v>183</v>
-      </c>
-      <c r="D276" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="277" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A277" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B277" t="s">
-        <v>287</v>
-      </c>
-      <c r="C277" t="s">
-        <v>183</v>
-      </c>
-      <c r="D277" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="278" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A278" s="2" t="s">
-        <v>282</v>
-      </c>
-      <c r="B278" t="s">
-        <v>243</v>
-      </c>
-      <c r="C278" t="s">
-        <v>183</v>
-      </c>
-      <c r="D278" s="1" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="279" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A279" s="2" t="s">
-        <v>282</v>
-      </c>
-      <c r="B279" t="s">
-        <v>238</v>
-      </c>
-      <c r="C279" t="s">
-        <v>183</v>
-      </c>
-      <c r="D279" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="280" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A280" s="2" t="s">
-        <v>282</v>
-      </c>
-      <c r="B280" t="s">
+      <c r="D358" s="2" t="s">
         <v>253</v>
       </c>
-      <c r="C280" t="s">
-        <v>183</v>
-      </c>
-      <c r="D280" s="1" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="281" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A281" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B281" s="1" t="s">
+      <c r="E358" s="2"/>
+    </row>
+    <row r="359" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A359" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B359" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="C281" s="1" t="s">
+      <c r="C359" s="2" t="s">
         <v>186</v>
       </c>
-    </row>
-    <row r="282" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A282" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B282" s="1" t="s">
+      <c r="D359" s="2"/>
+      <c r="E359" s="2"/>
+    </row>
+    <row r="360" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A360" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B360" s="2" t="s">
         <v>185</v>
       </c>
-      <c r="C282" s="1" t="s">
+      <c r="C360" s="2" t="s">
         <v>186</v>
       </c>
-    </row>
-    <row r="283" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A283" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B283" t="s">
+      <c r="D360" s="2"/>
+      <c r="E360" s="2"/>
+    </row>
+    <row r="361" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A361" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B361" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="C283" t="s">
+      <c r="C361" s="2" t="s">
         <v>186</v>
       </c>
-    </row>
-    <row r="284" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A284" s="2" t="s">
-        <v>282</v>
-      </c>
-      <c r="B284" t="s">
+      <c r="D361" s="2"/>
+      <c r="E361" s="2"/>
+    </row>
+    <row r="362" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A362" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="B362" s="2" t="s">
         <v>252</v>
       </c>
-      <c r="C284" t="s">
+      <c r="C362" s="2" t="s">
         <v>197</v>
       </c>
-    </row>
-    <row r="285" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A285" s="2" t="s">
-        <v>282</v>
-      </c>
-      <c r="B285" t="s">
+      <c r="D362" s="2"/>
+      <c r="E362" s="2"/>
+    </row>
+    <row r="363" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A363" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="B363" s="2" t="s">
         <v>255</v>
       </c>
-      <c r="C285" s="1" t="s">
+      <c r="C363" s="2" t="s">
         <v>382</v>
       </c>
-      <c r="D285" t="s">
+      <c r="D363" s="2" t="s">
         <v>255</v>
       </c>
-    </row>
-    <row r="286" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A286" s="2" t="s">
-        <v>282</v>
-      </c>
-      <c r="B286" t="s">
+      <c r="E363" s="2"/>
+    </row>
+    <row r="364" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A364" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="B364" s="2" t="s">
         <v>269</v>
       </c>
-      <c r="C286" s="1" t="s">
+      <c r="C364" s="2" t="s">
         <v>382</v>
       </c>
-      <c r="D286" t="s">
+      <c r="D364" s="2" t="s">
         <v>269</v>
       </c>
-    </row>
-    <row r="287" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A287" s="2" t="s">
-        <v>282</v>
-      </c>
-      <c r="B287" t="s">
+      <c r="E364" s="2"/>
+    </row>
+    <row r="365" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A365" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="B365" s="2" t="s">
         <v>241</v>
       </c>
-      <c r="C287" t="s">
+      <c r="C365" s="2" t="s">
         <v>382</v>
       </c>
-      <c r="D287" t="s">
+      <c r="D365" s="2" t="s">
         <v>241</v>
       </c>
-    </row>
-    <row r="288" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A288" s="2" t="s">
-        <v>282</v>
-      </c>
-      <c r="B288" t="s">
+      <c r="E365" s="2"/>
+    </row>
+    <row r="366" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A366" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B366" s="2" t="s">
+        <v>504</v>
+      </c>
+      <c r="C366" s="2" t="s">
+        <v>505</v>
+      </c>
+      <c r="D366" s="2"/>
+      <c r="E366" s="2"/>
+    </row>
+    <row r="367" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A367" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="B367" s="2" t="s">
         <v>239</v>
       </c>
-      <c r="C288" t="s">
+      <c r="C367" s="2" t="s">
         <v>199</v>
       </c>
-    </row>
-    <row r="289" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A289" s="2" t="s">
-        <v>282</v>
-      </c>
-      <c r="B289" t="s">
+      <c r="D367" s="2"/>
+      <c r="E367" s="2"/>
+    </row>
+    <row r="368" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A368" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="B368" s="2" t="s">
         <v>264</v>
       </c>
-      <c r="C289" t="s">
+      <c r="C368" s="2" t="s">
         <v>199</v>
       </c>
-    </row>
-    <row r="290" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A290" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="B290" s="5" t="s">
-        <v>159</v>
-      </c>
-      <c r="C290" s="5" t="s">
-        <v>158</v>
-      </c>
-      <c r="D290" s="5"/>
-    </row>
-    <row r="291" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A291" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="B291" s="5" t="s">
-        <v>441</v>
-      </c>
-      <c r="C291" s="5" t="s">
-        <v>105</v>
-      </c>
-      <c r="D291" s="5"/>
-    </row>
-    <row r="292" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A292" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="B292" s="5" t="s">
-        <v>310</v>
-      </c>
-      <c r="C292" s="5" t="s">
-        <v>109</v>
-      </c>
-      <c r="D292" s="5"/>
-    </row>
-    <row r="293" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A293" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="B293" s="5" t="s">
-        <v>442</v>
-      </c>
-      <c r="C293" s="5" t="s">
-        <v>308</v>
-      </c>
-      <c r="D293" s="5"/>
-    </row>
-    <row r="294" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A294" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B294" s="5" t="s">
-        <v>443</v>
-      </c>
-      <c r="C294" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="D294" s="5"/>
-    </row>
-    <row r="295" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A295" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="B295" s="5" t="s">
-        <v>444</v>
-      </c>
-      <c r="C295" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="D295" s="5"/>
-    </row>
-    <row r="296" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A296" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="B296" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="C296" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="D296" s="5"/>
-    </row>
-    <row r="297" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A297" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="B297" s="5" t="s">
-        <v>166</v>
-      </c>
-      <c r="C297" s="5" t="s">
-        <v>164</v>
-      </c>
-      <c r="D297" s="5"/>
-    </row>
-    <row r="298" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A298" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="B298" s="5" t="s">
-        <v>445</v>
-      </c>
-      <c r="C298" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="D298" s="5"/>
-    </row>
-    <row r="299" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A299" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="B299" s="5" t="s">
-        <v>446</v>
-      </c>
-      <c r="C299" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="D299" s="5"/>
-    </row>
-    <row r="300" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A300" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="B300" s="5" t="s">
-        <v>329</v>
-      </c>
-      <c r="C300" s="5" t="s">
-        <v>249</v>
-      </c>
-      <c r="D300" s="5"/>
-    </row>
-    <row r="301" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A301" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B301" s="5" t="s">
-        <v>447</v>
-      </c>
-      <c r="C301" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="D301" s="5"/>
-    </row>
-    <row r="302" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A302" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="B302" s="5" t="s">
-        <v>448</v>
-      </c>
-      <c r="C302" s="5" t="s">
-        <v>105</v>
-      </c>
-      <c r="D302" s="5"/>
-    </row>
-    <row r="303" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A303" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="B303" s="5" t="s">
-        <v>449</v>
-      </c>
-      <c r="C303" s="5" t="s">
-        <v>450</v>
-      </c>
-      <c r="D303" s="5" t="s">
-        <v>451</v>
-      </c>
-    </row>
-    <row r="304" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A304" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="B304" s="5" t="s">
-        <v>452</v>
-      </c>
-      <c r="C304" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="D304" s="5"/>
-    </row>
-    <row r="305" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A305" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="B305" s="5" t="s">
-        <v>453</v>
-      </c>
-      <c r="C305" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="D305" s="6"/>
-    </row>
-    <row r="306" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A306" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="B306" s="5" t="s">
-        <v>454</v>
-      </c>
-      <c r="C306" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="D306" s="5"/>
-    </row>
-    <row r="307" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A307" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="B307" s="5" t="s">
-        <v>455</v>
-      </c>
-      <c r="C307" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="D307" s="5"/>
-    </row>
-    <row r="308" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A308" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B308" s="5" t="s">
-        <v>456</v>
-      </c>
-      <c r="C308" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="D308" s="5"/>
-    </row>
-    <row r="309" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A309" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="B309" s="5" t="s">
-        <v>457</v>
-      </c>
-      <c r="C309" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="D309" s="5"/>
-    </row>
-    <row r="310" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A310" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="B310" s="5" t="s">
-        <v>458</v>
-      </c>
-      <c r="C310" s="5" t="s">
-        <v>148</v>
-      </c>
-      <c r="D310" s="5"/>
-    </row>
-    <row r="311" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A311" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B311" s="5" t="s">
-        <v>459</v>
-      </c>
-      <c r="C311" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="D311" s="5"/>
-    </row>
-    <row r="312" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A312" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B312" s="5" t="s">
-        <v>460</v>
-      </c>
-      <c r="C312" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="D312" s="5"/>
-    </row>
-    <row r="313" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A313" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="B313" s="5" t="s">
-        <v>461</v>
-      </c>
-      <c r="C313" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="D313" s="5"/>
-    </row>
-    <row r="314" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A314" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="B314" s="5" t="s">
-        <v>462</v>
-      </c>
-      <c r="C314" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="D314" s="5"/>
-    </row>
-    <row r="315" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A315" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="B315" s="5" t="s">
-        <v>170</v>
-      </c>
-      <c r="C315" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="D315" s="5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="316" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A316" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="B316" s="5" t="s">
-        <v>463</v>
-      </c>
-      <c r="C316" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="D316" s="5"/>
-    </row>
-    <row r="317" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A317" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="B317" s="5" t="s">
-        <v>333</v>
-      </c>
-      <c r="C317" s="5" t="s">
-        <v>289</v>
-      </c>
-      <c r="D317" s="5"/>
-    </row>
-    <row r="318" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A318" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="B318" s="5" t="s">
-        <v>464</v>
-      </c>
-      <c r="C318" s="5" t="s">
-        <v>308</v>
-      </c>
-      <c r="D318" s="5"/>
-    </row>
-    <row r="319" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A319" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B319" s="5" t="s">
-        <v>465</v>
-      </c>
-      <c r="C319" s="5" t="s">
-        <v>209</v>
-      </c>
-      <c r="D319" s="5"/>
-    </row>
-    <row r="320" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A320" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="B320" s="5" t="s">
-        <v>466</v>
-      </c>
-      <c r="C320" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="D320" s="5"/>
-    </row>
-    <row r="321" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A321" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="B321" s="5" t="s">
-        <v>467</v>
-      </c>
-      <c r="C321" s="5" t="s">
-        <v>148</v>
-      </c>
-      <c r="D321" s="5"/>
-    </row>
-    <row r="322" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A322" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="B322" s="5" t="s">
-        <v>468</v>
-      </c>
-      <c r="C322" s="5" t="s">
-        <v>317</v>
-      </c>
-      <c r="D322" s="5"/>
-    </row>
-    <row r="323" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A323" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B323" s="5" t="s">
-        <v>469</v>
-      </c>
-      <c r="C323" s="5" t="s">
-        <v>314</v>
-      </c>
-      <c r="D323" s="5"/>
-    </row>
-    <row r="324" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A324" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="B324" s="5" t="s">
-        <v>470</v>
-      </c>
-      <c r="C324" s="5" t="s">
-        <v>105</v>
-      </c>
-      <c r="D324" s="5"/>
-    </row>
-    <row r="325" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A325" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B325" s="5" t="s">
-        <v>471</v>
-      </c>
-      <c r="C325" s="5" t="s">
-        <v>105</v>
-      </c>
-      <c r="D325" s="5"/>
-    </row>
-    <row r="326" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A326" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="B326" s="5" t="s">
-        <v>472</v>
-      </c>
-      <c r="C326" s="5" t="s">
-        <v>317</v>
-      </c>
-      <c r="D326" s="5"/>
-    </row>
-    <row r="327" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A327" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B327" s="5" t="s">
-        <v>473</v>
-      </c>
-      <c r="C327" s="5" t="s">
-        <v>474</v>
-      </c>
-      <c r="D327" s="5"/>
-    </row>
-    <row r="328" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A328" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="B328" s="5" t="s">
-        <v>475</v>
-      </c>
-      <c r="C328" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="D328" s="5"/>
-    </row>
-    <row r="329" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A329" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="B329" s="5" t="s">
-        <v>476</v>
-      </c>
-      <c r="C329" s="5" t="s">
-        <v>314</v>
-      </c>
-      <c r="D329" s="5"/>
-    </row>
-    <row r="330" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A330" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B330" s="5" t="s">
-        <v>477</v>
-      </c>
-      <c r="C330" s="5" t="s">
-        <v>105</v>
-      </c>
-      <c r="D330" s="5"/>
-    </row>
-    <row r="331" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A331" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="B331" s="5" t="s">
-        <v>478</v>
-      </c>
-      <c r="C331" s="5" t="s">
-        <v>183</v>
-      </c>
-      <c r="D331" s="5"/>
-    </row>
-    <row r="332" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A332" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="B332" s="5" t="s">
-        <v>479</v>
-      </c>
-      <c r="C332" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="D332" s="5"/>
-    </row>
-    <row r="333" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A333" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="B333" s="5" t="s">
-        <v>480</v>
-      </c>
-      <c r="C333" s="5" t="s">
-        <v>183</v>
-      </c>
-      <c r="D333" s="5"/>
-    </row>
-    <row r="334" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A334" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B334" s="5" t="s">
-        <v>481</v>
-      </c>
-      <c r="C334" s="5" t="s">
-        <v>105</v>
-      </c>
-      <c r="D334" s="5"/>
-    </row>
-    <row r="335" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A335" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B335" s="5" t="s">
-        <v>482</v>
-      </c>
-      <c r="C335" s="5" t="s">
-        <v>105</v>
-      </c>
-      <c r="D335" s="5"/>
-    </row>
-    <row r="336" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A336" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="B336" s="5" t="s">
-        <v>483</v>
-      </c>
-      <c r="C336" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="D336" s="5"/>
-    </row>
-    <row r="337" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A337" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B337" s="5" t="s">
-        <v>484</v>
-      </c>
-      <c r="C337" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="D337" s="5"/>
-    </row>
-    <row r="338" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A338" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B338" s="5" t="s">
-        <v>485</v>
-      </c>
-      <c r="C338" s="5" t="s">
-        <v>105</v>
-      </c>
-      <c r="D338" s="5"/>
-    </row>
-    <row r="339" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A339" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B339" s="5" t="s">
-        <v>486</v>
-      </c>
-      <c r="C339" s="5" t="s">
-        <v>209</v>
-      </c>
-      <c r="D339" s="5"/>
-    </row>
-    <row r="340" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A340" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B340" s="5" t="s">
-        <v>487</v>
-      </c>
-      <c r="C340" s="5" t="s">
-        <v>474</v>
-      </c>
-      <c r="D340" s="5"/>
-    </row>
-    <row r="341" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A341" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="B341" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="C341" s="5" t="s">
-        <v>317</v>
-      </c>
-      <c r="D341" s="5"/>
-    </row>
-    <row r="342" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A342" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="B342" s="5" t="s">
-        <v>488</v>
-      </c>
-      <c r="C342" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="D342" s="5"/>
-    </row>
-    <row r="343" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A343" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="B343" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="C343" s="5" t="s">
-        <v>164</v>
-      </c>
-      <c r="D343" s="5"/>
-    </row>
-    <row r="344" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A344" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="B344" s="5" t="s">
-        <v>489</v>
-      </c>
-      <c r="C344" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="D344" s="5"/>
-    </row>
-    <row r="345" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A345" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="B345" s="5" t="s">
-        <v>490</v>
-      </c>
-      <c r="C345" s="5" t="s">
-        <v>314</v>
-      </c>
-      <c r="D345" s="5"/>
-    </row>
-    <row r="346" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A346" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B346" s="5" t="s">
-        <v>491</v>
-      </c>
-      <c r="C346" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="D346" s="5"/>
-    </row>
-    <row r="347" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A347" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="B347" s="5" t="s">
-        <v>349</v>
-      </c>
-      <c r="C347" s="5" t="s">
-        <v>280</v>
-      </c>
-      <c r="D347" s="5"/>
-    </row>
-    <row r="348" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A348" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="B348" s="5" t="s">
-        <v>492</v>
-      </c>
-      <c r="C348" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="D348" s="5"/>
-    </row>
-    <row r="349" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A349" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B349" s="5" t="s">
-        <v>493</v>
-      </c>
-      <c r="C349" s="5" t="s">
-        <v>105</v>
-      </c>
-      <c r="D349" s="5"/>
-    </row>
-    <row r="350" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A350" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="B350" s="5" t="s">
-        <v>494</v>
-      </c>
-      <c r="C350" s="5" t="s">
-        <v>314</v>
-      </c>
-      <c r="D350" s="5"/>
-    </row>
-    <row r="351" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A351" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B351" s="5" t="s">
-        <v>495</v>
-      </c>
-      <c r="C351" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="D351" s="5"/>
-    </row>
-    <row r="352" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A352" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="B352" s="5" t="s">
-        <v>496</v>
-      </c>
-      <c r="C352" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="D352" s="5"/>
-    </row>
-    <row r="353" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A353" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B353" s="5" t="s">
-        <v>497</v>
-      </c>
-      <c r="C353" s="5" t="s">
-        <v>105</v>
-      </c>
-      <c r="D353" s="5"/>
-    </row>
-    <row r="354" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A354" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B354" s="5" t="s">
-        <v>498</v>
-      </c>
-      <c r="C354" s="5" t="s">
-        <v>183</v>
-      </c>
-      <c r="D354" s="5"/>
-    </row>
-    <row r="355" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A355" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B355" s="5" t="s">
-        <v>499</v>
-      </c>
-      <c r="C355" s="5" t="s">
-        <v>105</v>
-      </c>
-      <c r="D355" s="5"/>
-    </row>
-    <row r="356" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A356" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="B356" s="5" t="s">
-        <v>500</v>
-      </c>
-      <c r="C356" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="D356" s="5"/>
-    </row>
-    <row r="357" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A357" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="B357" s="5" t="s">
-        <v>501</v>
-      </c>
-      <c r="C357" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="D357" s="5"/>
-    </row>
-    <row r="358" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A358" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B358" s="5" t="s">
-        <v>502</v>
-      </c>
-      <c r="C358" s="5" t="s">
-        <v>105</v>
-      </c>
-      <c r="D358" s="5"/>
+      <c r="D368" s="2"/>
+      <c r="E368" s="2"/>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F289">
-    <sortCondition ref="C2:C289"/>
-    <sortCondition ref="D2:D289"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E368">
+    <sortCondition ref="C2:C368"/>
+    <sortCondition ref="D2:D368"/>
   </sortState>
   <phoneticPr fontId="19" type="noConversion"/>
-  <conditionalFormatting sqref="A1:D277 A278:C278 A279:D285 A286:C286 A287:D289 A359:D1048576">
+  <conditionalFormatting sqref="A1:D277 A278:C278 A279:D285 A286:C286 A287:D289 A362:D365 B359:D359 A361 C360:D361 A369:D1048576 A366:A368 C366:D368">
     <cfRule type="expression" dxfId="2" priority="1">
       <formula>"NOT(ISBLANK)"</formula>
     </cfRule>

--- a/data/source/pedpancan_mapping.xlsx
+++ b/data/source/pedpancan_mapping.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11008"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10211"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rkenkre/Desktop/pedpancancer/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ochapman/projects/pedpancan_ecdna/data/source/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2798822A-D3DE-494F-9C27-BB11AF9ED7C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02AB3AFC-FD61-494D-8E5B-09640AD59ABA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2140" yWindow="2920" windowWidth="28800" windowHeight="16380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2140" yWindow="2920" windowWidth="28800" windowHeight="16380" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="filtered_mapping" sheetId="2" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1372" uniqueCount="503">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1371" uniqueCount="502">
   <si>
     <t>molecular_subtype</t>
   </si>
@@ -1333,9 +1333,6 @@
   </si>
   <si>
     <t>KIAA1549-BRAF_NF1</t>
-  </si>
-  <si>
-    <t>low grade glioma, subclass hemispheric pilocytic astrocytoma and ganglioglioma</t>
   </si>
   <si>
     <t>PAST</t>
@@ -2171,9 +2168,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -2211,7 +2208,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -2317,7 +2314,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -2459,7 +2456,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2469,8 +2466,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:E358"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A270" workbookViewId="0">
-      <selection activeCell="A290" sqref="A290:D358"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2491,7 +2488,7 @@
         <v>313</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>307</v>
@@ -4932,11 +4929,9 @@
         <v>105</v>
       </c>
       <c r="D191" s="1" t="s">
-        <v>434</v>
-      </c>
-      <c r="E191" s="4" t="s">
         <v>433</v>
       </c>
+      <c r="E191" s="4"/>
     </row>
     <row r="192" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A192" s="1" t="s">
@@ -5047,7 +5042,7 @@
         <v>280</v>
       </c>
       <c r="D199" s="1" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="200" spans="1:4" x14ac:dyDescent="0.2">
@@ -5061,7 +5056,7 @@
         <v>280</v>
       </c>
       <c r="D200" s="1" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="201" spans="1:4" x14ac:dyDescent="0.2">
@@ -5075,7 +5070,7 @@
         <v>280</v>
       </c>
       <c r="D201" s="1" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
     </row>
     <row r="202" spans="1:4" x14ac:dyDescent="0.2">
@@ -5089,7 +5084,7 @@
         <v>280</v>
       </c>
       <c r="D202" s="1" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
     </row>
     <row r="203" spans="1:4" x14ac:dyDescent="0.2">
@@ -5131,7 +5126,7 @@
         <v>280</v>
       </c>
       <c r="D205" s="1" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
     </row>
     <row r="206" spans="1:4" x14ac:dyDescent="0.2">
@@ -5145,7 +5140,7 @@
         <v>280</v>
       </c>
       <c r="D206" s="1" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
     </row>
     <row r="207" spans="1:4" x14ac:dyDescent="0.2">
@@ -5159,7 +5154,7 @@
         <v>280</v>
       </c>
       <c r="D207" s="1" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="208" spans="1:4" x14ac:dyDescent="0.2">
@@ -5173,7 +5168,7 @@
         <v>280</v>
       </c>
       <c r="D208" s="1" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="209" spans="1:4" x14ac:dyDescent="0.2">
@@ -5187,7 +5182,7 @@
         <v>280</v>
       </c>
       <c r="D209" s="1" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="210" spans="1:4" x14ac:dyDescent="0.2">
@@ -5697,7 +5692,7 @@
         <v>209</v>
       </c>
       <c r="D255" s="1" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
     </row>
     <row r="256" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -6166,7 +6161,7 @@
         <v>26</v>
       </c>
       <c r="B291" s="5" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="C291" s="5" t="s">
         <v>105</v>
@@ -6190,7 +6185,7 @@
         <v>9</v>
       </c>
       <c r="B293" s="5" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="C293" s="5" t="s">
         <v>308</v>
@@ -6202,7 +6197,7 @@
         <v>0</v>
       </c>
       <c r="B294" s="5" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="C294" s="5" t="s">
         <v>83</v>
@@ -6214,7 +6209,7 @@
         <v>9</v>
       </c>
       <c r="B295" s="5" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="C295" s="5" t="s">
         <v>8</v>
@@ -6250,7 +6245,7 @@
         <v>9</v>
       </c>
       <c r="B298" s="5" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="C298" s="5" t="s">
         <v>8</v>
@@ -6262,7 +6257,7 @@
         <v>9</v>
       </c>
       <c r="B299" s="5" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="C299" s="5" t="s">
         <v>8</v>
@@ -6286,7 +6281,7 @@
         <v>0</v>
       </c>
       <c r="B301" s="5" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="C301" s="5" t="s">
         <v>83</v>
@@ -6298,7 +6293,7 @@
         <v>31</v>
       </c>
       <c r="B302" s="5" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="C302" s="5" t="s">
         <v>105</v>
@@ -6310,13 +6305,13 @@
         <v>9</v>
       </c>
       <c r="B303" s="5" t="s">
+        <v>448</v>
+      </c>
+      <c r="C303" s="5" t="s">
         <v>449</v>
       </c>
-      <c r="C303" s="5" t="s">
+      <c r="D303" s="5" t="s">
         <v>450</v>
-      </c>
-      <c r="D303" s="5" t="s">
-        <v>451</v>
       </c>
     </row>
     <row r="304" spans="1:4" x14ac:dyDescent="0.2">
@@ -6324,7 +6319,7 @@
         <v>26</v>
       </c>
       <c r="B304" s="5" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="C304" s="5" t="s">
         <v>83</v>
@@ -6336,7 +6331,7 @@
         <v>9</v>
       </c>
       <c r="B305" s="5" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="C305" s="5" t="s">
         <v>8</v>
@@ -6348,7 +6343,7 @@
         <v>9</v>
       </c>
       <c r="B306" s="5" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="C306" s="5" t="s">
         <v>8</v>
@@ -6360,7 +6355,7 @@
         <v>26</v>
       </c>
       <c r="B307" s="5" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="C307" s="5" t="s">
         <v>90</v>
@@ -6372,7 +6367,7 @@
         <v>0</v>
       </c>
       <c r="B308" s="5" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="C308" s="5" t="s">
         <v>83</v>
@@ -6384,7 +6379,7 @@
         <v>26</v>
       </c>
       <c r="B309" s="5" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="C309" s="5" t="s">
         <v>83</v>
@@ -6396,7 +6391,7 @@
         <v>26</v>
       </c>
       <c r="B310" s="5" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="C310" s="5" t="s">
         <v>148</v>
@@ -6408,7 +6403,7 @@
         <v>6</v>
       </c>
       <c r="B311" s="5" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="C311" s="5" t="s">
         <v>83</v>
@@ -6420,7 +6415,7 @@
         <v>6</v>
       </c>
       <c r="B312" s="5" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="C312" s="5" t="s">
         <v>8</v>
@@ -6432,7 +6427,7 @@
         <v>9</v>
       </c>
       <c r="B313" s="5" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="C313" s="5" t="s">
         <v>8</v>
@@ -6444,7 +6439,7 @@
         <v>26</v>
       </c>
       <c r="B314" s="5" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="C314" s="5" t="s">
         <v>90</v>
@@ -6470,7 +6465,7 @@
         <v>31</v>
       </c>
       <c r="B316" s="5" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="C316" s="5" t="s">
         <v>83</v>
@@ -6494,7 +6489,7 @@
         <v>9</v>
       </c>
       <c r="B318" s="5" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="C318" s="5" t="s">
         <v>308</v>
@@ -6506,7 +6501,7 @@
         <v>6</v>
       </c>
       <c r="B319" s="5" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="C319" s="5" t="s">
         <v>209</v>
@@ -6518,7 +6513,7 @@
         <v>9</v>
       </c>
       <c r="B320" s="5" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="C320" s="5" t="s">
         <v>8</v>
@@ -6530,7 +6525,7 @@
         <v>9</v>
       </c>
       <c r="B321" s="5" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="C321" s="5" t="s">
         <v>148</v>
@@ -6542,7 +6537,7 @@
         <v>31</v>
       </c>
       <c r="B322" s="5" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="C322" s="5" t="s">
         <v>317</v>
@@ -6554,7 +6549,7 @@
         <v>6</v>
       </c>
       <c r="B323" s="5" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="C323" s="5" t="s">
         <v>314</v>
@@ -6566,7 +6561,7 @@
         <v>26</v>
       </c>
       <c r="B324" s="5" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="C324" s="5" t="s">
         <v>105</v>
@@ -6578,7 +6573,7 @@
         <v>0</v>
       </c>
       <c r="B325" s="5" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="C325" s="5" t="s">
         <v>105</v>
@@ -6590,7 +6585,7 @@
         <v>9</v>
       </c>
       <c r="B326" s="5" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="C326" s="5" t="s">
         <v>317</v>
@@ -6602,10 +6597,10 @@
         <v>0</v>
       </c>
       <c r="B327" s="5" t="s">
+        <v>472</v>
+      </c>
+      <c r="C327" s="5" t="s">
         <v>473</v>
-      </c>
-      <c r="C327" s="5" t="s">
-        <v>474</v>
       </c>
       <c r="D327" s="5"/>
     </row>
@@ -6614,7 +6609,7 @@
         <v>9</v>
       </c>
       <c r="B328" s="5" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="C328" s="5" t="s">
         <v>8</v>
@@ -6626,7 +6621,7 @@
         <v>9</v>
       </c>
       <c r="B329" s="5" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="C329" s="5" t="s">
         <v>314</v>
@@ -6638,7 +6633,7 @@
         <v>0</v>
       </c>
       <c r="B330" s="5" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="C330" s="5" t="s">
         <v>105</v>
@@ -6650,7 +6645,7 @@
         <v>26</v>
       </c>
       <c r="B331" s="5" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="C331" s="5" t="s">
         <v>183</v>
@@ -6662,7 +6657,7 @@
         <v>26</v>
       </c>
       <c r="B332" s="5" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="C332" s="5" t="s">
         <v>8</v>
@@ -6674,7 +6669,7 @@
         <v>9</v>
       </c>
       <c r="B333" s="5" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="C333" s="5" t="s">
         <v>183</v>
@@ -6686,7 +6681,7 @@
         <v>0</v>
       </c>
       <c r="B334" s="5" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="C334" s="5" t="s">
         <v>105</v>
@@ -6698,7 +6693,7 @@
         <v>0</v>
       </c>
       <c r="B335" s="5" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="C335" s="5" t="s">
         <v>105</v>
@@ -6710,7 +6705,7 @@
         <v>9</v>
       </c>
       <c r="B336" s="5" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="C336" s="5" t="s">
         <v>8</v>
@@ -6722,7 +6717,7 @@
         <v>0</v>
       </c>
       <c r="B337" s="5" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="C337" s="5" t="s">
         <v>58</v>
@@ -6734,7 +6729,7 @@
         <v>0</v>
       </c>
       <c r="B338" s="5" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="C338" s="5" t="s">
         <v>105</v>
@@ -6746,7 +6741,7 @@
         <v>6</v>
       </c>
       <c r="B339" s="5" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="C339" s="5" t="s">
         <v>209</v>
@@ -6758,10 +6753,10 @@
         <v>6</v>
       </c>
       <c r="B340" s="5" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="C340" s="5" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="D340" s="5"/>
     </row>
@@ -6782,7 +6777,7 @@
         <v>9</v>
       </c>
       <c r="B342" s="5" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="C342" s="5" t="s">
         <v>8</v>
@@ -6806,7 +6801,7 @@
         <v>9</v>
       </c>
       <c r="B344" s="5" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="C344" s="5" t="s">
         <v>8</v>
@@ -6818,7 +6813,7 @@
         <v>9</v>
       </c>
       <c r="B345" s="5" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="C345" s="5" t="s">
         <v>314</v>
@@ -6830,7 +6825,7 @@
         <v>0</v>
       </c>
       <c r="B346" s="5" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="C346" s="5" t="s">
         <v>90</v>
@@ -6854,7 +6849,7 @@
         <v>9</v>
       </c>
       <c r="B348" s="5" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="C348" s="5" t="s">
         <v>8</v>
@@ -6866,7 +6861,7 @@
         <v>0</v>
       </c>
       <c r="B349" s="5" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="C349" s="5" t="s">
         <v>105</v>
@@ -6878,7 +6873,7 @@
         <v>9</v>
       </c>
       <c r="B350" s="5" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="C350" s="5" t="s">
         <v>314</v>
@@ -6890,7 +6885,7 @@
         <v>0</v>
       </c>
       <c r="B351" s="5" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="C351" s="5" t="s">
         <v>83</v>
@@ -6902,7 +6897,7 @@
         <v>9</v>
       </c>
       <c r="B352" s="5" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="C352" s="5" t="s">
         <v>8</v>
@@ -6914,7 +6909,7 @@
         <v>0</v>
       </c>
       <c r="B353" s="5" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="C353" s="5" t="s">
         <v>105</v>
@@ -6926,7 +6921,7 @@
         <v>6</v>
       </c>
       <c r="B354" s="5" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="C354" s="5" t="s">
         <v>183</v>
@@ -6938,7 +6933,7 @@
         <v>0</v>
       </c>
       <c r="B355" s="5" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="C355" s="5" t="s">
         <v>105</v>
@@ -6950,7 +6945,7 @@
         <v>9</v>
       </c>
       <c r="B356" s="5" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="C356" s="5" t="s">
         <v>8</v>
@@ -6962,7 +6957,7 @@
         <v>9</v>
       </c>
       <c r="B357" s="5" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="C357" s="5" t="s">
         <v>8</v>
@@ -6974,7 +6969,7 @@
         <v>0</v>
       </c>
       <c r="B358" s="5" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="C358" s="5" t="s">
         <v>105</v>
@@ -7000,8 +6995,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92187E74-4F7E-DD4F-A405-6C0E523CB693}">
   <dimension ref="A1:B67"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A38" sqref="A38:XFD38"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/data/source/pedpancan_mapping.xlsx
+++ b/data/source/pedpancan_mapping.xlsx
@@ -1,19 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10211"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10916"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ochapman/projects/pedpancan_ecdna/data/source/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ochapman/SBP/projects/pedpancan_ecdna/data/source/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F9F819A-2922-EA4F-807C-D262A5B68E53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C3CF6C0-BE5B-D743-ADF1-C3E5F8377165}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="320" yWindow="2040" windowWidth="28800" windowHeight="16380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="740" windowWidth="29400" windowHeight="16780" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="filtered_mapping" sheetId="2" r:id="rId1"/>
+    <sheet name="mapping" sheetId="2" r:id="rId1"/>
     <sheet name="key" sheetId="5" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1433" uniqueCount="525">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1827" uniqueCount="641">
   <si>
     <t>molecular_subtype</t>
   </si>
@@ -957,9 +957,6 @@
     <t>TALLNOS</t>
   </si>
   <si>
-    <t>Note</t>
-  </si>
-  <si>
     <t>GCT</t>
   </si>
   <si>
@@ -984,9 +981,6 @@
     <t>key</t>
   </si>
   <si>
-    <t>Diffuse astrocytoma (do we know if MYB- or MYBL1-altered)</t>
-  </si>
-  <si>
     <t>CPT</t>
   </si>
   <si>
@@ -1284,9 +1278,6 @@
     <t>DHG_H3G34_TP53</t>
   </si>
   <si>
-    <t>AAST</t>
-  </si>
-  <si>
     <t>PASTH</t>
   </si>
   <si>
@@ -1335,9 +1326,6 @@
     <t>KIAA1549-BRAF_NF1</t>
   </si>
   <si>
-    <t>low grade glioma, subclass hemispheric pilocytic astrocytoma and ganglioglioma</t>
-  </si>
-  <si>
     <t>PAST</t>
   </si>
   <si>
@@ -1608,14 +1596,374 @@
     <t>EWSR-PLAG1</t>
   </si>
   <si>
-    <t>GM</t>
+    <t>EPMTSU</t>
+  </si>
+  <si>
+    <t>C19MC</t>
+  </si>
+  <si>
+    <t>EPMT</t>
+  </si>
+  <si>
+    <t>LBL</t>
+  </si>
+  <si>
+    <t>SPZM</t>
+  </si>
+  <si>
+    <t>MPN</t>
+  </si>
+  <si>
+    <t>ACLG</t>
+  </si>
+  <si>
+    <t>PPTID</t>
+  </si>
+  <si>
+    <t>LGORT</t>
+  </si>
+  <si>
+    <t>OO</t>
+  </si>
+  <si>
+    <t>MEM</t>
+  </si>
+  <si>
+    <t>EPIS</t>
+  </si>
+  <si>
+    <t>STP</t>
+  </si>
+  <si>
+    <t>PAT</t>
+  </si>
+  <si>
+    <t>DASTR</t>
+  </si>
+  <si>
+    <t>MO</t>
+  </si>
+  <si>
+    <t>APE</t>
+  </si>
+  <si>
+    <t>AMBLSHH</t>
+  </si>
+  <si>
+    <t>GICT</t>
+  </si>
+  <si>
+    <t>GMN</t>
+  </si>
+  <si>
+    <t>PINT</t>
+  </si>
+  <si>
+    <t>CHS</t>
+  </si>
+  <si>
+    <t>DMBLSHH</t>
+  </si>
+  <si>
+    <t>LGNET</t>
+  </si>
+  <si>
+    <t>PGNG</t>
+  </si>
+  <si>
+    <t>AOT</t>
+  </si>
+  <si>
+    <t>APEPF</t>
+  </si>
+  <si>
+    <t>GB</t>
+  </si>
+  <si>
+    <t>GBL</t>
+  </si>
+  <si>
+    <t>OSOS</t>
+  </si>
+  <si>
+    <t>FUP</t>
+  </si>
+  <si>
+    <t>SCY</t>
+  </si>
+  <si>
+    <t>HFNH</t>
+  </si>
+  <si>
+    <t>LIVER</t>
+  </si>
+  <si>
+    <t>DMG</t>
+  </si>
+  <si>
+    <t>ADNOS</t>
+  </si>
+  <si>
+    <t>HGSRC</t>
+  </si>
+  <si>
+    <t>Adenoid Cystic Carcinoma of the Lacrimal Gland</t>
+  </si>
+  <si>
+    <t>Pineal Parenchymal Tumor of Intermediate Differentiation</t>
+  </si>
+  <si>
+    <t>Low-Grade Oncocytic Renal Tumor</t>
+  </si>
+  <si>
+    <t>Ectomesenchymoma</t>
+  </si>
+  <si>
+    <t>Epithelioid Sarcoma</t>
+  </si>
+  <si>
+    <t>Soft Tissue Perineuroma</t>
+  </si>
+  <si>
+    <t>Pineal Anlage Tumor</t>
+  </si>
+  <si>
+    <t>Myositis Ossificans</t>
+  </si>
+  <si>
+    <t>Anaplastic Ependymoma</t>
+  </si>
+  <si>
+    <t>Pineal Tumor</t>
+  </si>
+  <si>
+    <t>PB_NOS</t>
+  </si>
+  <si>
+    <t>Chondrosarcoma</t>
+  </si>
+  <si>
+    <t>Paraganglioma</t>
+  </si>
+  <si>
+    <t>Adenomatoid Odontogenic Tumor</t>
+  </si>
+  <si>
+    <t>Osteoblastic Osteosarcoma</t>
+  </si>
+  <si>
+    <t>Serous cystadenoma</t>
+  </si>
+  <si>
+    <t>Fibrous Umbilical Polyp</t>
+  </si>
+  <si>
+    <t>Hepatic Focal Nodular Hyperplasia</t>
+  </si>
+  <si>
+    <t>Adenocarcinoma, NOS</t>
+  </si>
+  <si>
+    <t>High-Grade Sarcoma</t>
+  </si>
+  <si>
+    <t>CEFTCIC</t>
+  </si>
+  <si>
+    <t>CNS Ewing Sarcoma Family Tumor, CIC alteration</t>
+  </si>
+  <si>
+    <t>EAML</t>
+  </si>
+  <si>
+    <t>Renal Epitheliod Angiomyolipoma</t>
+  </si>
+  <si>
+    <t>Myeloproliferative Neoplasms</t>
+  </si>
+  <si>
+    <t>Osteoid Ostoma</t>
+  </si>
+  <si>
+    <t>PNST</t>
+  </si>
+  <si>
+    <t>Giant Cell Tumor, NOS</t>
+  </si>
+  <si>
+    <t>CNB_FOXR2</t>
+  </si>
+  <si>
+    <t>CHGNET_MN1</t>
+  </si>
+  <si>
+    <t>CNET_PLAGL1</t>
+  </si>
+  <si>
+    <t>PB_PAT</t>
+  </si>
+  <si>
+    <t>expansion</t>
+  </si>
+  <si>
+    <t>RMSNOS</t>
+  </si>
+  <si>
+    <t>DIPG</t>
+  </si>
+  <si>
+    <t>Diffuse Intrinsic Pontine Glioma</t>
+  </si>
+  <si>
+    <t>MPEPF</t>
+  </si>
+  <si>
+    <t>Myxopapillary Ependymoma, Posterior Fossa</t>
+  </si>
+  <si>
+    <t>MEPMST</t>
+  </si>
+  <si>
+    <t>Mixed Myxopapillary Anaplastic Ependymoma, Spinal Tumor</t>
+  </si>
+  <si>
+    <t>AASTR</t>
+  </si>
+  <si>
+    <t>Liver, NOS</t>
+  </si>
+  <si>
+    <t>NIFTP</t>
+  </si>
+  <si>
+    <t>Non-invasive follicular thyroid neoplasm with papillary like nuclear features</t>
+  </si>
+  <si>
+    <t>Sertoli-Leydig Cell Tumor</t>
+  </si>
+  <si>
+    <t>SLCT</t>
+  </si>
+  <si>
+    <t>DIFG</t>
+  </si>
+  <si>
+    <t>PTPR</t>
+  </si>
+  <si>
+    <t>BCS</t>
+  </si>
+  <si>
+    <t>BCOR Sarcoma</t>
+  </si>
+  <si>
+    <t>AMBLNWSG3</t>
+  </si>
+  <si>
+    <t>AMBLNWSG4</t>
+  </si>
+  <si>
+    <t>Anaplastic Medulloblastoma, Group 3</t>
+  </si>
+  <si>
+    <t>Anaplastic Medulloblastoma, Group 4</t>
+  </si>
+  <si>
+    <t>Low-Grade Neuroepithelial Tumor</t>
+  </si>
+  <si>
+    <t>High-Grade Neuroepithelial Tumor</t>
+  </si>
+  <si>
+    <t>NTHP</t>
+  </si>
+  <si>
+    <t>Nodular Thyroid Hyperplasia</t>
+  </si>
+  <si>
+    <t>PADA</t>
+  </si>
+  <si>
+    <t>SCN</t>
+  </si>
+  <si>
+    <t>OGCT</t>
+  </si>
+  <si>
+    <t>ACA</t>
+  </si>
+  <si>
+    <t>AD</t>
+  </si>
+  <si>
+    <t>FIB</t>
+  </si>
+  <si>
+    <t>HAM</t>
+  </si>
+  <si>
+    <t>CAV</t>
+  </si>
+  <si>
+    <t>LIP</t>
+  </si>
+  <si>
+    <t>CYST</t>
+  </si>
+  <si>
+    <t>GN</t>
+  </si>
+  <si>
+    <t>OB</t>
+  </si>
+  <si>
+    <t>CHD</t>
+  </si>
+  <si>
+    <t>PILO</t>
+  </si>
+  <si>
+    <t>GRAN</t>
+  </si>
+  <si>
+    <t>LMMC</t>
+  </si>
+  <si>
+    <t>GLI</t>
+  </si>
+  <si>
+    <t>FXN</t>
+  </si>
+  <si>
+    <t>OMT</t>
+  </si>
+  <si>
+    <t>HGGT</t>
+  </si>
+  <si>
+    <t>GNGNOS</t>
+  </si>
+  <si>
+    <t>THME</t>
+  </si>
+  <si>
+    <t>CMF</t>
+  </si>
+  <si>
+    <t>PPT</t>
+  </si>
+  <si>
+    <t>ACPP</t>
+  </si>
+  <si>
+    <t>ATRTSHH</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="22" x14ac:knownFonts="1">
+  <fonts count="24" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1775,6 +2123,17 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Aptos Narrow"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="33">
@@ -2118,11 +2477,13 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -2168,7 +2529,17 @@
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="3">
+  <dxfs count="4">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -2509,10 +2880,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:E368"/>
+  <dimension ref="A1:E434"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2524,19 +2895,16 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
+        <v>311</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>310</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>312</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>311</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>313</v>
-      </c>
       <c r="D1" s="2" t="s">
-        <v>439</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>307</v>
+        <v>435</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
@@ -2619,16 +2987,13 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>501</v>
+        <v>282</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>640</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>510</v>
+        <v>2</v>
       </c>
       <c r="E8" s="2"/>
     </row>
@@ -2637,13 +3002,13 @@
         <v>6</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>78</v>
+        <v>7</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>78</v>
+        <v>619</v>
       </c>
       <c r="E9" s="2"/>
     </row>
@@ -2652,27 +3017,29 @@
         <v>9</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>184</v>
+        <v>10</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>78</v>
+        <v>619</v>
       </c>
       <c r="E10" s="2"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
-        <v>282</v>
+        <v>6</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>212</v>
+        <v>11</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D11" s="2"/>
+      <c r="D11" s="2" t="s">
+        <v>619</v>
+      </c>
       <c r="E11" s="2"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
@@ -2680,64 +3047,74 @@
         <v>6</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D12" s="2"/>
+      <c r="D12" s="2" t="s">
+        <v>619</v>
+      </c>
       <c r="E12" s="2"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>10</v>
+        <v>454</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D13" s="2"/>
+      <c r="D13" s="2" t="s">
+        <v>619</v>
+      </c>
       <c r="E13" s="2"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>11</v>
+        <v>282</v>
+      </c>
+      <c r="B14" t="s">
+        <v>618</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D14" s="2"/>
+      <c r="D14" s="2" t="s">
+        <v>619</v>
+      </c>
       <c r="E14" s="2"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>12</v>
+        <v>37</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D15" s="2"/>
+      <c r="D15" s="2" t="s">
+        <v>622</v>
+      </c>
       <c r="E15" s="2"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
-        <v>9</v>
+        <v>26</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>13</v>
+        <v>37</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D16" s="2"/>
+      <c r="D16" s="2" t="s">
+        <v>622</v>
+      </c>
       <c r="E16" s="2"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
@@ -2745,38 +3122,44 @@
         <v>9</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>14</v>
+        <v>485</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D17" s="2"/>
+      <c r="D17" s="2" t="s">
+        <v>627</v>
+      </c>
       <c r="E17" s="2"/>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>15</v>
+        <v>282</v>
+      </c>
+      <c r="B18" t="s">
+        <v>637</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D18" s="2"/>
+      <c r="D18" s="2" t="s">
+        <v>637</v>
+      </c>
       <c r="E18" s="2"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
-        <v>9</v>
+        <v>282</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>19</v>
+        <v>263</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D19" s="2"/>
+      <c r="D19" s="2" t="s">
+        <v>624</v>
+      </c>
       <c r="E19" s="2"/>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
@@ -2784,12 +3167,14 @@
         <v>9</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>290</v>
+        <v>440</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D20" s="2"/>
+      <c r="D20" s="2" t="s">
+        <v>624</v>
+      </c>
       <c r="E20" s="2"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
@@ -2797,25 +3182,29 @@
         <v>282</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>263</v>
+        <v>240</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D21" s="2"/>
+      <c r="D21" s="2" t="s">
+        <v>240</v>
+      </c>
       <c r="E21" s="2"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
-        <v>9</v>
+        <v>282</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>37</v>
+        <v>579</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D22" s="2"/>
+      <c r="D22" s="2" t="s">
+        <v>579</v>
+      </c>
       <c r="E22" s="2"/>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.2">
@@ -2823,38 +3212,44 @@
         <v>9</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>38</v>
+        <v>13</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D23" s="2"/>
+      <c r="D23" s="2" t="s">
+        <v>620</v>
+      </c>
       <c r="E23" s="2"/>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
-        <v>282</v>
+        <v>9</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>256</v>
+        <v>14</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D24" s="2"/>
+      <c r="D24" s="2" t="s">
+        <v>620</v>
+      </c>
       <c r="E24" s="2"/>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>110</v>
+        <v>455</v>
       </c>
       <c r="C25" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D25" s="2"/>
+      <c r="D25" s="2" t="s">
+        <v>620</v>
+      </c>
       <c r="E25" s="2"/>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.2">
@@ -2862,25 +3257,29 @@
         <v>9</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>111</v>
+        <v>476</v>
       </c>
       <c r="C26" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D26" s="2"/>
+      <c r="D26" s="2" t="s">
+        <v>620</v>
+      </c>
       <c r="E26" s="2"/>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
-        <v>282</v>
+        <v>9</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>240</v>
+        <v>290</v>
       </c>
       <c r="C27" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D27" s="2"/>
+      <c r="D27" s="2" t="s">
+        <v>632</v>
+      </c>
       <c r="E27" s="2"/>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.2">
@@ -2888,12 +3287,14 @@
         <v>282</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>217</v>
+        <v>538</v>
       </c>
       <c r="C28" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D28" s="2"/>
+      <c r="D28" s="2" t="s">
+        <v>538</v>
+      </c>
       <c r="E28" s="2"/>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.2">
@@ -2901,12 +3302,14 @@
         <v>9</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>291</v>
+        <v>493</v>
       </c>
       <c r="C29" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D29" s="2"/>
+      <c r="D29" s="2" t="s">
+        <v>538</v>
+      </c>
       <c r="E29" s="2"/>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.2">
@@ -2914,25 +3317,29 @@
         <v>9</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>443</v>
+        <v>38</v>
       </c>
       <c r="C30" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D30" s="2"/>
+      <c r="D30" s="2" t="s">
+        <v>631</v>
+      </c>
       <c r="E30" s="2"/>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A31" s="2" t="s">
-        <v>26</v>
+        <v>9</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>37</v>
+        <v>441</v>
       </c>
       <c r="C31" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D31" s="2"/>
+      <c r="D31" s="2" t="s">
+        <v>631</v>
+      </c>
       <c r="E31" s="2"/>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.2">
@@ -2940,12 +3347,14 @@
         <v>9</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>444</v>
+        <v>460</v>
       </c>
       <c r="C32" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D32" s="2"/>
+      <c r="D32" s="2" t="s">
+        <v>625</v>
+      </c>
       <c r="E32" s="2"/>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.2">
@@ -2953,12 +3362,14 @@
         <v>9</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>445</v>
+        <v>494</v>
       </c>
       <c r="C33" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D33" s="2"/>
+      <c r="D33" s="2" t="s">
+        <v>629</v>
+      </c>
       <c r="E33" s="2"/>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.2">
@@ -2966,64 +3377,74 @@
         <v>9</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>451</v>
+        <v>15</v>
       </c>
       <c r="C34" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D34" s="2"/>
+      <c r="D34" s="2" t="s">
+        <v>621</v>
+      </c>
       <c r="E34" s="2"/>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A35" s="2" t="s">
-        <v>9</v>
+        <v>282</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>452</v>
+        <v>523</v>
       </c>
       <c r="C35" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D35" s="2"/>
+      <c r="D35" s="2" t="s">
+        <v>523</v>
+      </c>
       <c r="E35" s="2"/>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A36" s="2" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>458</v>
+        <v>482</v>
       </c>
       <c r="C36" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D36" s="2"/>
+      <c r="D36" s="2" t="s">
+        <v>523</v>
+      </c>
       <c r="E36" s="2"/>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A37" s="2" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>459</v>
+        <v>110</v>
       </c>
       <c r="C37" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D37" s="2"/>
+      <c r="D37" s="2" t="s">
+        <v>110</v>
+      </c>
       <c r="E37" s="2"/>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A38" s="2" t="s">
-        <v>26</v>
+        <v>9</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>170</v>
+        <v>111</v>
       </c>
       <c r="C38" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D38" s="2"/>
+      <c r="D38" s="2" t="s">
+        <v>110</v>
+      </c>
       <c r="E38" s="2"/>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.2">
@@ -3031,12 +3452,14 @@
         <v>9</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>464</v>
+        <v>439</v>
       </c>
       <c r="C39" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D39" s="2"/>
+      <c r="D39" s="2" t="s">
+        <v>623</v>
+      </c>
       <c r="E39" s="2"/>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.2">
@@ -3044,25 +3467,29 @@
         <v>9</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>472</v>
+        <v>468</v>
       </c>
       <c r="C40" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D40" s="2"/>
+      <c r="D40" s="2" t="s">
+        <v>630</v>
+      </c>
       <c r="E40" s="2"/>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A41" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="B41" s="2" t="s">
-        <v>476</v>
+        <v>282</v>
+      </c>
+      <c r="B41" t="s">
+        <v>613</v>
       </c>
       <c r="C41" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D41" s="2"/>
+      <c r="D41" s="2" t="s">
+        <v>613</v>
+      </c>
       <c r="E41" s="2"/>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.2">
@@ -3070,25 +3497,29 @@
         <v>9</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>480</v>
+        <v>19</v>
       </c>
       <c r="C42" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D42" s="2"/>
+      <c r="D42" s="2" t="s">
+        <v>626</v>
+      </c>
       <c r="E42" s="2"/>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A43" s="2" t="s">
-        <v>9</v>
+        <v>282</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>485</v>
+        <v>529</v>
       </c>
       <c r="C43" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D43" s="2"/>
+      <c r="D43" s="2" t="s">
+        <v>529</v>
+      </c>
       <c r="E43" s="2"/>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.2">
@@ -3096,25 +3527,29 @@
         <v>9</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>486</v>
+        <v>481</v>
       </c>
       <c r="C44" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D44" s="2"/>
+      <c r="D44" s="2" t="s">
+        <v>529</v>
+      </c>
       <c r="E44" s="2"/>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A45" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B45" s="2" t="s">
-        <v>489</v>
+        <v>282</v>
+      </c>
+      <c r="B45" t="s">
+        <v>615</v>
       </c>
       <c r="C45" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D45" s="2"/>
+      <c r="D45" s="2" t="s">
+        <v>615</v>
+      </c>
       <c r="E45" s="2"/>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.2">
@@ -3122,20 +3557,22 @@
         <v>9</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>493</v>
+        <v>489</v>
       </c>
       <c r="C46" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D46" s="2"/>
+      <c r="D46" s="2" t="s">
+        <v>628</v>
+      </c>
       <c r="E46" s="2"/>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A47" s="2" t="s">
-        <v>9</v>
+        <v>282</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>497</v>
+        <v>212</v>
       </c>
       <c r="C47" s="2" t="s">
         <v>8</v>
@@ -3145,31 +3582,31 @@
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A48" s="2" t="s">
-        <v>9</v>
+        <v>282</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>498</v>
+        <v>211</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D48" s="2"/>
-      <c r="E48" s="2"/>
+        <v>308</v>
+      </c>
+      <c r="D48" s="2" t="s">
+        <v>211</v>
+      </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A49" s="2" t="s">
         <v>282</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>211</v>
+        <v>308</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>211</v>
-      </c>
-      <c r="E49" s="2"/>
+        <v>383</v>
+      </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A50" s="2" t="s">
@@ -3179,23 +3616,25 @@
         <v>203</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>309</v>
-      </c>
-      <c r="D50" s="2"/>
+        <v>308</v>
+      </c>
+      <c r="D50" s="2" t="s">
+        <v>383</v>
+      </c>
       <c r="E50" s="2"/>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A51" s="2" t="s">
         <v>282</v>
       </c>
-      <c r="B51" s="2" t="s">
-        <v>242</v>
+      <c r="B51" t="s">
+        <v>526</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>376</v>
-      </c>
-      <c r="D51" s="2" t="s">
-        <v>242</v>
+        <v>374</v>
+      </c>
+      <c r="D51" t="s">
+        <v>526</v>
       </c>
       <c r="E51" s="2"/>
     </row>
@@ -3203,49 +3642,53 @@
       <c r="A52" s="2" t="s">
         <v>282</v>
       </c>
-      <c r="B52" s="2" t="s">
-        <v>247</v>
-      </c>
-      <c r="C52" s="2" t="s">
-        <v>376</v>
-      </c>
-      <c r="D52" s="2" t="s">
-        <v>247</v>
+      <c r="B52" t="s">
+        <v>555</v>
+      </c>
+      <c r="C52" t="s">
+        <v>374</v>
+      </c>
+      <c r="D52" t="s">
+        <v>555</v>
       </c>
       <c r="E52" s="2"/>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A53" s="2" t="s">
-        <v>0</v>
+        <v>282</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>35</v>
+        <v>242</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>249</v>
-      </c>
-      <c r="D53" s="2"/>
+        <v>374</v>
+      </c>
+      <c r="D53" s="2" t="s">
+        <v>242</v>
+      </c>
       <c r="E53" s="2"/>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A54" s="2" t="s">
-        <v>0</v>
+        <v>282</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>36</v>
+        <v>247</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>249</v>
-      </c>
-      <c r="D54" s="2"/>
+        <v>374</v>
+      </c>
+      <c r="D54" s="2" t="s">
+        <v>247</v>
+      </c>
       <c r="E54" s="2"/>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A55" s="2" t="s">
-        <v>282</v>
+        <v>0</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>249</v>
+        <v>35</v>
       </c>
       <c r="C55" s="2" t="s">
         <v>249</v>
@@ -3255,10 +3698,10 @@
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A56" s="2" t="s">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>329</v>
+        <v>36</v>
       </c>
       <c r="C56" s="2" t="s">
         <v>249</v>
@@ -3268,49 +3711,49 @@
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A57" s="2" t="s">
-        <v>9</v>
+        <v>282</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>179</v>
+        <v>249</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>319</v>
+        <v>249</v>
       </c>
       <c r="D57" s="2"/>
       <c r="E57" s="2"/>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A58" s="2" t="s">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>23</v>
+        <v>327</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>24</v>
+        <v>249</v>
       </c>
       <c r="D58" s="2"/>
       <c r="E58" s="2"/>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A59" s="2" t="s">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>25</v>
+        <v>179</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>24</v>
+        <v>317</v>
       </c>
       <c r="D59" s="2"/>
       <c r="E59" s="2"/>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A60" s="2" t="s">
-        <v>26</v>
+        <v>0</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C60" s="2" t="s">
         <v>24</v>
@@ -3320,10 +3763,10 @@
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A61" s="2" t="s">
-        <v>282</v>
+        <v>0</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>204</v>
+        <v>25</v>
       </c>
       <c r="C61" s="2" t="s">
         <v>24</v>
@@ -3333,17 +3776,15 @@
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A62" s="2" t="s">
-        <v>6</v>
+        <v>26</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>317</v>
-      </c>
-      <c r="D62" s="2" t="s">
-        <v>22</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="D62" s="2"/>
       <c r="E62" s="2"/>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.2">
@@ -3351,14 +3792,12 @@
         <v>282</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>22</v>
+        <v>204</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>317</v>
-      </c>
-      <c r="D63" s="2" t="s">
-        <v>22</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="D63" s="2"/>
       <c r="E63" s="2"/>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.2">
@@ -3366,28 +3805,28 @@
         <v>6</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>384</v>
+        <v>22</v>
       </c>
       <c r="E64" s="2"/>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A65" s="2" t="s">
-        <v>6</v>
+        <v>282</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>384</v>
+        <v>22</v>
       </c>
       <c r="E65" s="2"/>
     </row>
@@ -3396,57 +3835,59 @@
         <v>9</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>33</v>
+        <v>466</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>384</v>
+        <v>22</v>
       </c>
       <c r="E66" s="2"/>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A67" s="2" t="s">
-        <v>9</v>
+        <v>282</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>34</v>
+        <v>382</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="E67" s="2"/>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A68" s="2" t="s">
-        <v>31</v>
+        <v>6</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="E68" s="2"/>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A69" s="2" t="s">
-        <v>31</v>
+        <v>6</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>466</v>
+        <v>30</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>317</v>
-      </c>
-      <c r="D69" s="2"/>
+        <v>315</v>
+      </c>
+      <c r="D69" s="2" t="s">
+        <v>382</v>
+      </c>
       <c r="E69" s="2"/>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.2">
@@ -3454,51 +3895,59 @@
         <v>9</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>470</v>
+        <v>33</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>317</v>
-      </c>
-      <c r="D70" s="2"/>
+        <v>315</v>
+      </c>
+      <c r="D70" s="2" t="s">
+        <v>382</v>
+      </c>
       <c r="E70" s="2"/>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A71" s="2" t="s">
-        <v>26</v>
+        <v>9</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>317</v>
-      </c>
-      <c r="D71" s="2"/>
+        <v>315</v>
+      </c>
+      <c r="D71" s="2" t="s">
+        <v>382</v>
+      </c>
       <c r="E71" s="2"/>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A72" s="2" t="s">
-        <v>9</v>
+        <v>26</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>502</v>
+        <v>33</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>317</v>
-      </c>
-      <c r="D72" s="2"/>
+        <v>315</v>
+      </c>
+      <c r="D72" s="2" t="s">
+        <v>382</v>
+      </c>
       <c r="E72" s="2"/>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A73" s="2" t="s">
         <v>282</v>
       </c>
-      <c r="B73" s="2" t="s">
-        <v>194</v>
+      <c r="B73" t="s">
+        <v>639</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>194</v>
-      </c>
-      <c r="D73" s="2"/>
+        <v>315</v>
+      </c>
+      <c r="D73" s="2" t="s">
+        <v>382</v>
+      </c>
       <c r="E73" s="2"/>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.2">
@@ -3506,77 +3955,80 @@
         <v>9</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>448</v>
+        <v>498</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>449</v>
-      </c>
-      <c r="D74" s="2"/>
+        <v>315</v>
+      </c>
+      <c r="D74" s="2" t="s">
+        <v>383</v>
+      </c>
       <c r="E74" s="2"/>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A75" s="2" t="s">
-        <v>6</v>
+        <v>31</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>206</v>
+        <v>315</v>
       </c>
       <c r="D75" s="2"/>
-      <c r="E75" s="2"/>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A76" s="2" t="s">
-        <v>282</v>
+        <v>31</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>206</v>
+        <v>462</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>206</v>
+        <v>315</v>
       </c>
       <c r="D76" s="2"/>
       <c r="E76" s="2"/>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A77" s="2" t="s">
-        <v>0</v>
+        <v>282</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>286</v>
+        <v>194</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>206</v>
+        <v>194</v>
       </c>
       <c r="D77" s="2"/>
       <c r="E77" s="2"/>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A78" s="2" t="s">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>167</v>
+        <v>444</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>206</v>
+        <v>445</v>
       </c>
       <c r="D78" s="2"/>
       <c r="E78" s="2"/>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A79" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B79" s="2" t="s">
-        <v>471</v>
-      </c>
-      <c r="C79" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="B79" t="s">
+        <v>577</v>
+      </c>
+      <c r="C79" t="s">
         <v>206</v>
       </c>
-      <c r="D79" s="2"/>
+      <c r="D79" t="s">
+        <v>577</v>
+      </c>
       <c r="E79" s="2"/>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.2">
@@ -3584,12 +4036,14 @@
         <v>6</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>484</v>
+        <v>491</v>
       </c>
       <c r="C80" s="2" t="s">
         <v>206</v>
       </c>
-      <c r="D80" s="2"/>
+      <c r="D80" t="s">
+        <v>577</v>
+      </c>
       <c r="E80" s="2"/>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.2">
@@ -3597,13 +4051,13 @@
         <v>0</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>51</v>
+        <v>467</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>289</v>
+        <v>206</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>388</v>
+        <v>586</v>
       </c>
       <c r="E81" s="2"/>
     </row>
@@ -3612,43 +4066,43 @@
         <v>0</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>54</v>
+        <v>167</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>289</v>
+        <v>206</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>391</v>
+        <v>585</v>
       </c>
       <c r="E82" s="2"/>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A83" s="2" t="s">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>49</v>
+        <v>480</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>289</v>
+        <v>206</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>385</v>
+        <v>587</v>
       </c>
       <c r="E83" s="2"/>
     </row>
-    <row r="84" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A84" s="2" t="s">
-        <v>26</v>
+        <v>6</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>333</v>
+        <v>46</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>289</v>
+        <v>206</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>385</v>
+        <v>508</v>
       </c>
       <c r="E84" s="2"/>
     </row>
@@ -3657,13 +4111,13 @@
         <v>282</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>218</v>
+        <v>206</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>289</v>
+        <v>206</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="E85" s="2"/>
     </row>
@@ -3672,43 +4126,43 @@
         <v>0</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>50</v>
+        <v>286</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>289</v>
+        <v>206</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="E86" s="2"/>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A87" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B87" s="2" t="s">
-        <v>53</v>
+        <v>282</v>
+      </c>
+      <c r="B87" t="s">
+        <v>595</v>
       </c>
       <c r="C87" s="2" t="s">
         <v>289</v>
       </c>
-      <c r="D87" s="2" t="s">
-        <v>390</v>
+      <c r="D87" t="s">
+        <v>595</v>
       </c>
       <c r="E87" s="2"/>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A88" s="2" t="s">
-        <v>6</v>
+        <v>282</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>28</v>
+        <v>386</v>
       </c>
       <c r="C88" s="2" t="s">
         <v>289</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
       <c r="E88" s="2"/>
     </row>
@@ -3717,37 +4171,36 @@
         <v>0</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="C89" s="2" t="s">
         <v>289</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>393</v>
+        <v>386</v>
       </c>
       <c r="E89" s="2"/>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A90" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B90" s="2" t="s">
-        <v>55</v>
+        <v>282</v>
+      </c>
+      <c r="B90" t="s">
+        <v>593</v>
       </c>
       <c r="C90" s="2" t="s">
         <v>289</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>392</v>
-      </c>
-      <c r="E90" s="2"/>
+        <v>593</v>
+      </c>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A91" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C91" s="2" t="s">
         <v>289</v>
@@ -3755,216 +4208,228 @@
       <c r="D91" s="2" t="s">
         <v>389</v>
       </c>
-      <c r="E91" s="2"/>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A92" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="D92" s="2"/>
+        <v>289</v>
+      </c>
+      <c r="D92" s="2" t="s">
+        <v>383</v>
+      </c>
       <c r="E92" s="2"/>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A93" s="2" t="s">
-        <v>6</v>
+        <v>26</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>59</v>
+        <v>331</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="D93" s="2"/>
+        <v>289</v>
+      </c>
+      <c r="D93" s="2" t="s">
+        <v>383</v>
+      </c>
       <c r="E93" s="2"/>
     </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A94" s="2" t="s">
         <v>282</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>58</v>
+        <v>522</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="D94" s="2"/>
+        <v>289</v>
+      </c>
+      <c r="D94" s="2" t="s">
+        <v>383</v>
+      </c>
       <c r="E94" s="2"/>
     </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A95" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B95" s="2" t="s">
-        <v>481</v>
-      </c>
-      <c r="C95" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="D95" s="2"/>
+        <v>282</v>
+      </c>
+      <c r="B95" t="s">
+        <v>536</v>
+      </c>
+      <c r="C95" t="s">
+        <v>289</v>
+      </c>
+      <c r="D95" t="s">
+        <v>383</v>
+      </c>
       <c r="E95" s="2"/>
     </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A96" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="B96" s="2" t="s">
-        <v>509</v>
+        <v>282</v>
+      </c>
+      <c r="B96" t="s">
+        <v>546</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="D96" s="2"/>
+        <v>289</v>
+      </c>
+      <c r="D96" s="2" t="s">
+        <v>384</v>
+      </c>
       <c r="E96" s="2"/>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A97" s="2" t="s">
-        <v>0</v>
+        <v>282</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>60</v>
+        <v>218</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="D97" s="2"/>
+        <v>289</v>
+      </c>
+      <c r="D97" s="2" t="s">
+        <v>384</v>
+      </c>
       <c r="E97" s="2"/>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A98" s="2" t="s">
-        <v>282</v>
+        <v>0</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="D98" s="2"/>
-      <c r="E98" s="2"/>
+        <v>289</v>
+      </c>
+      <c r="D98" s="2" t="s">
+        <v>385</v>
+      </c>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A99" s="2" t="s">
-        <v>282</v>
+        <v>0</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>208</v>
+        <v>53</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>308</v>
+        <v>289</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>208</v>
+        <v>388</v>
       </c>
       <c r="E99" s="2"/>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A100" s="2" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>187</v>
+        <v>28</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>308</v>
+        <v>289</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>210</v>
+        <v>388</v>
       </c>
       <c r="E100" s="2"/>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A101" s="2" t="s">
-        <v>282</v>
+        <v>0</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>210</v>
+        <v>56</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>308</v>
+        <v>289</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>210</v>
+        <v>391</v>
       </c>
       <c r="E101" s="2"/>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A102" s="2" t="s">
-        <v>6</v>
+        <v>282</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>77</v>
+        <v>520</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>308</v>
+        <v>289</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>259</v>
+        <v>197</v>
       </c>
       <c r="E102" s="2"/>
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A103" s="2" t="s">
-        <v>282</v>
+        <v>0</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>259</v>
+        <v>55</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>308</v>
+        <v>289</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>259</v>
+        <v>390</v>
       </c>
       <c r="E103" s="2"/>
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A104" s="2" t="s">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>441</v>
+        <v>52</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>308</v>
+        <v>289</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>308</v>
+        <v>387</v>
       </c>
       <c r="E104" s="2"/>
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A105" s="2" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>76</v>
+        <v>57</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>308</v>
+        <v>58</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>395</v>
+        <v>521</v>
       </c>
       <c r="E105" s="2"/>
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A106" s="2" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>462</v>
+        <v>59</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>308</v>
+        <v>58</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>524</v>
+        <v>521</v>
       </c>
       <c r="E106" s="2"/>
     </row>
@@ -3973,59 +4438,57 @@
         <v>282</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>251</v>
+        <v>58</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>308</v>
+        <v>58</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>251</v>
+        <v>383</v>
       </c>
       <c r="E107" s="2"/>
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A108" s="2" t="s">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>507</v>
+        <v>477</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>308</v>
+        <v>58</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="E108" s="2"/>
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A109" s="2" t="s">
-        <v>282</v>
+        <v>26</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>250</v>
+        <v>505</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>308</v>
+        <v>58</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>250</v>
+        <v>383</v>
       </c>
       <c r="E109" s="2"/>
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A110" s="2" t="s">
-        <v>282</v>
+        <v>0</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>258</v>
+        <v>60</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>308</v>
-      </c>
-      <c r="D110" s="2" t="s">
-        <v>258</v>
-      </c>
+        <v>60</v>
+      </c>
+      <c r="D110" s="2"/>
       <c r="E110" s="2"/>
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.2">
@@ -4033,14 +4496,12 @@
         <v>282</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>267</v>
+        <v>60</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>308</v>
-      </c>
-      <c r="D111" s="2" t="s">
-        <v>267</v>
-      </c>
+        <v>60</v>
+      </c>
+      <c r="D111" s="2"/>
       <c r="E111" s="2"/>
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.2">
@@ -4048,236 +4509,238 @@
         <v>282</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>245</v>
+        <v>208</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>245</v>
+        <v>208</v>
       </c>
       <c r="E112" s="2"/>
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A113" s="2" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>394</v>
+        <v>210</v>
       </c>
       <c r="E113" s="2"/>
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A114" s="2" t="s">
-        <v>9</v>
+        <v>282</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>189</v>
+        <v>210</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>394</v>
+        <v>210</v>
       </c>
       <c r="E114" s="2"/>
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A115" s="2" t="s">
-        <v>282</v>
+        <v>6</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>195</v>
+        <v>77</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>195</v>
-      </c>
-      <c r="D115" s="2"/>
+        <v>307</v>
+      </c>
+      <c r="D115" s="2" t="s">
+        <v>259</v>
+      </c>
       <c r="E115" s="2"/>
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A116" s="2" t="s">
-        <v>0</v>
+        <v>282</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>63</v>
+        <v>259</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>83</v>
+        <v>307</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>398</v>
+        <v>259</v>
       </c>
       <c r="E116" s="2"/>
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A117" s="2" t="s">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>137</v>
+        <v>437</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>83</v>
+        <v>307</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>398</v>
+        <v>307</v>
       </c>
       <c r="E117" s="2"/>
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A118" s="2" t="s">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>64</v>
+        <v>76</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>83</v>
+        <v>307</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>420</v>
+        <v>393</v>
       </c>
       <c r="E118" s="2"/>
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A119" s="2" t="s">
-        <v>0</v>
+        <v>282</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>72</v>
+        <v>539</v>
       </c>
       <c r="C119" s="2" t="s">
-        <v>83</v>
+        <v>307</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>422</v>
+        <v>539</v>
       </c>
       <c r="E119" s="2"/>
     </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A120" s="2" t="s">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>71</v>
+        <v>458</v>
       </c>
       <c r="C120" s="2" t="s">
-        <v>83</v>
+        <v>307</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>426</v>
+        <v>539</v>
       </c>
       <c r="E120" s="2"/>
     </row>
     <row r="121" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A121" s="2" t="s">
-        <v>0</v>
+        <v>282</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>84</v>
+        <v>251</v>
       </c>
       <c r="C121" s="2" t="s">
-        <v>83</v>
+        <v>307</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>424</v>
+        <v>251</v>
       </c>
       <c r="E121" s="2"/>
     </row>
     <row r="122" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A122" s="2" t="s">
-        <v>0</v>
+        <v>282</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>454</v>
+        <v>307</v>
       </c>
       <c r="C122" s="2" t="s">
-        <v>83</v>
+        <v>307</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>431</v>
+        <v>383</v>
       </c>
       <c r="E122" s="2"/>
     </row>
     <row r="123" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A123" s="2" t="s">
-        <v>0</v>
+        <v>282</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>168</v>
+        <v>250</v>
       </c>
       <c r="C123" s="2" t="s">
-        <v>83</v>
+        <v>307</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>168</v>
+        <v>250</v>
       </c>
       <c r="E123" s="2"/>
     </row>
     <row r="124" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A124" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B124" s="2" t="s">
-        <v>39</v>
+        <v>282</v>
+      </c>
+      <c r="B124" t="s">
+        <v>617</v>
       </c>
       <c r="C124" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="D124" s="2" t="s">
-        <v>40</v>
+        <v>307</v>
+      </c>
+      <c r="D124" s="5" t="s">
+        <v>617</v>
       </c>
       <c r="E124" s="2"/>
     </row>
     <row r="125" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A125" s="2" t="s">
-        <v>9</v>
+        <v>282</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>41</v>
+        <v>258</v>
       </c>
       <c r="C125" s="2" t="s">
-        <v>83</v>
+        <v>307</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>40</v>
+        <v>258</v>
       </c>
       <c r="E125" s="2"/>
     </row>
     <row r="126" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A126" s="2" t="s">
-        <v>6</v>
+        <v>282</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>40</v>
+        <v>633</v>
       </c>
       <c r="C126" s="2" t="s">
-        <v>83</v>
+        <v>307</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>40</v>
+        <v>633</v>
       </c>
       <c r="E126" s="2"/>
     </row>
     <row r="127" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A127" s="2" t="s">
-        <v>9</v>
+        <v>282</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>43</v>
+        <v>267</v>
       </c>
       <c r="C127" s="2" t="s">
-        <v>83</v>
+        <v>307</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>40</v>
+        <v>267</v>
       </c>
       <c r="E127" s="2"/>
     </row>
@@ -4286,74 +4749,72 @@
         <v>282</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>213</v>
+        <v>245</v>
       </c>
       <c r="C128" s="2" t="s">
-        <v>83</v>
+        <v>307</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>40</v>
+        <v>245</v>
       </c>
       <c r="E128" s="2"/>
     </row>
     <row r="129" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A129" s="2" t="s">
-        <v>31</v>
+        <v>9</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>461</v>
+        <v>503</v>
       </c>
       <c r="C129" s="2" t="s">
-        <v>83</v>
+        <v>307</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>40</v>
+        <v>392</v>
       </c>
       <c r="E129" s="2"/>
     </row>
     <row r="130" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A130" s="2" t="s">
-        <v>31</v>
+        <v>6</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>42</v>
+        <v>188</v>
       </c>
       <c r="C130" s="2" t="s">
-        <v>83</v>
+        <v>307</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>213</v>
+        <v>392</v>
       </c>
       <c r="E130" s="2"/>
     </row>
     <row r="131" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A131" s="2" t="s">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>169</v>
+        <v>189</v>
       </c>
       <c r="C131" s="2" t="s">
-        <v>83</v>
+        <v>307</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>169</v>
+        <v>392</v>
       </c>
       <c r="E131" s="2"/>
     </row>
     <row r="132" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A132" s="2" t="s">
-        <v>9</v>
+        <v>282</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>508</v>
+        <v>195</v>
       </c>
       <c r="C132" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="D132" s="2" t="s">
-        <v>523</v>
-      </c>
+        <v>195</v>
+      </c>
+      <c r="D132" s="2"/>
       <c r="E132" s="2"/>
     </row>
     <row r="133" spans="1:5" x14ac:dyDescent="0.2">
@@ -4361,7 +4822,7 @@
         <v>0</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C133" s="2" t="s">
         <v>83</v>
@@ -4376,7 +4837,7 @@
         <v>0</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>82</v>
+        <v>137</v>
       </c>
       <c r="C134" s="2" t="s">
         <v>83</v>
@@ -4391,13 +4852,13 @@
         <v>0</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>87</v>
+        <v>64</v>
       </c>
       <c r="C135" s="2" t="s">
         <v>83</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>425</v>
+        <v>417</v>
       </c>
       <c r="E135" s="2"/>
     </row>
@@ -4406,43 +4867,43 @@
         <v>0</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>492</v>
+        <v>72</v>
       </c>
       <c r="C136" s="2" t="s">
         <v>83</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="E136" s="2"/>
     </row>
     <row r="137" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A137" s="2" t="s">
-        <v>26</v>
+        <v>0</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>450</v>
+        <v>71</v>
       </c>
       <c r="C137" s="2" t="s">
         <v>83</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>522</v>
+        <v>423</v>
       </c>
       <c r="E137" s="2"/>
     </row>
     <row r="138" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A138" s="2" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>457</v>
+        <v>84</v>
       </c>
       <c r="C138" s="2" t="s">
         <v>83</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>522</v>
+        <v>421</v>
       </c>
       <c r="E138" s="2"/>
     </row>
@@ -4451,13 +4912,13 @@
         <v>0</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>66</v>
+        <v>450</v>
       </c>
       <c r="C139" s="2" t="s">
         <v>83</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>399</v>
+        <v>428</v>
       </c>
       <c r="E139" s="2"/>
     </row>
@@ -4466,118 +4927,118 @@
         <v>0</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>62</v>
+        <v>168</v>
       </c>
       <c r="C140" s="2" t="s">
         <v>83</v>
       </c>
       <c r="D140" s="2" t="s">
-        <v>397</v>
+        <v>168</v>
       </c>
       <c r="E140" s="2"/>
     </row>
     <row r="141" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A141" s="2" t="s">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>73</v>
+        <v>39</v>
       </c>
       <c r="C141" s="2" t="s">
         <v>83</v>
       </c>
       <c r="D141" s="2" t="s">
-        <v>427</v>
+        <v>40</v>
       </c>
       <c r="E141" s="2"/>
     </row>
     <row r="142" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A142" s="2" t="s">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>65</v>
+        <v>41</v>
       </c>
       <c r="C142" s="2" t="s">
         <v>83</v>
       </c>
       <c r="D142" s="2" t="s">
-        <v>419</v>
+        <v>40</v>
       </c>
       <c r="E142" s="2"/>
     </row>
     <row r="143" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A143" s="2" t="s">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>85</v>
+        <v>40</v>
       </c>
       <c r="C143" s="2" t="s">
         <v>83</v>
       </c>
       <c r="D143" s="2" t="s">
-        <v>419</v>
+        <v>40</v>
       </c>
       <c r="E143" s="2"/>
     </row>
     <row r="144" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A144" s="2" t="s">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>68</v>
+        <v>43</v>
       </c>
       <c r="C144" s="2" t="s">
         <v>83</v>
       </c>
       <c r="D144" s="2" t="s">
-        <v>400</v>
+        <v>40</v>
       </c>
       <c r="E144" s="2"/>
     </row>
     <row r="145" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A145" s="2" t="s">
-        <v>0</v>
+        <v>282</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>75</v>
+        <v>213</v>
       </c>
       <c r="C145" s="2" t="s">
         <v>83</v>
       </c>
       <c r="D145" s="2" t="s">
-        <v>400</v>
+        <v>40</v>
       </c>
       <c r="E145" s="2"/>
     </row>
     <row r="146" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A146" s="2" t="s">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>86</v>
+        <v>457</v>
       </c>
       <c r="C146" s="2" t="s">
         <v>83</v>
       </c>
       <c r="D146" s="2" t="s">
-        <v>400</v>
+        <v>40</v>
       </c>
       <c r="E146" s="2"/>
     </row>
     <row r="147" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A147" s="2" t="s">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>140</v>
+        <v>42</v>
       </c>
       <c r="C147" s="2" t="s">
         <v>83</v>
       </c>
       <c r="D147" s="2" t="s">
-        <v>400</v>
+        <v>213</v>
       </c>
       <c r="E147" s="2"/>
     </row>
@@ -4586,43 +5047,43 @@
         <v>0</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>70</v>
+        <v>169</v>
       </c>
       <c r="C148" s="2" t="s">
         <v>83</v>
       </c>
       <c r="D148" s="2" t="s">
-        <v>402</v>
+        <v>169</v>
       </c>
       <c r="E148" s="2"/>
     </row>
     <row r="149" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A149" s="2" t="s">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>74</v>
+        <v>504</v>
       </c>
       <c r="C149" s="2" t="s">
         <v>83</v>
       </c>
       <c r="D149" s="2" t="s">
-        <v>403</v>
+        <v>519</v>
       </c>
       <c r="E149" s="2"/>
     </row>
     <row r="150" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A150" s="2" t="s">
-        <v>282</v>
+        <v>0</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>207</v>
+        <v>61</v>
       </c>
       <c r="C150" s="2" t="s">
         <v>83</v>
       </c>
       <c r="D150" s="2" t="s">
-        <v>385</v>
+        <v>394</v>
       </c>
       <c r="E150" s="2"/>
     </row>
@@ -4631,28 +5092,28 @@
         <v>0</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="C151" s="2" t="s">
         <v>83</v>
       </c>
       <c r="D151" s="2" t="s">
-        <v>385</v>
+        <v>394</v>
       </c>
       <c r="E151" s="2"/>
     </row>
     <row r="152" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A152" s="2" t="s">
-        <v>282</v>
+        <v>0</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>216</v>
+        <v>87</v>
       </c>
       <c r="C152" s="2" t="s">
         <v>83</v>
       </c>
       <c r="D152" s="2" t="s">
-        <v>385</v>
+        <v>422</v>
       </c>
       <c r="E152" s="2"/>
     </row>
@@ -4661,13 +5122,13 @@
         <v>0</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>446</v>
+        <v>488</v>
       </c>
       <c r="C153" s="2" t="s">
         <v>83</v>
       </c>
       <c r="D153" s="2" t="s">
-        <v>385</v>
+        <v>415</v>
       </c>
       <c r="E153" s="2"/>
     </row>
@@ -4676,43 +5137,43 @@
         <v>26</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>455</v>
+        <v>446</v>
       </c>
       <c r="C154" s="2" t="s">
         <v>83</v>
       </c>
       <c r="D154" s="2" t="s">
-        <v>385</v>
+        <v>518</v>
       </c>
       <c r="E154" s="2"/>
     </row>
     <row r="155" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A155" s="2" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B155" s="2" t="s">
-        <v>173</v>
+        <v>453</v>
       </c>
       <c r="C155" s="2" t="s">
         <v>83</v>
       </c>
       <c r="D155" s="2" t="s">
-        <v>174</v>
+        <v>518</v>
       </c>
       <c r="E155" s="2"/>
     </row>
     <row r="156" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A156" s="2" t="s">
-        <v>0</v>
+        <v>282</v>
       </c>
       <c r="B156" s="2" t="s">
-        <v>69</v>
+        <v>207</v>
       </c>
       <c r="C156" s="2" t="s">
         <v>83</v>
       </c>
       <c r="D156" s="2" t="s">
-        <v>401</v>
+        <v>635</v>
       </c>
       <c r="E156" s="2"/>
     </row>
@@ -4721,28 +5182,28 @@
         <v>0</v>
       </c>
       <c r="B157" s="2" t="s">
-        <v>89</v>
+        <v>66</v>
       </c>
       <c r="C157" s="2" t="s">
         <v>83</v>
       </c>
       <c r="D157" s="2" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
       <c r="E157" s="2"/>
     </row>
     <row r="158" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A158" s="2" t="s">
-        <v>0</v>
+        <v>282</v>
       </c>
       <c r="B158" s="2" t="s">
-        <v>67</v>
+        <v>634</v>
       </c>
       <c r="C158" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="D158" s="2" t="s">
-        <v>239</v>
+      <c r="D158" s="5" t="s">
+        <v>634</v>
       </c>
       <c r="E158" s="2"/>
     </row>
@@ -4751,51 +5212,55 @@
         <v>0</v>
       </c>
       <c r="B159" s="2" t="s">
-        <v>442</v>
+        <v>62</v>
       </c>
       <c r="C159" s="2" t="s">
         <v>83</v>
       </c>
       <c r="D159" s="2" t="s">
-        <v>239</v>
+        <v>395</v>
       </c>
       <c r="E159" s="2"/>
     </row>
     <row r="160" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A160" s="2" t="s">
-        <v>282</v>
+        <v>0</v>
       </c>
       <c r="B160" s="2" t="s">
-        <v>244</v>
+        <v>73</v>
       </c>
       <c r="C160" s="2" t="s">
-        <v>378</v>
-      </c>
-      <c r="D160" s="2"/>
+        <v>83</v>
+      </c>
+      <c r="D160" s="2" t="s">
+        <v>424</v>
+      </c>
       <c r="E160" s="2"/>
     </row>
     <row r="161" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A161" s="2" t="s">
-        <v>282</v>
+        <v>0</v>
       </c>
       <c r="B161" s="2" t="s">
-        <v>260</v>
+        <v>65</v>
       </c>
       <c r="C161" s="2" t="s">
-        <v>260</v>
-      </c>
-      <c r="D161" s="2"/>
+        <v>83</v>
+      </c>
+      <c r="D161" s="2" t="s">
+        <v>416</v>
+      </c>
       <c r="E161" s="2"/>
     </row>
     <row r="162" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A162" s="2" t="s">
-        <v>26</v>
+        <v>0</v>
       </c>
       <c r="B162" s="2" t="s">
-        <v>106</v>
+        <v>85</v>
       </c>
       <c r="C162" s="2" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="D162" s="2" t="s">
         <v>416</v>
@@ -4804,16 +5269,16 @@
     </row>
     <row r="163" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A163" s="2" t="s">
-        <v>0</v>
+        <v>282</v>
       </c>
       <c r="B163" s="2" t="s">
-        <v>98</v>
+        <v>216</v>
       </c>
       <c r="C163" s="2" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="D163" s="2" t="s">
-        <v>414</v>
+        <v>216</v>
       </c>
       <c r="E163" s="2"/>
     </row>
@@ -4822,13 +5287,13 @@
         <v>0</v>
       </c>
       <c r="B164" s="2" t="s">
-        <v>102</v>
+        <v>68</v>
       </c>
       <c r="C164" s="2" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="D164" s="2" t="s">
-        <v>415</v>
+        <v>398</v>
       </c>
       <c r="E164" s="2"/>
     </row>
@@ -4837,28 +5302,28 @@
         <v>0</v>
       </c>
       <c r="B165" s="2" t="s">
-        <v>92</v>
+        <v>75</v>
       </c>
       <c r="C165" s="2" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="D165" s="2" t="s">
-        <v>412</v>
+        <v>398</v>
       </c>
       <c r="E165" s="2"/>
     </row>
     <row r="166" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A166" s="2" t="s">
-        <v>26</v>
+        <v>0</v>
       </c>
       <c r="B166" s="2" t="s">
-        <v>108</v>
+        <v>86</v>
       </c>
       <c r="C166" s="2" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="D166" s="2" t="s">
-        <v>412</v>
+        <v>398</v>
       </c>
       <c r="E166" s="2"/>
     </row>
@@ -4867,28 +5332,28 @@
         <v>0</v>
       </c>
       <c r="B167" s="2" t="s">
-        <v>91</v>
+        <v>140</v>
       </c>
       <c r="C167" s="2" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="D167" s="2" t="s">
-        <v>413</v>
+        <v>398</v>
       </c>
       <c r="E167" s="2"/>
     </row>
     <row r="168" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A168" s="2" t="s">
-        <v>26</v>
+        <v>0</v>
       </c>
       <c r="B168" s="2" t="s">
-        <v>453</v>
+        <v>70</v>
       </c>
       <c r="C168" s="2" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="D168" s="2" t="s">
-        <v>521</v>
+        <v>400</v>
       </c>
       <c r="E168" s="2"/>
     </row>
@@ -4897,13 +5362,13 @@
         <v>0</v>
       </c>
       <c r="B169" s="2" t="s">
-        <v>93</v>
+        <v>74</v>
       </c>
       <c r="C169" s="2" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="D169" s="2" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="E169" s="2"/>
     </row>
@@ -4912,13 +5377,13 @@
         <v>0</v>
       </c>
       <c r="B170" s="2" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="C170" s="2" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="D170" s="2" t="s">
-        <v>405</v>
+        <v>383</v>
       </c>
       <c r="E170" s="2"/>
     </row>
@@ -4927,73 +5392,73 @@
         <v>0</v>
       </c>
       <c r="B171" s="2" t="s">
-        <v>103</v>
+        <v>442</v>
       </c>
       <c r="C171" s="2" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="D171" s="2" t="s">
-        <v>411</v>
+        <v>383</v>
       </c>
       <c r="E171" s="2"/>
     </row>
     <row r="172" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A172" s="2" t="s">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="B172" s="2" t="s">
-        <v>99</v>
+        <v>451</v>
       </c>
       <c r="C172" s="2" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="D172" s="2" t="s">
-        <v>202</v>
+        <v>383</v>
       </c>
       <c r="E172" s="2"/>
     </row>
     <row r="173" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A173" s="2" t="s">
-        <v>282</v>
+        <v>9</v>
       </c>
       <c r="B173" s="2" t="s">
-        <v>202</v>
+        <v>173</v>
       </c>
       <c r="C173" s="2" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="D173" s="2" t="s">
-        <v>202</v>
+        <v>174</v>
       </c>
       <c r="E173" s="2"/>
     </row>
     <row r="174" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A174" s="2" t="s">
-        <v>26</v>
+        <v>0</v>
       </c>
       <c r="B174" s="2" t="s">
-        <v>460</v>
+        <v>69</v>
       </c>
       <c r="C174" s="2" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="D174" s="2" t="s">
-        <v>202</v>
+        <v>399</v>
       </c>
       <c r="E174" s="2"/>
     </row>
     <row r="175" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A175" s="2" t="s">
-        <v>282</v>
+        <v>0</v>
       </c>
       <c r="B175" s="2" t="s">
-        <v>205</v>
+        <v>89</v>
       </c>
       <c r="C175" s="2" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="D175" s="2" t="s">
-        <v>205</v>
+        <v>399</v>
       </c>
       <c r="E175" s="2"/>
     </row>
@@ -5002,115 +5467,114 @@
         <v>0</v>
       </c>
       <c r="B176" s="2" t="s">
-        <v>97</v>
+        <v>67</v>
       </c>
       <c r="C176" s="2" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="D176" s="2" t="s">
-        <v>408</v>
-      </c>
-      <c r="E176" s="2"/>
+        <v>239</v>
+      </c>
     </row>
     <row r="177" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A177" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B177" s="2" t="s">
-        <v>101</v>
+        <v>438</v>
       </c>
       <c r="C177" s="2" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="D177" s="2" t="s">
-        <v>410</v>
+        <v>239</v>
       </c>
       <c r="E177" s="2"/>
     </row>
     <row r="178" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A178" s="2" t="s">
-        <v>0</v>
+        <v>282</v>
       </c>
       <c r="B178" s="2" t="s">
-        <v>95</v>
+        <v>244</v>
       </c>
       <c r="C178" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="D178" s="2" t="s">
-        <v>406</v>
-      </c>
+        <v>376</v>
+      </c>
+      <c r="D178" s="2"/>
       <c r="E178" s="2"/>
     </row>
     <row r="179" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A179" s="2" t="s">
-        <v>0</v>
+        <v>282</v>
       </c>
       <c r="B179" s="2" t="s">
-        <v>100</v>
+        <v>260</v>
       </c>
       <c r="C179" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="D179" s="2"/>
+      <c r="E179" s="2"/>
+    </row>
+    <row r="180" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A180" t="s">
+        <v>282</v>
+      </c>
+      <c r="B180" t="s">
+        <v>597</v>
+      </c>
+      <c r="C180" t="s">
         <v>90</v>
       </c>
-      <c r="D179" s="2" t="s">
-        <v>409</v>
-      </c>
-      <c r="E179" s="2"/>
-    </row>
-    <row r="180" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A180" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B180" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="C180" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="D180" s="2" t="s">
-        <v>407</v>
+      <c r="D180" t="s">
+        <v>597</v>
       </c>
       <c r="E180" s="2"/>
     </row>
     <row r="181" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A181" s="2" t="s">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="B181" s="2" t="s">
-        <v>488</v>
+        <v>106</v>
       </c>
       <c r="C181" s="2" t="s">
         <v>90</v>
       </c>
       <c r="D181" s="2" t="s">
-        <v>520</v>
+        <v>597</v>
       </c>
       <c r="E181" s="2"/>
     </row>
     <row r="182" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A182" s="2" t="s">
-        <v>282</v>
+        <v>0</v>
       </c>
       <c r="B182" s="2" t="s">
-        <v>220</v>
+        <v>98</v>
       </c>
       <c r="C182" s="2" t="s">
-        <v>198</v>
-      </c>
-      <c r="D182" s="2"/>
+        <v>90</v>
+      </c>
+      <c r="D182" s="2" t="s">
+        <v>412</v>
+      </c>
       <c r="E182" s="2"/>
     </row>
     <row r="183" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A183" s="2" t="s">
-        <v>282</v>
+        <v>0</v>
       </c>
       <c r="B183" s="2" t="s">
-        <v>221</v>
+        <v>102</v>
       </c>
       <c r="C183" s="2" t="s">
-        <v>198</v>
-      </c>
-      <c r="D183" s="2"/>
+        <v>90</v>
+      </c>
+      <c r="D183" s="2" t="s">
+        <v>413</v>
+      </c>
       <c r="E183" s="2"/>
     </row>
     <row r="184" spans="1:5" x14ac:dyDescent="0.2">
@@ -5118,64 +5582,74 @@
         <v>282</v>
       </c>
       <c r="B184" s="2" t="s">
-        <v>222</v>
+        <v>603</v>
       </c>
       <c r="C184" s="2" t="s">
-        <v>198</v>
-      </c>
-      <c r="D184" s="2"/>
+        <v>90</v>
+      </c>
+      <c r="D184" s="2" t="s">
+        <v>603</v>
+      </c>
       <c r="E184" s="2"/>
     </row>
     <row r="185" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A185" s="2" t="s">
-        <v>282</v>
+        <v>0</v>
       </c>
       <c r="B185" s="2" t="s">
-        <v>223</v>
+        <v>92</v>
       </c>
       <c r="C185" s="2" t="s">
-        <v>198</v>
-      </c>
-      <c r="D185" s="2"/>
+        <v>90</v>
+      </c>
+      <c r="D185" s="2" t="s">
+        <v>410</v>
+      </c>
       <c r="E185" s="2"/>
     </row>
     <row r="186" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A186" s="2" t="s">
-        <v>282</v>
+        <v>26</v>
       </c>
       <c r="B186" s="2" t="s">
-        <v>224</v>
+        <v>108</v>
       </c>
       <c r="C186" s="2" t="s">
-        <v>198</v>
-      </c>
-      <c r="D186" s="2"/>
+        <v>90</v>
+      </c>
+      <c r="D186" s="2" t="s">
+        <v>410</v>
+      </c>
       <c r="E186" s="2"/>
     </row>
     <row r="187" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A187" s="2" t="s">
-        <v>282</v>
+        <v>0</v>
       </c>
       <c r="B187" s="2" t="s">
-        <v>225</v>
+        <v>91</v>
       </c>
       <c r="C187" s="2" t="s">
-        <v>198</v>
-      </c>
-      <c r="D187" s="2"/>
+        <v>90</v>
+      </c>
+      <c r="D187" s="2" t="s">
+        <v>411</v>
+      </c>
       <c r="E187" s="2"/>
     </row>
     <row r="188" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A188" s="2" t="s">
-        <v>282</v>
+        <v>26</v>
       </c>
       <c r="B188" s="2" t="s">
-        <v>226</v>
+        <v>449</v>
       </c>
       <c r="C188" s="2" t="s">
-        <v>198</v>
-      </c>
-      <c r="D188" s="2"/>
+        <v>90</v>
+      </c>
+      <c r="D188" s="2" t="s">
+        <v>517</v>
+      </c>
       <c r="E188" s="2"/>
     </row>
     <row r="189" spans="1:5" x14ac:dyDescent="0.2">
@@ -5183,12 +5657,14 @@
         <v>282</v>
       </c>
       <c r="B189" s="2" t="s">
-        <v>227</v>
+        <v>591</v>
       </c>
       <c r="C189" s="2" t="s">
-        <v>198</v>
-      </c>
-      <c r="D189" s="2"/>
+        <v>90</v>
+      </c>
+      <c r="D189" s="2" t="s">
+        <v>517</v>
+      </c>
       <c r="E189" s="2"/>
     </row>
     <row r="190" spans="1:5" x14ac:dyDescent="0.2">
@@ -5196,12 +5672,14 @@
         <v>282</v>
       </c>
       <c r="B190" s="2" t="s">
-        <v>228</v>
+        <v>554</v>
       </c>
       <c r="C190" s="2" t="s">
-        <v>198</v>
-      </c>
-      <c r="D190" s="2"/>
+        <v>90</v>
+      </c>
+      <c r="D190" s="2" t="s">
+        <v>517</v>
+      </c>
       <c r="E190" s="2"/>
     </row>
     <row r="191" spans="1:5" x14ac:dyDescent="0.2">
@@ -5209,64 +5687,74 @@
         <v>282</v>
       </c>
       <c r="B191" s="2" t="s">
-        <v>229</v>
+        <v>547</v>
       </c>
       <c r="C191" s="2" t="s">
-        <v>198</v>
-      </c>
-      <c r="D191" s="2"/>
+        <v>90</v>
+      </c>
+      <c r="D191" s="2" t="s">
+        <v>548</v>
+      </c>
       <c r="E191" s="2"/>
     </row>
     <row r="192" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A192" s="2" t="s">
-        <v>282</v>
+        <v>0</v>
       </c>
       <c r="B192" s="2" t="s">
-        <v>230</v>
+        <v>93</v>
       </c>
       <c r="C192" s="2" t="s">
-        <v>198</v>
-      </c>
-      <c r="D192" s="2"/>
+        <v>90</v>
+      </c>
+      <c r="D192" s="2" t="s">
+        <v>402</v>
+      </c>
       <c r="E192" s="2"/>
     </row>
     <row r="193" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A193" s="2" t="s">
-        <v>282</v>
+        <v>0</v>
       </c>
       <c r="B193" s="2" t="s">
-        <v>225</v>
+        <v>94</v>
       </c>
       <c r="C193" s="2" t="s">
-        <v>198</v>
-      </c>
-      <c r="D193" s="2"/>
+        <v>90</v>
+      </c>
+      <c r="D193" s="2" t="s">
+        <v>403</v>
+      </c>
       <c r="E193" s="2"/>
     </row>
     <row r="194" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A194" s="2" t="s">
-        <v>282</v>
+        <v>0</v>
       </c>
       <c r="B194" s="2" t="s">
-        <v>275</v>
+        <v>103</v>
       </c>
       <c r="C194" s="2" t="s">
-        <v>198</v>
-      </c>
-      <c r="D194" s="2"/>
+        <v>90</v>
+      </c>
+      <c r="D194" s="2" t="s">
+        <v>409</v>
+      </c>
       <c r="E194" s="2"/>
     </row>
     <row r="195" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A195" s="2" t="s">
-        <v>282</v>
+        <v>0</v>
       </c>
       <c r="B195" s="2" t="s">
-        <v>294</v>
+        <v>99</v>
       </c>
       <c r="C195" s="2" t="s">
-        <v>198</v>
-      </c>
-      <c r="D195" s="2"/>
+        <v>90</v>
+      </c>
+      <c r="D195" s="2" t="s">
+        <v>202</v>
+      </c>
       <c r="E195" s="2"/>
     </row>
     <row r="196" spans="1:5" x14ac:dyDescent="0.2">
@@ -5274,25 +5762,29 @@
         <v>282</v>
       </c>
       <c r="B196" s="2" t="s">
-        <v>295</v>
+        <v>202</v>
       </c>
       <c r="C196" s="2" t="s">
-        <v>198</v>
-      </c>
-      <c r="D196" s="2"/>
+        <v>90</v>
+      </c>
+      <c r="D196" s="2" t="s">
+        <v>202</v>
+      </c>
       <c r="E196" s="2"/>
     </row>
     <row r="197" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A197" s="2" t="s">
-        <v>282</v>
+        <v>26</v>
       </c>
       <c r="B197" s="2" t="s">
-        <v>296</v>
+        <v>456</v>
       </c>
       <c r="C197" s="2" t="s">
-        <v>198</v>
-      </c>
-      <c r="D197" s="2"/>
+        <v>90</v>
+      </c>
+      <c r="D197" s="2" t="s">
+        <v>202</v>
+      </c>
       <c r="E197" s="2"/>
     </row>
     <row r="198" spans="1:5" x14ac:dyDescent="0.2">
@@ -5300,90 +5792,104 @@
         <v>282</v>
       </c>
       <c r="B198" s="2" t="s">
-        <v>297</v>
+        <v>205</v>
       </c>
       <c r="C198" s="2" t="s">
-        <v>198</v>
-      </c>
-      <c r="D198" s="2"/>
+        <v>90</v>
+      </c>
+      <c r="D198" s="2" t="s">
+        <v>205</v>
+      </c>
       <c r="E198" s="2"/>
     </row>
     <row r="199" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A199" s="2" t="s">
-        <v>282</v>
+        <v>0</v>
       </c>
       <c r="B199" s="2" t="s">
-        <v>298</v>
+        <v>97</v>
       </c>
       <c r="C199" s="2" t="s">
-        <v>198</v>
-      </c>
-      <c r="D199" s="2"/>
+        <v>90</v>
+      </c>
+      <c r="D199" s="2" t="s">
+        <v>406</v>
+      </c>
       <c r="E199" s="2"/>
     </row>
     <row r="200" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A200" s="2" t="s">
-        <v>282</v>
+        <v>0</v>
       </c>
       <c r="B200" s="2" t="s">
-        <v>299</v>
+        <v>101</v>
       </c>
       <c r="C200" s="2" t="s">
-        <v>198</v>
-      </c>
-      <c r="D200" s="2"/>
+        <v>90</v>
+      </c>
+      <c r="D200" s="2" t="s">
+        <v>408</v>
+      </c>
       <c r="E200" s="2"/>
     </row>
     <row r="201" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A201" s="2" t="s">
-        <v>282</v>
+        <v>0</v>
       </c>
       <c r="B201" s="2" t="s">
-        <v>301</v>
+        <v>95</v>
       </c>
       <c r="C201" s="2" t="s">
-        <v>198</v>
-      </c>
-      <c r="D201" s="2"/>
+        <v>90</v>
+      </c>
+      <c r="D201" s="2" t="s">
+        <v>404</v>
+      </c>
       <c r="E201" s="2"/>
     </row>
     <row r="202" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A202" s="2" t="s">
-        <v>282</v>
+        <v>0</v>
       </c>
       <c r="B202" s="2" t="s">
-        <v>302</v>
+        <v>100</v>
       </c>
       <c r="C202" s="2" t="s">
-        <v>198</v>
-      </c>
-      <c r="D202" s="2"/>
+        <v>90</v>
+      </c>
+      <c r="D202" s="2" t="s">
+        <v>407</v>
+      </c>
       <c r="E202" s="2"/>
     </row>
     <row r="203" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A203" s="2" t="s">
-        <v>282</v>
+        <v>0</v>
       </c>
       <c r="B203" s="2" t="s">
-        <v>304</v>
+        <v>96</v>
       </c>
       <c r="C203" s="2" t="s">
-        <v>198</v>
-      </c>
-      <c r="D203" s="2"/>
+        <v>90</v>
+      </c>
+      <c r="D203" s="2" t="s">
+        <v>405</v>
+      </c>
       <c r="E203" s="2"/>
     </row>
     <row r="204" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A204" s="2" t="s">
-        <v>282</v>
+        <v>0</v>
       </c>
       <c r="B204" s="2" t="s">
-        <v>305</v>
+        <v>484</v>
       </c>
       <c r="C204" s="2" t="s">
-        <v>198</v>
-      </c>
-      <c r="D204" s="2"/>
+        <v>90</v>
+      </c>
+      <c r="D204" s="2" t="s">
+        <v>516</v>
+      </c>
       <c r="E204" s="2"/>
     </row>
     <row r="205" spans="1:5" x14ac:dyDescent="0.2">
@@ -5391,7 +5897,7 @@
         <v>282</v>
       </c>
       <c r="B205" s="2" t="s">
-        <v>306</v>
+        <v>220</v>
       </c>
       <c r="C205" s="2" t="s">
         <v>198</v>
@@ -5404,7 +5910,7 @@
         <v>282</v>
       </c>
       <c r="B206" s="2" t="s">
-        <v>300</v>
+        <v>221</v>
       </c>
       <c r="C206" s="2" t="s">
         <v>198</v>
@@ -5414,39 +5920,39 @@
     </row>
     <row r="207" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A207" s="2" t="s">
-        <v>6</v>
+        <v>282</v>
       </c>
       <c r="B207" s="2" t="s">
-        <v>109</v>
+        <v>222</v>
       </c>
       <c r="C207" s="2" t="s">
-        <v>109</v>
+        <v>198</v>
       </c>
       <c r="D207" s="2"/>
       <c r="E207" s="2"/>
     </row>
     <row r="208" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A208" s="2" t="s">
-        <v>9</v>
+        <v>282</v>
       </c>
       <c r="B208" s="2" t="s">
-        <v>310</v>
+        <v>223</v>
       </c>
       <c r="C208" s="2" t="s">
-        <v>109</v>
+        <v>198</v>
       </c>
       <c r="D208" s="2"/>
       <c r="E208" s="2"/>
     </row>
     <row r="209" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A209" s="2" t="s">
-        <v>26</v>
+        <v>282</v>
       </c>
       <c r="B209" s="2" t="s">
-        <v>310</v>
+        <v>224</v>
       </c>
       <c r="C209" s="2" t="s">
-        <v>109</v>
+        <v>198</v>
       </c>
       <c r="D209" s="2"/>
       <c r="E209" s="2"/>
@@ -5456,374 +5962,324 @@
         <v>282</v>
       </c>
       <c r="B210" s="2" t="s">
-        <v>265</v>
+        <v>225</v>
       </c>
       <c r="C210" s="2" t="s">
-        <v>265</v>
+        <v>198</v>
       </c>
       <c r="D210" s="2"/>
       <c r="E210" s="2"/>
     </row>
     <row r="211" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A211" s="2" t="s">
-        <v>0</v>
+        <v>282</v>
       </c>
       <c r="B211" s="2" t="s">
-        <v>285</v>
+        <v>226</v>
       </c>
       <c r="C211" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="D211" s="2" t="s">
-        <v>398</v>
-      </c>
+        <v>198</v>
+      </c>
+      <c r="D211" s="2"/>
       <c r="E211" s="2"/>
     </row>
     <row r="212" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A212" s="2" t="s">
-        <v>0</v>
+        <v>282</v>
       </c>
       <c r="B212" s="2" t="s">
-        <v>116</v>
+        <v>227</v>
       </c>
       <c r="C212" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="D212" s="2" t="s">
-        <v>420</v>
-      </c>
+        <v>198</v>
+      </c>
+      <c r="D212" s="2"/>
       <c r="E212" s="2"/>
     </row>
     <row r="213" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A213" s="2" t="s">
-        <v>0</v>
+        <v>282</v>
       </c>
       <c r="B213" s="2" t="s">
-        <v>469</v>
+        <v>228</v>
       </c>
       <c r="C213" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="D213" s="2" t="s">
-        <v>513</v>
-      </c>
+        <v>198</v>
+      </c>
+      <c r="D213" s="2"/>
       <c r="E213" s="2"/>
     </row>
     <row r="214" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A214" s="2" t="s">
-        <v>0</v>
+        <v>282</v>
       </c>
       <c r="B214" s="2" t="s">
-        <v>118</v>
+        <v>229</v>
       </c>
       <c r="C214" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="D214" s="2" t="s">
-        <v>422</v>
-      </c>
+        <v>198</v>
+      </c>
+      <c r="D214" s="2"/>
       <c r="E214" s="2"/>
     </row>
     <row r="215" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A215" s="2" t="s">
-        <v>0</v>
+        <v>282</v>
       </c>
       <c r="B215" s="2" t="s">
-        <v>135</v>
+        <v>230</v>
       </c>
       <c r="C215" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="D215" s="2" t="s">
-        <v>430</v>
-      </c>
+        <v>198</v>
+      </c>
+      <c r="D215" s="2"/>
       <c r="E215" s="2"/>
     </row>
     <row r="216" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A216" s="2" t="s">
-        <v>0</v>
+        <v>282</v>
       </c>
       <c r="B216" s="2" t="s">
-        <v>494</v>
+        <v>225</v>
       </c>
       <c r="C216" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="D216" s="2" t="s">
-        <v>517</v>
-      </c>
+        <v>198</v>
+      </c>
+      <c r="D216" s="2"/>
       <c r="E216" s="2"/>
     </row>
     <row r="217" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A217" s="2" t="s">
-        <v>0</v>
+        <v>282</v>
       </c>
       <c r="B217" s="2" t="s">
-        <v>479</v>
+        <v>275</v>
       </c>
       <c r="C217" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="D217" s="2" t="s">
-        <v>516</v>
-      </c>
+        <v>198</v>
+      </c>
+      <c r="D217" s="2"/>
       <c r="E217" s="2"/>
     </row>
     <row r="218" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A218" s="2" t="s">
-        <v>0</v>
+        <v>282</v>
       </c>
       <c r="B218" s="2" t="s">
-        <v>478</v>
+        <v>294</v>
       </c>
       <c r="C218" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="D218" s="2" t="s">
-        <v>515</v>
-      </c>
+        <v>198</v>
+      </c>
+      <c r="D218" s="2"/>
       <c r="E218" s="2"/>
     </row>
     <row r="219" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A219" s="2" t="s">
-        <v>0</v>
+        <v>282</v>
       </c>
       <c r="B219" s="2" t="s">
-        <v>490</v>
+        <v>295</v>
       </c>
       <c r="C219" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="D219" s="2" t="s">
-        <v>424</v>
-      </c>
+        <v>198</v>
+      </c>
+      <c r="D219" s="2"/>
       <c r="E219" s="2"/>
     </row>
     <row r="220" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A220" s="2" t="s">
-        <v>0</v>
+        <v>282</v>
       </c>
       <c r="B220" s="2" t="s">
-        <v>117</v>
+        <v>296</v>
       </c>
       <c r="C220" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="D220" s="2" t="s">
-        <v>421</v>
-      </c>
+        <v>198</v>
+      </c>
+      <c r="D220" s="2"/>
       <c r="E220" s="2"/>
     </row>
     <row r="221" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A221" s="2" t="s">
-        <v>0</v>
+        <v>282</v>
       </c>
       <c r="B221" s="2" t="s">
-        <v>121</v>
+        <v>297</v>
       </c>
       <c r="C221" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="D221" s="2" t="s">
-        <v>421</v>
-      </c>
+        <v>198</v>
+      </c>
+      <c r="D221" s="2"/>
       <c r="E221" s="2"/>
     </row>
     <row r="222" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A222" s="2" t="s">
-        <v>0</v>
+        <v>282</v>
       </c>
       <c r="B222" s="2" t="s">
-        <v>136</v>
+        <v>298</v>
       </c>
       <c r="C222" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="D222" s="2" t="s">
-        <v>431</v>
-      </c>
+        <v>198</v>
+      </c>
+      <c r="D222" s="2"/>
       <c r="E222" s="2"/>
     </row>
     <row r="223" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A223" s="2" t="s">
-        <v>26</v>
+        <v>282</v>
       </c>
       <c r="B223" s="2" t="s">
-        <v>107</v>
+        <v>299</v>
       </c>
       <c r="C223" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="D223" s="2" t="s">
-        <v>379</v>
-      </c>
-      <c r="E223" s="2" t="s">
-        <v>316</v>
-      </c>
+        <v>198</v>
+      </c>
+      <c r="D223" s="2"/>
+      <c r="E223" s="2"/>
     </row>
     <row r="224" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A224" s="2" t="s">
-        <v>0</v>
+        <v>282</v>
       </c>
       <c r="B224" s="2" t="s">
-        <v>114</v>
+        <v>301</v>
       </c>
       <c r="C224" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="D224" s="2" t="s">
-        <v>396</v>
-      </c>
+        <v>198</v>
+      </c>
+      <c r="D224" s="2"/>
       <c r="E224" s="2"/>
     </row>
     <row r="225" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A225" s="2" t="s">
-        <v>0</v>
+        <v>282</v>
       </c>
       <c r="B225" s="2" t="s">
-        <v>123</v>
+        <v>302</v>
       </c>
       <c r="C225" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="D225" s="2" t="s">
-        <v>423</v>
-      </c>
+        <v>198</v>
+      </c>
+      <c r="D225" s="2"/>
       <c r="E225" s="2"/>
     </row>
     <row r="226" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A226" s="2" t="s">
-        <v>0</v>
+        <v>282</v>
       </c>
       <c r="B226" s="2" t="s">
-        <v>122</v>
+        <v>304</v>
       </c>
       <c r="C226" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="D226" s="2" t="s">
-        <v>418</v>
-      </c>
+        <v>198</v>
+      </c>
+      <c r="D226" s="2"/>
       <c r="E226" s="2"/>
     </row>
     <row r="227" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A227" s="2" t="s">
-        <v>0</v>
+        <v>282</v>
       </c>
       <c r="B227" s="2" t="s">
-        <v>125</v>
+        <v>305</v>
       </c>
       <c r="C227" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="D227" s="2" t="s">
-        <v>418</v>
-      </c>
+        <v>198</v>
+      </c>
+      <c r="D227" s="2"/>
       <c r="E227" s="2"/>
     </row>
     <row r="228" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A228" s="2" t="s">
-        <v>0</v>
+        <v>282</v>
       </c>
       <c r="B228" s="2" t="s">
-        <v>130</v>
+        <v>306</v>
       </c>
       <c r="C228" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="D228" s="2" t="s">
-        <v>418</v>
-      </c>
+        <v>198</v>
+      </c>
+      <c r="D228" s="2"/>
       <c r="E228" s="2"/>
     </row>
     <row r="229" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A229" s="2" t="s">
-        <v>0</v>
+        <v>282</v>
       </c>
       <c r="B229" s="2" t="s">
-        <v>139</v>
+        <v>525</v>
       </c>
       <c r="C229" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="D229" s="2" t="s">
-        <v>418</v>
-      </c>
+        <v>198</v>
+      </c>
+      <c r="D229" s="2"/>
       <c r="E229" s="2"/>
     </row>
     <row r="230" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A230" s="2" t="s">
-        <v>0</v>
+        <v>282</v>
       </c>
       <c r="B230" s="2" t="s">
-        <v>482</v>
+        <v>300</v>
       </c>
       <c r="C230" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="D230" s="2" t="s">
-        <v>418</v>
-      </c>
+        <v>198</v>
+      </c>
+      <c r="D230" s="2"/>
       <c r="E230" s="2"/>
     </row>
     <row r="231" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A231" s="2" t="s">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="B231" s="2" t="s">
-        <v>499</v>
+        <v>109</v>
       </c>
       <c r="C231" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="D231" s="2" t="s">
-        <v>519</v>
-      </c>
+        <v>109</v>
+      </c>
+      <c r="D231" s="2"/>
       <c r="E231" s="2"/>
     </row>
     <row r="232" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A232" s="2" t="s">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="B232" s="2" t="s">
-        <v>131</v>
+        <v>309</v>
       </c>
       <c r="C232" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="D232" s="2" t="s">
-        <v>397</v>
-      </c>
+        <v>109</v>
+      </c>
+      <c r="D232" s="2"/>
       <c r="E232" s="2"/>
     </row>
     <row r="233" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A233" s="2" t="s">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="B233" s="2" t="s">
-        <v>104</v>
+        <v>309</v>
       </c>
       <c r="C233" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="D233" s="2" t="s">
-        <v>419</v>
-      </c>
+        <v>109</v>
+      </c>
+      <c r="D233" s="2"/>
       <c r="E233" s="2"/>
     </row>
     <row r="234" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A234" s="2" t="s">
-        <v>0</v>
+        <v>282</v>
       </c>
       <c r="B234" s="2" t="s">
-        <v>128</v>
+        <v>265</v>
       </c>
       <c r="C234" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="D234" s="2" t="s">
-        <v>429</v>
-      </c>
+        <v>265</v>
+      </c>
+      <c r="D234" s="2"/>
       <c r="E234" s="2"/>
     </row>
     <row r="235" spans="1:5" x14ac:dyDescent="0.2">
@@ -5831,13 +6287,13 @@
         <v>0</v>
       </c>
       <c r="B235" s="2" t="s">
-        <v>138</v>
+        <v>285</v>
       </c>
       <c r="C235" s="2" t="s">
         <v>105</v>
       </c>
       <c r="D235" s="2" t="s">
-        <v>432</v>
+        <v>396</v>
       </c>
       <c r="E235" s="2"/>
     </row>
@@ -5846,13 +6302,13 @@
         <v>0</v>
       </c>
       <c r="B236" s="2" t="s">
-        <v>126</v>
+        <v>116</v>
       </c>
       <c r="C236" s="2" t="s">
         <v>105</v>
       </c>
       <c r="D236" s="2" t="s">
-        <v>428</v>
+        <v>417</v>
       </c>
       <c r="E236" s="2"/>
     </row>
@@ -5861,13 +6317,13 @@
         <v>0</v>
       </c>
       <c r="B237" s="2" t="s">
-        <v>115</v>
+        <v>465</v>
       </c>
       <c r="C237" s="2" t="s">
         <v>105</v>
       </c>
       <c r="D237" s="2" t="s">
-        <v>400</v>
+        <v>509</v>
       </c>
       <c r="E237" s="2"/>
     </row>
@@ -5876,13 +6332,13 @@
         <v>0</v>
       </c>
       <c r="B238" s="2" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="C238" s="2" t="s">
         <v>105</v>
       </c>
       <c r="D238" s="2" t="s">
-        <v>400</v>
+        <v>419</v>
       </c>
       <c r="E238" s="2"/>
     </row>
@@ -5891,13 +6347,13 @@
         <v>0</v>
       </c>
       <c r="B239" s="2" t="s">
-        <v>496</v>
+        <v>135</v>
       </c>
       <c r="C239" s="2" t="s">
         <v>105</v>
       </c>
       <c r="D239" s="2" t="s">
-        <v>518</v>
+        <v>427</v>
       </c>
       <c r="E239" s="2"/>
     </row>
@@ -5906,13 +6362,13 @@
         <v>0</v>
       </c>
       <c r="B240" s="2" t="s">
-        <v>120</v>
+        <v>490</v>
       </c>
       <c r="C240" s="2" t="s">
         <v>105</v>
       </c>
       <c r="D240" s="2" t="s">
-        <v>402</v>
+        <v>513</v>
       </c>
       <c r="E240" s="2"/>
     </row>
@@ -5921,13 +6377,13 @@
         <v>0</v>
       </c>
       <c r="B241" s="2" t="s">
-        <v>119</v>
+        <v>475</v>
       </c>
       <c r="C241" s="2" t="s">
         <v>105</v>
       </c>
       <c r="D241" s="2" t="s">
-        <v>403</v>
+        <v>512</v>
       </c>
       <c r="E241" s="2"/>
     </row>
@@ -5936,13 +6392,13 @@
         <v>0</v>
       </c>
       <c r="B242" s="2" t="s">
-        <v>129</v>
+        <v>474</v>
       </c>
       <c r="C242" s="2" t="s">
         <v>105</v>
       </c>
       <c r="D242" s="2" t="s">
-        <v>403</v>
+        <v>511</v>
       </c>
       <c r="E242" s="2"/>
     </row>
@@ -5951,28 +6407,27 @@
         <v>0</v>
       </c>
       <c r="B243" s="2" t="s">
-        <v>132</v>
+        <v>486</v>
       </c>
       <c r="C243" s="2" t="s">
         <v>105</v>
       </c>
       <c r="D243" s="2" t="s">
-        <v>403</v>
-      </c>
-      <c r="E243" s="2"/>
+        <v>421</v>
+      </c>
     </row>
     <row r="244" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A244" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B244" s="2" t="s">
-        <v>474</v>
+        <v>117</v>
       </c>
       <c r="C244" s="2" t="s">
         <v>105</v>
       </c>
       <c r="D244" s="2" t="s">
-        <v>514</v>
+        <v>418</v>
       </c>
       <c r="E244" s="2"/>
     </row>
@@ -5981,105 +6436,103 @@
         <v>0</v>
       </c>
       <c r="B245" s="2" t="s">
-        <v>133</v>
+        <v>121</v>
       </c>
       <c r="C245" s="2" t="s">
         <v>105</v>
       </c>
       <c r="D245" s="2" t="s">
-        <v>385</v>
+        <v>418</v>
       </c>
       <c r="E245" s="2"/>
     </row>
     <row r="246" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A246" s="2" t="s">
-        <v>282</v>
+        <v>0</v>
       </c>
       <c r="B246" s="2" t="s">
-        <v>231</v>
+        <v>136</v>
       </c>
       <c r="C246" s="2" t="s">
         <v>105</v>
       </c>
       <c r="D246" s="2" t="s">
-        <v>385</v>
+        <v>428</v>
       </c>
       <c r="E246" s="2"/>
     </row>
     <row r="247" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A247" s="2" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="B247" s="2" t="s">
-        <v>45</v>
+        <v>107</v>
       </c>
       <c r="C247" s="2" t="s">
         <v>105</v>
       </c>
       <c r="D247" s="2" t="s">
-        <v>434</v>
-      </c>
-      <c r="E247" s="3" t="s">
-        <v>433</v>
-      </c>
+        <v>377</v>
+      </c>
+      <c r="E247" s="2"/>
     </row>
     <row r="248" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A248" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B248" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="C248" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="B248" t="s">
+        <v>534</v>
+      </c>
+      <c r="C248" t="s">
         <v>105</v>
       </c>
-      <c r="D248" s="2" t="s">
-        <v>417</v>
+      <c r="D248" t="s">
+        <v>377</v>
       </c>
       <c r="E248" s="2"/>
     </row>
     <row r="249" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A249" s="2" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="B249" s="2" t="s">
-        <v>156</v>
+        <v>114</v>
       </c>
       <c r="C249" s="2" t="s">
         <v>105</v>
       </c>
       <c r="D249" s="2" t="s">
-        <v>156</v>
+        <v>394</v>
       </c>
       <c r="E249" s="2"/>
     </row>
     <row r="250" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A250" s="2" t="s">
-        <v>282</v>
+        <v>0</v>
       </c>
       <c r="B250" s="2" t="s">
-        <v>214</v>
+        <v>123</v>
       </c>
       <c r="C250" s="2" t="s">
         <v>105</v>
       </c>
       <c r="D250" s="2" t="s">
-        <v>214</v>
+        <v>420</v>
       </c>
       <c r="E250" s="2"/>
     </row>
     <row r="251" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A251" s="2" t="s">
-        <v>282</v>
+        <v>0</v>
       </c>
       <c r="B251" s="2" t="s">
-        <v>219</v>
+        <v>122</v>
       </c>
       <c r="C251" s="2" t="s">
         <v>105</v>
       </c>
       <c r="D251" s="2" t="s">
-        <v>219</v>
+        <v>415</v>
       </c>
       <c r="E251" s="2"/>
     </row>
@@ -6088,13 +6541,13 @@
         <v>0</v>
       </c>
       <c r="B252" s="2" t="s">
-        <v>113</v>
+        <v>125</v>
       </c>
       <c r="C252" s="2" t="s">
         <v>105</v>
       </c>
       <c r="D252" s="2" t="s">
-        <v>401</v>
+        <v>415</v>
       </c>
       <c r="E252" s="2"/>
     </row>
@@ -6103,82 +6556,88 @@
         <v>0</v>
       </c>
       <c r="B253" s="2" t="s">
-        <v>112</v>
+        <v>130</v>
       </c>
       <c r="C253" s="2" t="s">
         <v>105</v>
       </c>
       <c r="D253" s="2" t="s">
-        <v>239</v>
+        <v>415</v>
       </c>
       <c r="E253" s="2"/>
     </row>
     <row r="254" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A254" s="2" t="s">
-        <v>26</v>
+        <v>0</v>
       </c>
       <c r="B254" s="2" t="s">
-        <v>440</v>
+        <v>139</v>
       </c>
       <c r="C254" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="D254" s="2"/>
+      <c r="D254" s="2" t="s">
+        <v>415</v>
+      </c>
       <c r="E254" s="2"/>
     </row>
     <row r="255" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A255" s="2" t="s">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="B255" s="2" t="s">
-        <v>447</v>
+        <v>478</v>
       </c>
       <c r="C255" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="D255" s="2"/>
+      <c r="D255" s="2" t="s">
+        <v>415</v>
+      </c>
       <c r="E255" s="2"/>
     </row>
-    <row r="256" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A256" s="2" t="s">
-        <v>26</v>
+        <v>0</v>
       </c>
       <c r="B256" s="2" t="s">
-        <v>468</v>
+        <v>495</v>
       </c>
       <c r="C256" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="D256" s="2"/>
+      <c r="D256" s="2" t="s">
+        <v>515</v>
+      </c>
       <c r="E256" s="2"/>
     </row>
     <row r="257" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A257" s="2" t="s">
-        <v>282</v>
+        <v>0</v>
       </c>
       <c r="B257" s="2" t="s">
-        <v>281</v>
+        <v>131</v>
       </c>
       <c r="C257" s="2" t="s">
-        <v>280</v>
+        <v>105</v>
       </c>
       <c r="D257" s="2" t="s">
-        <v>281</v>
+        <v>395</v>
       </c>
       <c r="E257" s="2"/>
     </row>
     <row r="258" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A258" s="2" t="s">
-        <v>282</v>
+        <v>0</v>
       </c>
       <c r="B258" s="2" t="s">
-        <v>278</v>
+        <v>104</v>
       </c>
       <c r="C258" s="2" t="s">
-        <v>280</v>
+        <v>105</v>
       </c>
       <c r="D258" s="2" t="s">
-        <v>437</v>
+        <v>416</v>
       </c>
       <c r="E258" s="2"/>
     </row>
@@ -6187,28 +6646,28 @@
         <v>0</v>
       </c>
       <c r="B259" s="2" t="s">
-        <v>141</v>
+        <v>128</v>
       </c>
       <c r="C259" s="2" t="s">
-        <v>280</v>
+        <v>105</v>
       </c>
       <c r="D259" s="2" t="s">
-        <v>437</v>
+        <v>426</v>
       </c>
       <c r="E259" s="2"/>
     </row>
     <row r="260" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A260" s="2" t="s">
-        <v>282</v>
+        <v>0</v>
       </c>
       <c r="B260" s="2" t="s">
-        <v>279</v>
+        <v>138</v>
       </c>
       <c r="C260" s="2" t="s">
-        <v>280</v>
+        <v>105</v>
       </c>
       <c r="D260" s="2" t="s">
-        <v>438</v>
+        <v>429</v>
       </c>
       <c r="E260" s="2"/>
     </row>
@@ -6217,13 +6676,13 @@
         <v>0</v>
       </c>
       <c r="B261" s="2" t="s">
-        <v>145</v>
+        <v>126</v>
       </c>
       <c r="C261" s="2" t="s">
-        <v>280</v>
+        <v>105</v>
       </c>
       <c r="D261" s="2" t="s">
-        <v>438</v>
+        <v>425</v>
       </c>
       <c r="E261" s="2"/>
     </row>
@@ -6232,13 +6691,13 @@
         <v>282</v>
       </c>
       <c r="B262" s="2" t="s">
-        <v>280</v>
+        <v>543</v>
       </c>
       <c r="C262" s="2" t="s">
-        <v>280</v>
+        <v>105</v>
       </c>
       <c r="D262" s="2" t="s">
-        <v>385</v>
+        <v>543</v>
       </c>
       <c r="E262" s="2"/>
     </row>
@@ -6247,43 +6706,43 @@
         <v>0</v>
       </c>
       <c r="B263" s="2" t="s">
-        <v>146</v>
+        <v>115</v>
       </c>
       <c r="C263" s="2" t="s">
-        <v>280</v>
+        <v>105</v>
       </c>
       <c r="D263" s="2" t="s">
-        <v>385</v>
+        <v>398</v>
       </c>
       <c r="E263" s="2"/>
     </row>
     <row r="264" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A264" s="2" t="s">
-        <v>26</v>
+        <v>0</v>
       </c>
       <c r="B264" s="2" t="s">
-        <v>349</v>
+        <v>124</v>
       </c>
       <c r="C264" s="2" t="s">
-        <v>280</v>
+        <v>105</v>
       </c>
       <c r="D264" s="2" t="s">
-        <v>385</v>
+        <v>398</v>
       </c>
       <c r="E264" s="2"/>
     </row>
     <row r="265" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A265" s="2" t="s">
-        <v>282</v>
+        <v>0</v>
       </c>
       <c r="B265" s="2" t="s">
-        <v>277</v>
+        <v>492</v>
       </c>
       <c r="C265" s="2" t="s">
-        <v>280</v>
+        <v>105</v>
       </c>
       <c r="D265" s="2" t="s">
-        <v>436</v>
+        <v>514</v>
       </c>
       <c r="E265" s="2"/>
     </row>
@@ -6292,124 +6751,134 @@
         <v>0</v>
       </c>
       <c r="B266" s="2" t="s">
-        <v>143</v>
+        <v>120</v>
       </c>
       <c r="C266" s="2" t="s">
-        <v>280</v>
+        <v>105</v>
       </c>
       <c r="D266" s="2" t="s">
-        <v>436</v>
+        <v>400</v>
       </c>
       <c r="E266" s="2"/>
     </row>
     <row r="267" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A267" s="2" t="s">
-        <v>282</v>
+        <v>0</v>
       </c>
       <c r="B267" s="2" t="s">
-        <v>276</v>
+        <v>119</v>
       </c>
       <c r="C267" s="2" t="s">
-        <v>280</v>
+        <v>105</v>
       </c>
       <c r="D267" s="2" t="s">
-        <v>435</v>
-      </c>
-      <c r="E267" s="2"/>
+        <v>401</v>
+      </c>
+      <c r="E267" s="3"/>
     </row>
     <row r="268" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A268" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B268" s="2" t="s">
-        <v>144</v>
+        <v>129</v>
       </c>
       <c r="C268" s="2" t="s">
-        <v>280</v>
+        <v>105</v>
       </c>
       <c r="D268" s="2" t="s">
-        <v>435</v>
-      </c>
-      <c r="E268" s="2"/>
+        <v>401</v>
+      </c>
+      <c r="E268" s="3"/>
     </row>
     <row r="269" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A269" s="2" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="B269" s="2" t="s">
-        <v>176</v>
+        <v>132</v>
       </c>
       <c r="C269" s="2" t="s">
-        <v>280</v>
+        <v>105</v>
       </c>
       <c r="D269" s="2" t="s">
-        <v>435</v>
+        <v>401</v>
       </c>
       <c r="E269" s="2"/>
     </row>
     <row r="270" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A270" s="2" t="s">
-        <v>282</v>
+        <v>0</v>
       </c>
       <c r="B270" s="2" t="s">
-        <v>190</v>
+        <v>470</v>
       </c>
       <c r="C270" s="2" t="s">
-        <v>190</v>
-      </c>
-      <c r="D270" s="2"/>
+        <v>105</v>
+      </c>
+      <c r="D270" s="2" t="s">
+        <v>510</v>
+      </c>
       <c r="E270" s="2"/>
     </row>
     <row r="271" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A271" s="2" t="s">
-        <v>282</v>
+        <v>0</v>
       </c>
       <c r="B271" s="2" t="s">
-        <v>232</v>
+        <v>133</v>
       </c>
       <c r="C271" s="2" t="s">
-        <v>190</v>
-      </c>
-      <c r="D271" s="2"/>
+        <v>105</v>
+      </c>
+      <c r="D271" s="2" t="s">
+        <v>383</v>
+      </c>
       <c r="E271" s="2"/>
     </row>
     <row r="272" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A272" s="2" t="s">
-        <v>6</v>
+        <v>282</v>
       </c>
       <c r="B272" s="2" t="s">
-        <v>147</v>
+        <v>231</v>
       </c>
       <c r="C272" s="2" t="s">
-        <v>190</v>
-      </c>
-      <c r="D272" s="2"/>
+        <v>105</v>
+      </c>
+      <c r="D272" s="2" t="s">
+        <v>383</v>
+      </c>
       <c r="E272" s="2"/>
     </row>
     <row r="273" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A273" s="2" t="s">
-        <v>31</v>
+        <v>282</v>
       </c>
       <c r="B273" s="2" t="s">
-        <v>148</v>
+        <v>430</v>
       </c>
       <c r="C273" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="D273" s="2"/>
+        <v>105</v>
+      </c>
+      <c r="D273" s="2" t="s">
+        <v>430</v>
+      </c>
       <c r="E273" s="2"/>
     </row>
     <row r="274" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A274" s="2" t="s">
-        <v>6</v>
+        <v>31</v>
       </c>
       <c r="B274" s="2" t="s">
-        <v>149</v>
+        <v>45</v>
       </c>
       <c r="C274" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="D274" s="2"/>
+        <v>105</v>
+      </c>
+      <c r="D274" s="2" t="s">
+        <v>430</v>
+      </c>
       <c r="E274" s="2"/>
     </row>
     <row r="275" spans="1:5" x14ac:dyDescent="0.2">
@@ -6417,194 +6886,218 @@
         <v>6</v>
       </c>
       <c r="B275" s="2" t="s">
-        <v>150</v>
+        <v>44</v>
       </c>
       <c r="C275" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="D275" s="2"/>
+        <v>105</v>
+      </c>
+      <c r="D275" s="2" t="s">
+        <v>414</v>
+      </c>
       <c r="E275" s="2"/>
     </row>
     <row r="276" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A276" s="2" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B276" s="2" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
       <c r="C276" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="D276" s="2"/>
+        <v>105</v>
+      </c>
+      <c r="D276" s="2" t="s">
+        <v>156</v>
+      </c>
       <c r="E276" s="2"/>
     </row>
     <row r="277" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A277" s="2" t="s">
-        <v>9</v>
+        <v>282</v>
       </c>
       <c r="B277" s="2" t="s">
-        <v>152</v>
+        <v>214</v>
       </c>
       <c r="C277" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="D277" s="2"/>
+        <v>105</v>
+      </c>
+      <c r="D277" s="2" t="s">
+        <v>214</v>
+      </c>
       <c r="E277" s="2"/>
     </row>
     <row r="278" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A278" s="2" t="s">
-        <v>6</v>
+        <v>282</v>
       </c>
       <c r="B278" s="2" t="s">
-        <v>153</v>
+        <v>219</v>
       </c>
       <c r="C278" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="D278" s="2"/>
+        <v>105</v>
+      </c>
+      <c r="D278" s="2" t="s">
+        <v>219</v>
+      </c>
       <c r="E278" s="2"/>
     </row>
     <row r="279" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A279" s="2" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="B279" s="2" t="s">
-        <v>154</v>
+        <v>113</v>
       </c>
       <c r="C279" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="D279" s="2"/>
+        <v>105</v>
+      </c>
+      <c r="D279" s="2" t="s">
+        <v>399</v>
+      </c>
       <c r="E279" s="2"/>
     </row>
-    <row r="280" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A280" s="2" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="B280" s="2" t="s">
-        <v>155</v>
+        <v>112</v>
       </c>
       <c r="C280" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="D280" s="2"/>
+        <v>105</v>
+      </c>
+      <c r="D280" s="2" t="s">
+        <v>239</v>
+      </c>
       <c r="E280" s="2"/>
     </row>
     <row r="281" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A281" s="2" t="s">
-        <v>282</v>
+        <v>26</v>
       </c>
       <c r="B281" s="2" t="s">
-        <v>148</v>
+        <v>436</v>
       </c>
       <c r="C281" s="2" t="s">
-        <v>148</v>
+        <v>105</v>
       </c>
       <c r="D281" s="2"/>
       <c r="E281" s="2"/>
     </row>
     <row r="282" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A282" s="2" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="B282" s="2" t="s">
-        <v>456</v>
+        <v>443</v>
       </c>
       <c r="C282" s="2" t="s">
-        <v>148</v>
+        <v>105</v>
       </c>
       <c r="D282" s="2"/>
       <c r="E282" s="2"/>
     </row>
     <row r="283" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A283" s="2" t="s">
-        <v>9</v>
+        <v>26</v>
       </c>
       <c r="B283" s="2" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="C283" s="2" t="s">
-        <v>148</v>
+        <v>105</v>
       </c>
       <c r="D283" s="2"/>
       <c r="E283" s="2"/>
     </row>
     <row r="284" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A284" s="2" t="s">
-        <v>9</v>
+        <v>282</v>
       </c>
       <c r="B284" s="2" t="s">
-        <v>500</v>
+        <v>281</v>
       </c>
       <c r="C284" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="D284" s="2"/>
+        <v>280</v>
+      </c>
+      <c r="D284" s="2" t="s">
+        <v>281</v>
+      </c>
       <c r="E284" s="2"/>
     </row>
     <row r="285" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A285" s="2" t="s">
-        <v>9</v>
+        <v>282</v>
       </c>
       <c r="B285" s="2" t="s">
-        <v>503</v>
+        <v>278</v>
       </c>
       <c r="C285" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="D285" s="2"/>
+        <v>280</v>
+      </c>
+      <c r="D285" s="2" t="s">
+        <v>433</v>
+      </c>
       <c r="E285" s="2"/>
     </row>
     <row r="286" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A286" s="2" t="s">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="B286" s="2" t="s">
-        <v>506</v>
+        <v>141</v>
       </c>
       <c r="C286" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="D286" s="2"/>
+        <v>280</v>
+      </c>
+      <c r="D286" s="2" t="s">
+        <v>433</v>
+      </c>
       <c r="E286" s="2"/>
     </row>
     <row r="287" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A287" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B287" s="2" t="s">
-        <v>157</v>
+        <v>282</v>
+      </c>
+      <c r="B287" t="s">
+        <v>607</v>
       </c>
       <c r="C287" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="D287" s="2"/>
+        <v>280</v>
+      </c>
+      <c r="D287" s="2" t="s">
+        <v>433</v>
+      </c>
       <c r="E287" s="2"/>
     </row>
     <row r="288" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A288" s="2" t="s">
-        <v>9</v>
+        <v>282</v>
       </c>
       <c r="B288" s="2" t="s">
-        <v>159</v>
+        <v>279</v>
       </c>
       <c r="C288" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="D288" s="2"/>
+        <v>280</v>
+      </c>
+      <c r="D288" s="2" t="s">
+        <v>434</v>
+      </c>
       <c r="E288" s="2"/>
     </row>
     <row r="289" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A289" s="2" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="B289" s="2" t="s">
-        <v>160</v>
+        <v>145</v>
       </c>
       <c r="C289" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="D289" s="2"/>
+        <v>280</v>
+      </c>
+      <c r="D289" s="2" t="s">
+        <v>434</v>
+      </c>
       <c r="E289" s="2"/>
     </row>
     <row r="290" spans="1:5" x14ac:dyDescent="0.2">
@@ -6612,77 +7105,89 @@
         <v>282</v>
       </c>
       <c r="B290" s="2" t="s">
-        <v>158</v>
+        <v>608</v>
       </c>
       <c r="C290" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="D290" s="2"/>
+        <v>280</v>
+      </c>
+      <c r="D290" s="2" t="s">
+        <v>434</v>
+      </c>
       <c r="E290" s="2"/>
     </row>
     <row r="291" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A291" s="2" t="s">
-        <v>26</v>
+        <v>282</v>
       </c>
       <c r="B291" s="2" t="s">
-        <v>159</v>
+        <v>280</v>
       </c>
       <c r="C291" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="D291" s="2"/>
+        <v>280</v>
+      </c>
+      <c r="D291" s="2" t="s">
+        <v>383</v>
+      </c>
       <c r="E291" s="2"/>
     </row>
     <row r="292" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A292" s="2" t="s">
-        <v>282</v>
+        <v>0</v>
       </c>
       <c r="B292" s="2" t="s">
-        <v>266</v>
+        <v>146</v>
       </c>
       <c r="C292" s="2" t="s">
-        <v>266</v>
-      </c>
-      <c r="D292" s="2"/>
+        <v>280</v>
+      </c>
+      <c r="D292" s="2" t="s">
+        <v>383</v>
+      </c>
       <c r="E292" s="2"/>
     </row>
     <row r="293" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A293" s="2" t="s">
-        <v>282</v>
+        <v>26</v>
       </c>
       <c r="B293" s="2" t="s">
-        <v>271</v>
+        <v>347</v>
       </c>
       <c r="C293" s="2" t="s">
-        <v>266</v>
-      </c>
-      <c r="D293" s="2"/>
+        <v>280</v>
+      </c>
+      <c r="D293" s="2" t="s">
+        <v>383</v>
+      </c>
       <c r="E293" s="2"/>
     </row>
     <row r="294" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A294" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B294" s="2" t="s">
-        <v>161</v>
+        <v>282</v>
+      </c>
+      <c r="B294" t="s">
+        <v>542</v>
       </c>
       <c r="C294" s="2" t="s">
-        <v>162</v>
-      </c>
-      <c r="D294" s="2"/>
+        <v>280</v>
+      </c>
+      <c r="D294" s="2" t="s">
+        <v>432</v>
+      </c>
       <c r="E294" s="2"/>
     </row>
     <row r="295" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A295" s="2" t="s">
-        <v>9</v>
+        <v>282</v>
       </c>
       <c r="B295" s="2" t="s">
-        <v>293</v>
+        <v>537</v>
       </c>
       <c r="C295" s="2" t="s">
-        <v>327</v>
-      </c>
-      <c r="D295" s="2"/>
+        <v>280</v>
+      </c>
+      <c r="D295" s="2" t="s">
+        <v>432</v>
+      </c>
       <c r="E295" s="2"/>
     </row>
     <row r="296" spans="1:5" x14ac:dyDescent="0.2">
@@ -6690,51 +7195,59 @@
         <v>282</v>
       </c>
       <c r="B296" s="2" t="s">
-        <v>196</v>
+        <v>277</v>
       </c>
       <c r="C296" s="2" t="s">
-        <v>327</v>
-      </c>
-      <c r="D296" s="2"/>
+        <v>280</v>
+      </c>
+      <c r="D296" s="2" t="s">
+        <v>432</v>
+      </c>
       <c r="E296" s="2"/>
     </row>
     <row r="297" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A297" s="2" t="s">
-        <v>282</v>
+        <v>0</v>
       </c>
       <c r="B297" s="2" t="s">
-        <v>268</v>
+        <v>143</v>
       </c>
       <c r="C297" s="2" t="s">
-        <v>268</v>
-      </c>
-      <c r="D297" s="2"/>
+        <v>280</v>
+      </c>
+      <c r="D297" s="2" t="s">
+        <v>432</v>
+      </c>
       <c r="E297" s="2"/>
     </row>
     <row r="298" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A298" s="2" t="s">
-        <v>9</v>
+        <v>282</v>
       </c>
       <c r="B298" s="2" t="s">
-        <v>80</v>
+        <v>276</v>
       </c>
       <c r="C298" s="2" t="s">
-        <v>164</v>
-      </c>
-      <c r="D298" s="2"/>
+        <v>280</v>
+      </c>
+      <c r="D298" s="2" t="s">
+        <v>431</v>
+      </c>
       <c r="E298" s="2"/>
     </row>
     <row r="299" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A299" s="2" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="B299" s="2" t="s">
-        <v>163</v>
+        <v>144</v>
       </c>
       <c r="C299" s="2" t="s">
-        <v>164</v>
-      </c>
-      <c r="D299" s="2"/>
+        <v>280</v>
+      </c>
+      <c r="D299" s="2" t="s">
+        <v>431</v>
+      </c>
       <c r="E299" s="2"/>
     </row>
     <row r="300" spans="1:5" x14ac:dyDescent="0.2">
@@ -6742,23 +7255,25 @@
         <v>6</v>
       </c>
       <c r="B300" s="2" t="s">
-        <v>165</v>
+        <v>176</v>
       </c>
       <c r="C300" s="2" t="s">
-        <v>164</v>
-      </c>
-      <c r="D300" s="2"/>
+        <v>280</v>
+      </c>
+      <c r="D300" s="2" t="s">
+        <v>431</v>
+      </c>
       <c r="E300" s="2"/>
     </row>
     <row r="301" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A301" s="2" t="s">
-        <v>9</v>
+        <v>282</v>
       </c>
       <c r="B301" s="2" t="s">
-        <v>166</v>
+        <v>190</v>
       </c>
       <c r="C301" s="2" t="s">
-        <v>164</v>
+        <v>190</v>
       </c>
       <c r="D301" s="2"/>
       <c r="E301" s="2"/>
@@ -6768,10 +7283,10 @@
         <v>282</v>
       </c>
       <c r="B302" s="2" t="s">
-        <v>164</v>
+        <v>524</v>
       </c>
       <c r="C302" s="2" t="s">
-        <v>164</v>
+        <v>190</v>
       </c>
       <c r="D302" s="2"/>
       <c r="E302" s="2"/>
@@ -6781,75 +7296,75 @@
         <v>282</v>
       </c>
       <c r="B303" s="2" t="s">
-        <v>81</v>
+        <v>232</v>
       </c>
       <c r="C303" s="2" t="s">
-        <v>164</v>
+        <v>190</v>
       </c>
       <c r="D303" s="2"/>
       <c r="E303" s="2"/>
     </row>
     <row r="304" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A304" s="2" t="s">
-        <v>26</v>
+        <v>6</v>
       </c>
       <c r="B304" s="2" t="s">
-        <v>166</v>
+        <v>147</v>
       </c>
       <c r="C304" s="2" t="s">
-        <v>164</v>
+        <v>190</v>
       </c>
       <c r="D304" s="2"/>
       <c r="E304" s="2"/>
     </row>
     <row r="305" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A305" s="2" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="B305" s="2" t="s">
-        <v>80</v>
+        <v>148</v>
       </c>
       <c r="C305" s="2" t="s">
-        <v>164</v>
+        <v>148</v>
       </c>
       <c r="D305" s="2"/>
       <c r="E305" s="2"/>
     </row>
     <row r="306" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A306" s="2" t="s">
-        <v>282</v>
+        <v>6</v>
       </c>
       <c r="B306" s="2" t="s">
-        <v>272</v>
+        <v>149</v>
       </c>
       <c r="C306" s="2" t="s">
-        <v>320</v>
+        <v>148</v>
       </c>
       <c r="D306" s="2"/>
       <c r="E306" s="2"/>
     </row>
     <row r="307" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A307" s="2" t="s">
-        <v>282</v>
+        <v>6</v>
       </c>
       <c r="B307" s="2" t="s">
-        <v>270</v>
+        <v>150</v>
       </c>
       <c r="C307" s="2" t="s">
-        <v>320</v>
+        <v>148</v>
       </c>
       <c r="D307" s="2"/>
       <c r="E307" s="2"/>
     </row>
     <row r="308" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A308" s="2" t="s">
-        <v>282</v>
+        <v>9</v>
       </c>
       <c r="B308" s="2" t="s">
-        <v>273</v>
+        <v>151</v>
       </c>
       <c r="C308" s="2" t="s">
-        <v>320</v>
+        <v>148</v>
       </c>
       <c r="D308" s="2"/>
       <c r="E308" s="2"/>
@@ -6859,10 +7374,10 @@
         <v>9</v>
       </c>
       <c r="B309" s="2" t="s">
-        <v>170</v>
+        <v>152</v>
       </c>
       <c r="C309" s="2" t="s">
-        <v>171</v>
+        <v>148</v>
       </c>
       <c r="D309" s="2"/>
       <c r="E309" s="2"/>
@@ -6872,62 +7387,62 @@
         <v>6</v>
       </c>
       <c r="B310" s="2" t="s">
-        <v>172</v>
+        <v>153</v>
       </c>
       <c r="C310" s="2" t="s">
-        <v>171</v>
+        <v>148</v>
       </c>
       <c r="D310" s="2"/>
       <c r="E310" s="2"/>
     </row>
     <row r="311" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A311" s="2" t="s">
-        <v>282</v>
+        <v>6</v>
       </c>
       <c r="B311" s="2" t="s">
-        <v>261</v>
+        <v>154</v>
       </c>
       <c r="C311" s="2" t="s">
-        <v>171</v>
+        <v>148</v>
       </c>
       <c r="D311" s="2"/>
       <c r="E311" s="2"/>
     </row>
     <row r="312" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A312" s="2" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B312" s="2" t="s">
-        <v>17</v>
+        <v>155</v>
       </c>
       <c r="C312" s="2" t="s">
-        <v>314</v>
+        <v>148</v>
       </c>
       <c r="D312" s="2"/>
       <c r="E312" s="2"/>
     </row>
     <row r="313" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A313" s="2" t="s">
-        <v>9</v>
+        <v>282</v>
       </c>
       <c r="B313" s="2" t="s">
-        <v>18</v>
+        <v>148</v>
       </c>
       <c r="C313" s="2" t="s">
-        <v>314</v>
+        <v>148</v>
       </c>
       <c r="D313" s="2"/>
       <c r="E313" s="2"/>
     </row>
     <row r="314" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A314" s="2" t="s">
-        <v>9</v>
+        <v>26</v>
       </c>
       <c r="B314" s="2" t="s">
-        <v>20</v>
+        <v>452</v>
       </c>
       <c r="C314" s="2" t="s">
-        <v>314</v>
+        <v>148</v>
       </c>
       <c r="D314" s="2"/>
       <c r="E314" s="2"/>
@@ -6937,10 +7452,10 @@
         <v>9</v>
       </c>
       <c r="B315" s="2" t="s">
-        <v>284</v>
+        <v>461</v>
       </c>
       <c r="C315" s="2" t="s">
-        <v>314</v>
+        <v>148</v>
       </c>
       <c r="D315" s="2"/>
       <c r="E315" s="2"/>
@@ -6950,10 +7465,10 @@
         <v>9</v>
       </c>
       <c r="B316" s="2" t="s">
-        <v>16</v>
+        <v>496</v>
       </c>
       <c r="C316" s="2" t="s">
-        <v>314</v>
+        <v>148</v>
       </c>
       <c r="D316" s="2"/>
       <c r="E316" s="2"/>
@@ -6963,10 +7478,10 @@
         <v>9</v>
       </c>
       <c r="B317" s="2" t="s">
-        <v>283</v>
+        <v>499</v>
       </c>
       <c r="C317" s="2" t="s">
-        <v>314</v>
+        <v>148</v>
       </c>
       <c r="D317" s="2"/>
       <c r="E317" s="2"/>
@@ -6976,49 +7491,49 @@
         <v>9</v>
       </c>
       <c r="B318" s="2" t="s">
-        <v>47</v>
+        <v>502</v>
       </c>
       <c r="C318" s="2" t="s">
-        <v>314</v>
+        <v>148</v>
       </c>
       <c r="D318" s="2"/>
       <c r="E318" s="2"/>
     </row>
     <row r="319" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A319" s="2" t="s">
-        <v>9</v>
+        <v>282</v>
       </c>
       <c r="B319" s="2" t="s">
-        <v>48</v>
+        <v>266</v>
       </c>
       <c r="C319" s="2" t="s">
-        <v>314</v>
+        <v>266</v>
       </c>
       <c r="D319" s="2"/>
       <c r="E319" s="2"/>
     </row>
     <row r="320" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A320" s="2" t="s">
-        <v>9</v>
+        <v>282</v>
       </c>
       <c r="B320" s="2" t="s">
-        <v>383</v>
+        <v>271</v>
       </c>
       <c r="C320" s="2" t="s">
-        <v>314</v>
+        <v>266</v>
       </c>
       <c r="D320" s="2"/>
       <c r="E320" s="2"/>
     </row>
     <row r="321" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A321" s="2" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B321" s="2" t="s">
-        <v>467</v>
+        <v>161</v>
       </c>
       <c r="C321" s="2" t="s">
-        <v>314</v>
+        <v>162</v>
       </c>
       <c r="D321" s="2"/>
       <c r="E321" s="2"/>
@@ -7028,154 +7543,141 @@
         <v>9</v>
       </c>
       <c r="B322" s="2" t="s">
-        <v>473</v>
+        <v>293</v>
       </c>
       <c r="C322" s="2" t="s">
-        <v>314</v>
+        <v>325</v>
       </c>
       <c r="D322" s="2"/>
       <c r="E322" s="2"/>
     </row>
     <row r="323" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A323" s="2" t="s">
-        <v>9</v>
+        <v>282</v>
       </c>
       <c r="B323" s="2" t="s">
-        <v>487</v>
+        <v>196</v>
       </c>
       <c r="C323" s="2" t="s">
-        <v>314</v>
+        <v>325</v>
       </c>
       <c r="D323" s="2"/>
       <c r="E323" s="2"/>
     </row>
     <row r="324" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A324" s="2" t="s">
-        <v>9</v>
+        <v>282</v>
       </c>
       <c r="B324" s="2" t="s">
-        <v>491</v>
+        <v>268</v>
       </c>
       <c r="C324" s="2" t="s">
-        <v>314</v>
+        <v>268</v>
       </c>
       <c r="D324" s="2"/>
       <c r="E324" s="2"/>
     </row>
     <row r="325" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A325" s="2" t="s">
-        <v>282</v>
+        <v>9</v>
       </c>
       <c r="B325" s="2" t="s">
-        <v>191</v>
+        <v>80</v>
       </c>
       <c r="C325" s="2" t="s">
-        <v>381</v>
+        <v>164</v>
       </c>
       <c r="D325" s="2"/>
-      <c r="E325" s="2"/>
     </row>
     <row r="326" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A326" s="2" t="s">
-        <v>282</v>
+        <v>6</v>
       </c>
       <c r="B326" s="2" t="s">
-        <v>233</v>
+        <v>163</v>
       </c>
       <c r="C326" s="2" t="s">
-        <v>381</v>
+        <v>164</v>
       </c>
       <c r="D326" s="2"/>
       <c r="E326" s="2"/>
     </row>
     <row r="327" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A327" s="2" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B327" s="2" t="s">
-        <v>177</v>
+        <v>165</v>
       </c>
       <c r="C327" s="2" t="s">
-        <v>209</v>
-      </c>
-      <c r="D327" s="2" t="s">
-        <v>385</v>
-      </c>
+        <v>164</v>
+      </c>
+      <c r="D327" s="2"/>
       <c r="E327" s="2"/>
     </row>
     <row r="328" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A328" s="2" t="s">
-        <v>282</v>
+        <v>9</v>
       </c>
       <c r="B328" s="2" t="s">
-        <v>209</v>
+        <v>166</v>
       </c>
       <c r="C328" s="2" t="s">
-        <v>209</v>
-      </c>
-      <c r="D328" s="2" t="s">
-        <v>385</v>
-      </c>
+        <v>164</v>
+      </c>
+      <c r="D328" s="2"/>
       <c r="E328" s="2"/>
     </row>
     <row r="329" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A329" s="2" t="s">
-        <v>6</v>
+        <v>282</v>
       </c>
       <c r="B329" s="2" t="s">
-        <v>175</v>
+        <v>164</v>
       </c>
       <c r="C329" s="2" t="s">
-        <v>209</v>
-      </c>
-      <c r="D329" s="2" t="s">
-        <v>175</v>
-      </c>
+        <v>164</v>
+      </c>
+      <c r="D329" s="2"/>
       <c r="E329" s="2"/>
     </row>
     <row r="330" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A330" s="2" t="s">
-        <v>6</v>
+        <v>282</v>
       </c>
       <c r="B330" s="2" t="s">
-        <v>178</v>
+        <v>81</v>
       </c>
       <c r="C330" s="2" t="s">
-        <v>209</v>
-      </c>
-      <c r="D330" s="2" t="s">
-        <v>178</v>
-      </c>
+        <v>164</v>
+      </c>
+      <c r="D330" s="2"/>
       <c r="E330" s="2"/>
     </row>
     <row r="331" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A331" s="2" t="s">
-        <v>6</v>
+        <v>26</v>
       </c>
       <c r="B331" s="2" t="s">
-        <v>463</v>
+        <v>166</v>
       </c>
       <c r="C331" s="2" t="s">
-        <v>209</v>
-      </c>
-      <c r="D331" s="2" t="s">
-        <v>463</v>
-      </c>
+        <v>164</v>
+      </c>
+      <c r="D331" s="2"/>
       <c r="E331" s="2"/>
     </row>
     <row r="332" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A332" s="2" t="s">
-        <v>6</v>
+        <v>26</v>
       </c>
       <c r="B332" s="2" t="s">
-        <v>483</v>
+        <v>80</v>
       </c>
       <c r="C332" s="2" t="s">
-        <v>209</v>
-      </c>
-      <c r="D332" s="2" t="s">
-        <v>483</v>
-      </c>
+        <v>164</v>
+      </c>
+      <c r="D332" s="2"/>
       <c r="E332" s="2"/>
     </row>
     <row r="333" spans="1:5" x14ac:dyDescent="0.2">
@@ -7183,38 +7685,43 @@
         <v>282</v>
       </c>
       <c r="B333" s="2" t="s">
-        <v>234</v>
+        <v>272</v>
       </c>
       <c r="C333" s="2" t="s">
-        <v>234</v>
-      </c>
-      <c r="D333" s="2"/>
-      <c r="E333" s="2"/>
+        <v>318</v>
+      </c>
+      <c r="D333" s="2" t="s">
+        <v>272</v>
+      </c>
     </row>
     <row r="334" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A334" s="2" t="s">
         <v>282</v>
       </c>
       <c r="B334" s="2" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="C334" s="2" t="s">
-        <v>201</v>
-      </c>
-      <c r="D334" s="2"/>
+        <v>318</v>
+      </c>
+      <c r="D334" s="2" t="s">
+        <v>270</v>
+      </c>
       <c r="E334" s="2"/>
     </row>
     <row r="335" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A335" s="2" t="s">
         <v>282</v>
       </c>
-      <c r="B335" s="2" t="s">
-        <v>201</v>
-      </c>
-      <c r="C335" s="2" t="s">
-        <v>201</v>
-      </c>
-      <c r="D335" s="2"/>
+      <c r="B335" t="s">
+        <v>544</v>
+      </c>
+      <c r="C335" t="s">
+        <v>318</v>
+      </c>
+      <c r="D335" t="s">
+        <v>544</v>
+      </c>
       <c r="E335" s="2"/>
     </row>
     <row r="336" spans="1:5" x14ac:dyDescent="0.2">
@@ -7222,44 +7729,40 @@
         <v>282</v>
       </c>
       <c r="B336" s="2" t="s">
-        <v>180</v>
+        <v>273</v>
       </c>
       <c r="C336" s="2" t="s">
-        <v>181</v>
+        <v>318</v>
       </c>
       <c r="D336" s="2" t="s">
-        <v>180</v>
+        <v>273</v>
       </c>
       <c r="E336" s="2"/>
     </row>
     <row r="337" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A337" s="2" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B337" s="2" t="s">
-        <v>180</v>
+        <v>170</v>
       </c>
       <c r="C337" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="D337" s="2" t="s">
-        <v>180</v>
-      </c>
+        <v>171</v>
+      </c>
+      <c r="D337" s="2"/>
       <c r="E337" s="2"/>
     </row>
     <row r="338" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A338" s="2" t="s">
-        <v>282</v>
+        <v>6</v>
       </c>
       <c r="B338" s="2" t="s">
-        <v>236</v>
+        <v>172</v>
       </c>
       <c r="C338" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="D338" s="2" t="s">
-        <v>236</v>
-      </c>
+        <v>171</v>
+      </c>
+      <c r="D338" s="2"/>
       <c r="E338" s="2"/>
     </row>
     <row r="339" spans="1:5" x14ac:dyDescent="0.2">
@@ -7267,28 +7770,26 @@
         <v>282</v>
       </c>
       <c r="B339" s="2" t="s">
-        <v>235</v>
+        <v>261</v>
       </c>
       <c r="C339" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="D339" s="2" t="s">
-        <v>235</v>
-      </c>
+        <v>171</v>
+      </c>
+      <c r="D339" s="2"/>
       <c r="E339" s="2"/>
     </row>
     <row r="340" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A340" s="2" t="s">
         <v>282</v>
       </c>
-      <c r="B340" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="C340" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="D340" s="2" t="s">
-        <v>385</v>
+      <c r="B340" t="s">
+        <v>550</v>
+      </c>
+      <c r="C340" t="s">
+        <v>313</v>
+      </c>
+      <c r="D340" t="s">
+        <v>550</v>
       </c>
       <c r="E340" s="2"/>
     </row>
@@ -7297,164 +7798,138 @@
         <v>9</v>
       </c>
       <c r="B341" s="2" t="s">
-        <v>364</v>
+        <v>17</v>
       </c>
       <c r="C341" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="D341" s="2" t="s">
-        <v>385</v>
-      </c>
+        <v>313</v>
+      </c>
+      <c r="D341" s="2"/>
       <c r="E341" s="2"/>
     </row>
     <row r="342" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A342" s="2" t="s">
-        <v>282</v>
+        <v>9</v>
       </c>
       <c r="B342" s="2" t="s">
-        <v>237</v>
+        <v>18</v>
       </c>
       <c r="C342" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="D342" s="2" t="s">
-        <v>237</v>
-      </c>
+        <v>313</v>
+      </c>
+      <c r="D342" s="2"/>
       <c r="E342" s="2"/>
     </row>
     <row r="343" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A343" s="2" t="s">
-        <v>282</v>
+        <v>9</v>
       </c>
       <c r="B343" s="2" t="s">
-        <v>262</v>
+        <v>20</v>
       </c>
       <c r="C343" s="2" t="s">
-        <v>183</v>
-      </c>
-      <c r="D343" s="2" t="s">
-        <v>262</v>
-      </c>
+        <v>313</v>
+      </c>
+      <c r="D343" s="2"/>
       <c r="E343" s="2"/>
     </row>
     <row r="344" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A344" s="2" t="s">
-        <v>282</v>
+        <v>9</v>
       </c>
       <c r="B344" s="2" t="s">
-        <v>193</v>
+        <v>284</v>
       </c>
       <c r="C344" s="2" t="s">
-        <v>183</v>
-      </c>
-      <c r="D344" s="2" t="s">
-        <v>193</v>
-      </c>
+        <v>313</v>
+      </c>
+      <c r="D344" s="2"/>
       <c r="E344" s="2"/>
     </row>
     <row r="345" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A345" s="2" t="s">
-        <v>282</v>
+        <v>9</v>
       </c>
       <c r="B345" s="2" t="s">
-        <v>303</v>
+        <v>16</v>
       </c>
       <c r="C345" s="2" t="s">
-        <v>183</v>
-      </c>
-      <c r="D345" s="2" t="s">
-        <v>303</v>
-      </c>
+        <v>313</v>
+      </c>
+      <c r="D345" s="2"/>
       <c r="E345" s="2"/>
     </row>
     <row r="346" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A346" s="2" t="s">
-        <v>282</v>
+        <v>9</v>
       </c>
       <c r="B346" s="2" t="s">
-        <v>246</v>
+        <v>283</v>
       </c>
       <c r="C346" s="2" t="s">
-        <v>183</v>
-      </c>
-      <c r="D346" s="2" t="s">
-        <v>303</v>
-      </c>
+        <v>313</v>
+      </c>
+      <c r="D346" s="2"/>
       <c r="E346" s="2"/>
     </row>
     <row r="347" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A347" s="2" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B347" s="2" t="s">
-        <v>495</v>
+        <v>47</v>
       </c>
       <c r="C347" s="2" t="s">
-        <v>183</v>
-      </c>
-      <c r="D347" s="2" t="s">
-        <v>512</v>
-      </c>
-      <c r="E347" s="2"/>
+        <v>313</v>
+      </c>
+      <c r="D347" s="2"/>
     </row>
     <row r="348" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A348" s="2" t="s">
-        <v>282</v>
+        <v>9</v>
       </c>
       <c r="B348" s="2" t="s">
-        <v>257</v>
+        <v>48</v>
       </c>
       <c r="C348" s="2" t="s">
-        <v>183</v>
-      </c>
-      <c r="D348" s="2" t="s">
-        <v>257</v>
-      </c>
-      <c r="E348" s="2"/>
+        <v>313</v>
+      </c>
+      <c r="D348" s="2"/>
     </row>
     <row r="349" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A349" s="2" t="s">
-        <v>282</v>
+        <v>9</v>
       </c>
       <c r="B349" s="2" t="s">
-        <v>248</v>
+        <v>381</v>
       </c>
       <c r="C349" s="2" t="s">
-        <v>183</v>
-      </c>
-      <c r="D349" s="2" t="s">
-        <v>248</v>
-      </c>
-      <c r="E349" s="2"/>
+        <v>313</v>
+      </c>
+      <c r="D349" s="2"/>
     </row>
     <row r="350" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A350" s="2" t="s">
-        <v>282</v>
+        <v>6</v>
       </c>
       <c r="B350" s="2" t="s">
-        <v>215</v>
+        <v>463</v>
       </c>
       <c r="C350" s="2" t="s">
-        <v>183</v>
-      </c>
-      <c r="D350" s="2" t="s">
-        <v>215</v>
-      </c>
-      <c r="E350" s="2"/>
+        <v>313</v>
+      </c>
+      <c r="D350" s="2"/>
     </row>
     <row r="351" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A351" s="2" t="s">
         <v>9</v>
       </c>
       <c r="B351" s="2" t="s">
-        <v>477</v>
+        <v>469</v>
       </c>
       <c r="C351" s="2" t="s">
-        <v>183</v>
-      </c>
-      <c r="D351" s="2" t="s">
-        <v>511</v>
-      </c>
+        <v>313</v>
+      </c>
+      <c r="D351" s="2"/>
       <c r="E351" s="2"/>
     </row>
     <row r="352" spans="1:5" x14ac:dyDescent="0.2">
@@ -7462,58 +7937,46 @@
         <v>9</v>
       </c>
       <c r="B352" s="2" t="s">
-        <v>182</v>
+        <v>483</v>
       </c>
       <c r="C352" s="2" t="s">
-        <v>183</v>
-      </c>
-      <c r="D352" s="2" t="s">
-        <v>385</v>
-      </c>
+        <v>313</v>
+      </c>
+      <c r="D352" s="2"/>
       <c r="E352" s="2"/>
     </row>
     <row r="353" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A353" s="2" t="s">
-        <v>26</v>
+        <v>9</v>
       </c>
       <c r="B353" s="2" t="s">
-        <v>475</v>
+        <v>487</v>
       </c>
       <c r="C353" s="2" t="s">
-        <v>183</v>
-      </c>
-      <c r="D353" s="2" t="s">
-        <v>385</v>
-      </c>
-      <c r="E353" s="2"/>
+        <v>313</v>
+      </c>
+      <c r="D353" s="2"/>
     </row>
     <row r="354" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A354" s="2" t="s">
         <v>282</v>
       </c>
-      <c r="B354" s="2" t="s">
-        <v>254</v>
-      </c>
-      <c r="C354" s="2" t="s">
-        <v>183</v>
-      </c>
-      <c r="D354" s="2" t="s">
-        <v>254</v>
-      </c>
-      <c r="E354" s="2"/>
+      <c r="B354" t="s">
+        <v>535</v>
+      </c>
+      <c r="C354" t="s">
+        <v>313</v>
+      </c>
     </row>
     <row r="355" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A355" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B355" s="2" t="s">
-        <v>287</v>
-      </c>
-      <c r="C355" s="2" t="s">
-        <v>183</v>
-      </c>
-      <c r="D355" s="2" t="s">
-        <v>288</v>
+        <v>282</v>
+      </c>
+      <c r="B355" t="s">
+        <v>551</v>
+      </c>
+      <c r="C355" t="s">
+        <v>313</v>
       </c>
       <c r="E355" s="2"/>
     </row>
@@ -7521,14 +7984,11 @@
       <c r="A356" s="2" t="s">
         <v>282</v>
       </c>
-      <c r="B356" s="2" t="s">
-        <v>243</v>
-      </c>
-      <c r="C356" s="2" t="s">
-        <v>183</v>
-      </c>
-      <c r="D356" s="2" t="s">
-        <v>288</v>
+      <c r="B356" t="s">
+        <v>553</v>
+      </c>
+      <c r="C356" t="s">
+        <v>313</v>
       </c>
       <c r="E356" s="2"/>
     </row>
@@ -7536,14 +7996,14 @@
       <c r="A357" s="2" t="s">
         <v>282</v>
       </c>
-      <c r="B357" s="2" t="s">
-        <v>238</v>
-      </c>
-      <c r="C357" s="2" t="s">
-        <v>183</v>
-      </c>
-      <c r="D357" s="2" t="s">
-        <v>238</v>
+      <c r="B357" t="s">
+        <v>549</v>
+      </c>
+      <c r="C357" t="s">
+        <v>379</v>
+      </c>
+      <c r="D357" t="s">
+        <v>549</v>
       </c>
       <c r="E357" s="2"/>
     </row>
@@ -7552,137 +8012,142 @@
         <v>282</v>
       </c>
       <c r="B358" s="2" t="s">
-        <v>253</v>
+        <v>191</v>
       </c>
       <c r="C358" s="2" t="s">
-        <v>183</v>
-      </c>
-      <c r="D358" s="2" t="s">
-        <v>253</v>
-      </c>
+        <v>379</v>
+      </c>
+      <c r="D358" s="2"/>
       <c r="E358" s="2"/>
     </row>
     <row r="359" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A359" s="2" t="s">
-        <v>0</v>
+        <v>282</v>
       </c>
       <c r="B359" s="2" t="s">
-        <v>134</v>
+        <v>233</v>
       </c>
       <c r="C359" s="2" t="s">
-        <v>186</v>
+        <v>379</v>
       </c>
       <c r="D359" s="2"/>
       <c r="E359" s="2"/>
     </row>
     <row r="360" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A360" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B360" s="2" t="s">
-        <v>185</v>
-      </c>
-      <c r="C360" s="2" t="s">
-        <v>186</v>
-      </c>
-      <c r="D360" s="2"/>
+        <v>282</v>
+      </c>
+      <c r="B360" t="s">
+        <v>540</v>
+      </c>
+      <c r="C360" t="s">
+        <v>540</v>
+      </c>
+      <c r="D360" t="s">
+        <v>383</v>
+      </c>
       <c r="E360" s="2"/>
     </row>
     <row r="361" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A361" s="2" t="s">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="B361" s="2" t="s">
-        <v>127</v>
+        <v>175</v>
       </c>
       <c r="C361" s="2" t="s">
-        <v>186</v>
-      </c>
-      <c r="D361" s="2"/>
+        <v>540</v>
+      </c>
+      <c r="D361" s="2" t="s">
+        <v>175</v>
+      </c>
       <c r="E361" s="2"/>
     </row>
     <row r="362" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A362" s="2" t="s">
-        <v>282</v>
+        <v>6</v>
       </c>
       <c r="B362" s="2" t="s">
-        <v>252</v>
+        <v>178</v>
       </c>
       <c r="C362" s="2" t="s">
-        <v>197</v>
-      </c>
-      <c r="D362" s="2"/>
-      <c r="E362" s="2"/>
+        <v>540</v>
+      </c>
+      <c r="D362" s="2" t="s">
+        <v>178</v>
+      </c>
     </row>
     <row r="363" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A363" s="2" t="s">
-        <v>282</v>
+        <v>6</v>
       </c>
       <c r="B363" s="2" t="s">
-        <v>255</v>
+        <v>459</v>
       </c>
       <c r="C363" s="2" t="s">
-        <v>382</v>
+        <v>540</v>
       </c>
       <c r="D363" s="2" t="s">
-        <v>255</v>
-      </c>
-      <c r="E363" s="2"/>
+        <v>459</v>
+      </c>
     </row>
     <row r="364" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A364" s="2" t="s">
-        <v>282</v>
+        <v>6</v>
       </c>
       <c r="B364" s="2" t="s">
-        <v>269</v>
+        <v>479</v>
       </c>
       <c r="C364" s="2" t="s">
-        <v>382</v>
+        <v>540</v>
       </c>
       <c r="D364" s="2" t="s">
-        <v>269</v>
-      </c>
-      <c r="E364" s="2"/>
+        <v>479</v>
+      </c>
     </row>
     <row r="365" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A365" s="2" t="s">
-        <v>282</v>
+        <v>9</v>
       </c>
       <c r="B365" s="2" t="s">
-        <v>241</v>
+        <v>177</v>
       </c>
       <c r="C365" s="2" t="s">
-        <v>382</v>
+        <v>540</v>
       </c>
       <c r="D365" s="2" t="s">
-        <v>241</v>
+        <v>567</v>
       </c>
       <c r="E365" s="2"/>
     </row>
     <row r="366" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A366" s="2" t="s">
-        <v>26</v>
+        <v>282</v>
       </c>
       <c r="B366" s="2" t="s">
-        <v>504</v>
+        <v>209</v>
       </c>
       <c r="C366" s="2" t="s">
-        <v>505</v>
-      </c>
-      <c r="D366" s="2"/>
+        <v>540</v>
+      </c>
+      <c r="D366" s="2" t="s">
+        <v>567</v>
+      </c>
       <c r="E366" s="2"/>
     </row>
     <row r="367" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A367" s="2" t="s">
         <v>282</v>
       </c>
-      <c r="B367" s="2" t="s">
-        <v>239</v>
-      </c>
-      <c r="C367" s="2" t="s">
-        <v>199</v>
-      </c>
-      <c r="D367" s="2"/>
+      <c r="B367" t="s">
+        <v>533</v>
+      </c>
+      <c r="C367" t="s">
+        <v>540</v>
+      </c>
+      <c r="D367" t="s">
+        <v>588</v>
+      </c>
       <c r="E367" s="2"/>
     </row>
     <row r="368" spans="1:5" x14ac:dyDescent="0.2">
@@ -7690,22 +8155,979 @@
         <v>282</v>
       </c>
       <c r="B368" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="C368" s="2" t="s">
+        <v>540</v>
+      </c>
+      <c r="D368" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="E368" s="2"/>
+    </row>
+    <row r="369" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A369" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="B369" t="s">
+        <v>638</v>
+      </c>
+      <c r="C369" s="2" t="s">
+        <v>540</v>
+      </c>
+      <c r="D369" s="2" t="s">
+        <v>638</v>
+      </c>
+      <c r="E369" s="2"/>
+    </row>
+    <row r="370" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A370" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="B370" s="4" t="s">
+        <v>527</v>
+      </c>
+      <c r="C370" s="2" t="s">
+        <v>540</v>
+      </c>
+      <c r="D370" t="s">
+        <v>527</v>
+      </c>
+      <c r="E370" s="2"/>
+    </row>
+    <row r="371" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A371" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="B371" s="2" t="s">
+        <v>604</v>
+      </c>
+      <c r="C371" s="2" t="s">
+        <v>540</v>
+      </c>
+      <c r="D371" s="2" t="s">
+        <v>604</v>
+      </c>
+      <c r="E371" s="2"/>
+    </row>
+    <row r="372" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A372" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="B372" t="s">
+        <v>545</v>
+      </c>
+      <c r="C372" t="s">
+        <v>583</v>
+      </c>
+      <c r="D372" t="s">
+        <v>545</v>
+      </c>
+      <c r="E372" s="2"/>
+    </row>
+    <row r="373" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A373" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="B373" t="s">
+        <v>552</v>
+      </c>
+      <c r="C373" t="s">
+        <v>583</v>
+      </c>
+      <c r="D373" t="s">
+        <v>552</v>
+      </c>
+      <c r="E373" s="2"/>
+    </row>
+    <row r="374" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A374" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B374" s="2" t="s">
+        <v>497</v>
+      </c>
+      <c r="C374" s="2" t="s">
+        <v>583</v>
+      </c>
+      <c r="D374" s="2" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="375" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A375" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B375" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="C375" s="2" t="s">
+        <v>583</v>
+      </c>
+      <c r="D375" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="E375" s="2"/>
+    </row>
+    <row r="376" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A376" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B376" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="C376" s="2" t="s">
+        <v>583</v>
+      </c>
+      <c r="D376" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="E376" s="2"/>
+    </row>
+    <row r="377" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A377" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B377" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="C377" s="2" t="s">
+        <v>583</v>
+      </c>
+      <c r="D377" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="E377" s="2"/>
+    </row>
+    <row r="378" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A378" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="B378" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="C378" s="2" t="s">
+        <v>583</v>
+      </c>
+      <c r="D378" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="E378" s="2"/>
+    </row>
+    <row r="379" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A379" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B379" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="C379" s="2" t="s">
+        <v>583</v>
+      </c>
+      <c r="D379" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="E379" s="2"/>
+    </row>
+    <row r="380" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A380" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B380" s="2" t="s">
+        <v>448</v>
+      </c>
+      <c r="C380" s="2" t="s">
+        <v>583</v>
+      </c>
+      <c r="D380" s="2" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="381" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A381" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B381" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="C381" s="2" t="s">
+        <v>583</v>
+      </c>
+      <c r="D381" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="E381" s="2"/>
+    </row>
+    <row r="382" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A382" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B382" s="2" t="s">
+        <v>447</v>
+      </c>
+      <c r="C382" s="2" t="s">
+        <v>583</v>
+      </c>
+      <c r="D382" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="E382" s="2"/>
+    </row>
+    <row r="383" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A383" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="B383" t="s">
+        <v>532</v>
+      </c>
+      <c r="C383" s="2" t="s">
+        <v>583</v>
+      </c>
+      <c r="D383" t="s">
+        <v>292</v>
+      </c>
+      <c r="E383" s="2"/>
+    </row>
+    <row r="384" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A384" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B384" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="C384" s="2" t="s">
+        <v>583</v>
+      </c>
+      <c r="D384" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="E384" s="2"/>
+    </row>
+    <row r="385" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A385" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B385" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C385" s="2" t="s">
+        <v>583</v>
+      </c>
+      <c r="D385" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="E385" s="2"/>
+    </row>
+    <row r="386" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A386" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B386" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="C386" s="2" t="s">
+        <v>583</v>
+      </c>
+      <c r="D386" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="E386" s="2"/>
+    </row>
+    <row r="387" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A387" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B387" s="2" t="s">
+        <v>472</v>
+      </c>
+      <c r="C387" s="2" t="s">
+        <v>583</v>
+      </c>
+      <c r="D387" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="E387" s="2"/>
+    </row>
+    <row r="388" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A388" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="B388" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="C388" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="D388" s="2"/>
+      <c r="E388" s="2"/>
+    </row>
+    <row r="389" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A389" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="B389" s="4" t="s">
+        <v>528</v>
+      </c>
+      <c r="C389" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="D389" t="s">
+        <v>528</v>
+      </c>
+      <c r="E389" s="2"/>
+    </row>
+    <row r="390" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A390" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="B390" s="2" t="s">
+        <v>274</v>
+      </c>
+      <c r="C390" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="D390" s="2"/>
+      <c r="E390" s="2"/>
+    </row>
+    <row r="391" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A391" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="B391" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="C391" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="D391" s="2"/>
+      <c r="E391" s="2"/>
+    </row>
+    <row r="392" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A392" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="B392" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="C392" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="D392" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="E392" s="2"/>
+    </row>
+    <row r="393" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A393" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B393" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="C393" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="D393" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="E393" s="2"/>
+    </row>
+    <row r="394" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A394" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="B394" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="C394" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="D394" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="E394" s="2"/>
+    </row>
+    <row r="395" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A395" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="B395" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="C395" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="D395" s="2" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="396" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A396" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="B396" s="2" t="s">
+        <v>590</v>
+      </c>
+      <c r="C396" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="D396" s="2" t="s">
+        <v>383</v>
+      </c>
+      <c r="E396" s="2"/>
+    </row>
+    <row r="397" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A397" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="B397" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="C397" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="D397" s="2" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="398" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A398" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B398" s="2" t="s">
+        <v>362</v>
+      </c>
+      <c r="C398" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="D398" s="2" t="s">
+        <v>383</v>
+      </c>
+      <c r="E398" s="2"/>
+    </row>
+    <row r="399" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A399" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="B399" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="C399" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="D399" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="E399" s="2"/>
+    </row>
+    <row r="400" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A400" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="B400" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="C400" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="D400" s="2" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="401" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A401" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="B401" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="C401" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="D401" s="2" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="402" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A402" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="B402" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="C402" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="D402" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="E402" s="2"/>
+    </row>
+    <row r="403" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A403" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="B403" s="5" t="s">
+        <v>605</v>
+      </c>
+      <c r="C403" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="D403" t="s">
+        <v>605</v>
+      </c>
+      <c r="E403" s="2"/>
+    </row>
+    <row r="404" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A404" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="B404" s="2" t="s">
+        <v>303</v>
+      </c>
+      <c r="C404" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="D404" s="2" t="s">
+        <v>303</v>
+      </c>
+      <c r="E404" s="2"/>
+    </row>
+    <row r="405" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A405" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="B405" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="C405" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="D405" s="2" t="s">
+        <v>303</v>
+      </c>
+      <c r="E405" s="2"/>
+    </row>
+    <row r="406" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A406" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="B406" t="s">
+        <v>541</v>
+      </c>
+      <c r="C406" t="s">
+        <v>183</v>
+      </c>
+      <c r="D406" t="s">
+        <v>541</v>
+      </c>
+      <c r="E406" s="2"/>
+    </row>
+    <row r="407" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A407" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="B407" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="C407" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="D407" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="E407" s="2"/>
+    </row>
+    <row r="408" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A408" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="B408" t="s">
+        <v>531</v>
+      </c>
+      <c r="C408" t="s">
+        <v>183</v>
+      </c>
+      <c r="D408" t="s">
+        <v>531</v>
+      </c>
+      <c r="E408" s="2"/>
+    </row>
+    <row r="409" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A409" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="B409" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="C409" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="D409" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="E409" s="2"/>
+    </row>
+    <row r="410" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A410" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="B410" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="C410" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="D410" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="E410" s="2"/>
+    </row>
+    <row r="411" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A411" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="B411" t="s">
+        <v>556</v>
+      </c>
+      <c r="C411" t="s">
+        <v>183</v>
+      </c>
+      <c r="D411" t="s">
+        <v>556</v>
+      </c>
+      <c r="E411" s="2"/>
+    </row>
+    <row r="412" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A412" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="B412" t="s">
+        <v>530</v>
+      </c>
+      <c r="C412" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="D412" t="s">
+        <v>530</v>
+      </c>
+      <c r="E412" s="2"/>
+    </row>
+    <row r="413" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A413" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B413" s="2" t="s">
+        <v>473</v>
+      </c>
+      <c r="C413" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="D413" s="2" t="s">
+        <v>507</v>
+      </c>
+      <c r="E413" s="2"/>
+    </row>
+    <row r="414" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A414" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B414" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="C414" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="D414" s="2" t="s">
+        <v>383</v>
+      </c>
+      <c r="E414" s="2"/>
+    </row>
+    <row r="415" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A415" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B415" s="2" t="s">
+        <v>471</v>
+      </c>
+      <c r="C415" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="D415" s="2" t="s">
+        <v>383</v>
+      </c>
+      <c r="E415" s="5"/>
+    </row>
+    <row r="416" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A416" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="B416" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="C416" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="D416" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="E416" s="5"/>
+    </row>
+    <row r="417" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A417" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="B417" t="s">
+        <v>616</v>
+      </c>
+      <c r="C417" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="D417" s="5" t="s">
+        <v>616</v>
+      </c>
+      <c r="E417" s="2"/>
+    </row>
+    <row r="418" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A418" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B418" s="2" t="s">
+        <v>287</v>
+      </c>
+      <c r="C418" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="D418" s="2" t="s">
+        <v>288</v>
+      </c>
+      <c r="E418" s="2"/>
+    </row>
+    <row r="419" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A419" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="B419" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="C419" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="D419" s="2" t="s">
+        <v>288</v>
+      </c>
+      <c r="E419" s="2"/>
+    </row>
+    <row r="420" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A420" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="B420" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="C420" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="D420" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="E420" s="2"/>
+    </row>
+    <row r="421" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A421" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="B421" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="C421" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="D421" s="2" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="422" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A422" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B422" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="C422" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="D422" s="2" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="423" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A423" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B423" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="C423" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="D423" s="2" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="424" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A424" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B424" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="C424" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="D424" s="2" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="425" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A425" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="B425" t="s">
+        <v>602</v>
+      </c>
+      <c r="C425" s="2" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="426" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A426" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="B426" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="C426" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="D426" s="2" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="427" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A427" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="B427" t="s">
+        <v>599</v>
+      </c>
+      <c r="C427" s="2" t="s">
+        <v>380</v>
+      </c>
+      <c r="D427" s="5" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="428" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A428" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="B428" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="C428" s="2" t="s">
+        <v>380</v>
+      </c>
+      <c r="D428" s="2" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="429" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A429" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="B429" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="C429" s="2" t="s">
+        <v>380</v>
+      </c>
+      <c r="D429" s="2" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="430" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A430" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="B430" s="2" t="s">
+        <v>636</v>
+      </c>
+      <c r="C430" s="2" t="s">
+        <v>380</v>
+      </c>
+      <c r="D430" s="2" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="431" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A431" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="B431" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="C431" s="2" t="s">
+        <v>380</v>
+      </c>
+      <c r="D431" s="2" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="432" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A432" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B432" s="2" t="s">
+        <v>500</v>
+      </c>
+      <c r="C432" s="2" t="s">
+        <v>501</v>
+      </c>
+      <c r="D432" s="2"/>
+    </row>
+    <row r="433" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A433" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="B433" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="C433" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="D433" s="2"/>
+    </row>
+    <row r="434" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A434" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="B434" s="2" t="s">
         <v>264</v>
       </c>
-      <c r="C368" s="2" t="s">
+      <c r="C434" s="2" t="s">
         <v>199</v>
       </c>
-      <c r="D368" s="2"/>
-      <c r="E368" s="2"/>
+      <c r="D434" s="2"/>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E368">
-    <sortCondition ref="C2:C368"/>
-    <sortCondition ref="D2:D368"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D434">
+    <sortCondition ref="C2:C434"/>
+    <sortCondition ref="D2:D434"/>
   </sortState>
   <phoneticPr fontId="19" type="noConversion"/>
-  <conditionalFormatting sqref="A1:D277 A278:C278 A279:D285 A286:C286 A287:D289 A362:D365 B359:D359 A361 C360:D361 A369:D1048576 A366:A368 C366:D368">
-    <cfRule type="expression" dxfId="2" priority="1">
+  <conditionalFormatting sqref="A119:C119 A120:D304 A305:C305 A306:D312 A313:C313 A314:D316 C317:C318 B388:D388 C389:D390 A390 A391:D394 A395:A397 C395:D397 A398:D398 A399:A400 C399:D400 A401:D422 A423 C423:D423 A427:C427 A428:D431 A432:C432 A433 C433:D433 A434:D1048576 A424:D426 A1:D118">
+    <cfRule type="expression" dxfId="3" priority="1">
       <formula>"NOT(ISBLANK)"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7715,10 +9137,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92187E74-4F7E-DD4F-A405-6C0E523CB693}">
-  <dimension ref="A1:B67"/>
+  <dimension ref="A1:B105"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A38" sqref="A38:XFD38"/>
+    <sheetView topLeftCell="A94" workbookViewId="0">
+      <selection activeCell="A106" sqref="A106"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -7728,7 +9150,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>315</v>
+        <v>314</v>
+      </c>
+      <c r="B1" t="s">
+        <v>589</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
@@ -7736,540 +9161,849 @@
         <v>200</v>
       </c>
       <c r="B2" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>193</v>
+      <c r="A3" s="1" t="s">
+        <v>526</v>
       </c>
       <c r="B3" t="s">
-        <v>322</v>
+        <v>557</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A4" s="1" t="s">
-        <v>2</v>
+      <c r="A4" t="s">
+        <v>555</v>
       </c>
       <c r="B4" t="s">
-        <v>323</v>
+        <v>575</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>8</v>
+        <v>545</v>
       </c>
       <c r="B5" t="s">
-        <v>324</v>
+        <v>570</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>309</v>
+        <v>536</v>
       </c>
       <c r="B6" t="s">
-        <v>325</v>
+        <v>565</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
+        <v>193</v>
+      </c>
+      <c r="B7" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B8" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>308</v>
+      </c>
+      <c r="B10" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>374</v>
+      </c>
+      <c r="B11" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
         <v>303</v>
       </c>
-      <c r="B7" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>376</v>
-      </c>
-      <c r="B8" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A9" s="1" t="s">
-        <v>319</v>
-      </c>
-      <c r="B9" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A10" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B10" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A11" s="1" t="s">
-        <v>317</v>
-      </c>
-      <c r="B11" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A12" s="1" t="s">
-        <v>249</v>
-      </c>
       <c r="B12" t="s">
-        <v>329</v>
+        <v>324</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>240</v>
+        <v>577</v>
       </c>
       <c r="B13" t="s">
-        <v>330</v>
+        <v>578</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
-        <v>194</v>
+      <c r="A14" s="1" t="s">
+        <v>249</v>
       </c>
       <c r="B14" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A15" s="1" t="s">
-        <v>206</v>
+      <c r="A15" t="s">
+        <v>541</v>
       </c>
       <c r="B15" t="s">
-        <v>332</v>
+        <v>568</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
-        <v>289</v>
+      <c r="A16" s="1" t="s">
+        <v>317</v>
       </c>
       <c r="B16" t="s">
-        <v>333</v>
+        <v>316</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
-        <v>58</v>
+        <v>24</v>
       </c>
       <c r="B17" t="s">
-        <v>334</v>
+        <v>27</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
-        <v>60</v>
+        <v>315</v>
       </c>
       <c r="B18" t="s">
-        <v>335</v>
+        <v>326</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A19" s="1" t="s">
-        <v>327</v>
+      <c r="A19" t="s">
+        <v>534</v>
       </c>
       <c r="B19" t="s">
-        <v>336</v>
+        <v>107</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>248</v>
+        <v>240</v>
       </c>
       <c r="B20" t="s">
-        <v>337</v>
+        <v>328</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A21" s="1" t="s">
-        <v>308</v>
+      <c r="A21" t="s">
+        <v>194</v>
       </c>
       <c r="B21" t="s">
-        <v>338</v>
+        <v>329</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>195</v>
+        <v>579</v>
       </c>
       <c r="B22" t="s">
-        <v>339</v>
+        <v>580</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
-        <v>211</v>
+      <c r="A23" s="1" t="s">
+        <v>206</v>
       </c>
       <c r="B23" t="s">
-        <v>340</v>
+        <v>330</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A24" s="1" t="s">
-        <v>83</v>
+      <c r="A24" t="s">
+        <v>531</v>
       </c>
       <c r="B24" t="s">
-        <v>341</v>
+        <v>561</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>244</v>
+        <v>289</v>
       </c>
       <c r="B25" t="s">
-        <v>342</v>
+        <v>331</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A26" t="s">
-        <v>260</v>
+      <c r="A26" s="1" t="s">
+        <v>58</v>
       </c>
       <c r="B26" t="s">
-        <v>343</v>
+        <v>332</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A27" t="s">
-        <v>215</v>
+      <c r="A27" s="1" t="s">
+        <v>60</v>
       </c>
       <c r="B27" t="s">
-        <v>344</v>
+        <v>333</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A28" s="1" t="s">
-        <v>90</v>
+      <c r="A28" t="s">
+        <v>248</v>
       </c>
       <c r="B28" t="s">
-        <v>345</v>
+        <v>335</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>198</v>
+        <v>550</v>
       </c>
       <c r="B29" t="s">
-        <v>346</v>
+        <v>573</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A30" t="s">
-        <v>109</v>
+      <c r="A30" s="1" t="s">
+        <v>307</v>
       </c>
       <c r="B30" t="s">
-        <v>310</v>
+        <v>336</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>265</v>
+        <v>538</v>
       </c>
       <c r="B31" t="s">
-        <v>347</v>
+        <v>584</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>105</v>
+        <v>195</v>
       </c>
       <c r="B32" t="s">
-        <v>348</v>
+        <v>337</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>142</v>
+        <v>211</v>
       </c>
       <c r="B33" t="s">
-        <v>349</v>
+        <v>338</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A34" t="s">
-        <v>190</v>
+      <c r="A34" s="1" t="s">
+        <v>83</v>
       </c>
       <c r="B34" t="s">
-        <v>350</v>
+        <v>339</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A35" s="1" t="s">
-        <v>148</v>
+      <c r="A35" t="s">
+        <v>244</v>
       </c>
       <c r="B35" t="s">
-        <v>151</v>
+        <v>340</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A36" s="1" t="s">
-        <v>158</v>
+      <c r="A36" t="s">
+        <v>260</v>
       </c>
       <c r="B36" t="s">
-        <v>351</v>
+        <v>341</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>266</v>
+        <v>552</v>
       </c>
       <c r="B37" t="s">
-        <v>380</v>
+        <v>574</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>300</v>
+        <v>215</v>
       </c>
       <c r="B38" t="s">
-        <v>352</v>
+        <v>342</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
-        <v>162</v>
+        <v>90</v>
       </c>
       <c r="B39" t="s">
-        <v>353</v>
+        <v>343</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A40" t="s">
-        <v>268</v>
+      <c r="A40" s="1" t="s">
+        <v>205</v>
       </c>
       <c r="B40" t="s">
-        <v>354</v>
+        <v>612</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A41" s="1" t="s">
-        <v>164</v>
+      <c r="A41" t="s">
+        <v>556</v>
       </c>
       <c r="B41" t="s">
-        <v>166</v>
+        <v>576</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>320</v>
+        <v>198</v>
       </c>
       <c r="B42" t="s">
-        <v>355</v>
+        <v>344</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A43" s="1" t="s">
-        <v>171</v>
+      <c r="A43" t="s">
+        <v>109</v>
       </c>
       <c r="B43" t="s">
-        <v>170</v>
+        <v>309</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A44" s="1" t="s">
-        <v>314</v>
+      <c r="A44" t="s">
+        <v>265</v>
       </c>
       <c r="B44" t="s">
-        <v>356</v>
+        <v>345</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A45" s="1" t="s">
-        <v>174</v>
+      <c r="A45" t="s">
+        <v>105</v>
       </c>
       <c r="B45" t="s">
-        <v>173</v>
+        <v>346</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A46" t="s">
-        <v>191</v>
+      <c r="A46" s="4" t="s">
+        <v>528</v>
       </c>
       <c r="B46" t="s">
-        <v>357</v>
+        <v>559</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A47" t="s">
-        <v>270</v>
+      <c r="A47" s="4" t="s">
+        <v>543</v>
       </c>
       <c r="B47" t="s">
-        <v>358</v>
+        <v>611</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A48" s="1" t="s">
-        <v>209</v>
+      <c r="A48" t="s">
+        <v>553</v>
       </c>
       <c r="B48" t="s">
-        <v>177</v>
+        <v>598</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>273</v>
+        <v>142</v>
       </c>
       <c r="B49" t="s">
-        <v>359</v>
+        <v>347</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>217</v>
+        <v>190</v>
       </c>
       <c r="B50" t="s">
-        <v>360</v>
+        <v>348</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>292</v>
+        <v>530</v>
       </c>
       <c r="B51" t="s">
-        <v>291</v>
+        <v>560</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A52" t="s">
-        <v>192</v>
+      <c r="A52" s="1" t="s">
+        <v>148</v>
       </c>
       <c r="B52" t="s">
-        <v>361</v>
+        <v>151</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>201</v>
+        <v>535</v>
       </c>
       <c r="B53" t="s">
-        <v>362</v>
+        <v>564</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>254</v>
+        <v>525</v>
       </c>
       <c r="B54" t="s">
-        <v>363</v>
+        <v>581</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A55" s="1" t="s">
-        <v>181</v>
+        <v>158</v>
       </c>
       <c r="B55" t="s">
-        <v>364</v>
+        <v>349</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>183</v>
+        <v>266</v>
       </c>
       <c r="B56" t="s">
-        <v>375</v>
+        <v>378</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>247</v>
+        <v>300</v>
       </c>
       <c r="B57" t="s">
-        <v>365</v>
+        <v>350</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A58" s="1" t="s">
-        <v>79</v>
+        <v>162</v>
       </c>
       <c r="B58" t="s">
-        <v>184</v>
+        <v>351</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A59" t="s">
-        <v>243</v>
+      <c r="A59" s="1" t="s">
+        <v>325</v>
       </c>
       <c r="B59" t="s">
-        <v>366</v>
+        <v>334</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A60" s="1" t="s">
-        <v>186</v>
+      <c r="A60" t="s">
+        <v>268</v>
       </c>
       <c r="B60" t="s">
-        <v>367</v>
+        <v>352</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A61" t="s">
-        <v>255</v>
+      <c r="A61" s="1" t="s">
+        <v>164</v>
       </c>
       <c r="B61" t="s">
-        <v>368</v>
+        <v>166</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>197</v>
+        <v>318</v>
       </c>
       <c r="B62" t="s">
-        <v>369</v>
+        <v>353</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A63" t="s">
-        <v>238</v>
+      <c r="A63" s="1" t="s">
+        <v>171</v>
       </c>
       <c r="B63" t="s">
-        <v>370</v>
+        <v>170</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A64" t="s">
-        <v>269</v>
+      <c r="A64" s="1" t="s">
+        <v>313</v>
       </c>
       <c r="B64" t="s">
-        <v>371</v>
+        <v>354</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A65" t="s">
-        <v>241</v>
+      <c r="A65" s="1" t="s">
+        <v>174</v>
       </c>
       <c r="B65" t="s">
-        <v>372</v>
+        <v>173</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>253</v>
+        <v>529</v>
       </c>
       <c r="B66" t="s">
-        <v>373</v>
+        <v>582</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
+        <v>191</v>
+      </c>
+      <c r="B67" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A68" t="s">
+        <v>549</v>
+      </c>
+      <c r="B68" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A69" t="s">
+        <v>270</v>
+      </c>
+      <c r="B69" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A70" t="s">
+        <v>533</v>
+      </c>
+      <c r="B70" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A71" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="B71" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A72" t="s">
+        <v>544</v>
+      </c>
+      <c r="B72" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A73" t="s">
+        <v>273</v>
+      </c>
+      <c r="B73" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A74" t="s">
+        <v>217</v>
+      </c>
+      <c r="B74" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A75" t="s">
+        <v>540</v>
+      </c>
+      <c r="B75" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A76" t="s">
+        <v>292</v>
+      </c>
+      <c r="B76" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A77" t="s">
+        <v>527</v>
+      </c>
+      <c r="B77" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A78" t="s">
+        <v>192</v>
+      </c>
+      <c r="B78" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A79" t="s">
+        <v>201</v>
+      </c>
+      <c r="B79" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A80" t="s">
+        <v>254</v>
+      </c>
+      <c r="B80" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A81" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="B81" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A82" t="s">
+        <v>183</v>
+      </c>
+      <c r="B82" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A83" t="s">
+        <v>247</v>
+      </c>
+      <c r="B83" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A84" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B84" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A85" t="s">
+        <v>243</v>
+      </c>
+      <c r="B85" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A86" t="s">
+        <v>551</v>
+      </c>
+      <c r="B86" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A87" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="B87" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A88" t="s">
+        <v>255</v>
+      </c>
+      <c r="B88" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A89" t="s">
+        <v>197</v>
+      </c>
+      <c r="B89" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A90" t="s">
+        <v>532</v>
+      </c>
+      <c r="B90" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A91" t="s">
+        <v>238</v>
+      </c>
+      <c r="B91" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A92" t="s">
+        <v>269</v>
+      </c>
+      <c r="B92" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A93" t="s">
+        <v>241</v>
+      </c>
+      <c r="B93" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A94" t="s">
+        <v>253</v>
+      </c>
+      <c r="B94" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A95" t="s">
         <v>199</v>
       </c>
-      <c r="B67" t="s">
-        <v>374</v>
+      <c r="B95" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A96" t="s">
+        <v>591</v>
+      </c>
+      <c r="B96" s="2" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A97" t="s">
+        <v>593</v>
+      </c>
+      <c r="B97" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A98" t="s">
+        <v>595</v>
+      </c>
+      <c r="B98" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A99" t="s">
+        <v>597</v>
+      </c>
+      <c r="B99" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A100" t="s">
+        <v>599</v>
+      </c>
+      <c r="B100" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A101" t="s">
+        <v>602</v>
+      </c>
+      <c r="B101" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A102" t="s">
+        <v>605</v>
+      </c>
+      <c r="B102" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A103" t="s">
+        <v>607</v>
+      </c>
+      <c r="B103" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A104" t="s">
+        <v>608</v>
+      </c>
+      <c r="B104" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A105" s="5" t="s">
+        <v>613</v>
+      </c>
+      <c r="B105" t="s">
+        <v>614</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:A287">
-    <sortCondition ref="A2:A287"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B96">
+    <sortCondition ref="A2:A96"/>
   </sortState>
-  <conditionalFormatting sqref="A1:A68 A289:A1048576">
-    <cfRule type="expression" dxfId="1" priority="3">
+  <conditionalFormatting sqref="A1:A69 A71 A73:A93 A290:A1048576">
+    <cfRule type="expression" dxfId="2" priority="5">
       <formula>"NOT(ISBLANK)"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B51:B52">
-    <cfRule type="expression" dxfId="0" priority="1">
+  <conditionalFormatting sqref="A94:B96 A99">
+    <cfRule type="expression" dxfId="1" priority="1">
+      <formula>"NOT(ISBLANK)"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B53:B54">
+    <cfRule type="expression" dxfId="0" priority="3">
       <formula>"NOT(ISBLANK)"</formula>
     </cfRule>
   </conditionalFormatting>

--- a/data/source/pedpancan_mapping.xlsx
+++ b/data/source/pedpancan_mapping.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ochapman/SBP/projects/pedpancan_ecdna/data/source/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C3CF6C0-BE5B-D743-ADF1-C3E5F8377165}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DB865F2-2521-3A4E-B970-70601DE9E937}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="740" windowWidth="29400" windowHeight="16780" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="660" windowWidth="25600" windowHeight="14660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="mapping" sheetId="2" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1827" uniqueCount="641">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1846" uniqueCount="648">
   <si>
     <t>molecular_subtype</t>
   </si>
@@ -1957,6 +1957,27 @@
   </si>
   <si>
     <t>ATRTSHH</t>
+  </si>
+  <si>
+    <t>dubois</t>
+  </si>
+  <si>
+    <t>H3F3A_G34R</t>
+  </si>
+  <si>
+    <t>HGG_H3G34</t>
+  </si>
+  <si>
+    <t>H3F3A_K27M</t>
+  </si>
+  <si>
+    <t>HGG_H3K27</t>
+  </si>
+  <si>
+    <t>HIST1_K27M</t>
+  </si>
+  <si>
+    <t>Acoustic Neuroma</t>
   </si>
 </sst>
 </file>
@@ -2529,7 +2550,27 @@
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="4">
+  <dxfs count="6">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -2880,10 +2921,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:E434"/>
+  <dimension ref="A1:E438"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView tabSelected="1" topLeftCell="A69" workbookViewId="0">
+      <selection activeCell="B85" sqref="B85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3391,23 +3432,23 @@
       <c r="A35" s="2" t="s">
         <v>282</v>
       </c>
-      <c r="B35" s="2" t="s">
-        <v>523</v>
-      </c>
-      <c r="C35" s="2" t="s">
+      <c r="B35" t="s">
+        <v>552</v>
+      </c>
+      <c r="C35" t="s">
         <v>8</v>
       </c>
-      <c r="D35" s="2" t="s">
-        <v>523</v>
+      <c r="D35" t="s">
+        <v>552</v>
       </c>
       <c r="E35" s="2"/>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A36" s="2" t="s">
-        <v>9</v>
+        <v>282</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>482</v>
+        <v>523</v>
       </c>
       <c r="C36" s="2" t="s">
         <v>8</v>
@@ -3419,25 +3460,25 @@
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A37" s="2" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>110</v>
+        <v>482</v>
       </c>
       <c r="C37" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>110</v>
+        <v>523</v>
       </c>
       <c r="E37" s="2"/>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A38" s="2" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C38" s="2" t="s">
         <v>8</v>
@@ -3452,13 +3493,13 @@
         <v>9</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>439</v>
+        <v>111</v>
       </c>
       <c r="C39" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>623</v>
+        <v>110</v>
       </c>
       <c r="E39" s="2"/>
     </row>
@@ -3467,67 +3508,67 @@
         <v>9</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>468</v>
+        <v>439</v>
       </c>
       <c r="C40" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>630</v>
+        <v>623</v>
       </c>
       <c r="E40" s="2"/>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A41" s="2" t="s">
-        <v>282</v>
-      </c>
-      <c r="B41" t="s">
-        <v>613</v>
+        <v>9</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>468</v>
       </c>
       <c r="C41" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>613</v>
+        <v>630</v>
       </c>
       <c r="E41" s="2"/>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A42" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B42" s="2" t="s">
-        <v>19</v>
+        <v>282</v>
+      </c>
+      <c r="B42" t="s">
+        <v>613</v>
       </c>
       <c r="C42" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>626</v>
+        <v>613</v>
       </c>
       <c r="E42" s="2"/>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A43" s="2" t="s">
-        <v>282</v>
+        <v>9</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>529</v>
+        <v>19</v>
       </c>
       <c r="C43" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>529</v>
+        <v>626</v>
       </c>
       <c r="E43" s="2"/>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A44" s="2" t="s">
-        <v>9</v>
+        <v>282</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>481</v>
+        <v>529</v>
       </c>
       <c r="C44" s="2" t="s">
         <v>8</v>
@@ -3539,45 +3580,47 @@
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A45" s="2" t="s">
-        <v>282</v>
-      </c>
-      <c r="B45" t="s">
-        <v>615</v>
+        <v>9</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>481</v>
       </c>
       <c r="C45" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>615</v>
+        <v>529</v>
       </c>
       <c r="E45" s="2"/>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A46" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B46" s="2" t="s">
-        <v>489</v>
+        <v>282</v>
+      </c>
+      <c r="B46" t="s">
+        <v>615</v>
       </c>
       <c r="C46" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>628</v>
+        <v>615</v>
       </c>
       <c r="E46" s="2"/>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A47" s="2" t="s">
-        <v>282</v>
+        <v>9</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>212</v>
+        <v>489</v>
       </c>
       <c r="C47" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D47" s="2"/>
+      <c r="D47" s="2" t="s">
+        <v>628</v>
+      </c>
       <c r="E47" s="2"/>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.2">
@@ -3585,27 +3628,28 @@
         <v>282</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>308</v>
+        <v>8</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>211</v>
-      </c>
+        <v>212</v>
+      </c>
+      <c r="E48" s="2"/>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A49" s="2" t="s">
         <v>282</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>308</v>
+        <v>211</v>
       </c>
       <c r="C49" s="2" t="s">
         <v>308</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>383</v>
+        <v>211</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.2">
@@ -3613,7 +3657,7 @@
         <v>282</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>203</v>
+        <v>308</v>
       </c>
       <c r="C50" s="2" t="s">
         <v>308</v>
@@ -3621,20 +3665,19 @@
       <c r="D50" s="2" t="s">
         <v>383</v>
       </c>
-      <c r="E50" s="2"/>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A51" s="2" t="s">
         <v>282</v>
       </c>
-      <c r="B51" t="s">
-        <v>526</v>
+      <c r="B51" s="2" t="s">
+        <v>203</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>374</v>
-      </c>
-      <c r="D51" t="s">
-        <v>526</v>
+        <v>308</v>
+      </c>
+      <c r="D51" s="2" t="s">
+        <v>383</v>
       </c>
       <c r="E51" s="2"/>
     </row>
@@ -3643,13 +3686,13 @@
         <v>282</v>
       </c>
       <c r="B52" t="s">
-        <v>555</v>
-      </c>
-      <c r="C52" t="s">
+        <v>526</v>
+      </c>
+      <c r="C52" s="2" t="s">
         <v>374</v>
       </c>
       <c r="D52" t="s">
-        <v>555</v>
+        <v>526</v>
       </c>
       <c r="E52" s="2"/>
     </row>
@@ -3657,14 +3700,14 @@
       <c r="A53" s="2" t="s">
         <v>282</v>
       </c>
-      <c r="B53" s="2" t="s">
-        <v>242</v>
-      </c>
-      <c r="C53" s="2" t="s">
+      <c r="B53" t="s">
+        <v>555</v>
+      </c>
+      <c r="C53" t="s">
         <v>374</v>
       </c>
-      <c r="D53" s="2" t="s">
-        <v>242</v>
+      <c r="D53" t="s">
+        <v>555</v>
       </c>
       <c r="E53" s="2"/>
     </row>
@@ -3673,27 +3716,29 @@
         <v>282</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="C54" s="2" t="s">
         <v>374</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="E54" s="2"/>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A55" s="2" t="s">
-        <v>0</v>
+        <v>282</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>35</v>
+        <v>247</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>249</v>
-      </c>
-      <c r="D55" s="2"/>
+        <v>374</v>
+      </c>
+      <c r="D55" s="2" t="s">
+        <v>247</v>
+      </c>
       <c r="E55" s="2"/>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.2">
@@ -3701,7 +3746,7 @@
         <v>0</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C56" s="2" t="s">
         <v>249</v>
@@ -3711,10 +3756,10 @@
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A57" s="2" t="s">
-        <v>282</v>
+        <v>0</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>249</v>
+        <v>36</v>
       </c>
       <c r="C57" s="2" t="s">
         <v>249</v>
@@ -3724,10 +3769,10 @@
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A58" s="2" t="s">
-        <v>9</v>
+        <v>282</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>327</v>
+        <v>249</v>
       </c>
       <c r="C58" s="2" t="s">
         <v>249</v>
@@ -3740,23 +3785,23 @@
         <v>9</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>179</v>
+        <v>327</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>317</v>
+        <v>249</v>
       </c>
       <c r="D59" s="2"/>
       <c r="E59" s="2"/>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A60" s="2" t="s">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>23</v>
+        <v>179</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>24</v>
+        <v>317</v>
       </c>
       <c r="D60" s="2"/>
       <c r="E60" s="2"/>
@@ -3766,7 +3811,7 @@
         <v>0</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C61" s="2" t="s">
         <v>24</v>
@@ -3776,10 +3821,10 @@
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A62" s="2" t="s">
-        <v>26</v>
+        <v>0</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C62" s="2" t="s">
         <v>24</v>
@@ -3789,10 +3834,10 @@
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A63" s="2" t="s">
-        <v>282</v>
+        <v>26</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>204</v>
+        <v>27</v>
       </c>
       <c r="C63" s="2" t="s">
         <v>24</v>
@@ -3802,25 +3847,23 @@
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A64" s="2" t="s">
-        <v>6</v>
+        <v>282</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>21</v>
+        <v>204</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>315</v>
-      </c>
-      <c r="D64" s="2" t="s">
-        <v>22</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="D64" s="2"/>
       <c r="E64" s="2"/>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A65" s="2" t="s">
-        <v>282</v>
+        <v>6</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C65" s="2" t="s">
         <v>315</v>
@@ -3832,10 +3875,10 @@
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A66" s="2" t="s">
-        <v>9</v>
+        <v>282</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>466</v>
+        <v>22</v>
       </c>
       <c r="C66" s="2" t="s">
         <v>315</v>
@@ -3847,25 +3890,25 @@
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A67" s="2" t="s">
-        <v>282</v>
+        <v>9</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>382</v>
+        <v>466</v>
       </c>
       <c r="C67" s="2" t="s">
         <v>315</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>382</v>
+        <v>22</v>
       </c>
       <c r="E67" s="2"/>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A68" s="2" t="s">
-        <v>6</v>
+        <v>282</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>29</v>
+        <v>382</v>
       </c>
       <c r="C68" s="2" t="s">
         <v>315</v>
@@ -3880,7 +3923,7 @@
         <v>6</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C69" s="2" t="s">
         <v>315</v>
@@ -3892,10 +3935,10 @@
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A70" s="2" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C70" s="2" t="s">
         <v>315</v>
@@ -3910,7 +3953,7 @@
         <v>9</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C71" s="2" t="s">
         <v>315</v>
@@ -3922,10 +3965,10 @@
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A72" s="2" t="s">
-        <v>26</v>
+        <v>9</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C72" s="2" t="s">
         <v>315</v>
@@ -3937,10 +3980,10 @@
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A73" s="2" t="s">
-        <v>282</v>
-      </c>
-      <c r="B73" t="s">
-        <v>639</v>
+        <v>26</v>
+      </c>
+      <c r="B73" s="2" t="s">
+        <v>33</v>
       </c>
       <c r="C73" s="2" t="s">
         <v>315</v>
@@ -3952,93 +3995,93 @@
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A74" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B74" s="2" t="s">
-        <v>498</v>
+        <v>282</v>
+      </c>
+      <c r="B74" t="s">
+        <v>639</v>
       </c>
       <c r="C74" s="2" t="s">
         <v>315</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="E74" s="2"/>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A75" s="2" t="s">
-        <v>31</v>
+        <v>9</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>32</v>
+        <v>498</v>
       </c>
       <c r="C75" s="2" t="s">
         <v>315</v>
       </c>
-      <c r="D75" s="2"/>
+      <c r="D75" s="2" t="s">
+        <v>383</v>
+      </c>
+      <c r="E75" s="2"/>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A76" s="2" t="s">
         <v>31</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>462</v>
+        <v>32</v>
       </c>
       <c r="C76" s="2" t="s">
         <v>315</v>
       </c>
       <c r="D76" s="2"/>
-      <c r="E76" s="2"/>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A77" s="2" t="s">
-        <v>282</v>
+        <v>31</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>194</v>
+        <v>462</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>194</v>
+        <v>315</v>
       </c>
       <c r="D77" s="2"/>
       <c r="E77" s="2"/>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A78" s="2" t="s">
-        <v>9</v>
+        <v>282</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>444</v>
+        <v>194</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>445</v>
+        <v>194</v>
       </c>
       <c r="D78" s="2"/>
       <c r="E78" s="2"/>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A79" s="2" t="s">
-        <v>282</v>
-      </c>
-      <c r="B79" t="s">
-        <v>577</v>
-      </c>
-      <c r="C79" t="s">
-        <v>206</v>
-      </c>
-      <c r="D79" t="s">
-        <v>577</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="B79" s="2" t="s">
+        <v>444</v>
+      </c>
+      <c r="C79" s="2" t="s">
+        <v>445</v>
+      </c>
+      <c r="D79" s="2"/>
       <c r="E79" s="2"/>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A80" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B80" s="2" t="s">
-        <v>491</v>
-      </c>
-      <c r="C80" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="B80" t="s">
+        <v>577</v>
+      </c>
+      <c r="C80" t="s">
         <v>206</v>
       </c>
       <c r="D80" t="s">
@@ -4048,16 +4091,16 @@
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A81" s="2" t="s">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>467</v>
+        <v>491</v>
       </c>
       <c r="C81" s="2" t="s">
         <v>206</v>
       </c>
-      <c r="D81" s="2" t="s">
-        <v>586</v>
+      <c r="D81" t="s">
+        <v>577</v>
       </c>
       <c r="E81" s="2"/>
     </row>
@@ -4066,28 +4109,28 @@
         <v>0</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>167</v>
+        <v>467</v>
       </c>
       <c r="C82" s="2" t="s">
         <v>206</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="E82" s="2"/>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A83" s="2" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>480</v>
+        <v>167</v>
       </c>
       <c r="C83" s="2" t="s">
         <v>206</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="E83" s="2"/>
     </row>
@@ -4096,37 +4139,37 @@
         <v>6</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>46</v>
+        <v>480</v>
       </c>
       <c r="C84" s="2" t="s">
         <v>206</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>508</v>
+        <v>587</v>
       </c>
       <c r="E84" s="2"/>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A85" s="2" t="s">
-        <v>282</v>
+        <v>6</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>206</v>
+        <v>46</v>
       </c>
       <c r="C85" s="2" t="s">
         <v>206</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>383</v>
+        <v>508</v>
       </c>
       <c r="E85" s="2"/>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A86" s="2" t="s">
-        <v>0</v>
+        <v>282</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>286</v>
+        <v>206</v>
       </c>
       <c r="C86" s="2" t="s">
         <v>206</v>
@@ -4138,16 +4181,16 @@
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A87" s="2" t="s">
-        <v>282</v>
-      </c>
-      <c r="B87" t="s">
-        <v>595</v>
+        <v>0</v>
+      </c>
+      <c r="B87" s="2" t="s">
+        <v>286</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>289</v>
-      </c>
-      <c r="D87" t="s">
-        <v>595</v>
+        <v>206</v>
+      </c>
+      <c r="D87" s="2" t="s">
+        <v>383</v>
       </c>
       <c r="E87" s="2"/>
     </row>
@@ -4155,23 +4198,23 @@
       <c r="A88" s="2" t="s">
         <v>282</v>
       </c>
-      <c r="B88" s="2" t="s">
-        <v>386</v>
+      <c r="B88" t="s">
+        <v>595</v>
       </c>
       <c r="C88" s="2" t="s">
         <v>289</v>
       </c>
-      <c r="D88" s="2" t="s">
-        <v>386</v>
+      <c r="D88" t="s">
+        <v>595</v>
       </c>
       <c r="E88" s="2"/>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A89" s="2" t="s">
-        <v>0</v>
+        <v>282</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>51</v>
+        <v>386</v>
       </c>
       <c r="C89" s="2" t="s">
         <v>289</v>
@@ -4183,30 +4226,31 @@
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A90" s="2" t="s">
-        <v>282</v>
-      </c>
-      <c r="B90" t="s">
-        <v>593</v>
+        <v>0</v>
+      </c>
+      <c r="B90" s="2" t="s">
+        <v>51</v>
       </c>
       <c r="C90" s="2" t="s">
         <v>289</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>593</v>
-      </c>
+        <v>386</v>
+      </c>
+      <c r="E90" s="2"/>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A91" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B91" s="2" t="s">
-        <v>54</v>
+        <v>282</v>
+      </c>
+      <c r="B91" t="s">
+        <v>593</v>
       </c>
       <c r="C91" s="2" t="s">
         <v>289</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>389</v>
+        <v>593</v>
       </c>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.2">
@@ -4214,22 +4258,21 @@
         <v>0</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="C92" s="2" t="s">
         <v>289</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>383</v>
-      </c>
-      <c r="E92" s="2"/>
+        <v>389</v>
+      </c>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A93" s="2" t="s">
-        <v>26</v>
+        <v>0</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>331</v>
+        <v>49</v>
       </c>
       <c r="C93" s="2" t="s">
         <v>289</v>
@@ -4241,10 +4284,10 @@
     </row>
     <row r="94" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A94" s="2" t="s">
-        <v>282</v>
+        <v>26</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>522</v>
+        <v>331</v>
       </c>
       <c r="C94" s="2" t="s">
         <v>289</v>
@@ -4258,13 +4301,13 @@
       <c r="A95" s="2" t="s">
         <v>282</v>
       </c>
-      <c r="B95" t="s">
-        <v>536</v>
-      </c>
-      <c r="C95" t="s">
+      <c r="B95" s="2" t="s">
+        <v>522</v>
+      </c>
+      <c r="C95" s="2" t="s">
         <v>289</v>
       </c>
-      <c r="D95" t="s">
+      <c r="D95" s="2" t="s">
         <v>383</v>
       </c>
       <c r="E95" s="2"/>
@@ -4274,13 +4317,13 @@
         <v>282</v>
       </c>
       <c r="B96" t="s">
-        <v>546</v>
-      </c>
-      <c r="C96" s="2" t="s">
+        <v>536</v>
+      </c>
+      <c r="C96" t="s">
         <v>289</v>
       </c>
-      <c r="D96" s="2" t="s">
-        <v>384</v>
+      <c r="D96" t="s">
+        <v>383</v>
       </c>
       <c r="E96" s="2"/>
     </row>
@@ -4288,8 +4331,8 @@
       <c r="A97" s="2" t="s">
         <v>282</v>
       </c>
-      <c r="B97" s="2" t="s">
-        <v>218</v>
+      <c r="B97" t="s">
+        <v>546</v>
       </c>
       <c r="C97" s="2" t="s">
         <v>289</v>
@@ -4301,39 +4344,39 @@
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A98" s="2" t="s">
-        <v>0</v>
+        <v>282</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>50</v>
+        <v>218</v>
       </c>
       <c r="C98" s="2" t="s">
         <v>289</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>385</v>
-      </c>
+        <v>384</v>
+      </c>
+      <c r="E98" s="2"/>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A99" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="C99" s="2" t="s">
         <v>289</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>388</v>
-      </c>
-      <c r="E99" s="2"/>
+        <v>385</v>
+      </c>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A100" s="2" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>28</v>
+        <v>53</v>
       </c>
       <c r="C100" s="2" t="s">
         <v>289</v>
@@ -4345,46 +4388,46 @@
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A101" s="2" t="s">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>56</v>
+        <v>28</v>
       </c>
       <c r="C101" s="2" t="s">
         <v>289</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="E101" s="2"/>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A102" s="2" t="s">
-        <v>282</v>
+        <v>0</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>520</v>
+        <v>56</v>
       </c>
       <c r="C102" s="2" t="s">
         <v>289</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>197</v>
+        <v>391</v>
       </c>
       <c r="E102" s="2"/>
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A103" s="2" t="s">
-        <v>0</v>
+        <v>282</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>55</v>
+        <v>520</v>
       </c>
       <c r="C103" s="2" t="s">
         <v>289</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>390</v>
+        <v>197</v>
       </c>
       <c r="E103" s="2"/>
     </row>
@@ -4393,13 +4436,13 @@
         <v>0</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="C104" s="2" t="s">
         <v>289</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>387</v>
+        <v>390</v>
       </c>
       <c r="E104" s="2"/>
     </row>
@@ -4408,22 +4451,22 @@
         <v>0</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>58</v>
+        <v>289</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>521</v>
+        <v>387</v>
       </c>
       <c r="E105" s="2"/>
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A106" s="2" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C106" s="2" t="s">
         <v>58</v>
@@ -4435,25 +4478,25 @@
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A107" s="2" t="s">
-        <v>282</v>
+        <v>6</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C107" s="2" t="s">
         <v>58</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>383</v>
+        <v>521</v>
       </c>
       <c r="E107" s="2"/>
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A108" s="2" t="s">
-        <v>0</v>
+        <v>282</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>477</v>
+        <v>58</v>
       </c>
       <c r="C108" s="2" t="s">
         <v>58</v>
@@ -4465,10 +4508,10 @@
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A109" s="2" t="s">
-        <v>26</v>
+        <v>0</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>505</v>
+        <v>477</v>
       </c>
       <c r="C109" s="2" t="s">
         <v>58</v>
@@ -4480,20 +4523,22 @@
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A110" s="2" t="s">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>60</v>
+        <v>505</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="D110" s="2"/>
+        <v>58</v>
+      </c>
+      <c r="D110" s="2" t="s">
+        <v>383</v>
+      </c>
       <c r="E110" s="2"/>
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A111" s="2" t="s">
-        <v>282</v>
+        <v>0</v>
       </c>
       <c r="B111" s="2" t="s">
         <v>60</v>
@@ -4509,37 +4554,35 @@
         <v>282</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>208</v>
+        <v>60</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>307</v>
-      </c>
-      <c r="D112" s="2" t="s">
-        <v>208</v>
-      </c>
+        <v>60</v>
+      </c>
+      <c r="D112" s="2"/>
       <c r="E112" s="2"/>
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A113" s="2" t="s">
-        <v>9</v>
+        <v>282</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>187</v>
+        <v>208</v>
       </c>
       <c r="C113" s="2" t="s">
         <v>307</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="E113" s="2"/>
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A114" s="2" t="s">
-        <v>282</v>
+        <v>9</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>210</v>
+        <v>187</v>
       </c>
       <c r="C114" s="2" t="s">
         <v>307</v>
@@ -4551,25 +4594,25 @@
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A115" s="2" t="s">
-        <v>6</v>
+        <v>282</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>77</v>
+        <v>210</v>
       </c>
       <c r="C115" s="2" t="s">
         <v>307</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>259</v>
+        <v>210</v>
       </c>
       <c r="E115" s="2"/>
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A116" s="2" t="s">
-        <v>282</v>
+        <v>6</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>259</v>
+        <v>77</v>
       </c>
       <c r="C116" s="2" t="s">
         <v>307</v>
@@ -4581,55 +4624,55 @@
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A117" s="2" t="s">
-        <v>9</v>
+        <v>282</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>437</v>
+        <v>259</v>
       </c>
       <c r="C117" s="2" t="s">
         <v>307</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>307</v>
+        <v>259</v>
       </c>
       <c r="E117" s="2"/>
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A118" s="2" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>76</v>
+        <v>437</v>
       </c>
       <c r="C118" s="2" t="s">
         <v>307</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>393</v>
+        <v>307</v>
       </c>
       <c r="E118" s="2"/>
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A119" s="2" t="s">
-        <v>282</v>
+        <v>6</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>539</v>
+        <v>76</v>
       </c>
       <c r="C119" s="2" t="s">
         <v>307</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>539</v>
+        <v>393</v>
       </c>
       <c r="E119" s="2"/>
     </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A120" s="2" t="s">
-        <v>9</v>
+        <v>282</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>458</v>
+        <v>539</v>
       </c>
       <c r="C120" s="2" t="s">
         <v>307</v>
@@ -4641,16 +4684,16 @@
     </row>
     <row r="121" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A121" s="2" t="s">
-        <v>282</v>
+        <v>9</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>251</v>
+        <v>458</v>
       </c>
       <c r="C121" s="2" t="s">
         <v>307</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>251</v>
+        <v>539</v>
       </c>
       <c r="E121" s="2"/>
     </row>
@@ -4659,13 +4702,13 @@
         <v>282</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>307</v>
+        <v>251</v>
       </c>
       <c r="C122" s="2" t="s">
         <v>307</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>383</v>
+        <v>251</v>
       </c>
       <c r="E122" s="2"/>
     </row>
@@ -4674,13 +4717,13 @@
         <v>282</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>250</v>
+        <v>307</v>
       </c>
       <c r="C123" s="2" t="s">
         <v>307</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>250</v>
+        <v>383</v>
       </c>
       <c r="E123" s="2"/>
     </row>
@@ -4688,14 +4731,14 @@
       <c r="A124" s="2" t="s">
         <v>282</v>
       </c>
-      <c r="B124" t="s">
-        <v>617</v>
+      <c r="B124" s="2" t="s">
+        <v>250</v>
       </c>
       <c r="C124" s="2" t="s">
         <v>307</v>
       </c>
-      <c r="D124" s="5" t="s">
-        <v>617</v>
+      <c r="D124" s="2" t="s">
+        <v>250</v>
       </c>
       <c r="E124" s="2"/>
     </row>
@@ -4703,14 +4746,14 @@
       <c r="A125" s="2" t="s">
         <v>282</v>
       </c>
-      <c r="B125" s="2" t="s">
-        <v>258</v>
+      <c r="B125" t="s">
+        <v>617</v>
       </c>
       <c r="C125" s="2" t="s">
         <v>307</v>
       </c>
-      <c r="D125" s="2" t="s">
-        <v>258</v>
+      <c r="D125" s="5" t="s">
+        <v>617</v>
       </c>
       <c r="E125" s="2"/>
     </row>
@@ -4719,13 +4762,13 @@
         <v>282</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>633</v>
+        <v>258</v>
       </c>
       <c r="C126" s="2" t="s">
         <v>307</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>633</v>
+        <v>258</v>
       </c>
       <c r="E126" s="2"/>
     </row>
@@ -4734,13 +4777,13 @@
         <v>282</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>267</v>
+        <v>633</v>
       </c>
       <c r="C127" s="2" t="s">
         <v>307</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>267</v>
+        <v>633</v>
       </c>
       <c r="E127" s="2"/>
     </row>
@@ -4749,37 +4792,37 @@
         <v>282</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>245</v>
+        <v>267</v>
       </c>
       <c r="C128" s="2" t="s">
         <v>307</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>245</v>
+        <v>267</v>
       </c>
       <c r="E128" s="2"/>
     </row>
     <row r="129" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A129" s="2" t="s">
-        <v>9</v>
+        <v>282</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>503</v>
+        <v>245</v>
       </c>
       <c r="C129" s="2" t="s">
         <v>307</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>392</v>
+        <v>245</v>
       </c>
       <c r="E129" s="2"/>
     </row>
     <row r="130" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A130" s="2" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>188</v>
+        <v>503</v>
       </c>
       <c r="C130" s="2" t="s">
         <v>307</v>
@@ -4791,10 +4834,10 @@
     </row>
     <row r="131" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A131" s="2" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C131" s="2" t="s">
         <v>307</v>
@@ -4806,30 +4849,30 @@
     </row>
     <row r="132" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A132" s="2" t="s">
-        <v>282</v>
+        <v>9</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="C132" s="2" t="s">
-        <v>195</v>
-      </c>
-      <c r="D132" s="2"/>
+        <v>307</v>
+      </c>
+      <c r="D132" s="2" t="s">
+        <v>392</v>
+      </c>
       <c r="E132" s="2"/>
     </row>
     <row r="133" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A133" s="2" t="s">
-        <v>0</v>
+        <v>282</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>63</v>
+        <v>195</v>
       </c>
       <c r="C133" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="D133" s="2" t="s">
-        <v>396</v>
-      </c>
+        <v>195</v>
+      </c>
+      <c r="D133" s="2"/>
       <c r="E133" s="2"/>
     </row>
     <row r="134" spans="1:5" x14ac:dyDescent="0.2">
@@ -4837,7 +4880,7 @@
         <v>0</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>137</v>
+        <v>63</v>
       </c>
       <c r="C134" s="2" t="s">
         <v>83</v>
@@ -4852,13 +4895,13 @@
         <v>0</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>64</v>
+        <v>137</v>
       </c>
       <c r="C135" s="2" t="s">
         <v>83</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>417</v>
+        <v>396</v>
       </c>
       <c r="E135" s="2"/>
     </row>
@@ -4867,13 +4910,13 @@
         <v>0</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="C136" s="2" t="s">
         <v>83</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="E136" s="2"/>
     </row>
@@ -4882,13 +4925,13 @@
         <v>0</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C137" s="2" t="s">
         <v>83</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
       <c r="E137" s="2"/>
     </row>
@@ -4897,13 +4940,13 @@
         <v>0</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>84</v>
+        <v>71</v>
       </c>
       <c r="C138" s="2" t="s">
         <v>83</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="E138" s="2"/>
     </row>
@@ -4912,13 +4955,13 @@
         <v>0</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>450</v>
+        <v>84</v>
       </c>
       <c r="C139" s="2" t="s">
         <v>83</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>428</v>
+        <v>421</v>
       </c>
       <c r="E139" s="2"/>
     </row>
@@ -4927,28 +4970,28 @@
         <v>0</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>168</v>
+        <v>450</v>
       </c>
       <c r="C140" s="2" t="s">
         <v>83</v>
       </c>
       <c r="D140" s="2" t="s">
-        <v>168</v>
+        <v>428</v>
       </c>
       <c r="E140" s="2"/>
     </row>
     <row r="141" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A141" s="2" t="s">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>39</v>
+        <v>168</v>
       </c>
       <c r="C141" s="2" t="s">
         <v>83</v>
       </c>
       <c r="D141" s="2" t="s">
-        <v>40</v>
+        <v>168</v>
       </c>
       <c r="E141" s="2"/>
     </row>
@@ -4957,7 +5000,7 @@
         <v>9</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C142" s="2" t="s">
         <v>83</v>
@@ -4969,10 +5012,10 @@
     </row>
     <row r="143" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A143" s="2" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C143" s="2" t="s">
         <v>83</v>
@@ -4984,10 +5027,10 @@
     </row>
     <row r="144" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A144" s="2" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C144" s="2" t="s">
         <v>83</v>
@@ -4999,10 +5042,10 @@
     </row>
     <row r="145" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A145" s="2" t="s">
-        <v>282</v>
+        <v>9</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>213</v>
+        <v>43</v>
       </c>
       <c r="C145" s="2" t="s">
         <v>83</v>
@@ -5014,10 +5057,10 @@
     </row>
     <row r="146" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A146" s="2" t="s">
-        <v>31</v>
+        <v>282</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>457</v>
+        <v>213</v>
       </c>
       <c r="C146" s="2" t="s">
         <v>83</v>
@@ -5032,58 +5075,58 @@
         <v>31</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>42</v>
+        <v>457</v>
       </c>
       <c r="C147" s="2" t="s">
         <v>83</v>
       </c>
       <c r="D147" s="2" t="s">
-        <v>213</v>
+        <v>40</v>
       </c>
       <c r="E147" s="2"/>
     </row>
     <row r="148" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A148" s="2" t="s">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>169</v>
+        <v>42</v>
       </c>
       <c r="C148" s="2" t="s">
         <v>83</v>
       </c>
       <c r="D148" s="2" t="s">
-        <v>169</v>
+        <v>213</v>
       </c>
       <c r="E148" s="2"/>
     </row>
     <row r="149" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A149" s="2" t="s">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>504</v>
+        <v>169</v>
       </c>
       <c r="C149" s="2" t="s">
         <v>83</v>
       </c>
       <c r="D149" s="2" t="s">
-        <v>519</v>
+        <v>169</v>
       </c>
       <c r="E149" s="2"/>
     </row>
     <row r="150" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A150" s="2" t="s">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>61</v>
+        <v>504</v>
       </c>
       <c r="C150" s="2" t="s">
         <v>83</v>
       </c>
       <c r="D150" s="2" t="s">
-        <v>394</v>
+        <v>519</v>
       </c>
       <c r="E150" s="2"/>
     </row>
@@ -5092,7 +5135,7 @@
         <v>0</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>82</v>
+        <v>61</v>
       </c>
       <c r="C151" s="2" t="s">
         <v>83</v>
@@ -5107,13 +5150,13 @@
         <v>0</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="C152" s="2" t="s">
         <v>83</v>
       </c>
       <c r="D152" s="2" t="s">
-        <v>422</v>
+        <v>394</v>
       </c>
       <c r="E152" s="2"/>
     </row>
@@ -5122,37 +5165,37 @@
         <v>0</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>488</v>
+        <v>87</v>
       </c>
       <c r="C153" s="2" t="s">
         <v>83</v>
       </c>
       <c r="D153" s="2" t="s">
-        <v>415</v>
+        <v>422</v>
       </c>
       <c r="E153" s="2"/>
     </row>
     <row r="154" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A154" s="2" t="s">
-        <v>26</v>
+        <v>0</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>446</v>
+        <v>488</v>
       </c>
       <c r="C154" s="2" t="s">
         <v>83</v>
       </c>
       <c r="D154" s="2" t="s">
-        <v>518</v>
+        <v>415</v>
       </c>
       <c r="E154" s="2"/>
     </row>
     <row r="155" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A155" s="2" t="s">
-        <v>6</v>
+        <v>26</v>
       </c>
       <c r="B155" s="2" t="s">
-        <v>453</v>
+        <v>446</v>
       </c>
       <c r="C155" s="2" t="s">
         <v>83</v>
@@ -5164,61 +5207,61 @@
     </row>
     <row r="156" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A156" s="2" t="s">
-        <v>282</v>
+        <v>6</v>
       </c>
       <c r="B156" s="2" t="s">
-        <v>207</v>
+        <v>453</v>
       </c>
       <c r="C156" s="2" t="s">
         <v>83</v>
       </c>
       <c r="D156" s="2" t="s">
-        <v>635</v>
+        <v>518</v>
       </c>
       <c r="E156" s="2"/>
     </row>
     <row r="157" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A157" s="2" t="s">
-        <v>0</v>
+        <v>282</v>
       </c>
       <c r="B157" s="2" t="s">
-        <v>66</v>
+        <v>207</v>
       </c>
       <c r="C157" s="2" t="s">
         <v>83</v>
       </c>
       <c r="D157" s="2" t="s">
-        <v>397</v>
+        <v>635</v>
       </c>
       <c r="E157" s="2"/>
     </row>
     <row r="158" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A158" s="2" t="s">
-        <v>282</v>
+        <v>0</v>
       </c>
       <c r="B158" s="2" t="s">
-        <v>634</v>
+        <v>66</v>
       </c>
       <c r="C158" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="D158" s="5" t="s">
-        <v>634</v>
+      <c r="D158" s="2" t="s">
+        <v>397</v>
       </c>
       <c r="E158" s="2"/>
     </row>
     <row r="159" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A159" s="2" t="s">
-        <v>0</v>
+        <v>282</v>
       </c>
       <c r="B159" s="2" t="s">
-        <v>62</v>
+        <v>634</v>
       </c>
       <c r="C159" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="D159" s="2" t="s">
-        <v>395</v>
+      <c r="D159" s="5" t="s">
+        <v>634</v>
       </c>
       <c r="E159" s="2"/>
     </row>
@@ -5227,13 +5270,13 @@
         <v>0</v>
       </c>
       <c r="B160" s="2" t="s">
-        <v>73</v>
+        <v>62</v>
       </c>
       <c r="C160" s="2" t="s">
         <v>83</v>
       </c>
       <c r="D160" s="2" t="s">
-        <v>424</v>
+        <v>395</v>
       </c>
       <c r="E160" s="2"/>
     </row>
@@ -5242,13 +5285,13 @@
         <v>0</v>
       </c>
       <c r="B161" s="2" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="C161" s="2" t="s">
         <v>83</v>
       </c>
       <c r="D161" s="2" t="s">
-        <v>416</v>
+        <v>424</v>
       </c>
       <c r="E161" s="2"/>
     </row>
@@ -5257,7 +5300,7 @@
         <v>0</v>
       </c>
       <c r="B162" s="2" t="s">
-        <v>85</v>
+        <v>65</v>
       </c>
       <c r="C162" s="2" t="s">
         <v>83</v>
@@ -5269,31 +5312,31 @@
     </row>
     <row r="163" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A163" s="2" t="s">
-        <v>282</v>
+        <v>0</v>
       </c>
       <c r="B163" s="2" t="s">
-        <v>216</v>
+        <v>85</v>
       </c>
       <c r="C163" s="2" t="s">
         <v>83</v>
       </c>
       <c r="D163" s="2" t="s">
-        <v>216</v>
+        <v>416</v>
       </c>
       <c r="E163" s="2"/>
     </row>
     <row r="164" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A164" s="2" t="s">
-        <v>0</v>
+        <v>282</v>
       </c>
       <c r="B164" s="2" t="s">
-        <v>68</v>
+        <v>216</v>
       </c>
       <c r="C164" s="2" t="s">
         <v>83</v>
       </c>
       <c r="D164" s="2" t="s">
-        <v>398</v>
+        <v>216</v>
       </c>
       <c r="E164" s="2"/>
     </row>
@@ -5302,7 +5345,7 @@
         <v>0</v>
       </c>
       <c r="B165" s="2" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="C165" s="2" t="s">
         <v>83</v>
@@ -5317,7 +5360,7 @@
         <v>0</v>
       </c>
       <c r="B166" s="2" t="s">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="C166" s="2" t="s">
         <v>83</v>
@@ -5332,7 +5375,7 @@
         <v>0</v>
       </c>
       <c r="B167" s="2" t="s">
-        <v>140</v>
+        <v>86</v>
       </c>
       <c r="C167" s="2" t="s">
         <v>83</v>
@@ -5347,13 +5390,13 @@
         <v>0</v>
       </c>
       <c r="B168" s="2" t="s">
-        <v>70</v>
+        <v>140</v>
       </c>
       <c r="C168" s="2" t="s">
         <v>83</v>
       </c>
       <c r="D168" s="2" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="E168" s="2"/>
     </row>
@@ -5362,13 +5405,13 @@
         <v>0</v>
       </c>
       <c r="B169" s="2" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="C169" s="2" t="s">
         <v>83</v>
       </c>
       <c r="D169" s="2" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="E169" s="2"/>
     </row>
@@ -5377,13 +5420,13 @@
         <v>0</v>
       </c>
       <c r="B170" s="2" t="s">
-        <v>88</v>
+        <v>74</v>
       </c>
       <c r="C170" s="2" t="s">
         <v>83</v>
       </c>
       <c r="D170" s="2" t="s">
-        <v>383</v>
+        <v>401</v>
       </c>
       <c r="E170" s="2"/>
     </row>
@@ -5392,7 +5435,7 @@
         <v>0</v>
       </c>
       <c r="B171" s="2" t="s">
-        <v>442</v>
+        <v>88</v>
       </c>
       <c r="C171" s="2" t="s">
         <v>83</v>
@@ -5404,10 +5447,10 @@
     </row>
     <row r="172" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A172" s="2" t="s">
-        <v>26</v>
+        <v>0</v>
       </c>
       <c r="B172" s="2" t="s">
-        <v>451</v>
+        <v>442</v>
       </c>
       <c r="C172" s="2" t="s">
         <v>83</v>
@@ -5419,31 +5462,31 @@
     </row>
     <row r="173" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A173" s="2" t="s">
-        <v>9</v>
+        <v>26</v>
       </c>
       <c r="B173" s="2" t="s">
-        <v>173</v>
+        <v>451</v>
       </c>
       <c r="C173" s="2" t="s">
         <v>83</v>
       </c>
       <c r="D173" s="2" t="s">
-        <v>174</v>
+        <v>383</v>
       </c>
       <c r="E173" s="2"/>
     </row>
     <row r="174" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A174" s="2" t="s">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="B174" s="2" t="s">
-        <v>69</v>
+        <v>173</v>
       </c>
       <c r="C174" s="2" t="s">
         <v>83</v>
       </c>
       <c r="D174" s="2" t="s">
-        <v>399</v>
+        <v>174</v>
       </c>
       <c r="E174" s="2"/>
     </row>
@@ -5452,7 +5495,7 @@
         <v>0</v>
       </c>
       <c r="B175" s="2" t="s">
-        <v>89</v>
+        <v>69</v>
       </c>
       <c r="C175" s="2" t="s">
         <v>83</v>
@@ -5467,21 +5510,22 @@
         <v>0</v>
       </c>
       <c r="B176" s="2" t="s">
-        <v>67</v>
+        <v>89</v>
       </c>
       <c r="C176" s="2" t="s">
         <v>83</v>
       </c>
       <c r="D176" s="2" t="s">
-        <v>239</v>
-      </c>
+        <v>399</v>
+      </c>
+      <c r="E176" s="2"/>
     </row>
     <row r="177" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A177" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B177" s="2" t="s">
-        <v>438</v>
+        <v>67</v>
       </c>
       <c r="C177" s="2" t="s">
         <v>83</v>
@@ -5489,19 +5533,20 @@
       <c r="D177" s="2" t="s">
         <v>239</v>
       </c>
-      <c r="E177" s="2"/>
     </row>
     <row r="178" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A178" s="2" t="s">
-        <v>282</v>
+        <v>0</v>
       </c>
       <c r="B178" s="2" t="s">
-        <v>244</v>
+        <v>438</v>
       </c>
       <c r="C178" s="2" t="s">
-        <v>376</v>
-      </c>
-      <c r="D178" s="2"/>
+        <v>83</v>
+      </c>
+      <c r="D178" s="2" t="s">
+        <v>239</v>
+      </c>
       <c r="E178" s="2"/>
     </row>
     <row r="179" spans="1:5" x14ac:dyDescent="0.2">
@@ -5509,56 +5554,54 @@
         <v>282</v>
       </c>
       <c r="B179" s="2" t="s">
-        <v>260</v>
+        <v>244</v>
       </c>
       <c r="C179" s="2" t="s">
-        <v>260</v>
+        <v>376</v>
       </c>
       <c r="D179" s="2"/>
       <c r="E179" s="2"/>
     </row>
     <row r="180" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A180" t="s">
-        <v>282</v>
-      </c>
-      <c r="B180" t="s">
+      <c r="A180" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="B180" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="C180" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="D180" s="2"/>
+      <c r="E180" s="2"/>
+    </row>
+    <row r="181" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A181" t="s">
+        <v>282</v>
+      </c>
+      <c r="B181" t="s">
         <v>597</v>
       </c>
-      <c r="C180" t="s">
+      <c r="C181" t="s">
         <v>90</v>
       </c>
-      <c r="D180" t="s">
-        <v>597</v>
-      </c>
-      <c r="E180" s="2"/>
-    </row>
-    <row r="181" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A181" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="B181" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="C181" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="D181" s="2" t="s">
+      <c r="D181" t="s">
         <v>597</v>
       </c>
       <c r="E181" s="2"/>
     </row>
     <row r="182" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A182" s="2" t="s">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="B182" s="2" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
       <c r="C182" s="2" t="s">
         <v>90</v>
       </c>
       <c r="D182" s="2" t="s">
-        <v>412</v>
+        <v>597</v>
       </c>
       <c r="E182" s="2"/>
     </row>
@@ -5567,52 +5610,52 @@
         <v>0</v>
       </c>
       <c r="B183" s="2" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="C183" s="2" t="s">
         <v>90</v>
       </c>
       <c r="D183" s="2" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="E183" s="2"/>
     </row>
     <row r="184" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A184" s="2" t="s">
-        <v>282</v>
+        <v>0</v>
       </c>
       <c r="B184" s="2" t="s">
-        <v>603</v>
+        <v>102</v>
       </c>
       <c r="C184" s="2" t="s">
         <v>90</v>
       </c>
       <c r="D184" s="2" t="s">
-        <v>603</v>
+        <v>413</v>
       </c>
       <c r="E184" s="2"/>
     </row>
     <row r="185" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A185" s="2" t="s">
-        <v>0</v>
+        <v>282</v>
       </c>
       <c r="B185" s="2" t="s">
-        <v>92</v>
+        <v>603</v>
       </c>
       <c r="C185" s="2" t="s">
         <v>90</v>
       </c>
       <c r="D185" s="2" t="s">
-        <v>410</v>
+        <v>603</v>
       </c>
       <c r="E185" s="2"/>
     </row>
     <row r="186" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A186" s="2" t="s">
-        <v>26</v>
+        <v>0</v>
       </c>
       <c r="B186" s="2" t="s">
-        <v>108</v>
+        <v>92</v>
       </c>
       <c r="C186" s="2" t="s">
         <v>90</v>
@@ -5624,40 +5667,40 @@
     </row>
     <row r="187" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A187" s="2" t="s">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="B187" s="2" t="s">
-        <v>91</v>
+        <v>108</v>
       </c>
       <c r="C187" s="2" t="s">
         <v>90</v>
       </c>
       <c r="D187" s="2" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="E187" s="2"/>
     </row>
     <row r="188" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A188" s="2" t="s">
-        <v>26</v>
+        <v>0</v>
       </c>
       <c r="B188" s="2" t="s">
-        <v>449</v>
+        <v>91</v>
       </c>
       <c r="C188" s="2" t="s">
         <v>90</v>
       </c>
       <c r="D188" s="2" t="s">
-        <v>517</v>
+        <v>411</v>
       </c>
       <c r="E188" s="2"/>
     </row>
     <row r="189" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A189" s="2" t="s">
-        <v>282</v>
+        <v>26</v>
       </c>
       <c r="B189" s="2" t="s">
-        <v>591</v>
+        <v>449</v>
       </c>
       <c r="C189" s="2" t="s">
         <v>90</v>
@@ -5672,7 +5715,7 @@
         <v>282</v>
       </c>
       <c r="B190" s="2" t="s">
-        <v>554</v>
+        <v>591</v>
       </c>
       <c r="C190" s="2" t="s">
         <v>90</v>
@@ -5687,118 +5730,115 @@
         <v>282</v>
       </c>
       <c r="B191" s="2" t="s">
-        <v>547</v>
+        <v>554</v>
       </c>
       <c r="C191" s="2" t="s">
         <v>90</v>
       </c>
       <c r="D191" s="2" t="s">
-        <v>548</v>
+        <v>517</v>
       </c>
       <c r="E191" s="2"/>
     </row>
     <row r="192" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A192" s="2" t="s">
-        <v>0</v>
+        <v>282</v>
       </c>
       <c r="B192" s="2" t="s">
-        <v>93</v>
+        <v>547</v>
       </c>
       <c r="C192" s="2" t="s">
         <v>90</v>
       </c>
       <c r="D192" s="2" t="s">
-        <v>402</v>
+        <v>548</v>
       </c>
       <c r="E192" s="2"/>
     </row>
     <row r="193" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A193" s="2" t="s">
-        <v>0</v>
+        <v>641</v>
       </c>
       <c r="B193" s="2" t="s">
-        <v>94</v>
+        <v>642</v>
       </c>
       <c r="C193" s="2" t="s">
         <v>90</v>
       </c>
       <c r="D193" s="2" t="s">
-        <v>403</v>
-      </c>
-      <c r="E193" s="2"/>
+        <v>643</v>
+      </c>
     </row>
     <row r="194" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A194" s="2" t="s">
-        <v>0</v>
+        <v>641</v>
       </c>
       <c r="B194" s="2" t="s">
-        <v>103</v>
+        <v>644</v>
       </c>
       <c r="C194" s="2" t="s">
         <v>90</v>
       </c>
       <c r="D194" s="2" t="s">
-        <v>409</v>
+        <v>645</v>
       </c>
       <c r="E194" s="2"/>
     </row>
     <row r="195" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A195" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B195" s="2" t="s">
-        <v>99</v>
+        <v>641</v>
+      </c>
+      <c r="B195" t="s">
+        <v>646</v>
       </c>
       <c r="C195" s="2" t="s">
         <v>90</v>
       </c>
       <c r="D195" s="2" t="s">
-        <v>202</v>
-      </c>
-      <c r="E195" s="2"/>
+        <v>645</v>
+      </c>
     </row>
     <row r="196" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A196" s="2" t="s">
-        <v>282</v>
+        <v>0</v>
       </c>
       <c r="B196" s="2" t="s">
-        <v>202</v>
+        <v>93</v>
       </c>
       <c r="C196" s="2" t="s">
         <v>90</v>
       </c>
       <c r="D196" s="2" t="s">
-        <v>202</v>
+        <v>402</v>
       </c>
       <c r="E196" s="2"/>
     </row>
     <row r="197" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A197" s="2" t="s">
-        <v>26</v>
+        <v>641</v>
       </c>
       <c r="B197" s="2" t="s">
-        <v>456</v>
+        <v>239</v>
       </c>
       <c r="C197" s="2" t="s">
         <v>90</v>
       </c>
       <c r="D197" s="2" t="s">
-        <v>202</v>
-      </c>
-      <c r="E197" s="2"/>
+        <v>402</v>
+      </c>
     </row>
     <row r="198" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A198" s="2" t="s">
-        <v>282</v>
+        <v>0</v>
       </c>
       <c r="B198" s="2" t="s">
-        <v>205</v>
+        <v>94</v>
       </c>
       <c r="C198" s="2" t="s">
         <v>90</v>
       </c>
       <c r="D198" s="2" t="s">
-        <v>205</v>
+        <v>403</v>
       </c>
       <c r="E198" s="2"/>
     </row>
@@ -5807,13 +5847,13 @@
         <v>0</v>
       </c>
       <c r="B199" s="2" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="C199" s="2" t="s">
         <v>90</v>
       </c>
       <c r="D199" s="2" t="s">
-        <v>406</v>
+        <v>409</v>
       </c>
       <c r="E199" s="2"/>
     </row>
@@ -5822,58 +5862,58 @@
         <v>0</v>
       </c>
       <c r="B200" s="2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C200" s="2" t="s">
         <v>90</v>
       </c>
       <c r="D200" s="2" t="s">
-        <v>408</v>
+        <v>202</v>
       </c>
       <c r="E200" s="2"/>
     </row>
     <row r="201" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A201" s="2" t="s">
-        <v>0</v>
+        <v>282</v>
       </c>
       <c r="B201" s="2" t="s">
-        <v>95</v>
+        <v>202</v>
       </c>
       <c r="C201" s="2" t="s">
         <v>90</v>
       </c>
       <c r="D201" s="2" t="s">
-        <v>404</v>
+        <v>202</v>
       </c>
       <c r="E201" s="2"/>
     </row>
     <row r="202" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A202" s="2" t="s">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="B202" s="2" t="s">
-        <v>100</v>
+        <v>456</v>
       </c>
       <c r="C202" s="2" t="s">
         <v>90</v>
       </c>
       <c r="D202" s="2" t="s">
-        <v>407</v>
+        <v>202</v>
       </c>
       <c r="E202" s="2"/>
     </row>
     <row r="203" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A203" s="2" t="s">
-        <v>0</v>
+        <v>282</v>
       </c>
       <c r="B203" s="2" t="s">
-        <v>96</v>
+        <v>205</v>
       </c>
       <c r="C203" s="2" t="s">
         <v>90</v>
       </c>
       <c r="D203" s="2" t="s">
-        <v>405</v>
+        <v>205</v>
       </c>
       <c r="E203" s="2"/>
     </row>
@@ -5882,79 +5922,89 @@
         <v>0</v>
       </c>
       <c r="B204" s="2" t="s">
-        <v>484</v>
+        <v>97</v>
       </c>
       <c r="C204" s="2" t="s">
         <v>90</v>
       </c>
       <c r="D204" s="2" t="s">
-        <v>516</v>
+        <v>406</v>
       </c>
       <c r="E204" s="2"/>
     </row>
     <row r="205" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A205" s="2" t="s">
-        <v>282</v>
+        <v>0</v>
       </c>
       <c r="B205" s="2" t="s">
-        <v>220</v>
+        <v>101</v>
       </c>
       <c r="C205" s="2" t="s">
-        <v>198</v>
-      </c>
-      <c r="D205" s="2"/>
+        <v>90</v>
+      </c>
+      <c r="D205" s="2" t="s">
+        <v>408</v>
+      </c>
       <c r="E205" s="2"/>
     </row>
     <row r="206" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A206" s="2" t="s">
-        <v>282</v>
+        <v>0</v>
       </c>
       <c r="B206" s="2" t="s">
-        <v>221</v>
+        <v>95</v>
       </c>
       <c r="C206" s="2" t="s">
-        <v>198</v>
-      </c>
-      <c r="D206" s="2"/>
+        <v>90</v>
+      </c>
+      <c r="D206" s="2" t="s">
+        <v>404</v>
+      </c>
       <c r="E206" s="2"/>
     </row>
     <row r="207" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A207" s="2" t="s">
-        <v>282</v>
+        <v>0</v>
       </c>
       <c r="B207" s="2" t="s">
-        <v>222</v>
+        <v>100</v>
       </c>
       <c r="C207" s="2" t="s">
-        <v>198</v>
-      </c>
-      <c r="D207" s="2"/>
+        <v>90</v>
+      </c>
+      <c r="D207" s="2" t="s">
+        <v>407</v>
+      </c>
       <c r="E207" s="2"/>
     </row>
     <row r="208" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A208" s="2" t="s">
-        <v>282</v>
+        <v>0</v>
       </c>
       <c r="B208" s="2" t="s">
-        <v>223</v>
+        <v>96</v>
       </c>
       <c r="C208" s="2" t="s">
-        <v>198</v>
-      </c>
-      <c r="D208" s="2"/>
+        <v>90</v>
+      </c>
+      <c r="D208" s="2" t="s">
+        <v>405</v>
+      </c>
       <c r="E208" s="2"/>
     </row>
     <row r="209" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A209" s="2" t="s">
-        <v>282</v>
+        <v>0</v>
       </c>
       <c r="B209" s="2" t="s">
-        <v>224</v>
+        <v>484</v>
       </c>
       <c r="C209" s="2" t="s">
-        <v>198</v>
-      </c>
-      <c r="D209" s="2"/>
+        <v>90</v>
+      </c>
+      <c r="D209" s="2" t="s">
+        <v>516</v>
+      </c>
       <c r="E209" s="2"/>
     </row>
     <row r="210" spans="1:5" x14ac:dyDescent="0.2">
@@ -5962,7 +6012,7 @@
         <v>282</v>
       </c>
       <c r="B210" s="2" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="C210" s="2" t="s">
         <v>198</v>
@@ -5975,7 +6025,7 @@
         <v>282</v>
       </c>
       <c r="B211" s="2" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="C211" s="2" t="s">
         <v>198</v>
@@ -5988,7 +6038,7 @@
         <v>282</v>
       </c>
       <c r="B212" s="2" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="C212" s="2" t="s">
         <v>198</v>
@@ -6001,7 +6051,7 @@
         <v>282</v>
       </c>
       <c r="B213" s="2" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="C213" s="2" t="s">
         <v>198</v>
@@ -6014,7 +6064,7 @@
         <v>282</v>
       </c>
       <c r="B214" s="2" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="C214" s="2" t="s">
         <v>198</v>
@@ -6027,7 +6077,7 @@
         <v>282</v>
       </c>
       <c r="B215" s="2" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="C215" s="2" t="s">
         <v>198</v>
@@ -6040,7 +6090,7 @@
         <v>282</v>
       </c>
       <c r="B216" s="2" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="C216" s="2" t="s">
         <v>198</v>
@@ -6053,7 +6103,7 @@
         <v>282</v>
       </c>
       <c r="B217" s="2" t="s">
-        <v>275</v>
+        <v>227</v>
       </c>
       <c r="C217" s="2" t="s">
         <v>198</v>
@@ -6066,7 +6116,7 @@
         <v>282</v>
       </c>
       <c r="B218" s="2" t="s">
-        <v>294</v>
+        <v>228</v>
       </c>
       <c r="C218" s="2" t="s">
         <v>198</v>
@@ -6079,7 +6129,7 @@
         <v>282</v>
       </c>
       <c r="B219" s="2" t="s">
-        <v>295</v>
+        <v>229</v>
       </c>
       <c r="C219" s="2" t="s">
         <v>198</v>
@@ -6092,7 +6142,7 @@
         <v>282</v>
       </c>
       <c r="B220" s="2" t="s">
-        <v>296</v>
+        <v>230</v>
       </c>
       <c r="C220" s="2" t="s">
         <v>198</v>
@@ -6105,7 +6155,7 @@
         <v>282</v>
       </c>
       <c r="B221" s="2" t="s">
-        <v>297</v>
+        <v>225</v>
       </c>
       <c r="C221" s="2" t="s">
         <v>198</v>
@@ -6118,7 +6168,7 @@
         <v>282</v>
       </c>
       <c r="B222" s="2" t="s">
-        <v>298</v>
+        <v>275</v>
       </c>
       <c r="C222" s="2" t="s">
         <v>198</v>
@@ -6131,7 +6181,7 @@
         <v>282</v>
       </c>
       <c r="B223" s="2" t="s">
-        <v>299</v>
+        <v>294</v>
       </c>
       <c r="C223" s="2" t="s">
         <v>198</v>
@@ -6144,7 +6194,7 @@
         <v>282</v>
       </c>
       <c r="B224" s="2" t="s">
-        <v>301</v>
+        <v>295</v>
       </c>
       <c r="C224" s="2" t="s">
         <v>198</v>
@@ -6157,7 +6207,7 @@
         <v>282</v>
       </c>
       <c r="B225" s="2" t="s">
-        <v>302</v>
+        <v>296</v>
       </c>
       <c r="C225" s="2" t="s">
         <v>198</v>
@@ -6170,7 +6220,7 @@
         <v>282</v>
       </c>
       <c r="B226" s="2" t="s">
-        <v>304</v>
+        <v>297</v>
       </c>
       <c r="C226" s="2" t="s">
         <v>198</v>
@@ -6183,7 +6233,7 @@
         <v>282</v>
       </c>
       <c r="B227" s="2" t="s">
-        <v>305</v>
+        <v>298</v>
       </c>
       <c r="C227" s="2" t="s">
         <v>198</v>
@@ -6196,7 +6246,7 @@
         <v>282</v>
       </c>
       <c r="B228" s="2" t="s">
-        <v>306</v>
+        <v>299</v>
       </c>
       <c r="C228" s="2" t="s">
         <v>198</v>
@@ -6209,7 +6259,7 @@
         <v>282</v>
       </c>
       <c r="B229" s="2" t="s">
-        <v>525</v>
+        <v>301</v>
       </c>
       <c r="C229" s="2" t="s">
         <v>198</v>
@@ -6222,7 +6272,7 @@
         <v>282</v>
       </c>
       <c r="B230" s="2" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="C230" s="2" t="s">
         <v>198</v>
@@ -6232,39 +6282,39 @@
     </row>
     <row r="231" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A231" s="2" t="s">
-        <v>6</v>
+        <v>282</v>
       </c>
       <c r="B231" s="2" t="s">
-        <v>109</v>
+        <v>304</v>
       </c>
       <c r="C231" s="2" t="s">
-        <v>109</v>
+        <v>198</v>
       </c>
       <c r="D231" s="2"/>
       <c r="E231" s="2"/>
     </row>
     <row r="232" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A232" s="2" t="s">
-        <v>9</v>
+        <v>282</v>
       </c>
       <c r="B232" s="2" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="C232" s="2" t="s">
-        <v>109</v>
+        <v>198</v>
       </c>
       <c r="D232" s="2"/>
       <c r="E232" s="2"/>
     </row>
     <row r="233" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A233" s="2" t="s">
-        <v>26</v>
+        <v>282</v>
       </c>
       <c r="B233" s="2" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="C233" s="2" t="s">
-        <v>109</v>
+        <v>198</v>
       </c>
       <c r="D233" s="2"/>
       <c r="E233" s="2"/>
@@ -6274,87 +6324,77 @@
         <v>282</v>
       </c>
       <c r="B234" s="2" t="s">
-        <v>265</v>
+        <v>525</v>
       </c>
       <c r="C234" s="2" t="s">
-        <v>265</v>
+        <v>198</v>
       </c>
       <c r="D234" s="2"/>
       <c r="E234" s="2"/>
     </row>
     <row r="235" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A235" s="2" t="s">
-        <v>0</v>
+        <v>282</v>
       </c>
       <c r="B235" s="2" t="s">
-        <v>285</v>
+        <v>300</v>
       </c>
       <c r="C235" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="D235" s="2" t="s">
-        <v>396</v>
-      </c>
+        <v>198</v>
+      </c>
+      <c r="D235" s="2"/>
       <c r="E235" s="2"/>
     </row>
     <row r="236" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A236" s="2" t="s">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="B236" s="2" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="C236" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="D236" s="2" t="s">
-        <v>417</v>
-      </c>
+        <v>109</v>
+      </c>
+      <c r="D236" s="2"/>
       <c r="E236" s="2"/>
     </row>
     <row r="237" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A237" s="2" t="s">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="B237" s="2" t="s">
-        <v>465</v>
+        <v>309</v>
       </c>
       <c r="C237" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="D237" s="2" t="s">
-        <v>509</v>
-      </c>
+        <v>109</v>
+      </c>
+      <c r="D237" s="2"/>
       <c r="E237" s="2"/>
     </row>
     <row r="238" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A238" s="2" t="s">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="B238" s="2" t="s">
-        <v>118</v>
+        <v>309</v>
       </c>
       <c r="C238" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="D238" s="2" t="s">
-        <v>419</v>
-      </c>
+        <v>109</v>
+      </c>
+      <c r="D238" s="2"/>
       <c r="E238" s="2"/>
     </row>
     <row r="239" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A239" s="2" t="s">
-        <v>0</v>
+        <v>282</v>
       </c>
       <c r="B239" s="2" t="s">
-        <v>135</v>
+        <v>265</v>
       </c>
       <c r="C239" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="D239" s="2" t="s">
-        <v>427</v>
-      </c>
+        <v>265</v>
+      </c>
+      <c r="D239" s="2"/>
       <c r="E239" s="2"/>
     </row>
     <row r="240" spans="1:5" x14ac:dyDescent="0.2">
@@ -6362,13 +6402,13 @@
         <v>0</v>
       </c>
       <c r="B240" s="2" t="s">
-        <v>490</v>
+        <v>285</v>
       </c>
       <c r="C240" s="2" t="s">
         <v>105</v>
       </c>
       <c r="D240" s="2" t="s">
-        <v>513</v>
+        <v>396</v>
       </c>
       <c r="E240" s="2"/>
     </row>
@@ -6377,13 +6417,13 @@
         <v>0</v>
       </c>
       <c r="B241" s="2" t="s">
-        <v>475</v>
+        <v>116</v>
       </c>
       <c r="C241" s="2" t="s">
         <v>105</v>
       </c>
       <c r="D241" s="2" t="s">
-        <v>512</v>
+        <v>417</v>
       </c>
       <c r="E241" s="2"/>
     </row>
@@ -6392,13 +6432,13 @@
         <v>0</v>
       </c>
       <c r="B242" s="2" t="s">
-        <v>474</v>
+        <v>465</v>
       </c>
       <c r="C242" s="2" t="s">
         <v>105</v>
       </c>
       <c r="D242" s="2" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="E242" s="2"/>
     </row>
@@ -6407,27 +6447,28 @@
         <v>0</v>
       </c>
       <c r="B243" s="2" t="s">
-        <v>486</v>
+        <v>118</v>
       </c>
       <c r="C243" s="2" t="s">
         <v>105</v>
       </c>
       <c r="D243" s="2" t="s">
-        <v>421</v>
-      </c>
+        <v>419</v>
+      </c>
+      <c r="E243" s="2"/>
     </row>
     <row r="244" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A244" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B244" s="2" t="s">
-        <v>117</v>
+        <v>135</v>
       </c>
       <c r="C244" s="2" t="s">
         <v>105</v>
       </c>
       <c r="D244" s="2" t="s">
-        <v>418</v>
+        <v>427</v>
       </c>
       <c r="E244" s="2"/>
     </row>
@@ -6436,13 +6477,13 @@
         <v>0</v>
       </c>
       <c r="B245" s="2" t="s">
-        <v>121</v>
+        <v>490</v>
       </c>
       <c r="C245" s="2" t="s">
         <v>105</v>
       </c>
       <c r="D245" s="2" t="s">
-        <v>418</v>
+        <v>513</v>
       </c>
       <c r="E245" s="2"/>
     </row>
@@ -6451,58 +6492,57 @@
         <v>0</v>
       </c>
       <c r="B246" s="2" t="s">
-        <v>136</v>
+        <v>475</v>
       </c>
       <c r="C246" s="2" t="s">
         <v>105</v>
       </c>
       <c r="D246" s="2" t="s">
-        <v>428</v>
+        <v>512</v>
       </c>
       <c r="E246" s="2"/>
     </row>
     <row r="247" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A247" s="2" t="s">
-        <v>26</v>
+        <v>0</v>
       </c>
       <c r="B247" s="2" t="s">
-        <v>107</v>
+        <v>474</v>
       </c>
       <c r="C247" s="2" t="s">
         <v>105</v>
       </c>
       <c r="D247" s="2" t="s">
-        <v>377</v>
+        <v>511</v>
       </c>
       <c r="E247" s="2"/>
     </row>
     <row r="248" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A248" s="2" t="s">
-        <v>282</v>
-      </c>
-      <c r="B248" t="s">
-        <v>534</v>
-      </c>
-      <c r="C248" t="s">
+        <v>0</v>
+      </c>
+      <c r="B248" s="2" t="s">
+        <v>486</v>
+      </c>
+      <c r="C248" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="D248" t="s">
-        <v>377</v>
-      </c>
-      <c r="E248" s="2"/>
+      <c r="D248" s="2" t="s">
+        <v>421</v>
+      </c>
     </row>
     <row r="249" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A249" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B249" s="2" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="C249" s="2" t="s">
         <v>105</v>
       </c>
       <c r="D249" s="2" t="s">
-        <v>394</v>
+        <v>418</v>
       </c>
       <c r="E249" s="2"/>
     </row>
@@ -6511,13 +6551,13 @@
         <v>0</v>
       </c>
       <c r="B250" s="2" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C250" s="2" t="s">
         <v>105</v>
       </c>
       <c r="D250" s="2" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="E250" s="2"/>
     </row>
@@ -6526,43 +6566,43 @@
         <v>0</v>
       </c>
       <c r="B251" s="2" t="s">
-        <v>122</v>
+        <v>136</v>
       </c>
       <c r="C251" s="2" t="s">
         <v>105</v>
       </c>
       <c r="D251" s="2" t="s">
-        <v>415</v>
+        <v>428</v>
       </c>
       <c r="E251" s="2"/>
     </row>
     <row r="252" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A252" s="2" t="s">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="B252" s="2" t="s">
-        <v>125</v>
+        <v>107</v>
       </c>
       <c r="C252" s="2" t="s">
         <v>105</v>
       </c>
       <c r="D252" s="2" t="s">
-        <v>415</v>
+        <v>377</v>
       </c>
       <c r="E252" s="2"/>
     </row>
     <row r="253" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A253" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B253" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="C253" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="B253" t="s">
+        <v>534</v>
+      </c>
+      <c r="C253" t="s">
         <v>105</v>
       </c>
-      <c r="D253" s="2" t="s">
-        <v>415</v>
+      <c r="D253" t="s">
+        <v>377</v>
       </c>
       <c r="E253" s="2"/>
     </row>
@@ -6571,13 +6611,13 @@
         <v>0</v>
       </c>
       <c r="B254" s="2" t="s">
-        <v>139</v>
+        <v>114</v>
       </c>
       <c r="C254" s="2" t="s">
         <v>105</v>
       </c>
       <c r="D254" s="2" t="s">
-        <v>415</v>
+        <v>394</v>
       </c>
       <c r="E254" s="2"/>
     </row>
@@ -6586,13 +6626,13 @@
         <v>0</v>
       </c>
       <c r="B255" s="2" t="s">
-        <v>478</v>
+        <v>123</v>
       </c>
       <c r="C255" s="2" t="s">
         <v>105</v>
       </c>
       <c r="D255" s="2" t="s">
-        <v>415</v>
+        <v>420</v>
       </c>
       <c r="E255" s="2"/>
     </row>
@@ -6601,13 +6641,13 @@
         <v>0</v>
       </c>
       <c r="B256" s="2" t="s">
-        <v>495</v>
+        <v>122</v>
       </c>
       <c r="C256" s="2" t="s">
         <v>105</v>
       </c>
       <c r="D256" s="2" t="s">
-        <v>515</v>
+        <v>415</v>
       </c>
       <c r="E256" s="2"/>
     </row>
@@ -6616,13 +6656,13 @@
         <v>0</v>
       </c>
       <c r="B257" s="2" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="C257" s="2" t="s">
         <v>105</v>
       </c>
       <c r="D257" s="2" t="s">
-        <v>395</v>
+        <v>415</v>
       </c>
       <c r="E257" s="2"/>
     </row>
@@ -6631,13 +6671,13 @@
         <v>0</v>
       </c>
       <c r="B258" s="2" t="s">
-        <v>104</v>
+        <v>130</v>
       </c>
       <c r="C258" s="2" t="s">
         <v>105</v>
       </c>
       <c r="D258" s="2" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="E258" s="2"/>
     </row>
@@ -6646,13 +6686,13 @@
         <v>0</v>
       </c>
       <c r="B259" s="2" t="s">
-        <v>128</v>
+        <v>139</v>
       </c>
       <c r="C259" s="2" t="s">
         <v>105</v>
       </c>
       <c r="D259" s="2" t="s">
-        <v>426</v>
+        <v>415</v>
       </c>
       <c r="E259" s="2"/>
     </row>
@@ -6661,13 +6701,13 @@
         <v>0</v>
       </c>
       <c r="B260" s="2" t="s">
-        <v>138</v>
+        <v>478</v>
       </c>
       <c r="C260" s="2" t="s">
         <v>105</v>
       </c>
       <c r="D260" s="2" t="s">
-        <v>429</v>
+        <v>415</v>
       </c>
       <c r="E260" s="2"/>
     </row>
@@ -6676,28 +6716,28 @@
         <v>0</v>
       </c>
       <c r="B261" s="2" t="s">
-        <v>126</v>
+        <v>495</v>
       </c>
       <c r="C261" s="2" t="s">
         <v>105</v>
       </c>
       <c r="D261" s="2" t="s">
-        <v>425</v>
+        <v>515</v>
       </c>
       <c r="E261" s="2"/>
     </row>
     <row r="262" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A262" s="2" t="s">
-        <v>282</v>
+        <v>0</v>
       </c>
       <c r="B262" s="2" t="s">
-        <v>543</v>
+        <v>131</v>
       </c>
       <c r="C262" s="2" t="s">
         <v>105</v>
       </c>
       <c r="D262" s="2" t="s">
-        <v>543</v>
+        <v>395</v>
       </c>
       <c r="E262" s="2"/>
     </row>
@@ -6706,13 +6746,13 @@
         <v>0</v>
       </c>
       <c r="B263" s="2" t="s">
-        <v>115</v>
+        <v>104</v>
       </c>
       <c r="C263" s="2" t="s">
         <v>105</v>
       </c>
       <c r="D263" s="2" t="s">
-        <v>398</v>
+        <v>416</v>
       </c>
       <c r="E263" s="2"/>
     </row>
@@ -6721,13 +6761,13 @@
         <v>0</v>
       </c>
       <c r="B264" s="2" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="C264" s="2" t="s">
         <v>105</v>
       </c>
       <c r="D264" s="2" t="s">
-        <v>398</v>
+        <v>426</v>
       </c>
       <c r="E264" s="2"/>
     </row>
@@ -6736,13 +6776,13 @@
         <v>0</v>
       </c>
       <c r="B265" s="2" t="s">
-        <v>492</v>
+        <v>138</v>
       </c>
       <c r="C265" s="2" t="s">
         <v>105</v>
       </c>
       <c r="D265" s="2" t="s">
-        <v>514</v>
+        <v>429</v>
       </c>
       <c r="E265" s="2"/>
     </row>
@@ -6751,58 +6791,58 @@
         <v>0</v>
       </c>
       <c r="B266" s="2" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="C266" s="2" t="s">
         <v>105</v>
       </c>
       <c r="D266" s="2" t="s">
-        <v>400</v>
+        <v>425</v>
       </c>
       <c r="E266" s="2"/>
     </row>
     <row r="267" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A267" s="2" t="s">
-        <v>0</v>
+        <v>282</v>
       </c>
       <c r="B267" s="2" t="s">
-        <v>119</v>
+        <v>543</v>
       </c>
       <c r="C267" s="2" t="s">
         <v>105</v>
       </c>
       <c r="D267" s="2" t="s">
-        <v>401</v>
-      </c>
-      <c r="E267" s="3"/>
+        <v>543</v>
+      </c>
+      <c r="E267" s="2"/>
     </row>
     <row r="268" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A268" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B268" s="2" t="s">
-        <v>129</v>
+        <v>115</v>
       </c>
       <c r="C268" s="2" t="s">
         <v>105</v>
       </c>
       <c r="D268" s="2" t="s">
-        <v>401</v>
-      </c>
-      <c r="E268" s="3"/>
+        <v>398</v>
+      </c>
+      <c r="E268" s="2"/>
     </row>
     <row r="269" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A269" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B269" s="2" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
       <c r="C269" s="2" t="s">
         <v>105</v>
       </c>
       <c r="D269" s="2" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="E269" s="2"/>
     </row>
@@ -6811,13 +6851,13 @@
         <v>0</v>
       </c>
       <c r="B270" s="2" t="s">
-        <v>470</v>
+        <v>492</v>
       </c>
       <c r="C270" s="2" t="s">
         <v>105</v>
       </c>
       <c r="D270" s="2" t="s">
-        <v>510</v>
+        <v>514</v>
       </c>
       <c r="E270" s="2"/>
     </row>
@@ -6826,88 +6866,88 @@
         <v>0</v>
       </c>
       <c r="B271" s="2" t="s">
-        <v>133</v>
+        <v>120</v>
       </c>
       <c r="C271" s="2" t="s">
         <v>105</v>
       </c>
       <c r="D271" s="2" t="s">
-        <v>383</v>
+        <v>400</v>
       </c>
       <c r="E271" s="2"/>
     </row>
     <row r="272" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A272" s="2" t="s">
-        <v>282</v>
+        <v>0</v>
       </c>
       <c r="B272" s="2" t="s">
-        <v>231</v>
+        <v>119</v>
       </c>
       <c r="C272" s="2" t="s">
         <v>105</v>
       </c>
       <c r="D272" s="2" t="s">
-        <v>383</v>
-      </c>
-      <c r="E272" s="2"/>
+        <v>401</v>
+      </c>
+      <c r="E272" s="3"/>
     </row>
     <row r="273" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A273" s="2" t="s">
-        <v>282</v>
+        <v>0</v>
       </c>
       <c r="B273" s="2" t="s">
-        <v>430</v>
+        <v>129</v>
       </c>
       <c r="C273" s="2" t="s">
         <v>105</v>
       </c>
       <c r="D273" s="2" t="s">
-        <v>430</v>
-      </c>
-      <c r="E273" s="2"/>
+        <v>401</v>
+      </c>
+      <c r="E273" s="3"/>
     </row>
     <row r="274" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A274" s="2" t="s">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="B274" s="2" t="s">
-        <v>45</v>
+        <v>132</v>
       </c>
       <c r="C274" s="2" t="s">
         <v>105</v>
       </c>
       <c r="D274" s="2" t="s">
-        <v>430</v>
+        <v>401</v>
       </c>
       <c r="E274" s="2"/>
     </row>
     <row r="275" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A275" s="2" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="B275" s="2" t="s">
-        <v>44</v>
+        <v>470</v>
       </c>
       <c r="C275" s="2" t="s">
         <v>105</v>
       </c>
       <c r="D275" s="2" t="s">
-        <v>414</v>
+        <v>510</v>
       </c>
       <c r="E275" s="2"/>
     </row>
     <row r="276" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A276" s="2" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="B276" s="2" t="s">
-        <v>156</v>
+        <v>133</v>
       </c>
       <c r="C276" s="2" t="s">
         <v>105</v>
       </c>
       <c r="D276" s="2" t="s">
-        <v>156</v>
+        <v>383</v>
       </c>
       <c r="E276" s="2"/>
     </row>
@@ -6916,13 +6956,13 @@
         <v>282</v>
       </c>
       <c r="B277" s="2" t="s">
-        <v>214</v>
+        <v>231</v>
       </c>
       <c r="C277" s="2" t="s">
         <v>105</v>
       </c>
       <c r="D277" s="2" t="s">
-        <v>214</v>
+        <v>383</v>
       </c>
       <c r="E277" s="2"/>
     </row>
@@ -6931,172 +6971,172 @@
         <v>282</v>
       </c>
       <c r="B278" s="2" t="s">
-        <v>219</v>
+        <v>430</v>
       </c>
       <c r="C278" s="2" t="s">
         <v>105</v>
       </c>
       <c r="D278" s="2" t="s">
-        <v>219</v>
+        <v>430</v>
       </c>
       <c r="E278" s="2"/>
     </row>
     <row r="279" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A279" s="2" t="s">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="B279" s="2" t="s">
-        <v>113</v>
+        <v>45</v>
       </c>
       <c r="C279" s="2" t="s">
         <v>105</v>
       </c>
       <c r="D279" s="2" t="s">
-        <v>399</v>
+        <v>430</v>
       </c>
       <c r="E279" s="2"/>
     </row>
     <row r="280" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A280" s="2" t="s">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="B280" s="2" t="s">
-        <v>112</v>
+        <v>44</v>
       </c>
       <c r="C280" s="2" t="s">
         <v>105</v>
       </c>
       <c r="D280" s="2" t="s">
-        <v>239</v>
+        <v>414</v>
       </c>
       <c r="E280" s="2"/>
     </row>
     <row r="281" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A281" s="2" t="s">
-        <v>26</v>
+        <v>6</v>
       </c>
       <c r="B281" s="2" t="s">
-        <v>436</v>
+        <v>156</v>
       </c>
       <c r="C281" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="D281" s="2"/>
+      <c r="D281" s="2" t="s">
+        <v>156</v>
+      </c>
       <c r="E281" s="2"/>
     </row>
     <row r="282" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A282" s="2" t="s">
-        <v>31</v>
+        <v>282</v>
       </c>
       <c r="B282" s="2" t="s">
-        <v>443</v>
+        <v>214</v>
       </c>
       <c r="C282" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="D282" s="2"/>
+      <c r="D282" s="2" t="s">
+        <v>214</v>
+      </c>
       <c r="E282" s="2"/>
     </row>
     <row r="283" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A283" s="2" t="s">
-        <v>26</v>
+        <v>282</v>
       </c>
       <c r="B283" s="2" t="s">
-        <v>464</v>
+        <v>219</v>
       </c>
       <c r="C283" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="D283" s="2"/>
+      <c r="D283" s="2" t="s">
+        <v>219</v>
+      </c>
       <c r="E283" s="2"/>
     </row>
     <row r="284" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A284" s="2" t="s">
-        <v>282</v>
+        <v>0</v>
       </c>
       <c r="B284" s="2" t="s">
-        <v>281</v>
+        <v>113</v>
       </c>
       <c r="C284" s="2" t="s">
-        <v>280</v>
+        <v>105</v>
       </c>
       <c r="D284" s="2" t="s">
-        <v>281</v>
+        <v>399</v>
       </c>
       <c r="E284" s="2"/>
     </row>
     <row r="285" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A285" s="2" t="s">
-        <v>282</v>
+        <v>0</v>
       </c>
       <c r="B285" s="2" t="s">
-        <v>278</v>
+        <v>112</v>
       </c>
       <c r="C285" s="2" t="s">
-        <v>280</v>
+        <v>105</v>
       </c>
       <c r="D285" s="2" t="s">
-        <v>433</v>
+        <v>239</v>
       </c>
       <c r="E285" s="2"/>
     </row>
     <row r="286" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A286" s="2" t="s">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="B286" s="2" t="s">
-        <v>141</v>
+        <v>436</v>
       </c>
       <c r="C286" s="2" t="s">
-        <v>280</v>
-      </c>
-      <c r="D286" s="2" t="s">
-        <v>433</v>
-      </c>
+        <v>105</v>
+      </c>
+      <c r="D286" s="2"/>
       <c r="E286" s="2"/>
     </row>
     <row r="287" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A287" s="2" t="s">
-        <v>282</v>
-      </c>
-      <c r="B287" t="s">
-        <v>607</v>
+        <v>31</v>
+      </c>
+      <c r="B287" s="2" t="s">
+        <v>443</v>
       </c>
       <c r="C287" s="2" t="s">
-        <v>280</v>
-      </c>
-      <c r="D287" s="2" t="s">
-        <v>433</v>
-      </c>
+        <v>105</v>
+      </c>
+      <c r="D287" s="2"/>
       <c r="E287" s="2"/>
     </row>
     <row r="288" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A288" s="2" t="s">
-        <v>282</v>
+        <v>26</v>
       </c>
       <c r="B288" s="2" t="s">
-        <v>279</v>
+        <v>464</v>
       </c>
       <c r="C288" s="2" t="s">
-        <v>280</v>
-      </c>
-      <c r="D288" s="2" t="s">
-        <v>434</v>
-      </c>
+        <v>105</v>
+      </c>
+      <c r="D288" s="2"/>
       <c r="E288" s="2"/>
     </row>
     <row r="289" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A289" s="2" t="s">
-        <v>0</v>
+        <v>282</v>
       </c>
       <c r="B289" s="2" t="s">
-        <v>145</v>
+        <v>281</v>
       </c>
       <c r="C289" s="2" t="s">
         <v>280</v>
       </c>
       <c r="D289" s="2" t="s">
-        <v>434</v>
+        <v>281</v>
       </c>
       <c r="E289" s="2"/>
     </row>
@@ -7105,73 +7145,73 @@
         <v>282</v>
       </c>
       <c r="B290" s="2" t="s">
-        <v>608</v>
+        <v>278</v>
       </c>
       <c r="C290" s="2" t="s">
         <v>280</v>
       </c>
       <c r="D290" s="2" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="E290" s="2"/>
     </row>
     <row r="291" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A291" s="2" t="s">
-        <v>282</v>
+        <v>0</v>
       </c>
       <c r="B291" s="2" t="s">
-        <v>280</v>
+        <v>141</v>
       </c>
       <c r="C291" s="2" t="s">
         <v>280</v>
       </c>
       <c r="D291" s="2" t="s">
-        <v>383</v>
+        <v>433</v>
       </c>
       <c r="E291" s="2"/>
     </row>
     <row r="292" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A292" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B292" s="2" t="s">
-        <v>146</v>
+        <v>282</v>
+      </c>
+      <c r="B292" t="s">
+        <v>607</v>
       </c>
       <c r="C292" s="2" t="s">
         <v>280</v>
       </c>
       <c r="D292" s="2" t="s">
-        <v>383</v>
+        <v>433</v>
       </c>
       <c r="E292" s="2"/>
     </row>
     <row r="293" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A293" s="2" t="s">
-        <v>26</v>
+        <v>282</v>
       </c>
       <c r="B293" s="2" t="s">
-        <v>347</v>
+        <v>279</v>
       </c>
       <c r="C293" s="2" t="s">
         <v>280</v>
       </c>
       <c r="D293" s="2" t="s">
-        <v>383</v>
+        <v>434</v>
       </c>
       <c r="E293" s="2"/>
     </row>
     <row r="294" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A294" s="2" t="s">
-        <v>282</v>
-      </c>
-      <c r="B294" t="s">
-        <v>542</v>
+        <v>0</v>
+      </c>
+      <c r="B294" s="2" t="s">
+        <v>145</v>
       </c>
       <c r="C294" s="2" t="s">
         <v>280</v>
       </c>
       <c r="D294" s="2" t="s">
-        <v>432</v>
+        <v>434</v>
       </c>
       <c r="E294" s="2"/>
     </row>
@@ -7180,13 +7220,13 @@
         <v>282</v>
       </c>
       <c r="B295" s="2" t="s">
-        <v>537</v>
+        <v>608</v>
       </c>
       <c r="C295" s="2" t="s">
         <v>280</v>
       </c>
       <c r="D295" s="2" t="s">
-        <v>432</v>
+        <v>434</v>
       </c>
       <c r="E295" s="2"/>
     </row>
@@ -7195,13 +7235,13 @@
         <v>282</v>
       </c>
       <c r="B296" s="2" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="C296" s="2" t="s">
         <v>280</v>
       </c>
       <c r="D296" s="2" t="s">
-        <v>432</v>
+        <v>383</v>
       </c>
       <c r="E296" s="2"/>
     </row>
@@ -7210,58 +7250,58 @@
         <v>0</v>
       </c>
       <c r="B297" s="2" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="C297" s="2" t="s">
         <v>280</v>
       </c>
       <c r="D297" s="2" t="s">
-        <v>432</v>
+        <v>383</v>
       </c>
       <c r="E297" s="2"/>
     </row>
     <row r="298" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A298" s="2" t="s">
-        <v>282</v>
+        <v>26</v>
       </c>
       <c r="B298" s="2" t="s">
-        <v>276</v>
+        <v>347</v>
       </c>
       <c r="C298" s="2" t="s">
         <v>280</v>
       </c>
       <c r="D298" s="2" t="s">
-        <v>431</v>
+        <v>383</v>
       </c>
       <c r="E298" s="2"/>
     </row>
     <row r="299" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A299" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B299" s="2" t="s">
-        <v>144</v>
+        <v>282</v>
+      </c>
+      <c r="B299" t="s">
+        <v>542</v>
       </c>
       <c r="C299" s="2" t="s">
         <v>280</v>
       </c>
       <c r="D299" s="2" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="E299" s="2"/>
     </row>
     <row r="300" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A300" s="2" t="s">
-        <v>6</v>
+        <v>282</v>
       </c>
       <c r="B300" s="2" t="s">
-        <v>176</v>
+        <v>537</v>
       </c>
       <c r="C300" s="2" t="s">
         <v>280</v>
       </c>
       <c r="D300" s="2" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="E300" s="2"/>
     </row>
@@ -7270,25 +7310,29 @@
         <v>282</v>
       </c>
       <c r="B301" s="2" t="s">
-        <v>190</v>
+        <v>277</v>
       </c>
       <c r="C301" s="2" t="s">
-        <v>190</v>
-      </c>
-      <c r="D301" s="2"/>
+        <v>280</v>
+      </c>
+      <c r="D301" s="2" t="s">
+        <v>432</v>
+      </c>
       <c r="E301" s="2"/>
     </row>
     <row r="302" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A302" s="2" t="s">
-        <v>282</v>
+        <v>0</v>
       </c>
       <c r="B302" s="2" t="s">
-        <v>524</v>
+        <v>143</v>
       </c>
       <c r="C302" s="2" t="s">
-        <v>190</v>
-      </c>
-      <c r="D302" s="2"/>
+        <v>280</v>
+      </c>
+      <c r="D302" s="2" t="s">
+        <v>432</v>
+      </c>
       <c r="E302" s="2"/>
     </row>
     <row r="303" spans="1:5" x14ac:dyDescent="0.2">
@@ -7296,98 +7340,104 @@
         <v>282</v>
       </c>
       <c r="B303" s="2" t="s">
-        <v>232</v>
+        <v>276</v>
       </c>
       <c r="C303" s="2" t="s">
-        <v>190</v>
-      </c>
-      <c r="D303" s="2"/>
+        <v>280</v>
+      </c>
+      <c r="D303" s="2" t="s">
+        <v>431</v>
+      </c>
       <c r="E303" s="2"/>
     </row>
     <row r="304" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A304" s="2" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="B304" s="2" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="C304" s="2" t="s">
-        <v>190</v>
-      </c>
-      <c r="D304" s="2"/>
+        <v>280</v>
+      </c>
+      <c r="D304" s="2" t="s">
+        <v>431</v>
+      </c>
       <c r="E304" s="2"/>
     </row>
     <row r="305" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A305" s="2" t="s">
-        <v>31</v>
+        <v>6</v>
       </c>
       <c r="B305" s="2" t="s">
-        <v>148</v>
+        <v>176</v>
       </c>
       <c r="C305" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="D305" s="2"/>
+        <v>280</v>
+      </c>
+      <c r="D305" s="2" t="s">
+        <v>431</v>
+      </c>
       <c r="E305" s="2"/>
     </row>
     <row r="306" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A306" s="2" t="s">
-        <v>6</v>
+        <v>282</v>
       </c>
       <c r="B306" s="2" t="s">
-        <v>149</v>
+        <v>190</v>
       </c>
       <c r="C306" s="2" t="s">
-        <v>148</v>
+        <v>190</v>
       </c>
       <c r="D306" s="2"/>
       <c r="E306" s="2"/>
     </row>
     <row r="307" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A307" s="2" t="s">
-        <v>6</v>
+        <v>282</v>
       </c>
       <c r="B307" s="2" t="s">
-        <v>150</v>
+        <v>524</v>
       </c>
       <c r="C307" s="2" t="s">
-        <v>148</v>
+        <v>190</v>
       </c>
       <c r="D307" s="2"/>
       <c r="E307" s="2"/>
     </row>
     <row r="308" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A308" s="2" t="s">
-        <v>9</v>
+        <v>282</v>
       </c>
       <c r="B308" s="2" t="s">
-        <v>151</v>
+        <v>232</v>
       </c>
       <c r="C308" s="2" t="s">
-        <v>148</v>
+        <v>190</v>
       </c>
       <c r="D308" s="2"/>
       <c r="E308" s="2"/>
     </row>
     <row r="309" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A309" s="2" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B309" s="2" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="C309" s="2" t="s">
-        <v>148</v>
+        <v>190</v>
       </c>
       <c r="D309" s="2"/>
       <c r="E309" s="2"/>
     </row>
     <row r="310" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A310" s="2" t="s">
-        <v>6</v>
+        <v>31</v>
       </c>
       <c r="B310" s="2" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="C310" s="2" t="s">
         <v>148</v>
@@ -7400,7 +7450,7 @@
         <v>6</v>
       </c>
       <c r="B311" s="2" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="C311" s="2" t="s">
         <v>148</v>
@@ -7413,7 +7463,7 @@
         <v>6</v>
       </c>
       <c r="B312" s="2" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="C312" s="2" t="s">
         <v>148</v>
@@ -7423,10 +7473,10 @@
     </row>
     <row r="313" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A313" s="2" t="s">
-        <v>282</v>
+        <v>9</v>
       </c>
       <c r="B313" s="2" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="C313" s="2" t="s">
         <v>148</v>
@@ -7436,10 +7486,10 @@
     </row>
     <row r="314" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A314" s="2" t="s">
-        <v>26</v>
+        <v>9</v>
       </c>
       <c r="B314" s="2" t="s">
-        <v>452</v>
+        <v>152</v>
       </c>
       <c r="C314" s="2" t="s">
         <v>148</v>
@@ -7449,10 +7499,10 @@
     </row>
     <row r="315" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A315" s="2" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B315" s="2" t="s">
-        <v>461</v>
+        <v>153</v>
       </c>
       <c r="C315" s="2" t="s">
         <v>148</v>
@@ -7462,10 +7512,10 @@
     </row>
     <row r="316" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A316" s="2" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B316" s="2" t="s">
-        <v>496</v>
+        <v>154</v>
       </c>
       <c r="C316" s="2" t="s">
         <v>148</v>
@@ -7475,10 +7525,10 @@
     </row>
     <row r="317" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A317" s="2" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B317" s="2" t="s">
-        <v>499</v>
+        <v>155</v>
       </c>
       <c r="C317" s="2" t="s">
         <v>148</v>
@@ -7488,10 +7538,10 @@
     </row>
     <row r="318" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A318" s="2" t="s">
-        <v>9</v>
+        <v>282</v>
       </c>
       <c r="B318" s="2" t="s">
-        <v>502</v>
+        <v>148</v>
       </c>
       <c r="C318" s="2" t="s">
         <v>148</v>
@@ -7501,26 +7551,26 @@
     </row>
     <row r="319" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A319" s="2" t="s">
-        <v>282</v>
+        <v>26</v>
       </c>
       <c r="B319" s="2" t="s">
-        <v>266</v>
+        <v>452</v>
       </c>
       <c r="C319" s="2" t="s">
-        <v>266</v>
+        <v>148</v>
       </c>
       <c r="D319" s="2"/>
       <c r="E319" s="2"/>
     </row>
     <row r="320" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A320" s="2" t="s">
-        <v>282</v>
+        <v>9</v>
       </c>
       <c r="B320" s="2" t="s">
-        <v>271</v>
+        <v>461</v>
       </c>
       <c r="C320" s="2" t="s">
-        <v>266</v>
+        <v>148</v>
       </c>
       <c r="D320" s="2"/>
       <c r="E320" s="2"/>
@@ -7530,10 +7580,10 @@
         <v>9</v>
       </c>
       <c r="B321" s="2" t="s">
-        <v>161</v>
+        <v>496</v>
       </c>
       <c r="C321" s="2" t="s">
-        <v>162</v>
+        <v>148</v>
       </c>
       <c r="D321" s="2"/>
       <c r="E321" s="2"/>
@@ -7543,23 +7593,23 @@
         <v>9</v>
       </c>
       <c r="B322" s="2" t="s">
-        <v>293</v>
+        <v>499</v>
       </c>
       <c r="C322" s="2" t="s">
-        <v>325</v>
+        <v>148</v>
       </c>
       <c r="D322" s="2"/>
       <c r="E322" s="2"/>
     </row>
     <row r="323" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A323" s="2" t="s">
-        <v>282</v>
+        <v>9</v>
       </c>
       <c r="B323" s="2" t="s">
-        <v>196</v>
+        <v>502</v>
       </c>
       <c r="C323" s="2" t="s">
-        <v>325</v>
+        <v>148</v>
       </c>
       <c r="D323" s="2"/>
       <c r="E323" s="2"/>
@@ -7569,61 +7619,62 @@
         <v>282</v>
       </c>
       <c r="B324" s="2" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="C324" s="2" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="D324" s="2"/>
       <c r="E324" s="2"/>
     </row>
     <row r="325" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A325" s="2" t="s">
-        <v>9</v>
+        <v>282</v>
       </c>
       <c r="B325" s="2" t="s">
-        <v>80</v>
+        <v>271</v>
       </c>
       <c r="C325" s="2" t="s">
-        <v>164</v>
+        <v>266</v>
       </c>
       <c r="D325" s="2"/>
+      <c r="E325" s="2"/>
     </row>
     <row r="326" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A326" s="2" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B326" s="2" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C326" s="2" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="D326" s="2"/>
       <c r="E326" s="2"/>
     </row>
     <row r="327" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A327" s="2" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B327" s="2" t="s">
-        <v>165</v>
+        <v>293</v>
       </c>
       <c r="C327" s="2" t="s">
-        <v>164</v>
+        <v>325</v>
       </c>
       <c r="D327" s="2"/>
       <c r="E327" s="2"/>
     </row>
     <row r="328" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A328" s="2" t="s">
-        <v>9</v>
+        <v>282</v>
       </c>
       <c r="B328" s="2" t="s">
-        <v>166</v>
+        <v>196</v>
       </c>
       <c r="C328" s="2" t="s">
-        <v>164</v>
+        <v>325</v>
       </c>
       <c r="D328" s="2"/>
       <c r="E328" s="2"/>
@@ -7633,33 +7684,32 @@
         <v>282</v>
       </c>
       <c r="B329" s="2" t="s">
-        <v>164</v>
+        <v>268</v>
       </c>
       <c r="C329" s="2" t="s">
-        <v>164</v>
+        <v>268</v>
       </c>
       <c r="D329" s="2"/>
       <c r="E329" s="2"/>
     </row>
     <row r="330" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A330" s="2" t="s">
-        <v>282</v>
+        <v>9</v>
       </c>
       <c r="B330" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C330" s="2" t="s">
         <v>164</v>
       </c>
       <c r="D330" s="2"/>
-      <c r="E330" s="2"/>
     </row>
     <row r="331" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A331" s="2" t="s">
-        <v>26</v>
+        <v>6</v>
       </c>
       <c r="B331" s="2" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="C331" s="2" t="s">
         <v>164</v>
@@ -7669,10 +7719,10 @@
     </row>
     <row r="332" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A332" s="2" t="s">
-        <v>26</v>
+        <v>6</v>
       </c>
       <c r="B332" s="2" t="s">
-        <v>80</v>
+        <v>165</v>
       </c>
       <c r="C332" s="2" t="s">
         <v>164</v>
@@ -7682,100 +7732,96 @@
     </row>
     <row r="333" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A333" s="2" t="s">
-        <v>282</v>
+        <v>9</v>
       </c>
       <c r="B333" s="2" t="s">
-        <v>272</v>
+        <v>166</v>
       </c>
       <c r="C333" s="2" t="s">
-        <v>318</v>
-      </c>
-      <c r="D333" s="2" t="s">
-        <v>272</v>
-      </c>
+        <v>164</v>
+      </c>
+      <c r="D333" s="2"/>
+      <c r="E333" s="2"/>
     </row>
     <row r="334" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A334" s="2" t="s">
         <v>282</v>
       </c>
       <c r="B334" s="2" t="s">
-        <v>270</v>
+        <v>164</v>
       </c>
       <c r="C334" s="2" t="s">
-        <v>318</v>
-      </c>
-      <c r="D334" s="2" t="s">
-        <v>270</v>
-      </c>
+        <v>164</v>
+      </c>
+      <c r="D334" s="2"/>
       <c r="E334" s="2"/>
     </row>
     <row r="335" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A335" s="2" t="s">
         <v>282</v>
       </c>
-      <c r="B335" t="s">
-        <v>544</v>
-      </c>
-      <c r="C335" t="s">
-        <v>318</v>
-      </c>
-      <c r="D335" t="s">
-        <v>544</v>
-      </c>
+      <c r="B335" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C335" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="D335" s="2"/>
       <c r="E335" s="2"/>
     </row>
     <row r="336" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A336" s="2" t="s">
-        <v>282</v>
+        <v>26</v>
       </c>
       <c r="B336" s="2" t="s">
-        <v>273</v>
+        <v>166</v>
       </c>
       <c r="C336" s="2" t="s">
-        <v>318</v>
-      </c>
-      <c r="D336" s="2" t="s">
-        <v>273</v>
-      </c>
+        <v>164</v>
+      </c>
+      <c r="D336" s="2"/>
       <c r="E336" s="2"/>
     </row>
     <row r="337" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A337" s="2" t="s">
-        <v>9</v>
+        <v>26</v>
       </c>
       <c r="B337" s="2" t="s">
-        <v>170</v>
+        <v>80</v>
       </c>
       <c r="C337" s="2" t="s">
-        <v>171</v>
+        <v>164</v>
       </c>
       <c r="D337" s="2"/>
       <c r="E337" s="2"/>
     </row>
     <row r="338" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A338" s="2" t="s">
-        <v>6</v>
+        <v>282</v>
       </c>
       <c r="B338" s="2" t="s">
-        <v>172</v>
+        <v>272</v>
       </c>
       <c r="C338" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="D338" s="2"/>
-      <c r="E338" s="2"/>
+        <v>318</v>
+      </c>
+      <c r="D338" s="2" t="s">
+        <v>272</v>
+      </c>
     </row>
     <row r="339" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A339" s="2" t="s">
         <v>282</v>
       </c>
       <c r="B339" s="2" t="s">
-        <v>261</v>
+        <v>270</v>
       </c>
       <c r="C339" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="D339" s="2"/>
+        <v>318</v>
+      </c>
+      <c r="D339" s="2" t="s">
+        <v>270</v>
+      </c>
       <c r="E339" s="2"/>
     </row>
     <row r="340" spans="1:5" x14ac:dyDescent="0.2">
@@ -7783,27 +7829,29 @@
         <v>282</v>
       </c>
       <c r="B340" t="s">
-        <v>550</v>
+        <v>544</v>
       </c>
       <c r="C340" t="s">
-        <v>313</v>
+        <v>318</v>
       </c>
       <c r="D340" t="s">
-        <v>550</v>
+        <v>544</v>
       </c>
       <c r="E340" s="2"/>
     </row>
     <row r="341" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A341" s="2" t="s">
-        <v>9</v>
+        <v>282</v>
       </c>
       <c r="B341" s="2" t="s">
-        <v>17</v>
+        <v>273</v>
       </c>
       <c r="C341" s="2" t="s">
-        <v>313</v>
-      </c>
-      <c r="D341" s="2"/>
+        <v>318</v>
+      </c>
+      <c r="D341" s="2" t="s">
+        <v>273</v>
+      </c>
       <c r="E341" s="2"/>
     </row>
     <row r="342" spans="1:5" x14ac:dyDescent="0.2">
@@ -7811,51 +7859,53 @@
         <v>9</v>
       </c>
       <c r="B342" s="2" t="s">
-        <v>18</v>
+        <v>170</v>
       </c>
       <c r="C342" s="2" t="s">
-        <v>313</v>
+        <v>171</v>
       </c>
       <c r="D342" s="2"/>
       <c r="E342" s="2"/>
     </row>
     <row r="343" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A343" s="2" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B343" s="2" t="s">
-        <v>20</v>
+        <v>172</v>
       </c>
       <c r="C343" s="2" t="s">
-        <v>313</v>
+        <v>171</v>
       </c>
       <c r="D343" s="2"/>
       <c r="E343" s="2"/>
     </row>
     <row r="344" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A344" s="2" t="s">
-        <v>9</v>
+        <v>282</v>
       </c>
       <c r="B344" s="2" t="s">
-        <v>284</v>
+        <v>261</v>
       </c>
       <c r="C344" s="2" t="s">
-        <v>313</v>
+        <v>171</v>
       </c>
       <c r="D344" s="2"/>
       <c r="E344" s="2"/>
     </row>
     <row r="345" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A345" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B345" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C345" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="B345" t="s">
+        <v>550</v>
+      </c>
+      <c r="C345" t="s">
         <v>313</v>
       </c>
-      <c r="D345" s="2"/>
+      <c r="D345" t="s">
+        <v>550</v>
+      </c>
       <c r="E345" s="2"/>
     </row>
     <row r="346" spans="1:5" x14ac:dyDescent="0.2">
@@ -7863,7 +7913,7 @@
         <v>9</v>
       </c>
       <c r="B346" s="2" t="s">
-        <v>283</v>
+        <v>17</v>
       </c>
       <c r="C346" s="2" t="s">
         <v>313</v>
@@ -7876,55 +7926,59 @@
         <v>9</v>
       </c>
       <c r="B347" s="2" t="s">
-        <v>47</v>
+        <v>18</v>
       </c>
       <c r="C347" s="2" t="s">
         <v>313</v>
       </c>
       <c r="D347" s="2"/>
+      <c r="E347" s="2"/>
     </row>
     <row r="348" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A348" s="2" t="s">
         <v>9</v>
       </c>
       <c r="B348" s="2" t="s">
-        <v>48</v>
+        <v>20</v>
       </c>
       <c r="C348" s="2" t="s">
         <v>313</v>
       </c>
       <c r="D348" s="2"/>
+      <c r="E348" s="2"/>
     </row>
     <row r="349" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A349" s="2" t="s">
         <v>9</v>
       </c>
       <c r="B349" s="2" t="s">
-        <v>381</v>
+        <v>284</v>
       </c>
       <c r="C349" s="2" t="s">
         <v>313</v>
       </c>
       <c r="D349" s="2"/>
+      <c r="E349" s="2"/>
     </row>
     <row r="350" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A350" s="2" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B350" s="2" t="s">
-        <v>463</v>
+        <v>16</v>
       </c>
       <c r="C350" s="2" t="s">
         <v>313</v>
       </c>
       <c r="D350" s="2"/>
+      <c r="E350" s="2"/>
     </row>
     <row r="351" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A351" s="2" t="s">
         <v>9</v>
       </c>
       <c r="B351" s="2" t="s">
-        <v>469</v>
+        <v>283</v>
       </c>
       <c r="C351" s="2" t="s">
         <v>313</v>
@@ -7937,20 +7991,19 @@
         <v>9</v>
       </c>
       <c r="B352" s="2" t="s">
-        <v>483</v>
+        <v>47</v>
       </c>
       <c r="C352" s="2" t="s">
         <v>313</v>
       </c>
       <c r="D352" s="2"/>
-      <c r="E352" s="2"/>
     </row>
     <row r="353" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A353" s="2" t="s">
         <v>9</v>
       </c>
       <c r="B353" s="2" t="s">
-        <v>487</v>
+        <v>48</v>
       </c>
       <c r="C353" s="2" t="s">
         <v>313</v>
@@ -7959,239 +8012,226 @@
     </row>
     <row r="354" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A354" s="2" t="s">
-        <v>282</v>
-      </c>
-      <c r="B354" t="s">
-        <v>535</v>
-      </c>
-      <c r="C354" t="s">
+        <v>9</v>
+      </c>
+      <c r="B354" s="2" t="s">
+        <v>381</v>
+      </c>
+      <c r="C354" s="2" t="s">
         <v>313</v>
       </c>
+      <c r="D354" s="2"/>
     </row>
     <row r="355" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A355" s="2" t="s">
-        <v>282</v>
-      </c>
-      <c r="B355" t="s">
-        <v>551</v>
-      </c>
-      <c r="C355" t="s">
+        <v>6</v>
+      </c>
+      <c r="B355" s="2" t="s">
+        <v>463</v>
+      </c>
+      <c r="C355" s="2" t="s">
         <v>313</v>
       </c>
-      <c r="E355" s="2"/>
+      <c r="D355" s="2"/>
     </row>
     <row r="356" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A356" s="2" t="s">
-        <v>282</v>
-      </c>
-      <c r="B356" t="s">
-        <v>553</v>
-      </c>
-      <c r="C356" t="s">
+        <v>9</v>
+      </c>
+      <c r="B356" s="2" t="s">
+        <v>469</v>
+      </c>
+      <c r="C356" s="2" t="s">
         <v>313</v>
       </c>
+      <c r="D356" s="2"/>
       <c r="E356" s="2"/>
     </row>
     <row r="357" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A357" s="2" t="s">
-        <v>282</v>
-      </c>
-      <c r="B357" t="s">
-        <v>549</v>
-      </c>
-      <c r="C357" t="s">
-        <v>379</v>
-      </c>
-      <c r="D357" t="s">
-        <v>549</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="B357" s="2" t="s">
+        <v>483</v>
+      </c>
+      <c r="C357" s="2" t="s">
+        <v>313</v>
+      </c>
+      <c r="D357" s="2"/>
       <c r="E357" s="2"/>
     </row>
     <row r="358" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A358" s="2" t="s">
-        <v>282</v>
+        <v>9</v>
       </c>
       <c r="B358" s="2" t="s">
-        <v>191</v>
+        <v>487</v>
       </c>
       <c r="C358" s="2" t="s">
-        <v>379</v>
+        <v>313</v>
       </c>
       <c r="D358" s="2"/>
-      <c r="E358" s="2"/>
     </row>
     <row r="359" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A359" s="2" t="s">
         <v>282</v>
       </c>
-      <c r="B359" s="2" t="s">
-        <v>233</v>
-      </c>
-      <c r="C359" s="2" t="s">
-        <v>379</v>
-      </c>
-      <c r="D359" s="2"/>
-      <c r="E359" s="2"/>
+      <c r="B359" t="s">
+        <v>535</v>
+      </c>
+      <c r="C359" t="s">
+        <v>313</v>
+      </c>
     </row>
     <row r="360" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A360" s="2" t="s">
         <v>282</v>
       </c>
       <c r="B360" t="s">
-        <v>540</v>
+        <v>551</v>
       </c>
       <c r="C360" t="s">
-        <v>540</v>
-      </c>
-      <c r="D360" t="s">
-        <v>383</v>
+        <v>313</v>
       </c>
       <c r="E360" s="2"/>
     </row>
     <row r="361" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A361" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B361" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="C361" s="2" t="s">
-        <v>540</v>
-      </c>
-      <c r="D361" s="2" t="s">
-        <v>175</v>
+        <v>282</v>
+      </c>
+      <c r="B361" t="s">
+        <v>553</v>
+      </c>
+      <c r="C361" t="s">
+        <v>313</v>
       </c>
       <c r="E361" s="2"/>
     </row>
     <row r="362" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A362" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B362" s="2" t="s">
-        <v>178</v>
-      </c>
-      <c r="C362" s="2" t="s">
-        <v>540</v>
-      </c>
-      <c r="D362" s="2" t="s">
-        <v>178</v>
-      </c>
+        <v>282</v>
+      </c>
+      <c r="B362" t="s">
+        <v>549</v>
+      </c>
+      <c r="C362" t="s">
+        <v>379</v>
+      </c>
+      <c r="D362" t="s">
+        <v>549</v>
+      </c>
+      <c r="E362" s="2"/>
     </row>
     <row r="363" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A363" s="2" t="s">
-        <v>6</v>
+        <v>282</v>
       </c>
       <c r="B363" s="2" t="s">
-        <v>459</v>
+        <v>191</v>
       </c>
       <c r="C363" s="2" t="s">
-        <v>540</v>
-      </c>
-      <c r="D363" s="2" t="s">
-        <v>459</v>
-      </c>
+        <v>379</v>
+      </c>
+      <c r="D363" s="2"/>
+      <c r="E363" s="2"/>
     </row>
     <row r="364" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A364" s="2" t="s">
-        <v>6</v>
+        <v>282</v>
       </c>
       <c r="B364" s="2" t="s">
-        <v>479</v>
+        <v>233</v>
       </c>
       <c r="C364" s="2" t="s">
-        <v>540</v>
-      </c>
-      <c r="D364" s="2" t="s">
-        <v>479</v>
-      </c>
+        <v>379</v>
+      </c>
+      <c r="D364" s="2"/>
+      <c r="E364" s="2"/>
     </row>
     <row r="365" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A365" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B365" s="2" t="s">
-        <v>177</v>
-      </c>
-      <c r="C365" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="B365" t="s">
         <v>540</v>
       </c>
-      <c r="D365" s="2" t="s">
-        <v>567</v>
+      <c r="C365" t="s">
+        <v>540</v>
+      </c>
+      <c r="D365" t="s">
+        <v>383</v>
       </c>
       <c r="E365" s="2"/>
     </row>
     <row r="366" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A366" s="2" t="s">
-        <v>282</v>
+        <v>6</v>
       </c>
       <c r="B366" s="2" t="s">
-        <v>209</v>
+        <v>175</v>
       </c>
       <c r="C366" s="2" t="s">
         <v>540</v>
       </c>
       <c r="D366" s="2" t="s">
-        <v>567</v>
+        <v>175</v>
       </c>
       <c r="E366" s="2"/>
     </row>
     <row r="367" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A367" s="2" t="s">
-        <v>282</v>
-      </c>
-      <c r="B367" t="s">
-        <v>533</v>
-      </c>
-      <c r="C367" t="s">
+        <v>6</v>
+      </c>
+      <c r="B367" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="C367" s="2" t="s">
         <v>540</v>
       </c>
-      <c r="D367" t="s">
-        <v>588</v>
-      </c>
-      <c r="E367" s="2"/>
+      <c r="D367" s="2" t="s">
+        <v>178</v>
+      </c>
     </row>
     <row r="368" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A368" s="2" t="s">
-        <v>282</v>
+        <v>6</v>
       </c>
       <c r="B368" s="2" t="s">
-        <v>217</v>
+        <v>459</v>
       </c>
       <c r="C368" s="2" t="s">
         <v>540</v>
       </c>
       <c r="D368" s="2" t="s">
-        <v>217</v>
-      </c>
-      <c r="E368" s="2"/>
+        <v>459</v>
+      </c>
     </row>
     <row r="369" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A369" s="2" t="s">
-        <v>282</v>
-      </c>
-      <c r="B369" t="s">
-        <v>638</v>
+        <v>6</v>
+      </c>
+      <c r="B369" s="2" t="s">
+        <v>479</v>
       </c>
       <c r="C369" s="2" t="s">
         <v>540</v>
       </c>
       <c r="D369" s="2" t="s">
-        <v>638</v>
-      </c>
-      <c r="E369" s="2"/>
+        <v>479</v>
+      </c>
     </row>
     <row r="370" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A370" s="2" t="s">
-        <v>282</v>
-      </c>
-      <c r="B370" s="4" t="s">
-        <v>527</v>
+        <v>9</v>
+      </c>
+      <c r="B370" s="2" t="s">
+        <v>177</v>
       </c>
       <c r="C370" s="2" t="s">
         <v>540</v>
       </c>
-      <c r="D370" t="s">
-        <v>527</v>
+      <c r="D370" s="2" t="s">
+        <v>567</v>
       </c>
       <c r="E370" s="2"/>
     </row>
@@ -8200,13 +8240,13 @@
         <v>282</v>
       </c>
       <c r="B371" s="2" t="s">
-        <v>604</v>
+        <v>209</v>
       </c>
       <c r="C371" s="2" t="s">
         <v>540</v>
       </c>
       <c r="D371" s="2" t="s">
-        <v>604</v>
+        <v>567</v>
       </c>
       <c r="E371" s="2"/>
     </row>
@@ -8215,13 +8255,13 @@
         <v>282</v>
       </c>
       <c r="B372" t="s">
-        <v>545</v>
+        <v>533</v>
       </c>
       <c r="C372" t="s">
-        <v>583</v>
+        <v>540</v>
       </c>
       <c r="D372" t="s">
-        <v>545</v>
+        <v>588</v>
       </c>
       <c r="E372" s="2"/>
     </row>
@@ -8229,97 +8269,97 @@
       <c r="A373" s="2" t="s">
         <v>282</v>
       </c>
-      <c r="B373" t="s">
-        <v>552</v>
-      </c>
-      <c r="C373" t="s">
-        <v>583</v>
-      </c>
-      <c r="D373" t="s">
-        <v>552</v>
+      <c r="B373" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="C373" s="2" t="s">
+        <v>540</v>
+      </c>
+      <c r="D373" s="2" t="s">
+        <v>217</v>
       </c>
       <c r="E373" s="2"/>
     </row>
     <row r="374" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A374" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B374" s="2" t="s">
-        <v>497</v>
+        <v>282</v>
+      </c>
+      <c r="B374" t="s">
+        <v>638</v>
       </c>
       <c r="C374" s="2" t="s">
-        <v>583</v>
+        <v>540</v>
       </c>
       <c r="D374" s="2" t="s">
-        <v>506</v>
-      </c>
+        <v>638</v>
+      </c>
+      <c r="E374" s="2"/>
     </row>
     <row r="375" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A375" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B375" s="2" t="s">
-        <v>157</v>
+        <v>282</v>
+      </c>
+      <c r="B375" s="4" t="s">
+        <v>527</v>
       </c>
       <c r="C375" s="2" t="s">
-        <v>583</v>
-      </c>
-      <c r="D375" s="2" t="s">
-        <v>158</v>
+        <v>540</v>
+      </c>
+      <c r="D375" t="s">
+        <v>527</v>
       </c>
       <c r="E375" s="2"/>
     </row>
     <row r="376" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A376" s="2" t="s">
-        <v>9</v>
+        <v>282</v>
       </c>
       <c r="B376" s="2" t="s">
-        <v>159</v>
+        <v>604</v>
       </c>
       <c r="C376" s="2" t="s">
-        <v>583</v>
+        <v>540</v>
       </c>
       <c r="D376" s="2" t="s">
-        <v>158</v>
+        <v>604</v>
       </c>
       <c r="E376" s="2"/>
     </row>
     <row r="377" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A377" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B377" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="C377" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="B377" t="s">
+        <v>545</v>
+      </c>
+      <c r="C377" t="s">
         <v>583</v>
       </c>
-      <c r="D377" s="2" t="s">
-        <v>158</v>
+      <c r="D377" t="s">
+        <v>545</v>
       </c>
       <c r="E377" s="2"/>
     </row>
     <row r="378" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A378" s="2" t="s">
-        <v>282</v>
+        <v>9</v>
       </c>
       <c r="B378" s="2" t="s">
-        <v>158</v>
+        <v>497</v>
       </c>
       <c r="C378" s="2" t="s">
         <v>583</v>
       </c>
       <c r="D378" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="E378" s="2"/>
+        <v>506</v>
+      </c>
     </row>
     <row r="379" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A379" s="2" t="s">
-        <v>26</v>
+        <v>9</v>
       </c>
       <c r="B379" s="2" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C379" s="2" t="s">
         <v>583</v>
@@ -8334,57 +8374,58 @@
         <v>9</v>
       </c>
       <c r="B380" s="2" t="s">
-        <v>448</v>
+        <v>159</v>
       </c>
       <c r="C380" s="2" t="s">
         <v>583</v>
       </c>
       <c r="D380" s="2" t="s">
-        <v>171</v>
-      </c>
+        <v>158</v>
+      </c>
+      <c r="E380" s="2"/>
     </row>
     <row r="381" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A381" s="2" t="s">
-        <v>26</v>
+        <v>6</v>
       </c>
       <c r="B381" s="2" t="s">
-        <v>170</v>
+        <v>160</v>
       </c>
       <c r="C381" s="2" t="s">
         <v>583</v>
       </c>
       <c r="D381" s="2" t="s">
-        <v>171</v>
+        <v>158</v>
       </c>
       <c r="E381" s="2"/>
     </row>
     <row r="382" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A382" s="2" t="s">
-        <v>9</v>
+        <v>282</v>
       </c>
       <c r="B382" s="2" t="s">
-        <v>447</v>
+        <v>158</v>
       </c>
       <c r="C382" s="2" t="s">
         <v>583</v>
       </c>
       <c r="D382" s="2" t="s">
-        <v>292</v>
+        <v>158</v>
       </c>
       <c r="E382" s="2"/>
     </row>
     <row r="383" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A383" s="2" t="s">
-        <v>282</v>
-      </c>
-      <c r="B383" t="s">
-        <v>532</v>
+        <v>26</v>
+      </c>
+      <c r="B383" s="2" t="s">
+        <v>159</v>
       </c>
       <c r="C383" s="2" t="s">
         <v>583</v>
       </c>
-      <c r="D383" t="s">
-        <v>292</v>
+      <c r="D383" s="2" t="s">
+        <v>158</v>
       </c>
       <c r="E383" s="2"/>
     </row>
@@ -8393,28 +8434,27 @@
         <v>9</v>
       </c>
       <c r="B384" s="2" t="s">
-        <v>291</v>
+        <v>448</v>
       </c>
       <c r="C384" s="2" t="s">
         <v>583</v>
       </c>
       <c r="D384" s="2" t="s">
-        <v>292</v>
-      </c>
-      <c r="E384" s="2"/>
+        <v>171</v>
+      </c>
     </row>
     <row r="385" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A385" s="2" t="s">
-        <v>6</v>
+        <v>26</v>
       </c>
       <c r="B385" s="2" t="s">
-        <v>78</v>
+        <v>170</v>
       </c>
       <c r="C385" s="2" t="s">
         <v>583</v>
       </c>
       <c r="D385" s="2" t="s">
-        <v>78</v>
+        <v>171</v>
       </c>
       <c r="E385" s="2"/>
     </row>
@@ -8423,83 +8463,89 @@
         <v>9</v>
       </c>
       <c r="B386" s="2" t="s">
-        <v>184</v>
+        <v>447</v>
       </c>
       <c r="C386" s="2" t="s">
         <v>583</v>
       </c>
       <c r="D386" s="2" t="s">
-        <v>78</v>
+        <v>292</v>
       </c>
       <c r="E386" s="2"/>
     </row>
     <row r="387" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A387" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="B387" s="2" t="s">
-        <v>472</v>
+        <v>282</v>
+      </c>
+      <c r="B387" t="s">
+        <v>532</v>
       </c>
       <c r="C387" s="2" t="s">
         <v>583</v>
       </c>
-      <c r="D387" s="2" t="s">
-        <v>78</v>
+      <c r="D387" t="s">
+        <v>292</v>
       </c>
       <c r="E387" s="2"/>
     </row>
     <row r="388" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A388" s="2" t="s">
-        <v>282</v>
+        <v>9</v>
       </c>
       <c r="B388" s="2" t="s">
-        <v>234</v>
+        <v>291</v>
       </c>
       <c r="C388" s="2" t="s">
-        <v>234</v>
-      </c>
-      <c r="D388" s="2"/>
+        <v>583</v>
+      </c>
+      <c r="D388" s="2" t="s">
+        <v>292</v>
+      </c>
       <c r="E388" s="2"/>
     </row>
     <row r="389" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A389" s="2" t="s">
-        <v>282</v>
-      </c>
-      <c r="B389" s="4" t="s">
-        <v>528</v>
+        <v>6</v>
+      </c>
+      <c r="B389" s="2" t="s">
+        <v>78</v>
       </c>
       <c r="C389" s="2" t="s">
-        <v>201</v>
-      </c>
-      <c r="D389" t="s">
-        <v>528</v>
+        <v>583</v>
+      </c>
+      <c r="D389" s="2" t="s">
+        <v>78</v>
       </c>
       <c r="E389" s="2"/>
     </row>
     <row r="390" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A390" s="2" t="s">
-        <v>282</v>
+        <v>9</v>
       </c>
       <c r="B390" s="2" t="s">
-        <v>274</v>
+        <v>184</v>
       </c>
       <c r="C390" s="2" t="s">
-        <v>201</v>
-      </c>
-      <c r="D390" s="2"/>
+        <v>583</v>
+      </c>
+      <c r="D390" s="2" t="s">
+        <v>78</v>
+      </c>
       <c r="E390" s="2"/>
     </row>
     <row r="391" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A391" s="2" t="s">
-        <v>282</v>
+        <v>26</v>
       </c>
       <c r="B391" s="2" t="s">
-        <v>201</v>
+        <v>472</v>
       </c>
       <c r="C391" s="2" t="s">
-        <v>201</v>
-      </c>
-      <c r="D391" s="2"/>
+        <v>583</v>
+      </c>
+      <c r="D391" s="2" t="s">
+        <v>78</v>
+      </c>
       <c r="E391" s="2"/>
     </row>
     <row r="392" spans="1:5" x14ac:dyDescent="0.2">
@@ -8507,28 +8553,26 @@
         <v>282</v>
       </c>
       <c r="B392" s="2" t="s">
-        <v>180</v>
+        <v>234</v>
       </c>
       <c r="C392" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="D392" s="2" t="s">
-        <v>180</v>
-      </c>
+        <v>234</v>
+      </c>
+      <c r="D392" s="2"/>
       <c r="E392" s="2"/>
     </row>
     <row r="393" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A393" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B393" s="2" t="s">
-        <v>180</v>
+        <v>282</v>
+      </c>
+      <c r="B393" s="4" t="s">
+        <v>528</v>
       </c>
       <c r="C393" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="D393" s="2" t="s">
-        <v>180</v>
+        <v>201</v>
+      </c>
+      <c r="D393" t="s">
+        <v>528</v>
       </c>
       <c r="E393" s="2"/>
     </row>
@@ -8537,14 +8581,12 @@
         <v>282</v>
       </c>
       <c r="B394" s="2" t="s">
-        <v>236</v>
+        <v>274</v>
       </c>
       <c r="C394" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="D394" s="2" t="s">
-        <v>236</v>
-      </c>
+        <v>201</v>
+      </c>
+      <c r="D394" s="2"/>
       <c r="E394" s="2"/>
     </row>
     <row r="395" spans="1:5" x14ac:dyDescent="0.2">
@@ -8552,56 +8594,56 @@
         <v>282</v>
       </c>
       <c r="B395" s="2" t="s">
-        <v>235</v>
+        <v>201</v>
       </c>
       <c r="C395" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="D395" s="2" t="s">
-        <v>235</v>
-      </c>
+        <v>201</v>
+      </c>
+      <c r="D395" s="2"/>
+      <c r="E395" s="2"/>
     </row>
     <row r="396" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A396" s="2" t="s">
         <v>282</v>
       </c>
       <c r="B396" s="2" t="s">
-        <v>590</v>
+        <v>180</v>
       </c>
       <c r="C396" s="2" t="s">
         <v>181</v>
       </c>
       <c r="D396" s="2" t="s">
-        <v>383</v>
+        <v>180</v>
       </c>
       <c r="E396" s="2"/>
     </row>
     <row r="397" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A397" s="2" t="s">
-        <v>282</v>
+        <v>6</v>
       </c>
       <c r="B397" s="2" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C397" s="2" t="s">
         <v>181</v>
       </c>
       <c r="D397" s="2" t="s">
-        <v>383</v>
-      </c>
+        <v>180</v>
+      </c>
+      <c r="E397" s="2"/>
     </row>
     <row r="398" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A398" s="2" t="s">
-        <v>9</v>
+        <v>282</v>
       </c>
       <c r="B398" s="2" t="s">
-        <v>362</v>
+        <v>236</v>
       </c>
       <c r="C398" s="2" t="s">
         <v>181</v>
       </c>
       <c r="D398" s="2" t="s">
-        <v>383</v>
+        <v>236</v>
       </c>
       <c r="E398" s="2"/>
     </row>
@@ -8610,56 +8652,56 @@
         <v>282</v>
       </c>
       <c r="B399" s="2" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="C399" s="2" t="s">
         <v>181</v>
       </c>
       <c r="D399" s="2" t="s">
-        <v>237</v>
-      </c>
-      <c r="E399" s="2"/>
+        <v>235</v>
+      </c>
     </row>
     <row r="400" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A400" s="2" t="s">
         <v>282</v>
       </c>
       <c r="B400" s="2" t="s">
-        <v>262</v>
+        <v>590</v>
       </c>
       <c r="C400" s="2" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="D400" s="2" t="s">
-        <v>262</v>
-      </c>
+        <v>383</v>
+      </c>
+      <c r="E400" s="2"/>
     </row>
     <row r="401" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A401" s="2" t="s">
         <v>282</v>
       </c>
       <c r="B401" s="2" t="s">
-        <v>256</v>
+        <v>181</v>
       </c>
       <c r="C401" s="2" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="D401" s="2" t="s">
-        <v>256</v>
+        <v>383</v>
       </c>
     </row>
     <row r="402" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A402" s="2" t="s">
-        <v>282</v>
+        <v>9</v>
       </c>
       <c r="B402" s="2" t="s">
-        <v>193</v>
+        <v>362</v>
       </c>
       <c r="C402" s="2" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="D402" s="2" t="s">
-        <v>193</v>
+        <v>383</v>
       </c>
       <c r="E402" s="2"/>
     </row>
@@ -8667,14 +8709,14 @@
       <c r="A403" s="2" t="s">
         <v>282</v>
       </c>
-      <c r="B403" s="5" t="s">
-        <v>605</v>
+      <c r="B403" s="2" t="s">
+        <v>237</v>
       </c>
       <c r="C403" s="2" t="s">
-        <v>183</v>
-      </c>
-      <c r="D403" t="s">
-        <v>605</v>
+        <v>181</v>
+      </c>
+      <c r="D403" s="2" t="s">
+        <v>237</v>
       </c>
       <c r="E403" s="2"/>
     </row>
@@ -8683,43 +8725,41 @@
         <v>282</v>
       </c>
       <c r="B404" s="2" t="s">
-        <v>303</v>
+        <v>262</v>
       </c>
       <c r="C404" s="2" t="s">
         <v>183</v>
       </c>
       <c r="D404" s="2" t="s">
-        <v>303</v>
-      </c>
-      <c r="E404" s="2"/>
+        <v>262</v>
+      </c>
     </row>
     <row r="405" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A405" s="2" t="s">
         <v>282</v>
       </c>
       <c r="B405" s="2" t="s">
-        <v>246</v>
+        <v>256</v>
       </c>
       <c r="C405" s="2" t="s">
         <v>183</v>
       </c>
       <c r="D405" s="2" t="s">
-        <v>303</v>
-      </c>
-      <c r="E405" s="2"/>
+        <v>256</v>
+      </c>
     </row>
     <row r="406" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A406" s="2" t="s">
         <v>282</v>
       </c>
-      <c r="B406" t="s">
-        <v>541</v>
-      </c>
-      <c r="C406" t="s">
+      <c r="B406" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="C406" s="2" t="s">
         <v>183</v>
       </c>
-      <c r="D406" t="s">
-        <v>541</v>
+      <c r="D406" s="2" t="s">
+        <v>193</v>
       </c>
       <c r="E406" s="2"/>
     </row>
@@ -8727,14 +8767,14 @@
       <c r="A407" s="2" t="s">
         <v>282</v>
       </c>
-      <c r="B407" s="2" t="s">
-        <v>257</v>
+      <c r="B407" s="5" t="s">
+        <v>605</v>
       </c>
       <c r="C407" s="2" t="s">
         <v>183</v>
       </c>
-      <c r="D407" s="2" t="s">
-        <v>257</v>
+      <c r="D407" t="s">
+        <v>605</v>
       </c>
       <c r="E407" s="2"/>
     </row>
@@ -8742,14 +8782,14 @@
       <c r="A408" s="2" t="s">
         <v>282</v>
       </c>
-      <c r="B408" t="s">
-        <v>531</v>
-      </c>
-      <c r="C408" t="s">
+      <c r="B408" s="2" t="s">
+        <v>303</v>
+      </c>
+      <c r="C408" s="2" t="s">
         <v>183</v>
       </c>
-      <c r="D408" t="s">
-        <v>531</v>
+      <c r="D408" s="2" t="s">
+        <v>303</v>
       </c>
       <c r="E408" s="2"/>
     </row>
@@ -8758,13 +8798,13 @@
         <v>282</v>
       </c>
       <c r="B409" s="2" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="C409" s="2" t="s">
         <v>183</v>
       </c>
       <c r="D409" s="2" t="s">
-        <v>248</v>
+        <v>303</v>
       </c>
       <c r="E409" s="2"/>
     </row>
@@ -8772,14 +8812,14 @@
       <c r="A410" s="2" t="s">
         <v>282</v>
       </c>
-      <c r="B410" s="2" t="s">
-        <v>215</v>
-      </c>
-      <c r="C410" s="2" t="s">
+      <c r="B410" t="s">
+        <v>541</v>
+      </c>
+      <c r="C410" t="s">
         <v>183</v>
       </c>
-      <c r="D410" s="2" t="s">
-        <v>215</v>
+      <c r="D410" t="s">
+        <v>541</v>
       </c>
       <c r="E410" s="2"/>
     </row>
@@ -8787,14 +8827,14 @@
       <c r="A411" s="2" t="s">
         <v>282</v>
       </c>
-      <c r="B411" t="s">
-        <v>556</v>
-      </c>
-      <c r="C411" t="s">
+      <c r="B411" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="C411" s="2" t="s">
         <v>183</v>
       </c>
-      <c r="D411" t="s">
-        <v>556</v>
+      <c r="D411" s="2" t="s">
+        <v>257</v>
       </c>
       <c r="E411" s="2"/>
     </row>
@@ -8803,88 +8843,88 @@
         <v>282</v>
       </c>
       <c r="B412" t="s">
-        <v>530</v>
-      </c>
-      <c r="C412" s="2" t="s">
+        <v>531</v>
+      </c>
+      <c r="C412" t="s">
         <v>183</v>
       </c>
       <c r="D412" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="E412" s="2"/>
     </row>
     <row r="413" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A413" s="2" t="s">
-        <v>9</v>
+        <v>282</v>
       </c>
       <c r="B413" s="2" t="s">
-        <v>473</v>
+        <v>248</v>
       </c>
       <c r="C413" s="2" t="s">
         <v>183</v>
       </c>
       <c r="D413" s="2" t="s">
-        <v>507</v>
+        <v>248</v>
       </c>
       <c r="E413" s="2"/>
     </row>
     <row r="414" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A414" s="2" t="s">
-        <v>9</v>
+        <v>282</v>
       </c>
       <c r="B414" s="2" t="s">
-        <v>182</v>
+        <v>215</v>
       </c>
       <c r="C414" s="2" t="s">
         <v>183</v>
       </c>
       <c r="D414" s="2" t="s">
-        <v>383</v>
+        <v>215</v>
       </c>
       <c r="E414" s="2"/>
     </row>
     <row r="415" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A415" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="B415" s="2" t="s">
-        <v>471</v>
-      </c>
-      <c r="C415" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="B415" t="s">
+        <v>556</v>
+      </c>
+      <c r="C415" t="s">
         <v>183</v>
       </c>
-      <c r="D415" s="2" t="s">
-        <v>383</v>
-      </c>
-      <c r="E415" s="5"/>
+      <c r="D415" t="s">
+        <v>556</v>
+      </c>
+      <c r="E415" s="2"/>
     </row>
     <row r="416" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A416" s="2" t="s">
         <v>282</v>
       </c>
-      <c r="B416" s="2" t="s">
-        <v>254</v>
+      <c r="B416" t="s">
+        <v>530</v>
       </c>
       <c r="C416" s="2" t="s">
         <v>183</v>
       </c>
-      <c r="D416" s="2" t="s">
-        <v>254</v>
-      </c>
-      <c r="E416" s="5"/>
+      <c r="D416" t="s">
+        <v>530</v>
+      </c>
+      <c r="E416" s="2"/>
     </row>
     <row r="417" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A417" s="2" t="s">
-        <v>282</v>
-      </c>
-      <c r="B417" t="s">
-        <v>616</v>
+        <v>9</v>
+      </c>
+      <c r="B417" s="2" t="s">
+        <v>473</v>
       </c>
       <c r="C417" s="2" t="s">
         <v>183</v>
       </c>
-      <c r="D417" s="5" t="s">
-        <v>616</v>
+      <c r="D417" s="2" t="s">
+        <v>507</v>
       </c>
       <c r="E417" s="2"/>
     </row>
@@ -8893,122 +8933,129 @@
         <v>9</v>
       </c>
       <c r="B418" s="2" t="s">
-        <v>287</v>
+        <v>182</v>
       </c>
       <c r="C418" s="2" t="s">
         <v>183</v>
       </c>
       <c r="D418" s="2" t="s">
-        <v>288</v>
+        <v>383</v>
       </c>
       <c r="E418" s="2"/>
     </row>
     <row r="419" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A419" s="2" t="s">
-        <v>282</v>
+        <v>26</v>
       </c>
       <c r="B419" s="2" t="s">
-        <v>243</v>
+        <v>471</v>
       </c>
       <c r="C419" s="2" t="s">
         <v>183</v>
       </c>
       <c r="D419" s="2" t="s">
-        <v>288</v>
-      </c>
-      <c r="E419" s="2"/>
+        <v>383</v>
+      </c>
+      <c r="E419" s="5"/>
     </row>
     <row r="420" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A420" s="2" t="s">
         <v>282</v>
       </c>
       <c r="B420" s="2" t="s">
-        <v>238</v>
+        <v>254</v>
       </c>
       <c r="C420" s="2" t="s">
         <v>183</v>
       </c>
       <c r="D420" s="2" t="s">
-        <v>238</v>
-      </c>
-      <c r="E420" s="2"/>
+        <v>254</v>
+      </c>
+      <c r="E420" s="5"/>
     </row>
     <row r="421" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A421" s="2" t="s">
         <v>282</v>
       </c>
-      <c r="B421" s="2" t="s">
-        <v>253</v>
+      <c r="B421" t="s">
+        <v>616</v>
       </c>
       <c r="C421" s="2" t="s">
         <v>183</v>
       </c>
-      <c r="D421" s="2" t="s">
-        <v>253</v>
-      </c>
+      <c r="D421" s="5" t="s">
+        <v>616</v>
+      </c>
+      <c r="E421" s="2"/>
     </row>
     <row r="422" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A422" s="2" t="s">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="B422" s="2" t="s">
-        <v>185</v>
+        <v>287</v>
       </c>
       <c r="C422" s="2" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="D422" s="2" t="s">
-        <v>383</v>
-      </c>
+        <v>288</v>
+      </c>
+      <c r="E422" s="2"/>
     </row>
     <row r="423" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A423" s="2" t="s">
-        <v>0</v>
+        <v>282</v>
       </c>
       <c r="B423" s="2" t="s">
-        <v>134</v>
+        <v>243</v>
       </c>
       <c r="C423" s="2" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="D423" s="2" t="s">
-        <v>399</v>
-      </c>
+        <v>288</v>
+      </c>
+      <c r="E423" s="2"/>
     </row>
     <row r="424" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A424" s="2" t="s">
-        <v>0</v>
+        <v>282</v>
       </c>
       <c r="B424" s="2" t="s">
-        <v>127</v>
+        <v>238</v>
       </c>
       <c r="C424" s="2" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="D424" s="2" t="s">
-        <v>239</v>
-      </c>
+        <v>238</v>
+      </c>
+      <c r="E424" s="2"/>
     </row>
     <row r="425" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A425" s="2" t="s">
         <v>282</v>
       </c>
-      <c r="B425" t="s">
-        <v>602</v>
+      <c r="B425" s="2" t="s">
+        <v>253</v>
       </c>
       <c r="C425" s="2" t="s">
-        <v>602</v>
+        <v>183</v>
+      </c>
+      <c r="D425" s="2" t="s">
+        <v>253</v>
       </c>
     </row>
     <row r="426" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A426" s="2" t="s">
-        <v>282</v>
+        <v>0</v>
       </c>
       <c r="B426" s="2" t="s">
-        <v>252</v>
+        <v>185</v>
       </c>
       <c r="C426" s="2" t="s">
-        <v>197</v>
+        <v>186</v>
       </c>
       <c r="D426" s="2" t="s">
         <v>383</v>
@@ -9016,44 +9063,41 @@
     </row>
     <row r="427" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A427" s="2" t="s">
-        <v>282</v>
-      </c>
-      <c r="B427" t="s">
-        <v>599</v>
+        <v>0</v>
+      </c>
+      <c r="B427" s="2" t="s">
+        <v>134</v>
       </c>
       <c r="C427" s="2" t="s">
-        <v>380</v>
-      </c>
-      <c r="D427" s="5" t="s">
-        <v>599</v>
+        <v>186</v>
+      </c>
+      <c r="D427" s="2" t="s">
+        <v>399</v>
       </c>
     </row>
     <row r="428" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A428" s="2" t="s">
-        <v>282</v>
+        <v>0</v>
       </c>
       <c r="B428" s="2" t="s">
-        <v>255</v>
+        <v>127</v>
       </c>
       <c r="C428" s="2" t="s">
-        <v>380</v>
+        <v>186</v>
       </c>
       <c r="D428" s="2" t="s">
-        <v>255</v>
+        <v>239</v>
       </c>
     </row>
     <row r="429" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A429" s="2" t="s">
         <v>282</v>
       </c>
-      <c r="B429" s="2" t="s">
-        <v>269</v>
+      <c r="B429" t="s">
+        <v>602</v>
       </c>
       <c r="C429" s="2" t="s">
-        <v>380</v>
-      </c>
-      <c r="D429" s="2" t="s">
-        <v>269</v>
+        <v>602</v>
       </c>
     </row>
     <row r="430" spans="1:5" x14ac:dyDescent="0.2">
@@ -9061,73 +9105,139 @@
         <v>282</v>
       </c>
       <c r="B430" s="2" t="s">
-        <v>636</v>
+        <v>252</v>
       </c>
       <c r="C430" s="2" t="s">
-        <v>380</v>
+        <v>197</v>
       </c>
       <c r="D430" s="2" t="s">
-        <v>636</v>
+        <v>383</v>
       </c>
     </row>
     <row r="431" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A431" s="2" t="s">
         <v>282</v>
       </c>
-      <c r="B431" s="2" t="s">
-        <v>241</v>
+      <c r="B431" t="s">
+        <v>599</v>
       </c>
       <c r="C431" s="2" t="s">
         <v>380</v>
       </c>
-      <c r="D431" s="2" t="s">
-        <v>241</v>
+      <c r="D431" s="5" t="s">
+        <v>599</v>
       </c>
     </row>
     <row r="432" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A432" s="2" t="s">
-        <v>26</v>
+        <v>282</v>
       </c>
       <c r="B432" s="2" t="s">
-        <v>500</v>
+        <v>255</v>
       </c>
       <c r="C432" s="2" t="s">
-        <v>501</v>
-      </c>
-      <c r="D432" s="2"/>
+        <v>380</v>
+      </c>
+      <c r="D432" s="2" t="s">
+        <v>255</v>
+      </c>
     </row>
     <row r="433" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A433" s="2" t="s">
         <v>282</v>
       </c>
       <c r="B433" s="2" t="s">
-        <v>239</v>
+        <v>269</v>
       </c>
       <c r="C433" s="2" t="s">
-        <v>199</v>
-      </c>
-      <c r="D433" s="2"/>
+        <v>380</v>
+      </c>
+      <c r="D433" s="2" t="s">
+        <v>269</v>
+      </c>
     </row>
     <row r="434" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A434" s="2" t="s">
         <v>282</v>
       </c>
       <c r="B434" s="2" t="s">
+        <v>636</v>
+      </c>
+      <c r="C434" s="2" t="s">
+        <v>380</v>
+      </c>
+      <c r="D434" s="2" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="435" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A435" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="B435" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="C435" s="2" t="s">
+        <v>380</v>
+      </c>
+      <c r="D435" s="2" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="436" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A436" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B436" s="2" t="s">
+        <v>500</v>
+      </c>
+      <c r="C436" s="2" t="s">
+        <v>501</v>
+      </c>
+      <c r="D436" s="2"/>
+    </row>
+    <row r="437" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A437" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="B437" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="C437" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="D437" s="2"/>
+    </row>
+    <row r="438" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A438" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="B438" s="2" t="s">
         <v>264</v>
       </c>
-      <c r="C434" s="2" t="s">
+      <c r="C438" s="2" t="s">
         <v>199</v>
       </c>
-      <c r="D434" s="2"/>
+      <c r="D438" s="2"/>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D434">
-    <sortCondition ref="C2:C434"/>
-    <sortCondition ref="D2:D434"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E438">
+    <sortCondition ref="C2:C438"/>
+    <sortCondition ref="D2:D438"/>
   </sortState>
   <phoneticPr fontId="19" type="noConversion"/>
-  <conditionalFormatting sqref="A119:C119 A120:D304 A305:C305 A306:D312 A313:C313 A314:D316 C317:C318 B388:D388 C389:D390 A390 A391:D394 A395:A397 C395:D397 A398:D398 A399:A400 C399:D400 A401:D422 A423 C423:D423 A427:C427 A428:D431 A432:C432 A433 C433:D433 A434:D1048576 A424:D426 A1:D118">
-    <cfRule type="expression" dxfId="3" priority="1">
+  <conditionalFormatting sqref="A1:D118 A119:C119 A120:D304 A305:C305 A306:D312 A313:C313 A314:D316 C317:C318 B388:D388 C389:D390 A390 A391:D394 A395:A397 C395:D397 A398:D398 A399:A400 C399:D400 A401:D422 A423 C423:D423 A424:D426 A427:C427 A428:D431 A432:C432 A433 C433:D433 A434:D434 A439:D1048576">
+    <cfRule type="expression" dxfId="5" priority="3">
+      <formula>"NOT(ISBLANK)"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A435:D437">
+    <cfRule type="expression" dxfId="1" priority="2">
+      <formula>"NOT(ISBLANK)"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A438:D438">
+    <cfRule type="expression" dxfId="0" priority="1">
       <formula>"NOT(ISBLANK)"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9137,10 +9247,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92187E74-4F7E-DD4F-A405-6C0E523CB693}">
-  <dimension ref="A1:B105"/>
+  <dimension ref="A1:B106"/>
   <sheetViews>
     <sheetView topLeftCell="A94" workbookViewId="0">
-      <selection activeCell="A106" sqref="A106"/>
+      <selection activeCell="B106" sqref="B106"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -9988,22 +10098,30 @@
         <v>614</v>
       </c>
     </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A106" t="s">
+        <v>212</v>
+      </c>
+      <c r="B106" t="s">
+        <v>647</v>
+      </c>
+    </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B96">
     <sortCondition ref="A2:A96"/>
   </sortState>
   <conditionalFormatting sqref="A1:A69 A71 A73:A93 A290:A1048576">
-    <cfRule type="expression" dxfId="2" priority="5">
+    <cfRule type="expression" dxfId="4" priority="5">
       <formula>"NOT(ISBLANK)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A94:B96 A99">
-    <cfRule type="expression" dxfId="1" priority="1">
+    <cfRule type="expression" dxfId="3" priority="1">
       <formula>"NOT(ISBLANK)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B53:B54">
-    <cfRule type="expression" dxfId="0" priority="3">
+    <cfRule type="expression" dxfId="2" priority="3">
       <formula>"NOT(ISBLANK)"</formula>
     </cfRule>
   </conditionalFormatting>

--- a/data/source/pedpancan_mapping.xlsx
+++ b/data/source/pedpancan_mapping.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10916"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11027"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ochapman/SBP/projects/pedpancan_ecdna/data/source/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DB865F2-2521-3A4E-B970-70601DE9E937}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2758E37F-48D0-E044-A9EC-717EC43B548B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="660" windowWidth="25600" windowHeight="14660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1846" uniqueCount="648">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1853" uniqueCount="648">
   <si>
     <t>molecular_subtype</t>
   </si>
@@ -2550,17 +2550,7 @@
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="6">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="5">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -2923,8 +2913,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:E438"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A69" workbookViewId="0">
-      <selection activeCell="B85" sqref="B85"/>
+    <sheetView tabSelected="1" topLeftCell="A412" workbookViewId="0">
+      <selection activeCell="D439" sqref="D439"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3130,22 +3120,22 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
-        <v>9</v>
+        <v>282</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>37</v>
+        <v>212</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>622</v>
+        <v>212</v>
       </c>
       <c r="E15" s="2"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
-        <v>26</v>
+        <v>9</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>37</v>
@@ -3160,31 +3150,31 @@
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
-        <v>9</v>
+        <v>26</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>485</v>
+        <v>37</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>627</v>
+        <v>622</v>
       </c>
       <c r="E17" s="2"/>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
-        <v>282</v>
-      </c>
-      <c r="B18" t="s">
-        <v>637</v>
+        <v>9</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>485</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>637</v>
+        <v>627</v>
       </c>
       <c r="E18" s="2"/>
     </row>
@@ -3192,23 +3182,23 @@
       <c r="A19" s="2" t="s">
         <v>282</v>
       </c>
-      <c r="B19" s="2" t="s">
-        <v>263</v>
+      <c r="B19" t="s">
+        <v>637</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>624</v>
+        <v>637</v>
       </c>
       <c r="E19" s="2"/>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
-        <v>9</v>
+        <v>282</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>440</v>
+        <v>263</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>8</v>
@@ -3220,16 +3210,16 @@
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
-        <v>282</v>
+        <v>9</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>240</v>
+        <v>440</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>240</v>
+        <v>624</v>
       </c>
       <c r="E21" s="2"/>
     </row>
@@ -3238,28 +3228,28 @@
         <v>282</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>579</v>
+        <v>240</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>579</v>
+        <v>240</v>
       </c>
       <c r="E22" s="2"/>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
-        <v>9</v>
+        <v>282</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>13</v>
+        <v>579</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>620</v>
+        <v>579</v>
       </c>
       <c r="E23" s="2"/>
     </row>
@@ -3268,7 +3258,7 @@
         <v>9</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>8</v>
@@ -3283,7 +3273,7 @@
         <v>9</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>455</v>
+        <v>14</v>
       </c>
       <c r="C25" s="2" t="s">
         <v>8</v>
@@ -3298,7 +3288,7 @@
         <v>9</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>476</v>
+        <v>455</v>
       </c>
       <c r="C26" s="2" t="s">
         <v>8</v>
@@ -3313,37 +3303,37 @@
         <v>9</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>290</v>
+        <v>476</v>
       </c>
       <c r="C27" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>632</v>
+        <v>620</v>
       </c>
       <c r="E27" s="2"/>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
-        <v>282</v>
+        <v>9</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>538</v>
+        <v>290</v>
       </c>
       <c r="C28" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>538</v>
+        <v>632</v>
       </c>
       <c r="E28" s="2"/>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
-        <v>9</v>
+        <v>282</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>493</v>
+        <v>538</v>
       </c>
       <c r="C29" s="2" t="s">
         <v>8</v>
@@ -3358,13 +3348,13 @@
         <v>9</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>38</v>
+        <v>493</v>
       </c>
       <c r="C30" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>631</v>
+        <v>538</v>
       </c>
       <c r="E30" s="2"/>
     </row>
@@ -3373,7 +3363,7 @@
         <v>9</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>441</v>
+        <v>38</v>
       </c>
       <c r="C31" s="2" t="s">
         <v>8</v>
@@ -3388,13 +3378,13 @@
         <v>9</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>460</v>
+        <v>441</v>
       </c>
       <c r="C32" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>625</v>
+        <v>631</v>
       </c>
       <c r="E32" s="2"/>
     </row>
@@ -3403,13 +3393,13 @@
         <v>9</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>494</v>
+        <v>460</v>
       </c>
       <c r="C33" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>629</v>
+        <v>625</v>
       </c>
       <c r="E33" s="2"/>
     </row>
@@ -3418,28 +3408,28 @@
         <v>9</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>15</v>
+        <v>494</v>
       </c>
       <c r="C34" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>621</v>
+        <v>629</v>
       </c>
       <c r="E34" s="2"/>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A35" s="2" t="s">
-        <v>282</v>
-      </c>
-      <c r="B35" t="s">
-        <v>552</v>
-      </c>
-      <c r="C35" t="s">
+        <v>9</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C35" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D35" t="s">
-        <v>552</v>
+      <c r="D35" s="2" t="s">
+        <v>621</v>
       </c>
       <c r="E35" s="2"/>
     </row>
@@ -3447,23 +3437,23 @@
       <c r="A36" s="2" t="s">
         <v>282</v>
       </c>
-      <c r="B36" s="2" t="s">
-        <v>523</v>
-      </c>
-      <c r="C36" s="2" t="s">
+      <c r="B36" t="s">
+        <v>552</v>
+      </c>
+      <c r="C36" t="s">
         <v>8</v>
       </c>
-      <c r="D36" s="2" t="s">
-        <v>523</v>
+      <c r="D36" t="s">
+        <v>552</v>
       </c>
       <c r="E36" s="2"/>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A37" s="2" t="s">
-        <v>9</v>
+        <v>282</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>482</v>
+        <v>523</v>
       </c>
       <c r="C37" s="2" t="s">
         <v>8</v>
@@ -3475,25 +3465,25 @@
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A38" s="2" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>110</v>
+        <v>482</v>
       </c>
       <c r="C38" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>110</v>
+        <v>523</v>
       </c>
       <c r="E38" s="2"/>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A39" s="2" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C39" s="2" t="s">
         <v>8</v>
@@ -3508,13 +3498,13 @@
         <v>9</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>439</v>
+        <v>111</v>
       </c>
       <c r="C40" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>623</v>
+        <v>110</v>
       </c>
       <c r="E40" s="2"/>
     </row>
@@ -3523,67 +3513,67 @@
         <v>9</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>468</v>
+        <v>439</v>
       </c>
       <c r="C41" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>630</v>
+        <v>623</v>
       </c>
       <c r="E41" s="2"/>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A42" s="2" t="s">
-        <v>282</v>
-      </c>
-      <c r="B42" t="s">
-        <v>613</v>
+        <v>9</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>468</v>
       </c>
       <c r="C42" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>613</v>
+        <v>630</v>
       </c>
       <c r="E42" s="2"/>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A43" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B43" s="2" t="s">
-        <v>19</v>
+        <v>282</v>
+      </c>
+      <c r="B43" t="s">
+        <v>613</v>
       </c>
       <c r="C43" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>626</v>
+        <v>613</v>
       </c>
       <c r="E43" s="2"/>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A44" s="2" t="s">
-        <v>282</v>
+        <v>9</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>529</v>
+        <v>19</v>
       </c>
       <c r="C44" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>529</v>
+        <v>626</v>
       </c>
       <c r="E44" s="2"/>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A45" s="2" t="s">
-        <v>9</v>
+        <v>282</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>481</v>
+        <v>529</v>
       </c>
       <c r="C45" s="2" t="s">
         <v>8</v>
@@ -3595,46 +3585,46 @@
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A46" s="2" t="s">
-        <v>282</v>
-      </c>
-      <c r="B46" t="s">
-        <v>615</v>
+        <v>9</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>481</v>
       </c>
       <c r="C46" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>615</v>
+        <v>529</v>
       </c>
       <c r="E46" s="2"/>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A47" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B47" s="2" t="s">
-        <v>489</v>
+        <v>282</v>
+      </c>
+      <c r="B47" t="s">
+        <v>615</v>
       </c>
       <c r="C47" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>628</v>
+        <v>615</v>
       </c>
       <c r="E47" s="2"/>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A48" s="2" t="s">
-        <v>282</v>
+        <v>9</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>212</v>
+        <v>489</v>
       </c>
       <c r="C48" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>212</v>
+        <v>628</v>
       </c>
       <c r="E48" s="2"/>
     </row>
@@ -4033,7 +4023,9 @@
       <c r="C76" s="2" t="s">
         <v>315</v>
       </c>
-      <c r="D76" s="2"/>
+      <c r="D76" s="2" t="s">
+        <v>462</v>
+      </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A77" s="2" t="s">
@@ -4045,7 +4037,9 @@
       <c r="C77" s="2" t="s">
         <v>315</v>
       </c>
-      <c r="D77" s="2"/>
+      <c r="D77" s="2" t="s">
+        <v>462</v>
+      </c>
       <c r="E77" s="2"/>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.2">
@@ -7856,56 +7850,56 @@
     </row>
     <row r="342" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A342" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B342" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="C342" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="D342" s="2"/>
+        <v>282</v>
+      </c>
+      <c r="B342" t="s">
+        <v>550</v>
+      </c>
+      <c r="C342" t="s">
+        <v>313</v>
+      </c>
+      <c r="D342" t="s">
+        <v>550</v>
+      </c>
       <c r="E342" s="2"/>
     </row>
     <row r="343" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A343" s="2" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B343" s="2" t="s">
-        <v>172</v>
+        <v>17</v>
       </c>
       <c r="C343" s="2" t="s">
-        <v>171</v>
+        <v>313</v>
       </c>
       <c r="D343" s="2"/>
       <c r="E343" s="2"/>
     </row>
     <row r="344" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A344" s="2" t="s">
-        <v>282</v>
+        <v>9</v>
       </c>
       <c r="B344" s="2" t="s">
-        <v>261</v>
+        <v>18</v>
       </c>
       <c r="C344" s="2" t="s">
-        <v>171</v>
+        <v>313</v>
       </c>
       <c r="D344" s="2"/>
       <c r="E344" s="2"/>
     </row>
     <row r="345" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A345" s="2" t="s">
-        <v>282</v>
-      </c>
-      <c r="B345" t="s">
-        <v>550</v>
-      </c>
-      <c r="C345" t="s">
+        <v>9</v>
+      </c>
+      <c r="B345" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C345" s="2" t="s">
         <v>313</v>
       </c>
-      <c r="D345" t="s">
-        <v>550</v>
-      </c>
+      <c r="D345" s="2"/>
       <c r="E345" s="2"/>
     </row>
     <row r="346" spans="1:5" x14ac:dyDescent="0.2">
@@ -7913,7 +7907,7 @@
         <v>9</v>
       </c>
       <c r="B346" s="2" t="s">
-        <v>17</v>
+        <v>284</v>
       </c>
       <c r="C346" s="2" t="s">
         <v>313</v>
@@ -7926,7 +7920,7 @@
         <v>9</v>
       </c>
       <c r="B347" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C347" s="2" t="s">
         <v>313</v>
@@ -7939,7 +7933,7 @@
         <v>9</v>
       </c>
       <c r="B348" s="2" t="s">
-        <v>20</v>
+        <v>283</v>
       </c>
       <c r="C348" s="2" t="s">
         <v>313</v>
@@ -7952,46 +7946,43 @@
         <v>9</v>
       </c>
       <c r="B349" s="2" t="s">
-        <v>284</v>
+        <v>47</v>
       </c>
       <c r="C349" s="2" t="s">
         <v>313</v>
       </c>
       <c r="D349" s="2"/>
-      <c r="E349" s="2"/>
     </row>
     <row r="350" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A350" s="2" t="s">
         <v>9</v>
       </c>
       <c r="B350" s="2" t="s">
-        <v>16</v>
+        <v>48</v>
       </c>
       <c r="C350" s="2" t="s">
         <v>313</v>
       </c>
       <c r="D350" s="2"/>
-      <c r="E350" s="2"/>
     </row>
     <row r="351" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A351" s="2" t="s">
         <v>9</v>
       </c>
       <c r="B351" s="2" t="s">
-        <v>283</v>
+        <v>381</v>
       </c>
       <c r="C351" s="2" t="s">
         <v>313</v>
       </c>
       <c r="D351" s="2"/>
-      <c r="E351" s="2"/>
     </row>
     <row r="352" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A352" s="2" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B352" s="2" t="s">
-        <v>47</v>
+        <v>463</v>
       </c>
       <c r="C352" s="2" t="s">
         <v>313</v>
@@ -8003,31 +7994,33 @@
         <v>9</v>
       </c>
       <c r="B353" s="2" t="s">
-        <v>48</v>
+        <v>469</v>
       </c>
       <c r="C353" s="2" t="s">
         <v>313</v>
       </c>
       <c r="D353" s="2"/>
+      <c r="E353" s="2"/>
     </row>
     <row r="354" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A354" s="2" t="s">
         <v>9</v>
       </c>
       <c r="B354" s="2" t="s">
-        <v>381</v>
+        <v>483</v>
       </c>
       <c r="C354" s="2" t="s">
         <v>313</v>
       </c>
       <c r="D354" s="2"/>
+      <c r="E354" s="2"/>
     </row>
     <row r="355" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A355" s="2" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B355" s="2" t="s">
-        <v>463</v>
+        <v>487</v>
       </c>
       <c r="C355" s="2" t="s">
         <v>313</v>
@@ -8036,75 +8029,78 @@
     </row>
     <row r="356" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A356" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B356" s="2" t="s">
-        <v>469</v>
-      </c>
-      <c r="C356" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="B356" t="s">
+        <v>535</v>
+      </c>
+      <c r="C356" t="s">
         <v>313</v>
       </c>
-      <c r="D356" s="2"/>
-      <c r="E356" s="2"/>
     </row>
     <row r="357" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A357" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B357" s="2" t="s">
-        <v>483</v>
-      </c>
-      <c r="C357" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="B357" t="s">
+        <v>551</v>
+      </c>
+      <c r="C357" t="s">
         <v>313</v>
       </c>
-      <c r="D357" s="2"/>
       <c r="E357" s="2"/>
     </row>
     <row r="358" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A358" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B358" s="2" t="s">
-        <v>487</v>
-      </c>
-      <c r="C358" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="B358" t="s">
+        <v>553</v>
+      </c>
+      <c r="C358" t="s">
         <v>313</v>
       </c>
-      <c r="D358" s="2"/>
+      <c r="E358" s="2"/>
     </row>
     <row r="359" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A359" s="2" t="s">
         <v>282</v>
       </c>
       <c r="B359" t="s">
-        <v>535</v>
+        <v>549</v>
       </c>
       <c r="C359" t="s">
-        <v>313</v>
-      </c>
+        <v>379</v>
+      </c>
+      <c r="D359" t="s">
+        <v>549</v>
+      </c>
+      <c r="E359" s="2"/>
     </row>
     <row r="360" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A360" s="2" t="s">
         <v>282</v>
       </c>
-      <c r="B360" t="s">
-        <v>551</v>
-      </c>
-      <c r="C360" t="s">
-        <v>313</v>
-      </c>
+      <c r="B360" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="C360" s="2" t="s">
+        <v>379</v>
+      </c>
+      <c r="D360" s="2"/>
       <c r="E360" s="2"/>
     </row>
     <row r="361" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A361" s="2" t="s">
         <v>282</v>
       </c>
-      <c r="B361" t="s">
-        <v>553</v>
-      </c>
-      <c r="C361" t="s">
-        <v>313</v>
-      </c>
+      <c r="B361" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="C361" s="2" t="s">
+        <v>379</v>
+      </c>
+      <c r="D361" s="2"/>
       <c r="E361" s="2"/>
     </row>
     <row r="362" spans="1:5" x14ac:dyDescent="0.2">
@@ -8112,126 +8108,130 @@
         <v>282</v>
       </c>
       <c r="B362" t="s">
-        <v>549</v>
+        <v>540</v>
       </c>
       <c r="C362" t="s">
-        <v>379</v>
+        <v>540</v>
       </c>
       <c r="D362" t="s">
-        <v>549</v>
+        <v>383</v>
       </c>
       <c r="E362" s="2"/>
     </row>
     <row r="363" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A363" s="2" t="s">
-        <v>282</v>
+        <v>6</v>
       </c>
       <c r="B363" s="2" t="s">
-        <v>191</v>
+        <v>175</v>
       </c>
       <c r="C363" s="2" t="s">
-        <v>379</v>
-      </c>
-      <c r="D363" s="2"/>
+        <v>540</v>
+      </c>
+      <c r="D363" s="2" t="s">
+        <v>175</v>
+      </c>
       <c r="E363" s="2"/>
     </row>
     <row r="364" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A364" s="2" t="s">
-        <v>282</v>
+        <v>6</v>
       </c>
       <c r="B364" s="2" t="s">
-        <v>233</v>
+        <v>178</v>
       </c>
       <c r="C364" s="2" t="s">
-        <v>379</v>
-      </c>
-      <c r="D364" s="2"/>
-      <c r="E364" s="2"/>
+        <v>540</v>
+      </c>
+      <c r="D364" s="2" t="s">
+        <v>178</v>
+      </c>
     </row>
     <row r="365" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A365" s="2" t="s">
-        <v>282</v>
-      </c>
-      <c r="B365" t="s">
+        <v>6</v>
+      </c>
+      <c r="B365" s="2" t="s">
+        <v>459</v>
+      </c>
+      <c r="C365" s="2" t="s">
         <v>540</v>
       </c>
-      <c r="C365" t="s">
-        <v>540</v>
-      </c>
-      <c r="D365" t="s">
-        <v>383</v>
-      </c>
-      <c r="E365" s="2"/>
+      <c r="D365" s="2" t="s">
+        <v>459</v>
+      </c>
     </row>
     <row r="366" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A366" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B366" s="2" t="s">
-        <v>175</v>
+        <v>479</v>
       </c>
       <c r="C366" s="2" t="s">
         <v>540</v>
       </c>
       <c r="D366" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="E366" s="2"/>
+        <v>479</v>
+      </c>
     </row>
     <row r="367" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A367" s="2" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B367" s="2" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C367" s="2" t="s">
         <v>540</v>
       </c>
       <c r="D367" s="2" t="s">
-        <v>178</v>
-      </c>
+        <v>567</v>
+      </c>
+      <c r="E367" s="2"/>
     </row>
     <row r="368" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A368" s="2" t="s">
-        <v>6</v>
+        <v>282</v>
       </c>
       <c r="B368" s="2" t="s">
-        <v>459</v>
+        <v>209</v>
       </c>
       <c r="C368" s="2" t="s">
         <v>540</v>
       </c>
       <c r="D368" s="2" t="s">
-        <v>459</v>
-      </c>
+        <v>567</v>
+      </c>
+      <c r="E368" s="2"/>
     </row>
     <row r="369" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A369" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B369" s="2" t="s">
-        <v>479</v>
-      </c>
-      <c r="C369" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="B369" t="s">
+        <v>533</v>
+      </c>
+      <c r="C369" t="s">
         <v>540</v>
       </c>
-      <c r="D369" s="2" t="s">
-        <v>479</v>
-      </c>
+      <c r="D369" t="s">
+        <v>588</v>
+      </c>
+      <c r="E369" s="2"/>
     </row>
     <row r="370" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A370" s="2" t="s">
-        <v>9</v>
+        <v>282</v>
       </c>
       <c r="B370" s="2" t="s">
-        <v>177</v>
+        <v>217</v>
       </c>
       <c r="C370" s="2" t="s">
         <v>540</v>
       </c>
       <c r="D370" s="2" t="s">
-        <v>567</v>
+        <v>217</v>
       </c>
       <c r="E370" s="2"/>
     </row>
@@ -8239,14 +8239,14 @@
       <c r="A371" s="2" t="s">
         <v>282</v>
       </c>
-      <c r="B371" s="2" t="s">
-        <v>209</v>
+      <c r="B371" t="s">
+        <v>638</v>
       </c>
       <c r="C371" s="2" t="s">
         <v>540</v>
       </c>
       <c r="D371" s="2" t="s">
-        <v>567</v>
+        <v>638</v>
       </c>
       <c r="E371" s="2"/>
     </row>
@@ -8254,14 +8254,14 @@
       <c r="A372" s="2" t="s">
         <v>282</v>
       </c>
-      <c r="B372" t="s">
-        <v>533</v>
-      </c>
-      <c r="C372" t="s">
+      <c r="B372" s="4" t="s">
+        <v>527</v>
+      </c>
+      <c r="C372" s="2" t="s">
         <v>540</v>
       </c>
       <c r="D372" t="s">
-        <v>588</v>
+        <v>527</v>
       </c>
       <c r="E372" s="2"/>
     </row>
@@ -8270,13 +8270,13 @@
         <v>282</v>
       </c>
       <c r="B373" s="2" t="s">
-        <v>217</v>
+        <v>604</v>
       </c>
       <c r="C373" s="2" t="s">
         <v>540</v>
       </c>
       <c r="D373" s="2" t="s">
-        <v>217</v>
+        <v>604</v>
       </c>
       <c r="E373" s="2"/>
     </row>
@@ -8285,81 +8285,81 @@
         <v>282</v>
       </c>
       <c r="B374" t="s">
-        <v>638</v>
-      </c>
-      <c r="C374" s="2" t="s">
-        <v>540</v>
-      </c>
-      <c r="D374" s="2" t="s">
-        <v>638</v>
+        <v>545</v>
+      </c>
+      <c r="C374" t="s">
+        <v>583</v>
+      </c>
+      <c r="D374" t="s">
+        <v>545</v>
       </c>
       <c r="E374" s="2"/>
     </row>
     <row r="375" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A375" s="2" t="s">
-        <v>282</v>
-      </c>
-      <c r="B375" s="4" t="s">
-        <v>527</v>
+        <v>9</v>
+      </c>
+      <c r="B375" s="2" t="s">
+        <v>497</v>
       </c>
       <c r="C375" s="2" t="s">
-        <v>540</v>
-      </c>
-      <c r="D375" t="s">
-        <v>527</v>
-      </c>
-      <c r="E375" s="2"/>
+        <v>583</v>
+      </c>
+      <c r="D375" s="2" t="s">
+        <v>506</v>
+      </c>
     </row>
     <row r="376" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A376" s="2" t="s">
-        <v>282</v>
+        <v>9</v>
       </c>
       <c r="B376" s="2" t="s">
-        <v>604</v>
+        <v>157</v>
       </c>
       <c r="C376" s="2" t="s">
-        <v>540</v>
+        <v>583</v>
       </c>
       <c r="D376" s="2" t="s">
-        <v>604</v>
+        <v>158</v>
       </c>
       <c r="E376" s="2"/>
     </row>
     <row r="377" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A377" s="2" t="s">
-        <v>282</v>
-      </c>
-      <c r="B377" t="s">
-        <v>545</v>
-      </c>
-      <c r="C377" t="s">
+        <v>9</v>
+      </c>
+      <c r="B377" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="C377" s="2" t="s">
         <v>583</v>
       </c>
-      <c r="D377" t="s">
-        <v>545</v>
+      <c r="D377" s="2" t="s">
+        <v>158</v>
       </c>
       <c r="E377" s="2"/>
     </row>
     <row r="378" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A378" s="2" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B378" s="2" t="s">
-        <v>497</v>
+        <v>160</v>
       </c>
       <c r="C378" s="2" t="s">
         <v>583</v>
       </c>
       <c r="D378" s="2" t="s">
-        <v>506</v>
-      </c>
+        <v>158</v>
+      </c>
+      <c r="E378" s="2"/>
     </row>
     <row r="379" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A379" s="2" t="s">
-        <v>9</v>
+        <v>282</v>
       </c>
       <c r="B379" s="2" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C379" s="2" t="s">
         <v>583</v>
@@ -8371,7 +8371,7 @@
     </row>
     <row r="380" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A380" s="2" t="s">
-        <v>9</v>
+        <v>26</v>
       </c>
       <c r="B380" s="2" t="s">
         <v>159</v>
@@ -8386,46 +8386,46 @@
     </row>
     <row r="381" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A381" s="2" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B381" s="2" t="s">
-        <v>160</v>
+        <v>170</v>
       </c>
       <c r="C381" s="2" t="s">
         <v>583</v>
       </c>
       <c r="D381" s="2" t="s">
-        <v>158</v>
+        <v>171</v>
       </c>
       <c r="E381" s="2"/>
     </row>
     <row r="382" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A382" s="2" t="s">
-        <v>282</v>
+        <v>6</v>
       </c>
       <c r="B382" s="2" t="s">
-        <v>158</v>
+        <v>172</v>
       </c>
       <c r="C382" s="2" t="s">
         <v>583</v>
       </c>
       <c r="D382" s="2" t="s">
-        <v>158</v>
+        <v>171</v>
       </c>
       <c r="E382" s="2"/>
     </row>
     <row r="383" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A383" s="2" t="s">
-        <v>26</v>
+        <v>282</v>
       </c>
       <c r="B383" s="2" t="s">
-        <v>159</v>
+        <v>261</v>
       </c>
       <c r="C383" s="2" t="s">
         <v>583</v>
       </c>
       <c r="D383" s="2" t="s">
-        <v>158</v>
+        <v>171</v>
       </c>
       <c r="E383" s="2"/>
     </row>
@@ -9206,7 +9206,9 @@
       <c r="C437" s="2" t="s">
         <v>199</v>
       </c>
-      <c r="D437" s="2"/>
+      <c r="D437" s="2" t="s">
+        <v>239</v>
+      </c>
     </row>
     <row r="438" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A438" s="2" t="s">
@@ -9218,7 +9220,9 @@
       <c r="C438" s="2" t="s">
         <v>199</v>
       </c>
-      <c r="D438" s="2"/>
+      <c r="D438" s="2" t="s">
+        <v>264</v>
+      </c>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E438">
@@ -9226,18 +9230,13 @@
     <sortCondition ref="D2:D438"/>
   </sortState>
   <phoneticPr fontId="19" type="noConversion"/>
-  <conditionalFormatting sqref="A1:D118 A119:C119 A120:D304 A305:C305 A306:D312 A313:C313 A314:D316 C317:C318 B388:D388 C389:D390 A390 A391:D394 A395:A397 C395:D397 A398:D398 A399:A400 C399:D400 A401:D422 A423 C423:D423 A424:D426 A427:C427 A428:D431 A432:C432 A433 C433:D433 A434:D434 A439:D1048576">
-    <cfRule type="expression" dxfId="5" priority="3">
+  <conditionalFormatting sqref="A119:C119 A120:D304 A305:C305 A306:D312 A313:C313 A314:D316 C317:C318 B388:D388 C389:D390 A390 A391:D394 A395:A397 C395:D397 A398:D398 A399:A400 C399:D400 A401:D422 A423 C423:D423 A424:D426 A427:C427 A428:D431 A432:C432 A433 C433:D433 A1:D118">
+    <cfRule type="expression" dxfId="4" priority="3">
       <formula>"NOT(ISBLANK)"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A435:D437">
-    <cfRule type="expression" dxfId="1" priority="2">
-      <formula>"NOT(ISBLANK)"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A438:D438">
-    <cfRule type="expression" dxfId="0" priority="1">
+  <conditionalFormatting sqref="A434:D1048576">
+    <cfRule type="expression" dxfId="3" priority="1">
       <formula>"NOT(ISBLANK)"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10111,17 +10110,17 @@
     <sortCondition ref="A2:A96"/>
   </sortState>
   <conditionalFormatting sqref="A1:A69 A71 A73:A93 A290:A1048576">
-    <cfRule type="expression" dxfId="4" priority="5">
+    <cfRule type="expression" dxfId="2" priority="5">
       <formula>"NOT(ISBLANK)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A94:B96 A99">
-    <cfRule type="expression" dxfId="3" priority="1">
+    <cfRule type="expression" dxfId="1" priority="1">
       <formula>"NOT(ISBLANK)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B53:B54">
-    <cfRule type="expression" dxfId="2" priority="3">
+    <cfRule type="expression" dxfId="0" priority="3">
       <formula>"NOT(ISBLANK)"</formula>
     </cfRule>
   </conditionalFormatting>
